--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -1702,7 +1702,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6230049</v>
+        <v>6230048</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1714,46 +1714,46 @@
         <v>44963.5625</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K14">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L14">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M14">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N14">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O14">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P14">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="Q14">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S14">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T14">
         <v>2</v>
@@ -1765,25 +1765,25 @@
         <v>1.775</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA14">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1791,7 +1791,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6230048</v>
+        <v>6230049</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1803,46 +1803,46 @@
         <v>44963.5625</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K15">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M15">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="N15">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P15">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R15">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S15">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T15">
         <v>2</v>
@@ -1854,25 +1854,25 @@
         <v>1.775</v>
       </c>
       <c r="W15">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z15">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1880,7 +1880,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6248171</v>
+        <v>6248170</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1892,46 +1892,46 @@
         <v>44967.35416666666</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K16">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="L16">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M16">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="O16">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T16">
         <v>1.75</v>
@@ -1946,16 +1946,16 @@
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.7250000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB16">
         <v>0.95</v>
@@ -1969,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6248170</v>
+        <v>6248171</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1981,46 +1981,46 @@
         <v>44967.35416666666</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K17">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N17">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q17">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S17">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="T17">
         <v>1.75</v>
@@ -2035,16 +2035,16 @@
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.8</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB17">
         <v>0.95</v>
@@ -2681,7 +2681,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6315120</v>
+        <v>6315121</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2693,76 +2693,76 @@
         <v>44981.33333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K25">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="L25">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M25">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="N25">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="O25">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="P25">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S25">
+        <v>2.075</v>
+      </c>
+      <c r="T25">
+        <v>1.75</v>
+      </c>
+      <c r="U25">
         <v>1.8</v>
       </c>
-      <c r="T25">
-        <v>2</v>
-      </c>
-      <c r="U25">
-        <v>2</v>
-      </c>
       <c r="V25">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X25">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA25">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
+        <v>-1</v>
+      </c>
+      <c r="AC25">
         <v>1</v>
-      </c>
-      <c r="AC25">
-        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2770,7 +2770,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6315121</v>
+        <v>6315120</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2782,76 +2782,76 @@
         <v>44981.33333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26">
+        <v>2.6</v>
+      </c>
+      <c r="L26">
+        <v>2.6</v>
+      </c>
+      <c r="M26">
+        <v>2.9</v>
+      </c>
+      <c r="N26">
+        <v>2.9</v>
+      </c>
+      <c r="O26">
+        <v>2.5</v>
+      </c>
+      <c r="P26">
+        <v>2.7</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>2</v>
+      </c>
+      <c r="S26">
+        <v>1.8</v>
+      </c>
+      <c r="T26">
+        <v>2</v>
+      </c>
+      <c r="U26">
+        <v>2</v>
+      </c>
+      <c r="V26">
+        <v>1.8</v>
+      </c>
+      <c r="W26">
+        <v>-1</v>
+      </c>
+      <c r="X26">
+        <v>1.5</v>
+      </c>
+      <c r="Y26">
+        <v>-1</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>-0</v>
+      </c>
+      <c r="AB26">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26" t="s">
-        <v>52</v>
-      </c>
-      <c r="K26">
-        <v>3.4</v>
-      </c>
-      <c r="L26">
-        <v>2.5</v>
-      </c>
-      <c r="M26">
-        <v>2.4</v>
-      </c>
-      <c r="N26">
-        <v>3.25</v>
-      </c>
-      <c r="O26">
-        <v>2.55</v>
-      </c>
-      <c r="P26">
-        <v>2.45</v>
-      </c>
-      <c r="Q26">
-        <v>0.25</v>
-      </c>
-      <c r="R26">
-        <v>1.725</v>
-      </c>
-      <c r="S26">
-        <v>2.075</v>
-      </c>
-      <c r="T26">
-        <v>1.75</v>
-      </c>
-      <c r="U26">
-        <v>1.8</v>
-      </c>
-      <c r="V26">
-        <v>2</v>
-      </c>
-      <c r="W26">
-        <v>2.25</v>
-      </c>
-      <c r="X26">
-        <v>-1</v>
-      </c>
-      <c r="Y26">
-        <v>-1</v>
-      </c>
-      <c r="Z26">
-        <v>0.7250000000000001</v>
-      </c>
-      <c r="AA26">
-        <v>-1</v>
-      </c>
-      <c r="AB26">
-        <v>-1</v>
-      </c>
       <c r="AC26">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -12649,7 +12649,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7453404</v>
+        <v>7453403</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12661,76 +12661,76 @@
         <v>45240.375</v>
       </c>
       <c r="F137" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G137" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H137">
         <v>0</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K137">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L137">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M137">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N137">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O137">
         <v>2.9</v>
       </c>
       <c r="P137">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q137">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S137">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T137">
         <v>2</v>
       </c>
       <c r="U137">
+        <v>1.975</v>
+      </c>
+      <c r="V137">
+        <v>1.825</v>
+      </c>
+      <c r="W137">
+        <v>-1</v>
+      </c>
+      <c r="X137">
         <v>1.9</v>
       </c>
-      <c r="V137">
-        <v>1.9</v>
-      </c>
-      <c r="W137">
-        <v>-1</v>
-      </c>
-      <c r="X137">
-        <v>-1</v>
-      </c>
       <c r="Y137">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA137">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AB137">
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12738,7 +12738,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7453403</v>
+        <v>7453404</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12750,76 +12750,76 @@
         <v>45240.375</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G138" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H138">
         <v>0</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K138">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L138">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M138">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N138">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O138">
         <v>2.9</v>
       </c>
       <c r="P138">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R138">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S138">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T138">
         <v>2</v>
       </c>
       <c r="U138">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V138">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z138">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -13005,7 +13005,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7511490</v>
+        <v>7511489</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13017,10 +13017,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G141" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13032,41 +13032,41 @@
         <v>53</v>
       </c>
       <c r="K141">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L141">
+        <v>3</v>
+      </c>
+      <c r="M141">
         <v>3.1</v>
       </c>
-      <c r="M141">
-        <v>1.909</v>
-      </c>
       <c r="N141">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O141">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P141">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q141">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
+        <v>1.95</v>
+      </c>
+      <c r="S141">
+        <v>1.85</v>
+      </c>
+      <c r="T141">
+        <v>2.25</v>
+      </c>
+      <c r="U141">
+        <v>2.05</v>
+      </c>
+      <c r="V141">
         <v>1.75</v>
       </c>
-      <c r="S141">
-        <v>2.05</v>
-      </c>
-      <c r="T141">
-        <v>1.75</v>
-      </c>
-      <c r="U141">
-        <v>1.9</v>
-      </c>
-      <c r="V141">
-        <v>1.9</v>
-      </c>
       <c r="W141">
         <v>-1</v>
       </c>
@@ -13074,19 +13074,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB141">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC141">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13094,7 +13094,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7511489</v>
+        <v>7511490</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13106,10 +13106,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F142" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -13121,40 +13121,40 @@
         <v>53</v>
       </c>
       <c r="K142">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L142">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M142">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N142">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="O142">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P142">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R142">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S142">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U142">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -13163,19 +13163,19 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB142">
+        <v>0.45</v>
+      </c>
+      <c r="AC142">
         <v>-0.5</v>
-      </c>
-      <c r="AC142">
-        <v>0.375</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -14340,7 +14340,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7565123</v>
+        <v>7565124</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14352,56 +14352,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F156" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G156" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
         <v>1</v>
-      </c>
-      <c r="I156">
-        <v>2</v>
       </c>
       <c r="J156" t="s">
         <v>53</v>
       </c>
       <c r="K156">
+        <v>1.5</v>
+      </c>
+      <c r="L156">
+        <v>3.6</v>
+      </c>
+      <c r="M156">
+        <v>6</v>
+      </c>
+      <c r="N156">
         <v>1.727</v>
       </c>
-      <c r="L156">
-        <v>3.4</v>
-      </c>
-      <c r="M156">
+      <c r="O156">
+        <v>3.5</v>
+      </c>
+      <c r="P156">
         <v>4.2</v>
       </c>
-      <c r="N156">
-        <v>1.833</v>
-      </c>
-      <c r="O156">
-        <v>3.3</v>
-      </c>
-      <c r="P156">
-        <v>3.75</v>
-      </c>
       <c r="Q156">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R156">
+        <v>2</v>
+      </c>
+      <c r="S156">
+        <v>1.8</v>
+      </c>
+      <c r="T156">
+        <v>2</v>
+      </c>
+      <c r="U156">
         <v>1.875</v>
       </c>
-      <c r="S156">
+      <c r="V156">
         <v>1.925</v>
       </c>
-      <c r="T156">
-        <v>2</v>
-      </c>
-      <c r="U156">
-        <v>1.925</v>
-      </c>
-      <c r="V156">
-        <v>1.875</v>
-      </c>
       <c r="W156">
         <v>-1</v>
       </c>
@@ -14409,19 +14409,19 @@
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
+        <v>0.8</v>
+      </c>
+      <c r="AB156">
+        <v>-1</v>
+      </c>
+      <c r="AC156">
         <v>0.925</v>
-      </c>
-      <c r="AB156">
-        <v>0.925</v>
-      </c>
-      <c r="AC156">
-        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14429,7 +14429,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7565124</v>
+        <v>7565123</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14441,56 +14441,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F157" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G157" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
         <v>53</v>
       </c>
       <c r="K157">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L157">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M157">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N157">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="O157">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P157">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q157">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S157">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T157">
         <v>2</v>
       </c>
       <c r="U157">
+        <v>1.925</v>
+      </c>
+      <c r="V157">
         <v>1.875</v>
       </c>
-      <c r="V157">
-        <v>1.925</v>
-      </c>
       <c r="W157">
         <v>-1</v>
       </c>
@@ -14498,19 +14498,19 @@
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC157">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14785,7 +14785,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7590595</v>
+        <v>7592803</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14797,49 +14797,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H161">
         <v>0</v>
       </c>
       <c r="I161">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J161" t="s">
         <v>53</v>
       </c>
       <c r="K161">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L161">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M161">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N161">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="O161">
+        <v>2.875</v>
+      </c>
+      <c r="P161">
         <v>3</v>
       </c>
-      <c r="P161">
-        <v>1.75</v>
-      </c>
       <c r="Q161">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S161">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T161">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U161">
         <v>2</v>
@@ -14854,19 +14854,19 @@
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB161">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14874,7 +14874,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7592803</v>
+        <v>7590595</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14886,49 +14886,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F162" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G162" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H162">
         <v>0</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J162" t="s">
         <v>53</v>
       </c>
       <c r="K162">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L162">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M162">
+        <v>2</v>
+      </c>
+      <c r="N162">
+        <v>4.5</v>
+      </c>
+      <c r="O162">
         <v>3</v>
       </c>
-      <c r="N162">
-        <v>2.3</v>
-      </c>
-      <c r="O162">
-        <v>2.875</v>
-      </c>
       <c r="P162">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q162">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R162">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S162">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T162">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U162">
         <v>2</v>
@@ -14943,19 +14943,19 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC162">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15942,7 +15942,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7618724</v>
+        <v>7618726</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15954,76 +15954,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F174" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G174" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H174">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174">
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K174">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="L174">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M174">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N174">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="O174">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P174">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q174">
         <v>0</v>
       </c>
       <c r="R174">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S174">
+        <v>2.05</v>
+      </c>
+      <c r="T174">
+        <v>1.75</v>
+      </c>
+      <c r="U174">
         <v>1.8</v>
       </c>
-      <c r="T174">
-        <v>2</v>
-      </c>
-      <c r="U174">
-        <v>2</v>
-      </c>
       <c r="V174">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W174">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z174">
+        <v>-1</v>
+      </c>
+      <c r="AA174">
+        <v>1.05</v>
+      </c>
+      <c r="AB174">
+        <v>-1</v>
+      </c>
+      <c r="AC174">
         <v>1</v>
-      </c>
-      <c r="AA174">
-        <v>-1</v>
-      </c>
-      <c r="AB174">
-        <v>1</v>
-      </c>
-      <c r="AC174">
-        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16031,7 +16031,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7618726</v>
+        <v>7618724</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16043,76 +16043,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F175" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G175" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I175">
         <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K175">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L175">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M175">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N175">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="O175">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P175">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q175">
         <v>0</v>
       </c>
       <c r="R175">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S175">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T175">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U175">
+        <v>2</v>
+      </c>
+      <c r="V175">
         <v>1.8</v>
       </c>
-      <c r="V175">
-        <v>2</v>
-      </c>
       <c r="W175">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA175">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC175">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -1702,7 +1702,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6230048</v>
+        <v>6230049</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1714,46 +1714,46 @@
         <v>44963.5625</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M14">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="N14">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O14">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P14">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R14">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S14">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T14">
         <v>2</v>
@@ -1765,25 +1765,25 @@
         <v>1.775</v>
       </c>
       <c r="W14">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z14">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1791,7 +1791,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6230049</v>
+        <v>6230048</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1803,46 +1803,46 @@
         <v>44963.5625</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K15">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L15">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M15">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N15">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O15">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P15">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S15">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
         <v>2</v>
@@ -1854,25 +1854,25 @@
         <v>1.775</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA15">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1880,7 +1880,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6248170</v>
+        <v>6248171</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1892,46 +1892,46 @@
         <v>44967.35416666666</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N16">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="O16">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q16">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="T16">
         <v>1.75</v>
@@ -1946,16 +1946,16 @@
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.8</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB16">
         <v>0.95</v>
@@ -1969,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6248171</v>
+        <v>6248170</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1981,46 +1981,46 @@
         <v>44967.35416666666</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K17">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="L17">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N17">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="O17">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q17">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T17">
         <v>1.75</v>
@@ -2035,16 +2035,16 @@
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.7250000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB17">
         <v>0.95</v>
@@ -12649,7 +12649,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7453403</v>
+        <v>7453404</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12661,76 +12661,76 @@
         <v>45240.375</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G137" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H137">
         <v>0</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K137">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L137">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M137">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N137">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O137">
         <v>2.9</v>
       </c>
       <c r="P137">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R137">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S137">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T137">
         <v>2</v>
       </c>
       <c r="U137">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V137">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB137">
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12738,7 +12738,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7453404</v>
+        <v>7453403</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12750,76 +12750,76 @@
         <v>45240.375</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G138" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H138">
         <v>0</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K138">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L138">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M138">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N138">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O138">
         <v>2.9</v>
       </c>
       <c r="P138">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q138">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S138">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T138">
         <v>2</v>
       </c>
       <c r="U138">
+        <v>1.975</v>
+      </c>
+      <c r="V138">
+        <v>1.825</v>
+      </c>
+      <c r="W138">
+        <v>-1</v>
+      </c>
+      <c r="X138">
         <v>1.9</v>
       </c>
-      <c r="V138">
-        <v>1.9</v>
-      </c>
-      <c r="W138">
-        <v>-1</v>
-      </c>
-      <c r="X138">
-        <v>-1</v>
-      </c>
       <c r="Y138">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA138">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -13005,7 +13005,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7511489</v>
+        <v>7511490</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13017,10 +13017,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F141" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G141" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13032,40 +13032,40 @@
         <v>53</v>
       </c>
       <c r="K141">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L141">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M141">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N141">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="O141">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P141">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S141">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T141">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U141">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V141">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13074,19 +13074,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB141">
+        <v>0.45</v>
+      </c>
+      <c r="AC141">
         <v>-0.5</v>
-      </c>
-      <c r="AC141">
-        <v>0.375</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13094,7 +13094,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7511490</v>
+        <v>7511489</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13106,10 +13106,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G142" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -13121,41 +13121,41 @@
         <v>53</v>
       </c>
       <c r="K142">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L142">
+        <v>3</v>
+      </c>
+      <c r="M142">
         <v>3.1</v>
       </c>
-      <c r="M142">
-        <v>1.909</v>
-      </c>
       <c r="N142">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O142">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P142">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q142">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
+        <v>1.95</v>
+      </c>
+      <c r="S142">
+        <v>1.85</v>
+      </c>
+      <c r="T142">
+        <v>2.25</v>
+      </c>
+      <c r="U142">
+        <v>2.05</v>
+      </c>
+      <c r="V142">
         <v>1.75</v>
       </c>
-      <c r="S142">
-        <v>2.05</v>
-      </c>
-      <c r="T142">
-        <v>1.75</v>
-      </c>
-      <c r="U142">
-        <v>1.9</v>
-      </c>
-      <c r="V142">
-        <v>1.9</v>
-      </c>
       <c r="W142">
         <v>-1</v>
       </c>
@@ -13163,19 +13163,19 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB142">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC142">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -14785,7 +14785,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7592803</v>
+        <v>7590595</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14797,49 +14797,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F161" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G161" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H161">
         <v>0</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J161" t="s">
         <v>53</v>
       </c>
       <c r="K161">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L161">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M161">
+        <v>2</v>
+      </c>
+      <c r="N161">
+        <v>4.5</v>
+      </c>
+      <c r="O161">
         <v>3</v>
       </c>
-      <c r="N161">
-        <v>2.3</v>
-      </c>
-      <c r="O161">
-        <v>2.875</v>
-      </c>
       <c r="P161">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q161">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R161">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S161">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T161">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U161">
         <v>2</v>
@@ -14854,19 +14854,19 @@
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC161">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14874,7 +14874,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7590595</v>
+        <v>7592803</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14886,49 +14886,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F162" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G162" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H162">
         <v>0</v>
       </c>
       <c r="I162">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J162" t="s">
         <v>53</v>
       </c>
       <c r="K162">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L162">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M162">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N162">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="O162">
+        <v>2.875</v>
+      </c>
+      <c r="P162">
         <v>3</v>
       </c>
-      <c r="P162">
-        <v>1.75</v>
-      </c>
       <c r="Q162">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S162">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T162">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U162">
         <v>2</v>
@@ -14943,19 +14943,19 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB162">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15764,7 +15764,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7613564</v>
+        <v>7615329</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15776,76 +15776,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G172" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H172">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K172">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="L172">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="M172">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N172">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O172">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P172">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q172">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R172">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S172">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T172">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U172">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V172">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W172">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB172">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15853,7 +15853,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7615329</v>
+        <v>7613564</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15865,76 +15865,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F173" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G173" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K173">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="L173">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="M173">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N173">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="O173">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P173">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Q173">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R173">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S173">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T173">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U173">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V173">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X173">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA173">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC173">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC198"/>
+  <dimension ref="A1:AC199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1702,7 +1702,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6230049</v>
+        <v>6230048</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1714,46 +1714,46 @@
         <v>44963.5625</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K14">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L14">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M14">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N14">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O14">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P14">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="Q14">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S14">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T14">
         <v>2</v>
@@ -1765,25 +1765,25 @@
         <v>1.775</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA14">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1791,7 +1791,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6230048</v>
+        <v>6230049</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1803,46 +1803,46 @@
         <v>44963.5625</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K15">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M15">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="N15">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P15">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R15">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S15">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T15">
         <v>2</v>
@@ -1854,25 +1854,25 @@
         <v>1.775</v>
       </c>
       <c r="W15">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z15">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -7398,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6688508</v>
+        <v>6691077</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7410,76 +7410,76 @@
         <v>45071.4375</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K78">
-        <v>6</v>
+        <v>1.333</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="M78">
-        <v>1.5</v>
+        <v>8.5</v>
       </c>
       <c r="N78">
-        <v>5.25</v>
+        <v>1.333</v>
       </c>
       <c r="O78">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P78">
-        <v>1.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q78">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S78">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T78">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y78">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6691077</v>
+        <v>6688508</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7499,76 +7499,76 @@
         <v>45071.4375</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K79">
-        <v>1.333</v>
+        <v>6</v>
       </c>
       <c r="L79">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="M79">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="N79">
-        <v>1.333</v>
+        <v>5.25</v>
       </c>
       <c r="O79">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P79">
-        <v>6.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q79">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R79">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S79">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T79">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U79">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V79">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA79">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AB79">
         <v>-1</v>
       </c>
       <c r="AC79">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7576,7 +7576,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6704935</v>
+        <v>6707962</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7588,76 +7588,76 @@
         <v>45075.44791666666</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K80">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L80">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M80">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="N80">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="O80">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="P80">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="Q80">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S80">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T80">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U80">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V80">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA80">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC80">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7665,7 +7665,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6707962</v>
+        <v>6704935</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7677,76 +7677,76 @@
         <v>45075.44791666666</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K81">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L81">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M81">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="N81">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="O81">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="P81">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R81">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S81">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T81">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U81">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V81">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W81">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z81">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB81">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -9356,7 +9356,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6838980</v>
+        <v>6838982</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9368,76 +9368,76 @@
         <v>45107.44791666666</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K100">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L100">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M100">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N100">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O100">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P100">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Q100">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R100">
+        <v>1.725</v>
+      </c>
+      <c r="S100">
+        <v>1.975</v>
+      </c>
+      <c r="T100">
+        <v>2</v>
+      </c>
+      <c r="U100">
+        <v>2</v>
+      </c>
+      <c r="V100">
         <v>1.8</v>
       </c>
-      <c r="S100">
-        <v>2</v>
-      </c>
-      <c r="T100">
-        <v>2</v>
-      </c>
-      <c r="U100">
-        <v>1.85</v>
-      </c>
-      <c r="V100">
-        <v>1.95</v>
-      </c>
       <c r="W100">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z100">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC100">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9445,7 +9445,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6838982</v>
+        <v>6838980</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9457,76 +9457,76 @@
         <v>45107.44791666666</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K101">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L101">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M101">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N101">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O101">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P101">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Q101">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R101">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S101">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T101">
         <v>2</v>
       </c>
       <c r="U101">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V101">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA101">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9801,7 +9801,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6862618</v>
+        <v>6862617</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9813,76 +9813,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K105">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L105">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="M105">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N105">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O105">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P105">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
+        <v>2</v>
+      </c>
+      <c r="S105">
+        <v>1.8</v>
+      </c>
+      <c r="T105">
+        <v>2.25</v>
+      </c>
+      <c r="U105">
+        <v>2.025</v>
+      </c>
+      <c r="V105">
         <v>1.775</v>
       </c>
-      <c r="S105">
-        <v>2.025</v>
-      </c>
-      <c r="T105">
-        <v>2</v>
-      </c>
-      <c r="U105">
-        <v>1.95</v>
-      </c>
-      <c r="V105">
-        <v>1.85</v>
-      </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y105">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9890,7 +9890,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6862617</v>
+        <v>6862618</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9902,76 +9902,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G106" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K106">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L106">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="M106">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N106">
+        <v>2.05</v>
+      </c>
+      <c r="O106">
+        <v>2.625</v>
+      </c>
+      <c r="P106">
+        <v>4</v>
+      </c>
+      <c r="Q106">
+        <v>-0.25</v>
+      </c>
+      <c r="R106">
+        <v>1.775</v>
+      </c>
+      <c r="S106">
+        <v>2.025</v>
+      </c>
+      <c r="T106">
+        <v>2</v>
+      </c>
+      <c r="U106">
         <v>1.95</v>
       </c>
-      <c r="O106">
-        <v>2.8</v>
-      </c>
-      <c r="P106">
-        <v>4.1</v>
-      </c>
-      <c r="Q106">
-        <v>-0.5</v>
-      </c>
-      <c r="R106">
-        <v>2</v>
-      </c>
-      <c r="S106">
-        <v>1.8</v>
-      </c>
-      <c r="T106">
-        <v>2.25</v>
-      </c>
-      <c r="U106">
-        <v>2.025</v>
-      </c>
       <c r="V106">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC106">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -11492,7 +11492,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7406927</v>
+        <v>7407173</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11504,76 +11504,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F124" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124">
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K124">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="L124">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M124">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="N124">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="O124">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="P124">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R124">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S124">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T124">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V124">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X124">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA124">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AB124">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC124">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11581,7 +11581,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7407173</v>
+        <v>7406927</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11593,76 +11593,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G125" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K125">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="M125">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="N125">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="O125">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P125">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q125">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S125">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T125">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U125">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V125">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W125">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
+        <v>0.45</v>
+      </c>
+      <c r="AA125">
         <v>-0.5</v>
       </c>
-      <c r="AA125">
-        <v>0.4875</v>
-      </c>
       <c r="AB125">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12649,7 +12649,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7453404</v>
+        <v>7453403</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12661,76 +12661,76 @@
         <v>45240.375</v>
       </c>
       <c r="F137" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G137" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H137">
         <v>0</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K137">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L137">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M137">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N137">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O137">
         <v>2.9</v>
       </c>
       <c r="P137">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q137">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S137">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T137">
         <v>2</v>
       </c>
       <c r="U137">
+        <v>1.975</v>
+      </c>
+      <c r="V137">
+        <v>1.825</v>
+      </c>
+      <c r="W137">
+        <v>-1</v>
+      </c>
+      <c r="X137">
         <v>1.9</v>
       </c>
-      <c r="V137">
-        <v>1.9</v>
-      </c>
-      <c r="W137">
-        <v>-1</v>
-      </c>
-      <c r="X137">
-        <v>-1</v>
-      </c>
       <c r="Y137">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA137">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AB137">
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12738,7 +12738,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7453403</v>
+        <v>7453404</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12750,76 +12750,76 @@
         <v>45240.375</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G138" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H138">
         <v>0</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K138">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L138">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M138">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N138">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O138">
         <v>2.9</v>
       </c>
       <c r="P138">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R138">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S138">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T138">
         <v>2</v>
       </c>
       <c r="U138">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V138">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z138">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -13984,7 +13984,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7555939</v>
+        <v>7555937</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13996,13 +13996,13 @@
         <v>45265.35416666666</v>
       </c>
       <c r="F152" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G152" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
         <v>2</v>
@@ -14011,40 +14011,40 @@
         <v>53</v>
       </c>
       <c r="K152">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="L152">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M152">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="N152">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="O152">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P152">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q152">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R152">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S152">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T152">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U152">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V152">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W152">
         <v>-1</v>
@@ -14053,19 +14053,19 @@
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>0.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="Z152">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB152">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14073,7 +14073,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7555937</v>
+        <v>7555939</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14085,13 +14085,13 @@
         <v>45265.35416666666</v>
       </c>
       <c r="F153" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G153" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153">
         <v>2</v>
@@ -14100,40 +14100,40 @@
         <v>53</v>
       </c>
       <c r="K153">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="L153">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M153">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="N153">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="O153">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="P153">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R153">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S153">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T153">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U153">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V153">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W153">
         <v>-1</v>
@@ -14142,19 +14142,19 @@
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>2.4</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA153">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB153">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC153">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14340,7 +14340,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7565124</v>
+        <v>7565123</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14352,56 +14352,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F156" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G156" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J156" t="s">
         <v>53</v>
       </c>
       <c r="K156">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L156">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M156">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N156">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="O156">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P156">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q156">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R156">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S156">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T156">
         <v>2</v>
       </c>
       <c r="U156">
+        <v>1.925</v>
+      </c>
+      <c r="V156">
         <v>1.875</v>
       </c>
-      <c r="V156">
-        <v>1.925</v>
-      </c>
       <c r="W156">
         <v>-1</v>
       </c>
@@ -14409,19 +14409,19 @@
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC156">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14429,7 +14429,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7565123</v>
+        <v>7565124</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14441,56 +14441,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G157" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
         <v>1</v>
-      </c>
-      <c r="I157">
-        <v>2</v>
       </c>
       <c r="J157" t="s">
         <v>53</v>
       </c>
       <c r="K157">
+        <v>1.5</v>
+      </c>
+      <c r="L157">
+        <v>3.6</v>
+      </c>
+      <c r="M157">
+        <v>6</v>
+      </c>
+      <c r="N157">
         <v>1.727</v>
       </c>
-      <c r="L157">
-        <v>3.4</v>
-      </c>
-      <c r="M157">
+      <c r="O157">
+        <v>3.5</v>
+      </c>
+      <c r="P157">
         <v>4.2</v>
       </c>
-      <c r="N157">
-        <v>1.833</v>
-      </c>
-      <c r="O157">
-        <v>3.3</v>
-      </c>
-      <c r="P157">
-        <v>3.75</v>
-      </c>
       <c r="Q157">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R157">
+        <v>2</v>
+      </c>
+      <c r="S157">
+        <v>1.8</v>
+      </c>
+      <c r="T157">
+        <v>2</v>
+      </c>
+      <c r="U157">
         <v>1.875</v>
       </c>
-      <c r="S157">
+      <c r="V157">
         <v>1.925</v>
       </c>
-      <c r="T157">
-        <v>2</v>
-      </c>
-      <c r="U157">
-        <v>1.925</v>
-      </c>
-      <c r="V157">
-        <v>1.875</v>
-      </c>
       <c r="W157">
         <v>-1</v>
       </c>
@@ -14498,19 +14498,19 @@
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
+        <v>0.8</v>
+      </c>
+      <c r="AB157">
+        <v>-1</v>
+      </c>
+      <c r="AC157">
         <v>0.925</v>
-      </c>
-      <c r="AB157">
-        <v>0.925</v>
-      </c>
-      <c r="AC157">
-        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14785,7 +14785,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7590595</v>
+        <v>7592803</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14797,49 +14797,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H161">
         <v>0</v>
       </c>
       <c r="I161">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J161" t="s">
         <v>53</v>
       </c>
       <c r="K161">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L161">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M161">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N161">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="O161">
+        <v>2.875</v>
+      </c>
+      <c r="P161">
         <v>3</v>
       </c>
-      <c r="P161">
-        <v>1.75</v>
-      </c>
       <c r="Q161">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S161">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T161">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U161">
         <v>2</v>
@@ -14854,19 +14854,19 @@
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB161">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14874,7 +14874,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7592803</v>
+        <v>7590595</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14886,49 +14886,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F162" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G162" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H162">
         <v>0</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J162" t="s">
         <v>53</v>
       </c>
       <c r="K162">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L162">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M162">
+        <v>2</v>
+      </c>
+      <c r="N162">
+        <v>4.5</v>
+      </c>
+      <c r="O162">
         <v>3</v>
       </c>
-      <c r="N162">
-        <v>2.3</v>
-      </c>
-      <c r="O162">
-        <v>2.875</v>
-      </c>
       <c r="P162">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q162">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R162">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S162">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T162">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U162">
         <v>2</v>
@@ -14943,19 +14943,19 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC162">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15942,7 +15942,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7618726</v>
+        <v>7618724</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15954,76 +15954,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F174" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G174" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I174">
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K174">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L174">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M174">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N174">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="O174">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P174">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q174">
         <v>0</v>
       </c>
       <c r="R174">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S174">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T174">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U174">
+        <v>2</v>
+      </c>
+      <c r="V174">
         <v>1.8</v>
       </c>
-      <c r="V174">
-        <v>2</v>
-      </c>
       <c r="W174">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA174">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC174">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16031,7 +16031,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7618724</v>
+        <v>7618726</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16043,76 +16043,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F175" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G175" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175">
         <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K175">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="L175">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M175">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N175">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="O175">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P175">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q175">
         <v>0</v>
       </c>
       <c r="R175">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S175">
+        <v>2.05</v>
+      </c>
+      <c r="T175">
+        <v>1.75</v>
+      </c>
+      <c r="U175">
         <v>1.8</v>
       </c>
-      <c r="T175">
-        <v>2</v>
-      </c>
-      <c r="U175">
-        <v>2</v>
-      </c>
       <c r="V175">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W175">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z175">
+        <v>-1</v>
+      </c>
+      <c r="AA175">
+        <v>1.05</v>
+      </c>
+      <c r="AB175">
+        <v>-1</v>
+      </c>
+      <c r="AC175">
         <v>1</v>
-      </c>
-      <c r="AA175">
-        <v>-1</v>
-      </c>
-      <c r="AB175">
-        <v>1</v>
-      </c>
-      <c r="AC175">
-        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7648519</v>
+        <v>7645264</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,46 +17022,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F186" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G186" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186">
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K186">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L186">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M186">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="N186">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="O186">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P186">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="Q186">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R186">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S186">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T186">
         <v>2</v>
@@ -17076,22 +17076,22 @@
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y186">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
+        <v>0.825</v>
+      </c>
+      <c r="AB186">
+        <v>0</v>
+      </c>
+      <c r="AC186">
         <v>-0</v>
-      </c>
-      <c r="AB186">
-        <v>-1</v>
-      </c>
-      <c r="AC186">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7645264</v>
+        <v>7648519</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,46 +17111,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G187" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187">
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K187">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L187">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M187">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="N187">
+        <v>5.25</v>
+      </c>
+      <c r="O187">
+        <v>3.75</v>
+      </c>
+      <c r="P187">
         <v>1.533</v>
       </c>
-      <c r="O187">
-        <v>3.5</v>
-      </c>
-      <c r="P187">
-        <v>6.5</v>
-      </c>
       <c r="Q187">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R187">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S187">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T187">
         <v>2</v>
@@ -17165,22 +17165,22 @@
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA187">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17455,7 +17455,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7811882</v>
+        <v>7811883</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17467,76 +17467,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F191" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G191" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="s">
         <v>51</v>
       </c>
       <c r="K191">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="L191">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M191">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="N191">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="O191">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P191">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q191">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R191">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S191">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T191">
         <v>1.75</v>
       </c>
       <c r="U191">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="V191">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W191">
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA191">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB191">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC191">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17544,7 +17544,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7811883</v>
+        <v>7811882</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17556,76 +17556,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F192" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G192" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="s">
         <v>51</v>
       </c>
       <c r="K192">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="L192">
+        <v>2.9</v>
+      </c>
+      <c r="M192">
         <v>3.4</v>
       </c>
-      <c r="M192">
-        <v>1.727</v>
-      </c>
       <c r="N192">
+        <v>2.05</v>
+      </c>
+      <c r="O192">
+        <v>2.9</v>
+      </c>
+      <c r="P192">
         <v>3.6</v>
       </c>
-      <c r="O192">
-        <v>3.3</v>
-      </c>
-      <c r="P192">
-        <v>1.909</v>
-      </c>
       <c r="Q192">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R192">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S192">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T192">
         <v>1.75</v>
       </c>
       <c r="U192">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="V192">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W192">
         <v>-1</v>
       </c>
       <c r="X192">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA192">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB192">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC192">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -18160,6 +18160,80 @@
       </c>
       <c r="AC198">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:29">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>7851851</v>
+      </c>
+      <c r="C199" t="s">
+        <v>28</v>
+      </c>
+      <c r="D199" t="s">
+        <v>28</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45341.54166666666</v>
+      </c>
+      <c r="F199" t="s">
+        <v>37</v>
+      </c>
+      <c r="G199" t="s">
+        <v>41</v>
+      </c>
+      <c r="K199">
+        <v>2.3</v>
+      </c>
+      <c r="L199">
+        <v>2.75</v>
+      </c>
+      <c r="M199">
+        <v>3.2</v>
+      </c>
+      <c r="N199">
+        <v>2.2</v>
+      </c>
+      <c r="O199">
+        <v>2.8</v>
+      </c>
+      <c r="P199">
+        <v>3.5</v>
+      </c>
+      <c r="Q199">
+        <v>-0.25</v>
+      </c>
+      <c r="R199">
+        <v>1.85</v>
+      </c>
+      <c r="S199">
+        <v>1.95</v>
+      </c>
+      <c r="T199">
+        <v>1.75</v>
+      </c>
+      <c r="U199">
+        <v>1.9</v>
+      </c>
+      <c r="V199">
+        <v>1.9</v>
+      </c>
+      <c r="W199">
+        <v>0</v>
+      </c>
+      <c r="X199">
+        <v>0</v>
+      </c>
+      <c r="Y199">
+        <v>0</v>
+      </c>
+      <c r="Z199">
+        <v>0</v>
+      </c>
+      <c r="AA199">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC199"/>
+  <dimension ref="A1:AC203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4461,7 +4461,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6497756</v>
+        <v>6497757</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4473,76 +4473,76 @@
         <v>45024.39583333334</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L45">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="M45">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="N45">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="O45">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P45">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R45">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S45">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T45">
         <v>1.75</v>
       </c>
       <c r="U45">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z45">
+        <v>-1</v>
+      </c>
+      <c r="AA45">
+        <v>0.825</v>
+      </c>
+      <c r="AB45">
+        <v>-1</v>
+      </c>
+      <c r="AC45">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA45">
-        <v>-1</v>
-      </c>
-      <c r="AB45">
-        <v>0.875</v>
-      </c>
-      <c r="AC45">
-        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4550,7 +4550,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6497757</v>
+        <v>6497756</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4562,76 +4562,76 @@
         <v>45024.39583333334</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K46">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="L46">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="M46">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="N46">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="O46">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P46">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q46">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S46">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T46">
         <v>1.75</v>
       </c>
       <c r="U46">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V46">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA46">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC46">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -7398,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6691077</v>
+        <v>6688508</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7410,76 +7410,76 @@
         <v>45071.4375</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K78">
-        <v>1.333</v>
+        <v>6</v>
       </c>
       <c r="L78">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="N78">
-        <v>1.333</v>
+        <v>5.25</v>
       </c>
       <c r="O78">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P78">
-        <v>6.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q78">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R78">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S78">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U78">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V78">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA78">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6688508</v>
+        <v>6691077</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7499,76 +7499,76 @@
         <v>45071.4375</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79">
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K79">
-        <v>6</v>
+        <v>1.333</v>
       </c>
       <c r="L79">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="M79">
-        <v>1.5</v>
+        <v>8.5</v>
       </c>
       <c r="N79">
-        <v>5.25</v>
+        <v>1.333</v>
       </c>
       <c r="O79">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P79">
-        <v>1.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q79">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R79">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S79">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T79">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V79">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y79">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB79">
         <v>-1</v>
       </c>
       <c r="AC79">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7576,7 +7576,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6707962</v>
+        <v>6704935</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7588,76 +7588,76 @@
         <v>45075.44791666666</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K80">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L80">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M80">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="N80">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="O80">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="P80">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R80">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S80">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T80">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U80">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V80">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W80">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z80">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB80">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7665,7 +7665,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6704935</v>
+        <v>6707962</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7677,76 +7677,76 @@
         <v>45075.44791666666</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K81">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L81">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M81">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="N81">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="O81">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="P81">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="Q81">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S81">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T81">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U81">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V81">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA81">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC81">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -8199,7 +8199,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6729609</v>
+        <v>6729610</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8211,76 +8211,76 @@
         <v>45081.44791666666</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K87">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L87">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="M87">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="N87">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="O87">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="P87">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R87">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S87">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T87">
         <v>2</v>
       </c>
       <c r="U87">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V87">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X87">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA87">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8288,7 +8288,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6729610</v>
+        <v>6729609</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8300,76 +8300,76 @@
         <v>45081.44791666666</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G88" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K88">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L88">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="M88">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="N88">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O88">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="P88">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S88">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T88">
         <v>2</v>
       </c>
       <c r="U88">
+        <v>2</v>
+      </c>
+      <c r="V88">
         <v>1.8</v>
       </c>
-      <c r="V88">
-        <v>2</v>
-      </c>
       <c r="W88">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB88">
+        <v>-1</v>
+      </c>
+      <c r="AC88">
         <v>0.8</v>
-      </c>
-      <c r="AC88">
-        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -9801,7 +9801,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6862617</v>
+        <v>6862618</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9813,76 +9813,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G105" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K105">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L105">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="M105">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N105">
+        <v>2.05</v>
+      </c>
+      <c r="O105">
+        <v>2.625</v>
+      </c>
+      <c r="P105">
+        <v>4</v>
+      </c>
+      <c r="Q105">
+        <v>-0.25</v>
+      </c>
+      <c r="R105">
+        <v>1.775</v>
+      </c>
+      <c r="S105">
+        <v>2.025</v>
+      </c>
+      <c r="T105">
+        <v>2</v>
+      </c>
+      <c r="U105">
         <v>1.95</v>
       </c>
-      <c r="O105">
-        <v>2.8</v>
-      </c>
-      <c r="P105">
-        <v>4.1</v>
-      </c>
-      <c r="Q105">
-        <v>-0.5</v>
-      </c>
-      <c r="R105">
-        <v>2</v>
-      </c>
-      <c r="S105">
-        <v>1.8</v>
-      </c>
-      <c r="T105">
-        <v>2.25</v>
-      </c>
-      <c r="U105">
-        <v>2.025</v>
-      </c>
       <c r="V105">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC105">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9890,7 +9890,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6862618</v>
+        <v>6862617</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9902,76 +9902,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K106">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L106">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="M106">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N106">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O106">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P106">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q106">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R106">
+        <v>2</v>
+      </c>
+      <c r="S106">
+        <v>1.8</v>
+      </c>
+      <c r="T106">
+        <v>2.25</v>
+      </c>
+      <c r="U106">
+        <v>2.025</v>
+      </c>
+      <c r="V106">
         <v>1.775</v>
       </c>
-      <c r="S106">
-        <v>2.025</v>
-      </c>
-      <c r="T106">
-        <v>2</v>
-      </c>
-      <c r="U106">
-        <v>1.95</v>
-      </c>
-      <c r="V106">
-        <v>1.85</v>
-      </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y106">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB106">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -11492,7 +11492,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7407173</v>
+        <v>7406927</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11504,76 +11504,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G124" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124">
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K124">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="M124">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="N124">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="O124">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P124">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q124">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S124">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U124">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V124">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W124">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
+        <v>0.45</v>
+      </c>
+      <c r="AA124">
         <v>-0.5</v>
       </c>
-      <c r="AA124">
-        <v>0.4875</v>
-      </c>
       <c r="AB124">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11581,7 +11581,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7406927</v>
+        <v>7407173</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11593,76 +11593,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F125" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K125">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="L125">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M125">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="N125">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="O125">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="P125">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="Q125">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R125">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S125">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T125">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V125">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X125">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12649,7 +12649,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7453403</v>
+        <v>7453404</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12661,76 +12661,76 @@
         <v>45240.375</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G137" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H137">
         <v>0</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K137">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L137">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M137">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N137">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O137">
         <v>2.9</v>
       </c>
       <c r="P137">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R137">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S137">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T137">
         <v>2</v>
       </c>
       <c r="U137">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V137">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB137">
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12738,7 +12738,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7453404</v>
+        <v>7453403</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12750,76 +12750,76 @@
         <v>45240.375</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G138" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H138">
         <v>0</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K138">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L138">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M138">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N138">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O138">
         <v>2.9</v>
       </c>
       <c r="P138">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q138">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S138">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T138">
         <v>2</v>
       </c>
       <c r="U138">
+        <v>1.975</v>
+      </c>
+      <c r="V138">
+        <v>1.825</v>
+      </c>
+      <c r="W138">
+        <v>-1</v>
+      </c>
+      <c r="X138">
         <v>1.9</v>
       </c>
-      <c r="V138">
-        <v>1.9</v>
-      </c>
-      <c r="W138">
-        <v>-1</v>
-      </c>
-      <c r="X138">
-        <v>-1</v>
-      </c>
       <c r="Y138">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA138">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -13005,7 +13005,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7511490</v>
+        <v>7511489</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13017,10 +13017,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G141" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13032,41 +13032,41 @@
         <v>53</v>
       </c>
       <c r="K141">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L141">
+        <v>3</v>
+      </c>
+      <c r="M141">
         <v>3.1</v>
       </c>
-      <c r="M141">
-        <v>1.909</v>
-      </c>
       <c r="N141">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O141">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P141">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q141">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
+        <v>1.95</v>
+      </c>
+      <c r="S141">
+        <v>1.85</v>
+      </c>
+      <c r="T141">
+        <v>2.25</v>
+      </c>
+      <c r="U141">
+        <v>2.05</v>
+      </c>
+      <c r="V141">
         <v>1.75</v>
       </c>
-      <c r="S141">
-        <v>2.05</v>
-      </c>
-      <c r="T141">
-        <v>1.75</v>
-      </c>
-      <c r="U141">
-        <v>1.9</v>
-      </c>
-      <c r="V141">
-        <v>1.9</v>
-      </c>
       <c r="W141">
         <v>-1</v>
       </c>
@@ -13074,19 +13074,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB141">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC141">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13094,7 +13094,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7511489</v>
+        <v>7511490</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13106,10 +13106,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F142" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -13121,40 +13121,40 @@
         <v>53</v>
       </c>
       <c r="K142">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L142">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M142">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N142">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="O142">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P142">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R142">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S142">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U142">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -13163,19 +13163,19 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB142">
+        <v>0.45</v>
+      </c>
+      <c r="AC142">
         <v>-0.5</v>
-      </c>
-      <c r="AC142">
-        <v>0.375</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -14340,7 +14340,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7565123</v>
+        <v>7565124</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14352,56 +14352,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F156" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G156" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
         <v>1</v>
-      </c>
-      <c r="I156">
-        <v>2</v>
       </c>
       <c r="J156" t="s">
         <v>53</v>
       </c>
       <c r="K156">
+        <v>1.5</v>
+      </c>
+      <c r="L156">
+        <v>3.6</v>
+      </c>
+      <c r="M156">
+        <v>6</v>
+      </c>
+      <c r="N156">
         <v>1.727</v>
       </c>
-      <c r="L156">
-        <v>3.4</v>
-      </c>
-      <c r="M156">
+      <c r="O156">
+        <v>3.5</v>
+      </c>
+      <c r="P156">
         <v>4.2</v>
       </c>
-      <c r="N156">
-        <v>1.833</v>
-      </c>
-      <c r="O156">
-        <v>3.3</v>
-      </c>
-      <c r="P156">
-        <v>3.75</v>
-      </c>
       <c r="Q156">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R156">
+        <v>2</v>
+      </c>
+      <c r="S156">
+        <v>1.8</v>
+      </c>
+      <c r="T156">
+        <v>2</v>
+      </c>
+      <c r="U156">
         <v>1.875</v>
       </c>
-      <c r="S156">
+      <c r="V156">
         <v>1.925</v>
       </c>
-      <c r="T156">
-        <v>2</v>
-      </c>
-      <c r="U156">
-        <v>1.925</v>
-      </c>
-      <c r="V156">
-        <v>1.875</v>
-      </c>
       <c r="W156">
         <v>-1</v>
       </c>
@@ -14409,19 +14409,19 @@
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
+        <v>0.8</v>
+      </c>
+      <c r="AB156">
+        <v>-1</v>
+      </c>
+      <c r="AC156">
         <v>0.925</v>
-      </c>
-      <c r="AB156">
-        <v>0.925</v>
-      </c>
-      <c r="AC156">
-        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14429,7 +14429,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7565124</v>
+        <v>7565123</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14441,56 +14441,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F157" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G157" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
         <v>53</v>
       </c>
       <c r="K157">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L157">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M157">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N157">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="O157">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P157">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q157">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S157">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T157">
         <v>2</v>
       </c>
       <c r="U157">
+        <v>1.925</v>
+      </c>
+      <c r="V157">
         <v>1.875</v>
       </c>
-      <c r="V157">
-        <v>1.925</v>
-      </c>
       <c r="W157">
         <v>-1</v>
       </c>
@@ -14498,19 +14498,19 @@
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC157">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14785,7 +14785,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7592803</v>
+        <v>7590595</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14797,49 +14797,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F161" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G161" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H161">
         <v>0</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J161" t="s">
         <v>53</v>
       </c>
       <c r="K161">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L161">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M161">
+        <v>2</v>
+      </c>
+      <c r="N161">
+        <v>4.5</v>
+      </c>
+      <c r="O161">
         <v>3</v>
       </c>
-      <c r="N161">
-        <v>2.3</v>
-      </c>
-      <c r="O161">
-        <v>2.875</v>
-      </c>
       <c r="P161">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q161">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R161">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S161">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T161">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U161">
         <v>2</v>
@@ -14854,19 +14854,19 @@
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC161">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14874,7 +14874,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7590595</v>
+        <v>7592803</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14886,49 +14886,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F162" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G162" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H162">
         <v>0</v>
       </c>
       <c r="I162">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J162" t="s">
         <v>53</v>
       </c>
       <c r="K162">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L162">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M162">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N162">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="O162">
+        <v>2.875</v>
+      </c>
+      <c r="P162">
         <v>3</v>
       </c>
-      <c r="P162">
-        <v>1.75</v>
-      </c>
       <c r="Q162">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S162">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T162">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U162">
         <v>2</v>
@@ -14943,19 +14943,19 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB162">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15764,7 +15764,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7615329</v>
+        <v>7613564</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15776,76 +15776,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F172" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G172" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K172">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="L172">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="M172">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N172">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="O172">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P172">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Q172">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R172">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S172">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T172">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U172">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V172">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W172">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X172">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA172">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC172">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15853,7 +15853,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7613564</v>
+        <v>7615329</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15865,76 +15865,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F173" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G173" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K173">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="L173">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="M173">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N173">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O173">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P173">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q173">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R173">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S173">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T173">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U173">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V173">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W173">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X173">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB173">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7645264</v>
+        <v>7648519</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,46 +17022,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F186" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G186" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186">
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K186">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L186">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M186">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="N186">
+        <v>5.25</v>
+      </c>
+      <c r="O186">
+        <v>3.75</v>
+      </c>
+      <c r="P186">
         <v>1.533</v>
       </c>
-      <c r="O186">
-        <v>3.5</v>
-      </c>
-      <c r="P186">
-        <v>6.5</v>
-      </c>
       <c r="Q186">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R186">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S186">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T186">
         <v>2</v>
@@ -17076,22 +17076,22 @@
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA186">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB186">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7648519</v>
+        <v>7645264</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,46 +17111,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G187" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187">
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K187">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L187">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M187">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="N187">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="O187">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P187">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="Q187">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R187">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S187">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T187">
         <v>2</v>
@@ -17165,22 +17165,22 @@
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y187">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
+        <v>0.825</v>
+      </c>
+      <c r="AB187">
+        <v>0</v>
+      </c>
+      <c r="AC187">
         <v>-0</v>
-      </c>
-      <c r="AB187">
-        <v>-1</v>
-      </c>
-      <c r="AC187">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -18176,7 +18176,7 @@
         <v>28</v>
       </c>
       <c r="E199" s="2">
-        <v>45341.54166666666</v>
+        <v>45341.33333333334</v>
       </c>
       <c r="F199" t="s">
         <v>37</v>
@@ -18184,6 +18184,15 @@
       <c r="G199" t="s">
         <v>41</v>
       </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>3</v>
+      </c>
+      <c r="J199" t="s">
+        <v>53</v>
+      </c>
       <c r="K199">
         <v>2.3</v>
       </c>
@@ -18221,18 +18230,350 @@
         <v>1.9</v>
       </c>
       <c r="W199">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X199">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Z199">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA199">
+        <v>0.95</v>
+      </c>
+      <c r="AB199">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC199">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>7855608</v>
+      </c>
+      <c r="C200" t="s">
+        <v>28</v>
+      </c>
+      <c r="D200" t="s">
+        <v>28</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45341.4375</v>
+      </c>
+      <c r="F200" t="s">
+        <v>48</v>
+      </c>
+      <c r="G200" t="s">
+        <v>31</v>
+      </c>
+      <c r="H200">
+        <v>3</v>
+      </c>
+      <c r="I200">
+        <v>5</v>
+      </c>
+      <c r="J200" t="s">
+        <v>53</v>
+      </c>
+      <c r="K200">
+        <v>2.7</v>
+      </c>
+      <c r="L200">
+        <v>2.7</v>
+      </c>
+      <c r="M200">
+        <v>2.7</v>
+      </c>
+      <c r="N200">
+        <v>2.7</v>
+      </c>
+      <c r="O200">
+        <v>2.7</v>
+      </c>
+      <c r="P200">
+        <v>2.7</v>
+      </c>
+      <c r="Q200">
+        <v>0</v>
+      </c>
+      <c r="R200">
+        <v>1.9</v>
+      </c>
+      <c r="S200">
+        <v>1.9</v>
+      </c>
+      <c r="T200">
+        <v>1.75</v>
+      </c>
+      <c r="U200">
+        <v>1.8</v>
+      </c>
+      <c r="V200">
+        <v>2</v>
+      </c>
+      <c r="W200">
+        <v>-1</v>
+      </c>
+      <c r="X200">
+        <v>-1</v>
+      </c>
+      <c r="Y200">
+        <v>1.7</v>
+      </c>
+      <c r="Z200">
+        <v>-1</v>
+      </c>
+      <c r="AA200">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB200">
+        <v>0.8</v>
+      </c>
+      <c r="AC200">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>7855780</v>
+      </c>
+      <c r="C201" t="s">
+        <v>28</v>
+      </c>
+      <c r="D201" t="s">
+        <v>28</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45341.54166666666</v>
+      </c>
+      <c r="F201" t="s">
+        <v>38</v>
+      </c>
+      <c r="G201" t="s">
+        <v>36</v>
+      </c>
+      <c r="H201">
+        <v>2</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="J201" t="s">
+        <v>52</v>
+      </c>
+      <c r="K201">
+        <v>4.333</v>
+      </c>
+      <c r="L201">
+        <v>3</v>
+      </c>
+      <c r="M201">
+        <v>1.8</v>
+      </c>
+      <c r="N201">
+        <v>4.5</v>
+      </c>
+      <c r="O201">
+        <v>3.2</v>
+      </c>
+      <c r="P201">
+        <v>1.727</v>
+      </c>
+      <c r="Q201">
+        <v>0.75</v>
+      </c>
+      <c r="R201">
+        <v>1.8</v>
+      </c>
+      <c r="S201">
+        <v>2</v>
+      </c>
+      <c r="T201">
+        <v>2.25</v>
+      </c>
+      <c r="U201">
+        <v>1.975</v>
+      </c>
+      <c r="V201">
+        <v>1.825</v>
+      </c>
+      <c r="W201">
+        <v>3.5</v>
+      </c>
+      <c r="X201">
+        <v>-1</v>
+      </c>
+      <c r="Y201">
+        <v>-1</v>
+      </c>
+      <c r="Z201">
+        <v>0.8</v>
+      </c>
+      <c r="AA201">
+        <v>-1</v>
+      </c>
+      <c r="AB201">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC201">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>7856524</v>
+      </c>
+      <c r="C202" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" t="s">
+        <v>28</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45342.33333333334</v>
+      </c>
+      <c r="F202" t="s">
+        <v>35</v>
+      </c>
+      <c r="G202" t="s">
+        <v>42</v>
+      </c>
+      <c r="K202">
+        <v>1.8</v>
+      </c>
+      <c r="L202">
+        <v>3</v>
+      </c>
+      <c r="M202">
+        <v>4.5</v>
+      </c>
+      <c r="N202">
+        <v>1.8</v>
+      </c>
+      <c r="O202">
+        <v>3</v>
+      </c>
+      <c r="P202">
+        <v>4.5</v>
+      </c>
+      <c r="Q202">
+        <v>-0.5</v>
+      </c>
+      <c r="R202">
+        <v>1.825</v>
+      </c>
+      <c r="S202">
+        <v>1.975</v>
+      </c>
+      <c r="T202">
+        <v>1.75</v>
+      </c>
+      <c r="U202">
+        <v>1.8</v>
+      </c>
+      <c r="V202">
+        <v>2</v>
+      </c>
+      <c r="W202">
+        <v>0</v>
+      </c>
+      <c r="X202">
+        <v>0</v>
+      </c>
+      <c r="Y202">
+        <v>0</v>
+      </c>
+      <c r="Z202">
+        <v>0</v>
+      </c>
+      <c r="AA202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>7856523</v>
+      </c>
+      <c r="C203" t="s">
+        <v>28</v>
+      </c>
+      <c r="D203" t="s">
+        <v>28</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45342.54166666666</v>
+      </c>
+      <c r="F203" t="s">
+        <v>29</v>
+      </c>
+      <c r="G203" t="s">
+        <v>46</v>
+      </c>
+      <c r="K203">
+        <v>1.833</v>
+      </c>
+      <c r="L203">
+        <v>3</v>
+      </c>
+      <c r="M203">
+        <v>4.2</v>
+      </c>
+      <c r="N203">
+        <v>1.85</v>
+      </c>
+      <c r="O203">
+        <v>2.8</v>
+      </c>
+      <c r="P203">
+        <v>4.5</v>
+      </c>
+      <c r="Q203">
+        <v>-0.5</v>
+      </c>
+      <c r="R203">
+        <v>1.875</v>
+      </c>
+      <c r="S203">
+        <v>1.925</v>
+      </c>
+      <c r="T203">
+        <v>1.75</v>
+      </c>
+      <c r="U203">
+        <v>1.85</v>
+      </c>
+      <c r="V203">
+        <v>1.95</v>
+      </c>
+      <c r="W203">
+        <v>0</v>
+      </c>
+      <c r="X203">
+        <v>0</v>
+      </c>
+      <c r="Y203">
+        <v>0</v>
+      </c>
+      <c r="Z203">
+        <v>0</v>
+      </c>
+      <c r="AA203">
         <v>0</v>
       </c>
     </row>

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC203"/>
+  <dimension ref="A1:AC205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1702,7 +1702,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6230048</v>
+        <v>6230049</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1714,46 +1714,46 @@
         <v>44963.5625</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M14">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="N14">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O14">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P14">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R14">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S14">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T14">
         <v>2</v>
@@ -1765,25 +1765,25 @@
         <v>1.775</v>
       </c>
       <c r="W14">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z14">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1791,7 +1791,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6230049</v>
+        <v>6230048</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1803,46 +1803,46 @@
         <v>44963.5625</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K15">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L15">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M15">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N15">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O15">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P15">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S15">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
         <v>2</v>
@@ -1854,25 +1854,25 @@
         <v>1.775</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA15">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1880,7 +1880,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6248171</v>
+        <v>6248170</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1892,46 +1892,46 @@
         <v>44967.35416666666</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K16">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="L16">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M16">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="O16">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T16">
         <v>1.75</v>
@@ -1946,16 +1946,16 @@
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.7250000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB16">
         <v>0.95</v>
@@ -1969,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6248170</v>
+        <v>6248171</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1981,46 +1981,46 @@
         <v>44967.35416666666</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K17">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N17">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q17">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S17">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="T17">
         <v>1.75</v>
@@ -2035,16 +2035,16 @@
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.8</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB17">
         <v>0.95</v>
@@ -4461,7 +4461,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6497757</v>
+        <v>6497756</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4473,76 +4473,76 @@
         <v>45024.39583333334</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K45">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="L45">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="M45">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="N45">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="O45">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P45">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q45">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S45">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T45">
         <v>1.75</v>
       </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA45">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC45">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4550,7 +4550,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6497756</v>
+        <v>6497757</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4562,76 +4562,76 @@
         <v>45024.39583333334</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L46">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="M46">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="N46">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="O46">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P46">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R46">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S46">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T46">
         <v>1.75</v>
       </c>
       <c r="U46">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V46">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W46">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z46">
+        <v>-1</v>
+      </c>
+      <c r="AA46">
+        <v>0.825</v>
+      </c>
+      <c r="AB46">
+        <v>-1</v>
+      </c>
+      <c r="AC46">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA46">
-        <v>-1</v>
-      </c>
-      <c r="AB46">
-        <v>0.875</v>
-      </c>
-      <c r="AC46">
-        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -6152,7 +6152,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6612738</v>
+        <v>6612737</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6164,73 +6164,73 @@
         <v>45052.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K64">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L64">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="M64">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="N64">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="O64">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P64">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R64">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="S64">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="T64">
         <v>1.75</v>
       </c>
       <c r="U64">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V64">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="W64">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z64">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB64">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC64">
         <v>-1</v>
@@ -6241,7 +6241,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6612737</v>
+        <v>6612738</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6253,73 +6253,73 @@
         <v>45052.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I65">
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K65">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L65">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="M65">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="N65">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="O65">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P65">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q65">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R65">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="S65">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="T65">
         <v>1.75</v>
       </c>
       <c r="U65">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V65">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA65">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -7398,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6688508</v>
+        <v>6691077</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7410,76 +7410,76 @@
         <v>45071.4375</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K78">
-        <v>6</v>
+        <v>1.333</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="M78">
-        <v>1.5</v>
+        <v>8.5</v>
       </c>
       <c r="N78">
-        <v>5.25</v>
+        <v>1.333</v>
       </c>
       <c r="O78">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P78">
-        <v>1.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q78">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S78">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T78">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y78">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6691077</v>
+        <v>6688508</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7499,76 +7499,76 @@
         <v>45071.4375</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K79">
-        <v>1.333</v>
+        <v>6</v>
       </c>
       <c r="L79">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="M79">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="N79">
-        <v>1.333</v>
+        <v>5.25</v>
       </c>
       <c r="O79">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P79">
-        <v>6.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q79">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R79">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S79">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T79">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U79">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V79">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA79">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AB79">
         <v>-1</v>
       </c>
       <c r="AC79">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7576,7 +7576,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6704935</v>
+        <v>6707962</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7588,76 +7588,76 @@
         <v>45075.44791666666</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K80">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L80">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M80">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="N80">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="O80">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="P80">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="Q80">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S80">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T80">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U80">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V80">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA80">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC80">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7665,7 +7665,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6707962</v>
+        <v>6704935</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7677,76 +7677,76 @@
         <v>45075.44791666666</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K81">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L81">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M81">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="N81">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="O81">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="P81">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R81">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S81">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T81">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U81">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V81">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W81">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z81">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB81">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -9801,7 +9801,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6862618</v>
+        <v>6862617</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9813,76 +9813,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K105">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L105">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="M105">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N105">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O105">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P105">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
+        <v>2</v>
+      </c>
+      <c r="S105">
+        <v>1.8</v>
+      </c>
+      <c r="T105">
+        <v>2.25</v>
+      </c>
+      <c r="U105">
+        <v>2.025</v>
+      </c>
+      <c r="V105">
         <v>1.775</v>
       </c>
-      <c r="S105">
-        <v>2.025</v>
-      </c>
-      <c r="T105">
-        <v>2</v>
-      </c>
-      <c r="U105">
-        <v>1.95</v>
-      </c>
-      <c r="V105">
-        <v>1.85</v>
-      </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y105">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9890,7 +9890,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6862617</v>
+        <v>6862618</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9902,76 +9902,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G106" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K106">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L106">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="M106">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N106">
+        <v>2.05</v>
+      </c>
+      <c r="O106">
+        <v>2.625</v>
+      </c>
+      <c r="P106">
+        <v>4</v>
+      </c>
+      <c r="Q106">
+        <v>-0.25</v>
+      </c>
+      <c r="R106">
+        <v>1.775</v>
+      </c>
+      <c r="S106">
+        <v>2.025</v>
+      </c>
+      <c r="T106">
+        <v>2</v>
+      </c>
+      <c r="U106">
         <v>1.95</v>
       </c>
-      <c r="O106">
-        <v>2.8</v>
-      </c>
-      <c r="P106">
-        <v>4.1</v>
-      </c>
-      <c r="Q106">
-        <v>-0.5</v>
-      </c>
-      <c r="R106">
-        <v>2</v>
-      </c>
-      <c r="S106">
-        <v>1.8</v>
-      </c>
-      <c r="T106">
-        <v>2.25</v>
-      </c>
-      <c r="U106">
-        <v>2.025</v>
-      </c>
       <c r="V106">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC106">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -12649,7 +12649,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7453404</v>
+        <v>7453403</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12661,76 +12661,76 @@
         <v>45240.375</v>
       </c>
       <c r="F137" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G137" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H137">
         <v>0</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K137">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L137">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M137">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N137">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O137">
         <v>2.9</v>
       </c>
       <c r="P137">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q137">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S137">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T137">
         <v>2</v>
       </c>
       <c r="U137">
+        <v>1.975</v>
+      </c>
+      <c r="V137">
+        <v>1.825</v>
+      </c>
+      <c r="W137">
+        <v>-1</v>
+      </c>
+      <c r="X137">
         <v>1.9</v>
       </c>
-      <c r="V137">
-        <v>1.9</v>
-      </c>
-      <c r="W137">
-        <v>-1</v>
-      </c>
-      <c r="X137">
-        <v>-1</v>
-      </c>
       <c r="Y137">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA137">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AB137">
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12738,7 +12738,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7453403</v>
+        <v>7453404</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12750,76 +12750,76 @@
         <v>45240.375</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G138" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H138">
         <v>0</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K138">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L138">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M138">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N138">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O138">
         <v>2.9</v>
       </c>
       <c r="P138">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R138">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S138">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T138">
         <v>2</v>
       </c>
       <c r="U138">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V138">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z138">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -13005,7 +13005,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7511489</v>
+        <v>7511490</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13017,10 +13017,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F141" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G141" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13032,40 +13032,40 @@
         <v>53</v>
       </c>
       <c r="K141">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L141">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M141">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N141">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="O141">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P141">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S141">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T141">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U141">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V141">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13074,19 +13074,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB141">
+        <v>0.45</v>
+      </c>
+      <c r="AC141">
         <v>-0.5</v>
-      </c>
-      <c r="AC141">
-        <v>0.375</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13094,7 +13094,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7511490</v>
+        <v>7511489</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13106,10 +13106,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G142" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -13121,41 +13121,41 @@
         <v>53</v>
       </c>
       <c r="K142">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L142">
+        <v>3</v>
+      </c>
+      <c r="M142">
         <v>3.1</v>
       </c>
-      <c r="M142">
-        <v>1.909</v>
-      </c>
       <c r="N142">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O142">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P142">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q142">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
+        <v>1.95</v>
+      </c>
+      <c r="S142">
+        <v>1.85</v>
+      </c>
+      <c r="T142">
+        <v>2.25</v>
+      </c>
+      <c r="U142">
+        <v>2.05</v>
+      </c>
+      <c r="V142">
         <v>1.75</v>
       </c>
-      <c r="S142">
-        <v>2.05</v>
-      </c>
-      <c r="T142">
-        <v>1.75</v>
-      </c>
-      <c r="U142">
-        <v>1.9</v>
-      </c>
-      <c r="V142">
-        <v>1.9</v>
-      </c>
       <c r="W142">
         <v>-1</v>
       </c>
@@ -13163,19 +13163,19 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB142">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC142">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -14340,7 +14340,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7565124</v>
+        <v>7565123</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14352,56 +14352,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F156" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G156" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J156" t="s">
         <v>53</v>
       </c>
       <c r="K156">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L156">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M156">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N156">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="O156">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P156">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q156">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R156">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S156">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T156">
         <v>2</v>
       </c>
       <c r="U156">
+        <v>1.925</v>
+      </c>
+      <c r="V156">
         <v>1.875</v>
       </c>
-      <c r="V156">
-        <v>1.925</v>
-      </c>
       <c r="W156">
         <v>-1</v>
       </c>
@@ -14409,19 +14409,19 @@
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC156">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14429,7 +14429,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7565123</v>
+        <v>7565124</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14441,56 +14441,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G157" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
         <v>1</v>
-      </c>
-      <c r="I157">
-        <v>2</v>
       </c>
       <c r="J157" t="s">
         <v>53</v>
       </c>
       <c r="K157">
+        <v>1.5</v>
+      </c>
+      <c r="L157">
+        <v>3.6</v>
+      </c>
+      <c r="M157">
+        <v>6</v>
+      </c>
+      <c r="N157">
         <v>1.727</v>
       </c>
-      <c r="L157">
-        <v>3.4</v>
-      </c>
-      <c r="M157">
+      <c r="O157">
+        <v>3.5</v>
+      </c>
+      <c r="P157">
         <v>4.2</v>
       </c>
-      <c r="N157">
-        <v>1.833</v>
-      </c>
-      <c r="O157">
-        <v>3.3</v>
-      </c>
-      <c r="P157">
-        <v>3.75</v>
-      </c>
       <c r="Q157">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R157">
+        <v>2</v>
+      </c>
+      <c r="S157">
+        <v>1.8</v>
+      </c>
+      <c r="T157">
+        <v>2</v>
+      </c>
+      <c r="U157">
         <v>1.875</v>
       </c>
-      <c r="S157">
+      <c r="V157">
         <v>1.925</v>
       </c>
-      <c r="T157">
-        <v>2</v>
-      </c>
-      <c r="U157">
-        <v>1.925</v>
-      </c>
-      <c r="V157">
-        <v>1.875</v>
-      </c>
       <c r="W157">
         <v>-1</v>
       </c>
@@ -14498,19 +14498,19 @@
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
+        <v>0.8</v>
+      </c>
+      <c r="AB157">
+        <v>-1</v>
+      </c>
+      <c r="AC157">
         <v>0.925</v>
-      </c>
-      <c r="AB157">
-        <v>0.925</v>
-      </c>
-      <c r="AC157">
-        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14785,7 +14785,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7590595</v>
+        <v>7592803</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14797,49 +14797,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H161">
         <v>0</v>
       </c>
       <c r="I161">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J161" t="s">
         <v>53</v>
       </c>
       <c r="K161">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L161">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M161">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N161">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="O161">
+        <v>2.875</v>
+      </c>
+      <c r="P161">
         <v>3</v>
       </c>
-      <c r="P161">
-        <v>1.75</v>
-      </c>
       <c r="Q161">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S161">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T161">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U161">
         <v>2</v>
@@ -14854,19 +14854,19 @@
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB161">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14874,7 +14874,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7592803</v>
+        <v>7590595</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14886,49 +14886,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F162" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G162" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H162">
         <v>0</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J162" t="s">
         <v>53</v>
       </c>
       <c r="K162">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L162">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M162">
+        <v>2</v>
+      </c>
+      <c r="N162">
+        <v>4.5</v>
+      </c>
+      <c r="O162">
         <v>3</v>
       </c>
-      <c r="N162">
-        <v>2.3</v>
-      </c>
-      <c r="O162">
-        <v>2.875</v>
-      </c>
       <c r="P162">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q162">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R162">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S162">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T162">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U162">
         <v>2</v>
@@ -14943,19 +14943,19 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC162">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7648519</v>
+        <v>7645264</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,46 +17022,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F186" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G186" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186">
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K186">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L186">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M186">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="N186">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="O186">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P186">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="Q186">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R186">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S186">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T186">
         <v>2</v>
@@ -17076,22 +17076,22 @@
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y186">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
+        <v>0.825</v>
+      </c>
+      <c r="AB186">
+        <v>0</v>
+      </c>
+      <c r="AC186">
         <v>-0</v>
-      </c>
-      <c r="AB186">
-        <v>-1</v>
-      </c>
-      <c r="AC186">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7645264</v>
+        <v>7648519</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,46 +17111,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G187" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187">
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K187">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L187">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M187">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="N187">
+        <v>5.25</v>
+      </c>
+      <c r="O187">
+        <v>3.75</v>
+      </c>
+      <c r="P187">
         <v>1.533</v>
       </c>
-      <c r="O187">
-        <v>3.5</v>
-      </c>
-      <c r="P187">
-        <v>6.5</v>
-      </c>
       <c r="Q187">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R187">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S187">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T187">
         <v>2</v>
@@ -17165,22 +17165,22 @@
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA187">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -18451,6 +18451,15 @@
       <c r="G202" t="s">
         <v>42</v>
       </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202" t="s">
+        <v>51</v>
+      </c>
       <c r="K202">
         <v>1.8</v>
       </c>
@@ -18488,19 +18497,25 @@
         <v>2</v>
       </c>
       <c r="W202">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X202">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y202">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA202">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB202">
+        <v>-1</v>
+      </c>
+      <c r="AC202">
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18508,7 +18523,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7856523</v>
+        <v>7856527</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18517,63 +18532,241 @@
         <v>28</v>
       </c>
       <c r="E203" s="2">
-        <v>45342.54166666666</v>
+        <v>45342.60416666666</v>
       </c>
       <c r="F203" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G203" t="s">
-        <v>46</v>
+        <v>32</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203" t="s">
+        <v>51</v>
       </c>
       <c r="K203">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="L203">
         <v>3</v>
       </c>
       <c r="M203">
+        <v>2.5</v>
+      </c>
+      <c r="N203">
+        <v>3</v>
+      </c>
+      <c r="O203">
+        <v>3</v>
+      </c>
+      <c r="P203">
+        <v>2.2</v>
+      </c>
+      <c r="Q203">
+        <v>0.25</v>
+      </c>
+      <c r="R203">
+        <v>1.825</v>
+      </c>
+      <c r="S203">
+        <v>1.975</v>
+      </c>
+      <c r="T203">
+        <v>2</v>
+      </c>
+      <c r="U203">
+        <v>2.025</v>
+      </c>
+      <c r="V203">
+        <v>1.775</v>
+      </c>
+      <c r="W203">
+        <v>-1</v>
+      </c>
+      <c r="X203">
+        <v>2</v>
+      </c>
+      <c r="Y203">
+        <v>-1</v>
+      </c>
+      <c r="Z203">
+        <v>0.4125</v>
+      </c>
+      <c r="AA203">
+        <v>-0.5</v>
+      </c>
+      <c r="AB203">
+        <v>-1</v>
+      </c>
+      <c r="AC203">
+        <v>0.7749999999999999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>7856525</v>
+      </c>
+      <c r="C204" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45342.64583333334</v>
+      </c>
+      <c r="F204" t="s">
+        <v>40</v>
+      </c>
+      <c r="G204" t="s">
+        <v>39</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204" t="s">
+        <v>53</v>
+      </c>
+      <c r="K204">
+        <v>3.6</v>
+      </c>
+      <c r="L204">
+        <v>3</v>
+      </c>
+      <c r="M204">
+        <v>2</v>
+      </c>
+      <c r="N204">
+        <v>3</v>
+      </c>
+      <c r="O204">
+        <v>2.9</v>
+      </c>
+      <c r="P204">
+        <v>2.4</v>
+      </c>
+      <c r="Q204">
+        <v>0</v>
+      </c>
+      <c r="R204">
+        <v>2.05</v>
+      </c>
+      <c r="S204">
+        <v>1.75</v>
+      </c>
+      <c r="T204">
+        <v>2</v>
+      </c>
+      <c r="U204">
+        <v>1.975</v>
+      </c>
+      <c r="V204">
+        <v>1.725</v>
+      </c>
+      <c r="W204">
+        <v>-1</v>
+      </c>
+      <c r="X204">
+        <v>-1</v>
+      </c>
+      <c r="Y204">
+        <v>1.4</v>
+      </c>
+      <c r="Z204">
+        <v>-1</v>
+      </c>
+      <c r="AA204">
+        <v>0.75</v>
+      </c>
+      <c r="AB204">
+        <v>-1</v>
+      </c>
+      <c r="AC204">
+        <v>0.7250000000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>7856523</v>
+      </c>
+      <c r="C205" t="s">
+        <v>28</v>
+      </c>
+      <c r="D205" t="s">
+        <v>28</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45343.33333333334</v>
+      </c>
+      <c r="F205" t="s">
+        <v>29</v>
+      </c>
+      <c r="G205" t="s">
+        <v>46</v>
+      </c>
+      <c r="K205">
+        <v>1.833</v>
+      </c>
+      <c r="L205">
+        <v>3</v>
+      </c>
+      <c r="M205">
         <v>4.2</v>
       </c>
-      <c r="N203">
+      <c r="N205">
+        <v>2</v>
+      </c>
+      <c r="O205">
+        <v>2.6</v>
+      </c>
+      <c r="P205">
+        <v>4.2</v>
+      </c>
+      <c r="Q205">
+        <v>-0.5</v>
+      </c>
+      <c r="R205">
+        <v>2</v>
+      </c>
+      <c r="S205">
+        <v>1.8</v>
+      </c>
+      <c r="T205">
+        <v>1.75</v>
+      </c>
+      <c r="U205">
         <v>1.85</v>
       </c>
-      <c r="O203">
-        <v>2.8</v>
-      </c>
-      <c r="P203">
-        <v>4.5</v>
-      </c>
-      <c r="Q203">
-        <v>-0.5</v>
-      </c>
-      <c r="R203">
-        <v>1.875</v>
-      </c>
-      <c r="S203">
-        <v>1.925</v>
-      </c>
-      <c r="T203">
-        <v>1.75</v>
-      </c>
-      <c r="U203">
-        <v>1.85</v>
-      </c>
-      <c r="V203">
+      <c r="V205">
         <v>1.95</v>
       </c>
-      <c r="W203">
-        <v>0</v>
-      </c>
-      <c r="X203">
-        <v>0</v>
-      </c>
-      <c r="Y203">
-        <v>0</v>
-      </c>
-      <c r="Z203">
-        <v>0</v>
-      </c>
-      <c r="AA203">
+      <c r="W205">
+        <v>0</v>
+      </c>
+      <c r="X205">
+        <v>0</v>
+      </c>
+      <c r="Y205">
+        <v>0</v>
+      </c>
+      <c r="Z205">
+        <v>0</v>
+      </c>
+      <c r="AA205">
         <v>0</v>
       </c>
     </row>

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC205"/>
+  <dimension ref="A1:AC207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1880,7 +1880,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6248170</v>
+        <v>6248171</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1892,46 +1892,46 @@
         <v>44967.35416666666</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N16">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="O16">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q16">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="T16">
         <v>1.75</v>
@@ -1946,16 +1946,16 @@
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.8</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB16">
         <v>0.95</v>
@@ -1969,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6248171</v>
+        <v>6248170</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1981,46 +1981,46 @@
         <v>44967.35416666666</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K17">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="L17">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N17">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="O17">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q17">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T17">
         <v>1.75</v>
@@ -2035,16 +2035,16 @@
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.7250000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB17">
         <v>0.95</v>
@@ -6152,7 +6152,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6612737</v>
+        <v>6612738</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6164,73 +6164,73 @@
         <v>45052.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64">
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K64">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L64">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="M64">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="N64">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="O64">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P64">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q64">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R64">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="S64">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="T64">
         <v>1.75</v>
       </c>
       <c r="U64">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V64">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA64">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC64">
         <v>-1</v>
@@ -6241,7 +6241,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6612738</v>
+        <v>6612737</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6253,73 +6253,73 @@
         <v>45052.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K65">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L65">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="M65">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="N65">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="O65">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P65">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R65">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="S65">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="T65">
         <v>1.75</v>
       </c>
       <c r="U65">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V65">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="W65">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z65">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB65">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -7398,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6691077</v>
+        <v>6688508</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7410,76 +7410,76 @@
         <v>45071.4375</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K78">
-        <v>1.333</v>
+        <v>6</v>
       </c>
       <c r="L78">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="N78">
-        <v>1.333</v>
+        <v>5.25</v>
       </c>
       <c r="O78">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P78">
-        <v>6.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q78">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R78">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S78">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U78">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V78">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA78">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6688508</v>
+        <v>6691077</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7499,76 +7499,76 @@
         <v>45071.4375</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79">
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K79">
-        <v>6</v>
+        <v>1.333</v>
       </c>
       <c r="L79">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="M79">
-        <v>1.5</v>
+        <v>8.5</v>
       </c>
       <c r="N79">
-        <v>5.25</v>
+        <v>1.333</v>
       </c>
       <c r="O79">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P79">
-        <v>1.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q79">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R79">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S79">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T79">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V79">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y79">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB79">
         <v>-1</v>
       </c>
       <c r="AC79">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -8199,7 +8199,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6729610</v>
+        <v>6729609</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8211,76 +8211,76 @@
         <v>45081.44791666666</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G87" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K87">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L87">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="M87">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="N87">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O87">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="P87">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S87">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T87">
         <v>2</v>
       </c>
       <c r="U87">
+        <v>2</v>
+      </c>
+      <c r="V87">
         <v>1.8</v>
       </c>
-      <c r="V87">
-        <v>2</v>
-      </c>
       <c r="W87">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB87">
+        <v>-1</v>
+      </c>
+      <c r="AC87">
         <v>0.8</v>
-      </c>
-      <c r="AC87">
-        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8288,7 +8288,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6729609</v>
+        <v>6729610</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8300,76 +8300,76 @@
         <v>45081.44791666666</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K88">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L88">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="M88">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="N88">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="O88">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="P88">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R88">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S88">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T88">
         <v>2</v>
       </c>
       <c r="U88">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V88">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X88">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA88">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC88">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -9356,7 +9356,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6838982</v>
+        <v>6838980</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9368,76 +9368,76 @@
         <v>45107.44791666666</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K100">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L100">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M100">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N100">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O100">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P100">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Q100">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R100">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S100">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T100">
         <v>2</v>
       </c>
       <c r="U100">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V100">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA100">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9445,7 +9445,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6838980</v>
+        <v>6838982</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9457,76 +9457,76 @@
         <v>45107.44791666666</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K101">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L101">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M101">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N101">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O101">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P101">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Q101">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R101">
+        <v>1.725</v>
+      </c>
+      <c r="S101">
+        <v>1.975</v>
+      </c>
+      <c r="T101">
+        <v>2</v>
+      </c>
+      <c r="U101">
+        <v>2</v>
+      </c>
+      <c r="V101">
         <v>1.8</v>
       </c>
-      <c r="S101">
-        <v>2</v>
-      </c>
-      <c r="T101">
-        <v>2</v>
-      </c>
-      <c r="U101">
-        <v>1.85</v>
-      </c>
-      <c r="V101">
-        <v>1.95</v>
-      </c>
       <c r="W101">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z101">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC101">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -11492,7 +11492,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7406927</v>
+        <v>7407173</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11504,76 +11504,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F124" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124">
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K124">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="L124">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M124">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="N124">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="O124">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="P124">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R124">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S124">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T124">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V124">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X124">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA124">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AB124">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC124">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11581,7 +11581,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7407173</v>
+        <v>7406927</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11593,76 +11593,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G125" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K125">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="M125">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="N125">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="O125">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P125">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q125">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S125">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T125">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U125">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V125">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W125">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
+        <v>0.45</v>
+      </c>
+      <c r="AA125">
         <v>-0.5</v>
       </c>
-      <c r="AA125">
-        <v>0.4875</v>
-      </c>
       <c r="AB125">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12649,7 +12649,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7453403</v>
+        <v>7453404</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12661,76 +12661,76 @@
         <v>45240.375</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G137" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H137">
         <v>0</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K137">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L137">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M137">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N137">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O137">
         <v>2.9</v>
       </c>
       <c r="P137">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R137">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S137">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T137">
         <v>2</v>
       </c>
       <c r="U137">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V137">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB137">
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12738,7 +12738,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7453404</v>
+        <v>7453403</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12750,76 +12750,76 @@
         <v>45240.375</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G138" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H138">
         <v>0</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K138">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L138">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M138">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N138">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O138">
         <v>2.9</v>
       </c>
       <c r="P138">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q138">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S138">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T138">
         <v>2</v>
       </c>
       <c r="U138">
+        <v>1.975</v>
+      </c>
+      <c r="V138">
+        <v>1.825</v>
+      </c>
+      <c r="W138">
+        <v>-1</v>
+      </c>
+      <c r="X138">
         <v>1.9</v>
       </c>
-      <c r="V138">
-        <v>1.9</v>
-      </c>
-      <c r="W138">
-        <v>-1</v>
-      </c>
-      <c r="X138">
-        <v>-1</v>
-      </c>
       <c r="Y138">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA138">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -13005,7 +13005,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7511490</v>
+        <v>7511489</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13017,10 +13017,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G141" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13032,41 +13032,41 @@
         <v>53</v>
       </c>
       <c r="K141">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L141">
+        <v>3</v>
+      </c>
+      <c r="M141">
         <v>3.1</v>
       </c>
-      <c r="M141">
-        <v>1.909</v>
-      </c>
       <c r="N141">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O141">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P141">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q141">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
+        <v>1.95</v>
+      </c>
+      <c r="S141">
+        <v>1.85</v>
+      </c>
+      <c r="T141">
+        <v>2.25</v>
+      </c>
+      <c r="U141">
+        <v>2.05</v>
+      </c>
+      <c r="V141">
         <v>1.75</v>
       </c>
-      <c r="S141">
-        <v>2.05</v>
-      </c>
-      <c r="T141">
-        <v>1.75</v>
-      </c>
-      <c r="U141">
-        <v>1.9</v>
-      </c>
-      <c r="V141">
-        <v>1.9</v>
-      </c>
       <c r="W141">
         <v>-1</v>
       </c>
@@ -13074,19 +13074,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB141">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC141">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13094,7 +13094,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7511489</v>
+        <v>7511490</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13106,10 +13106,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F142" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -13121,40 +13121,40 @@
         <v>53</v>
       </c>
       <c r="K142">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L142">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M142">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N142">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="O142">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P142">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R142">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S142">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U142">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -13163,19 +13163,19 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB142">
+        <v>0.45</v>
+      </c>
+      <c r="AC142">
         <v>-0.5</v>
-      </c>
-      <c r="AC142">
-        <v>0.375</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13984,7 +13984,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7555937</v>
+        <v>7555939</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13996,13 +13996,13 @@
         <v>45265.35416666666</v>
       </c>
       <c r="F152" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G152" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152">
         <v>2</v>
@@ -14011,40 +14011,40 @@
         <v>53</v>
       </c>
       <c r="K152">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="L152">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M152">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="N152">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="O152">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="P152">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="Q152">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R152">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S152">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T152">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U152">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V152">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W152">
         <v>-1</v>
@@ -14053,19 +14053,19 @@
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>2.4</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA152">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB152">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC152">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14073,7 +14073,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7555939</v>
+        <v>7555937</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14085,13 +14085,13 @@
         <v>45265.35416666666</v>
       </c>
       <c r="F153" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G153" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153">
         <v>2</v>
@@ -14100,40 +14100,40 @@
         <v>53</v>
       </c>
       <c r="K153">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="L153">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M153">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="N153">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="O153">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P153">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q153">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R153">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S153">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T153">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U153">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V153">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W153">
         <v>-1</v>
@@ -14142,19 +14142,19 @@
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>0.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="Z153">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB153">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -15764,7 +15764,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7613564</v>
+        <v>7615329</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15776,76 +15776,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G172" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H172">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K172">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="L172">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="M172">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N172">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O172">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P172">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q172">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R172">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S172">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T172">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U172">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V172">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W172">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB172">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15853,7 +15853,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7615329</v>
+        <v>7613564</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15865,76 +15865,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F173" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G173" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K173">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="L173">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="M173">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N173">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="O173">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P173">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Q173">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R173">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S173">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T173">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U173">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V173">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X173">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA173">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC173">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -17455,7 +17455,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7811883</v>
+        <v>7811882</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17467,76 +17467,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F191" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G191" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="s">
         <v>51</v>
       </c>
       <c r="K191">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="L191">
+        <v>2.9</v>
+      </c>
+      <c r="M191">
         <v>3.4</v>
       </c>
-      <c r="M191">
-        <v>1.727</v>
-      </c>
       <c r="N191">
+        <v>2.05</v>
+      </c>
+      <c r="O191">
+        <v>2.9</v>
+      </c>
+      <c r="P191">
         <v>3.6</v>
       </c>
-      <c r="O191">
-        <v>3.3</v>
-      </c>
-      <c r="P191">
-        <v>1.909</v>
-      </c>
       <c r="Q191">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R191">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S191">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T191">
         <v>1.75</v>
       </c>
       <c r="U191">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="V191">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W191">
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC191">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17544,7 +17544,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7811882</v>
+        <v>7811883</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17556,76 +17556,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F192" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G192" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192" t="s">
         <v>51</v>
       </c>
       <c r="K192">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="L192">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M192">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="N192">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="O192">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P192">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q192">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R192">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S192">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T192">
         <v>1.75</v>
       </c>
       <c r="U192">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="V192">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W192">
         <v>-1</v>
       </c>
       <c r="X192">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA192">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC192">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -18718,6 +18718,15 @@
       <c r="G205" t="s">
         <v>46</v>
       </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205" t="s">
+        <v>51</v>
+      </c>
       <c r="K205">
         <v>1.833</v>
       </c>
@@ -18755,18 +18764,187 @@
         <v>1.95</v>
       </c>
       <c r="W205">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X205">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Y205">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
+        <v>0.8</v>
+      </c>
+      <c r="AB205">
+        <v>-1</v>
+      </c>
+      <c r="AC205">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>7861093</v>
+      </c>
+      <c r="C206" t="s">
+        <v>28</v>
+      </c>
+      <c r="D206" t="s">
+        <v>28</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45343.4375</v>
+      </c>
+      <c r="F206" t="s">
+        <v>45</v>
+      </c>
+      <c r="G206" t="s">
+        <v>49</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
+        <v>2</v>
+      </c>
+      <c r="J206" t="s">
+        <v>53</v>
+      </c>
+      <c r="K206">
+        <v>2.8</v>
+      </c>
+      <c r="L206">
+        <v>2.6</v>
+      </c>
+      <c r="M206">
+        <v>2.7</v>
+      </c>
+      <c r="N206">
+        <v>3</v>
+      </c>
+      <c r="O206">
+        <v>2.6</v>
+      </c>
+      <c r="P206">
+        <v>2.55</v>
+      </c>
+      <c r="Q206">
+        <v>0</v>
+      </c>
+      <c r="R206">
+        <v>2.05</v>
+      </c>
+      <c r="S206">
+        <v>1.75</v>
+      </c>
+      <c r="T206">
+        <v>2</v>
+      </c>
+      <c r="U206">
+        <v>2.025</v>
+      </c>
+      <c r="V206">
+        <v>1.775</v>
+      </c>
+      <c r="W206">
+        <v>-1</v>
+      </c>
+      <c r="X206">
+        <v>-1</v>
+      </c>
+      <c r="Y206">
+        <v>1.55</v>
+      </c>
+      <c r="Z206">
+        <v>-1</v>
+      </c>
+      <c r="AA206">
+        <v>0.75</v>
+      </c>
+      <c r="AB206">
+        <v>0</v>
+      </c>
+      <c r="AC206">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:29">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>7864433</v>
+      </c>
+      <c r="C207" t="s">
+        <v>28</v>
+      </c>
+      <c r="D207" t="s">
+        <v>28</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45344.54166666666</v>
+      </c>
+      <c r="F207" t="s">
+        <v>43</v>
+      </c>
+      <c r="G207" t="s">
+        <v>38</v>
+      </c>
+      <c r="K207">
+        <v>3.6</v>
+      </c>
+      <c r="L207">
+        <v>3</v>
+      </c>
+      <c r="M207">
+        <v>2</v>
+      </c>
+      <c r="N207">
+        <v>3</v>
+      </c>
+      <c r="O207">
+        <v>3.2</v>
+      </c>
+      <c r="P207">
+        <v>2.15</v>
+      </c>
+      <c r="Q207">
+        <v>0.25</v>
+      </c>
+      <c r="R207">
+        <v>1.85</v>
+      </c>
+      <c r="S207">
+        <v>1.95</v>
+      </c>
+      <c r="T207">
+        <v>2.25</v>
+      </c>
+      <c r="U207">
+        <v>1.95</v>
+      </c>
+      <c r="V207">
+        <v>1.85</v>
+      </c>
+      <c r="W207">
+        <v>0</v>
+      </c>
+      <c r="X207">
+        <v>0</v>
+      </c>
+      <c r="Y207">
+        <v>0</v>
+      </c>
+      <c r="Z207">
+        <v>0</v>
+      </c>
+      <c r="AA207">
         <v>0</v>
       </c>
     </row>

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC207"/>
+  <dimension ref="A1:AC210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1880,7 +1880,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6248171</v>
+        <v>6248170</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1892,46 +1892,46 @@
         <v>44967.35416666666</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K16">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="L16">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M16">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="O16">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T16">
         <v>1.75</v>
@@ -1946,16 +1946,16 @@
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.7250000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB16">
         <v>0.95</v>
@@ -1969,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6248170</v>
+        <v>6248171</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1981,46 +1981,46 @@
         <v>44967.35416666666</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K17">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N17">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q17">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S17">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="T17">
         <v>1.75</v>
@@ -2035,16 +2035,16 @@
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.8</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB17">
         <v>0.95</v>
@@ -2681,7 +2681,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6315121</v>
+        <v>6315120</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2693,76 +2693,76 @@
         <v>44981.33333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25">
+        <v>2.6</v>
+      </c>
+      <c r="L25">
+        <v>2.6</v>
+      </c>
+      <c r="M25">
+        <v>2.9</v>
+      </c>
+      <c r="N25">
+        <v>2.9</v>
+      </c>
+      <c r="O25">
+        <v>2.5</v>
+      </c>
+      <c r="P25">
+        <v>2.7</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>2</v>
+      </c>
+      <c r="S25">
+        <v>1.8</v>
+      </c>
+      <c r="T25">
+        <v>2</v>
+      </c>
+      <c r="U25">
+        <v>2</v>
+      </c>
+      <c r="V25">
+        <v>1.8</v>
+      </c>
+      <c r="W25">
+        <v>-1</v>
+      </c>
+      <c r="X25">
+        <v>1.5</v>
+      </c>
+      <c r="Y25">
+        <v>-1</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>-0</v>
+      </c>
+      <c r="AB25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25" t="s">
-        <v>52</v>
-      </c>
-      <c r="K25">
-        <v>3.4</v>
-      </c>
-      <c r="L25">
-        <v>2.5</v>
-      </c>
-      <c r="M25">
-        <v>2.4</v>
-      </c>
-      <c r="N25">
-        <v>3.25</v>
-      </c>
-      <c r="O25">
-        <v>2.55</v>
-      </c>
-      <c r="P25">
-        <v>2.45</v>
-      </c>
-      <c r="Q25">
-        <v>0.25</v>
-      </c>
-      <c r="R25">
-        <v>1.725</v>
-      </c>
-      <c r="S25">
-        <v>2.075</v>
-      </c>
-      <c r="T25">
-        <v>1.75</v>
-      </c>
-      <c r="U25">
-        <v>1.8</v>
-      </c>
-      <c r="V25">
-        <v>2</v>
-      </c>
-      <c r="W25">
-        <v>2.25</v>
-      </c>
-      <c r="X25">
-        <v>-1</v>
-      </c>
-      <c r="Y25">
-        <v>-1</v>
-      </c>
-      <c r="Z25">
-        <v>0.7250000000000001</v>
-      </c>
-      <c r="AA25">
-        <v>-1</v>
-      </c>
-      <c r="AB25">
-        <v>-1</v>
-      </c>
       <c r="AC25">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2770,7 +2770,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6315120</v>
+        <v>6315121</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2782,76 +2782,76 @@
         <v>44981.33333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K26">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="L26">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M26">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="N26">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="O26">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="P26">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R26">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S26">
+        <v>2.075</v>
+      </c>
+      <c r="T26">
+        <v>1.75</v>
+      </c>
+      <c r="U26">
         <v>1.8</v>
       </c>
-      <c r="T26">
-        <v>2</v>
-      </c>
-      <c r="U26">
-        <v>2</v>
-      </c>
       <c r="V26">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X26">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA26">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
+        <v>-1</v>
+      </c>
+      <c r="AC26">
         <v>1</v>
-      </c>
-      <c r="AC26">
-        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3927,7 +3927,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6410621</v>
+        <v>6410619</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3939,40 +3939,40 @@
         <v>45003.375</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G39" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K39">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="L39">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39">
         <v>2.5</v>
       </c>
-      <c r="N39">
-        <v>2.7</v>
-      </c>
       <c r="O39">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="P39">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
         <v>2</v>
@@ -3984,31 +3984,31 @@
         <v>1.75</v>
       </c>
       <c r="U39">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="V39">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X39">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA39">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC39">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4016,7 +4016,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6410619</v>
+        <v>6410621</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4028,40 +4028,40 @@
         <v>45003.375</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K40">
+        <v>2.8</v>
+      </c>
+      <c r="L40">
+        <v>2.8</v>
+      </c>
+      <c r="M40">
         <v>2.5</v>
       </c>
-      <c r="L40">
-        <v>2.6</v>
-      </c>
-      <c r="M40">
-        <v>3</v>
-      </c>
       <c r="N40">
+        <v>2.7</v>
+      </c>
+      <c r="O40">
+        <v>2.9</v>
+      </c>
+      <c r="P40">
         <v>2.5</v>
       </c>
-      <c r="O40">
-        <v>2.6</v>
-      </c>
-      <c r="P40">
-        <v>3</v>
-      </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R40">
         <v>2</v>
@@ -4073,31 +4073,31 @@
         <v>1.75</v>
       </c>
       <c r="U40">
+        <v>1.725</v>
+      </c>
+      <c r="V40">
+        <v>1.975</v>
+      </c>
+      <c r="W40">
+        <v>-1</v>
+      </c>
+      <c r="X40">
         <v>1.9</v>
       </c>
-      <c r="V40">
-        <v>1.9</v>
-      </c>
-      <c r="W40">
-        <v>1.5</v>
-      </c>
-      <c r="X40">
-        <v>-1</v>
-      </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB40">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -6152,7 +6152,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6612738</v>
+        <v>6612737</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6164,73 +6164,73 @@
         <v>45052.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K64">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L64">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="M64">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="N64">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="O64">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P64">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R64">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="S64">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="T64">
         <v>1.75</v>
       </c>
       <c r="U64">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V64">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="W64">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z64">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB64">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC64">
         <v>-1</v>
@@ -6241,7 +6241,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6612737</v>
+        <v>6612738</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6253,73 +6253,73 @@
         <v>45052.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I65">
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K65">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L65">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="M65">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="N65">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="O65">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P65">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q65">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R65">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="S65">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="T65">
         <v>1.75</v>
       </c>
       <c r="U65">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V65">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA65">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -7576,7 +7576,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6707962</v>
+        <v>6704935</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7588,76 +7588,76 @@
         <v>45075.44791666666</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K80">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L80">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M80">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="N80">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="O80">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="P80">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R80">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S80">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T80">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U80">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V80">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W80">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z80">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB80">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7665,7 +7665,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6704935</v>
+        <v>6707962</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7677,76 +7677,76 @@
         <v>45075.44791666666</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K81">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L81">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M81">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="N81">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="O81">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="P81">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="Q81">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S81">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T81">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U81">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V81">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA81">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC81">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -8199,7 +8199,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6729609</v>
+        <v>6729610</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8211,76 +8211,76 @@
         <v>45081.44791666666</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K87">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L87">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="M87">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="N87">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="O87">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="P87">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R87">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S87">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T87">
         <v>2</v>
       </c>
       <c r="U87">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V87">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X87">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA87">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8288,7 +8288,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6729610</v>
+        <v>6729609</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8300,76 +8300,76 @@
         <v>45081.44791666666</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G88" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K88">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L88">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="M88">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="N88">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O88">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="P88">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S88">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T88">
         <v>2</v>
       </c>
       <c r="U88">
+        <v>2</v>
+      </c>
+      <c r="V88">
         <v>1.8</v>
       </c>
-      <c r="V88">
-        <v>2</v>
-      </c>
       <c r="W88">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB88">
+        <v>-1</v>
+      </c>
+      <c r="AC88">
         <v>0.8</v>
-      </c>
-      <c r="AC88">
-        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -12649,7 +12649,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7453404</v>
+        <v>7453403</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12661,76 +12661,76 @@
         <v>45240.375</v>
       </c>
       <c r="F137" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G137" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H137">
         <v>0</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K137">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L137">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M137">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N137">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O137">
         <v>2.9</v>
       </c>
       <c r="P137">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q137">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S137">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T137">
         <v>2</v>
       </c>
       <c r="U137">
+        <v>1.975</v>
+      </c>
+      <c r="V137">
+        <v>1.825</v>
+      </c>
+      <c r="W137">
+        <v>-1</v>
+      </c>
+      <c r="X137">
         <v>1.9</v>
       </c>
-      <c r="V137">
-        <v>1.9</v>
-      </c>
-      <c r="W137">
-        <v>-1</v>
-      </c>
-      <c r="X137">
-        <v>-1</v>
-      </c>
       <c r="Y137">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA137">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AB137">
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12738,7 +12738,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7453403</v>
+        <v>7453404</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12750,76 +12750,76 @@
         <v>45240.375</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G138" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H138">
         <v>0</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K138">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L138">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M138">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N138">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O138">
         <v>2.9</v>
       </c>
       <c r="P138">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R138">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S138">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T138">
         <v>2</v>
       </c>
       <c r="U138">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V138">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z138">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -13005,7 +13005,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7511489</v>
+        <v>7511490</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13017,10 +13017,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F141" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G141" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13032,40 +13032,40 @@
         <v>53</v>
       </c>
       <c r="K141">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L141">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M141">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N141">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="O141">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P141">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S141">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T141">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U141">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V141">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13074,19 +13074,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB141">
+        <v>0.45</v>
+      </c>
+      <c r="AC141">
         <v>-0.5</v>
-      </c>
-      <c r="AC141">
-        <v>0.375</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13094,7 +13094,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7511490</v>
+        <v>7511489</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13106,10 +13106,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G142" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -13121,41 +13121,41 @@
         <v>53</v>
       </c>
       <c r="K142">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L142">
+        <v>3</v>
+      </c>
+      <c r="M142">
         <v>3.1</v>
       </c>
-      <c r="M142">
-        <v>1.909</v>
-      </c>
       <c r="N142">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O142">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P142">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q142">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
+        <v>1.95</v>
+      </c>
+      <c r="S142">
+        <v>1.85</v>
+      </c>
+      <c r="T142">
+        <v>2.25</v>
+      </c>
+      <c r="U142">
+        <v>2.05</v>
+      </c>
+      <c r="V142">
         <v>1.75</v>
       </c>
-      <c r="S142">
-        <v>2.05</v>
-      </c>
-      <c r="T142">
-        <v>1.75</v>
-      </c>
-      <c r="U142">
-        <v>1.9</v>
-      </c>
-      <c r="V142">
-        <v>1.9</v>
-      </c>
       <c r="W142">
         <v>-1</v>
       </c>
@@ -13163,19 +13163,19 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB142">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC142">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13984,7 +13984,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7555939</v>
+        <v>7555937</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13996,13 +13996,13 @@
         <v>45265.35416666666</v>
       </c>
       <c r="F152" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G152" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
         <v>2</v>
@@ -14011,40 +14011,40 @@
         <v>53</v>
       </c>
       <c r="K152">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="L152">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M152">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="N152">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="O152">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P152">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q152">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R152">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S152">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T152">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U152">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V152">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W152">
         <v>-1</v>
@@ -14053,19 +14053,19 @@
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>0.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="Z152">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB152">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14073,7 +14073,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7555937</v>
+        <v>7555939</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14085,13 +14085,13 @@
         <v>45265.35416666666</v>
       </c>
       <c r="F153" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G153" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153">
         <v>2</v>
@@ -14100,40 +14100,40 @@
         <v>53</v>
       </c>
       <c r="K153">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="L153">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M153">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="N153">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="O153">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="P153">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R153">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S153">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T153">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U153">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V153">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W153">
         <v>-1</v>
@@ -14142,19 +14142,19 @@
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>2.4</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA153">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB153">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC153">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14340,7 +14340,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7565123</v>
+        <v>7565124</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14352,56 +14352,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F156" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G156" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
         <v>1</v>
-      </c>
-      <c r="I156">
-        <v>2</v>
       </c>
       <c r="J156" t="s">
         <v>53</v>
       </c>
       <c r="K156">
+        <v>1.5</v>
+      </c>
+      <c r="L156">
+        <v>3.6</v>
+      </c>
+      <c r="M156">
+        <v>6</v>
+      </c>
+      <c r="N156">
         <v>1.727</v>
       </c>
-      <c r="L156">
-        <v>3.4</v>
-      </c>
-      <c r="M156">
+      <c r="O156">
+        <v>3.5</v>
+      </c>
+      <c r="P156">
         <v>4.2</v>
       </c>
-      <c r="N156">
-        <v>1.833</v>
-      </c>
-      <c r="O156">
-        <v>3.3</v>
-      </c>
-      <c r="P156">
-        <v>3.75</v>
-      </c>
       <c r="Q156">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R156">
+        <v>2</v>
+      </c>
+      <c r="S156">
+        <v>1.8</v>
+      </c>
+      <c r="T156">
+        <v>2</v>
+      </c>
+      <c r="U156">
         <v>1.875</v>
       </c>
-      <c r="S156">
+      <c r="V156">
         <v>1.925</v>
       </c>
-      <c r="T156">
-        <v>2</v>
-      </c>
-      <c r="U156">
-        <v>1.925</v>
-      </c>
-      <c r="V156">
-        <v>1.875</v>
-      </c>
       <c r="W156">
         <v>-1</v>
       </c>
@@ -14409,19 +14409,19 @@
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
+        <v>0.8</v>
+      </c>
+      <c r="AB156">
+        <v>-1</v>
+      </c>
+      <c r="AC156">
         <v>0.925</v>
-      </c>
-      <c r="AB156">
-        <v>0.925</v>
-      </c>
-      <c r="AC156">
-        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14429,7 +14429,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7565124</v>
+        <v>7565123</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14441,56 +14441,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F157" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G157" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
         <v>53</v>
       </c>
       <c r="K157">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L157">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M157">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N157">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="O157">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P157">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q157">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S157">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T157">
         <v>2</v>
       </c>
       <c r="U157">
+        <v>1.925</v>
+      </c>
+      <c r="V157">
         <v>1.875</v>
       </c>
-      <c r="V157">
-        <v>1.925</v>
-      </c>
       <c r="W157">
         <v>-1</v>
       </c>
@@ -14498,19 +14498,19 @@
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC157">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14785,7 +14785,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7592803</v>
+        <v>7590595</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14797,49 +14797,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F161" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G161" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H161">
         <v>0</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J161" t="s">
         <v>53</v>
       </c>
       <c r="K161">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L161">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M161">
+        <v>2</v>
+      </c>
+      <c r="N161">
+        <v>4.5</v>
+      </c>
+      <c r="O161">
         <v>3</v>
       </c>
-      <c r="N161">
-        <v>2.3</v>
-      </c>
-      <c r="O161">
-        <v>2.875</v>
-      </c>
       <c r="P161">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q161">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R161">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S161">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T161">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U161">
         <v>2</v>
@@ -14854,19 +14854,19 @@
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC161">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14874,7 +14874,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7590595</v>
+        <v>7592803</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14886,49 +14886,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F162" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G162" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H162">
         <v>0</v>
       </c>
       <c r="I162">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J162" t="s">
         <v>53</v>
       </c>
       <c r="K162">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L162">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M162">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N162">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="O162">
+        <v>2.875</v>
+      </c>
+      <c r="P162">
         <v>3</v>
       </c>
-      <c r="P162">
-        <v>1.75</v>
-      </c>
       <c r="Q162">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S162">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T162">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U162">
         <v>2</v>
@@ -14943,19 +14943,19 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB162">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7645264</v>
+        <v>7648519</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,46 +17022,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F186" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G186" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186">
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K186">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L186">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M186">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="N186">
+        <v>5.25</v>
+      </c>
+      <c r="O186">
+        <v>3.75</v>
+      </c>
+      <c r="P186">
         <v>1.533</v>
       </c>
-      <c r="O186">
-        <v>3.5</v>
-      </c>
-      <c r="P186">
-        <v>6.5</v>
-      </c>
       <c r="Q186">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R186">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S186">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T186">
         <v>2</v>
@@ -17076,22 +17076,22 @@
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA186">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB186">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7648519</v>
+        <v>7645264</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,46 +17111,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G187" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187">
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K187">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L187">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M187">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="N187">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="O187">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P187">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="Q187">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R187">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S187">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T187">
         <v>2</v>
@@ -17165,22 +17165,22 @@
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y187">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
+        <v>0.825</v>
+      </c>
+      <c r="AB187">
+        <v>0</v>
+      </c>
+      <c r="AC187">
         <v>-0</v>
-      </c>
-      <c r="AB187">
-        <v>-1</v>
-      </c>
-      <c r="AC187">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -18888,7 +18888,7 @@
         <v>28</v>
       </c>
       <c r="E207" s="2">
-        <v>45344.54166666666</v>
+        <v>45344.33333333334</v>
       </c>
       <c r="F207" t="s">
         <v>43</v>
@@ -18896,6 +18896,15 @@
       <c r="G207" t="s">
         <v>38</v>
       </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>2</v>
+      </c>
+      <c r="J207" t="s">
+        <v>53</v>
+      </c>
       <c r="K207">
         <v>3.6</v>
       </c>
@@ -18906,10 +18915,10 @@
         <v>2</v>
       </c>
       <c r="N207">
+        <v>3.25</v>
+      </c>
+      <c r="O207">
         <v>3</v>
-      </c>
-      <c r="O207">
-        <v>3.2</v>
       </c>
       <c r="P207">
         <v>2.15</v>
@@ -18918,13 +18927,13 @@
         <v>0.25</v>
       </c>
       <c r="R207">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S207">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T207">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U207">
         <v>1.95</v>
@@ -18933,18 +18942,261 @@
         <v>1.85</v>
       </c>
       <c r="W207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="Z207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA207">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB207">
+        <v>0</v>
+      </c>
+      <c r="AC207">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:29">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>7864431</v>
+      </c>
+      <c r="C208" t="s">
+        <v>28</v>
+      </c>
+      <c r="D208" t="s">
+        <v>28</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45344.4375</v>
+      </c>
+      <c r="F208" t="s">
+        <v>41</v>
+      </c>
+      <c r="G208" t="s">
+        <v>31</v>
+      </c>
+      <c r="H208">
+        <v>1</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208" t="s">
+        <v>51</v>
+      </c>
+      <c r="K208">
+        <v>2.2</v>
+      </c>
+      <c r="L208">
+        <v>2.9</v>
+      </c>
+      <c r="M208">
+        <v>3.2</v>
+      </c>
+      <c r="N208">
+        <v>2.25</v>
+      </c>
+      <c r="O208">
+        <v>2.9</v>
+      </c>
+      <c r="P208">
+        <v>3.1</v>
+      </c>
+      <c r="Q208">
+        <v>-0.25</v>
+      </c>
+      <c r="R208">
+        <v>2</v>
+      </c>
+      <c r="S208">
+        <v>1.8</v>
+      </c>
+      <c r="T208">
+        <v>1.75</v>
+      </c>
+      <c r="U208">
+        <v>1.775</v>
+      </c>
+      <c r="V208">
+        <v>2.025</v>
+      </c>
+      <c r="W208">
+        <v>-1</v>
+      </c>
+      <c r="X208">
+        <v>1.9</v>
+      </c>
+      <c r="Y208">
+        <v>-1</v>
+      </c>
+      <c r="Z208">
+        <v>-0.5</v>
+      </c>
+      <c r="AA208">
+        <v>0.4</v>
+      </c>
+      <c r="AB208">
+        <v>0.3875</v>
+      </c>
+      <c r="AC208">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:27">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>7870836</v>
+      </c>
+      <c r="C209" t="s">
+        <v>28</v>
+      </c>
+      <c r="D209" t="s">
+        <v>28</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45345.33333333334</v>
+      </c>
+      <c r="F209" t="s">
+        <v>37</v>
+      </c>
+      <c r="G209" t="s">
+        <v>44</v>
+      </c>
+      <c r="K209">
+        <v>2.6</v>
+      </c>
+      <c r="L209">
+        <v>2.7</v>
+      </c>
+      <c r="M209">
+        <v>2.8</v>
+      </c>
+      <c r="N209">
+        <v>2.45</v>
+      </c>
+      <c r="O209">
+        <v>2.6</v>
+      </c>
+      <c r="P209">
+        <v>3.1</v>
+      </c>
+      <c r="Q209">
+        <v>-0.25</v>
+      </c>
+      <c r="R209">
+        <v>2.1</v>
+      </c>
+      <c r="S209">
+        <v>1.7</v>
+      </c>
+      <c r="T209">
+        <v>1.75</v>
+      </c>
+      <c r="U209">
+        <v>1.825</v>
+      </c>
+      <c r="V209">
+        <v>1.975</v>
+      </c>
+      <c r="W209">
+        <v>0</v>
+      </c>
+      <c r="X209">
+        <v>0</v>
+      </c>
+      <c r="Y209">
+        <v>0</v>
+      </c>
+      <c r="Z209">
+        <v>0</v>
+      </c>
+      <c r="AA209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:27">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>7873977</v>
+      </c>
+      <c r="C210" t="s">
+        <v>28</v>
+      </c>
+      <c r="D210" t="s">
+        <v>28</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45345.4375</v>
+      </c>
+      <c r="F210" t="s">
+        <v>47</v>
+      </c>
+      <c r="G210" t="s">
+        <v>48</v>
+      </c>
+      <c r="K210">
+        <v>1.8</v>
+      </c>
+      <c r="L210">
+        <v>3</v>
+      </c>
+      <c r="M210">
+        <v>4.5</v>
+      </c>
+      <c r="N210">
+        <v>1.8</v>
+      </c>
+      <c r="O210">
+        <v>3</v>
+      </c>
+      <c r="P210">
+        <v>4.5</v>
+      </c>
+      <c r="Q210">
+        <v>-0.5</v>
+      </c>
+      <c r="R210">
+        <v>1.825</v>
+      </c>
+      <c r="S210">
+        <v>1.975</v>
+      </c>
+      <c r="T210">
+        <v>2</v>
+      </c>
+      <c r="U210">
+        <v>2</v>
+      </c>
+      <c r="V210">
+        <v>1.8</v>
+      </c>
+      <c r="W210">
+        <v>0</v>
+      </c>
+      <c r="X210">
+        <v>0</v>
+      </c>
+      <c r="Y210">
+        <v>0</v>
+      </c>
+      <c r="Z210">
+        <v>0</v>
+      </c>
+      <c r="AA210">
         <v>0</v>
       </c>
     </row>

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC210"/>
+  <dimension ref="A1:AC212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1702,7 +1702,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6230049</v>
+        <v>6230048</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1714,46 +1714,46 @@
         <v>44963.5625</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K14">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L14">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M14">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N14">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O14">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P14">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="Q14">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S14">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T14">
         <v>2</v>
@@ -1765,25 +1765,25 @@
         <v>1.775</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA14">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1791,7 +1791,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6230048</v>
+        <v>6230049</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1803,46 +1803,46 @@
         <v>44963.5625</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K15">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M15">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="N15">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P15">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R15">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S15">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T15">
         <v>2</v>
@@ -1854,25 +1854,25 @@
         <v>1.775</v>
       </c>
       <c r="W15">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z15">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1880,7 +1880,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6248170</v>
+        <v>6248171</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1892,46 +1892,46 @@
         <v>44967.35416666666</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N16">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="O16">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q16">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="T16">
         <v>1.75</v>
@@ -1946,16 +1946,16 @@
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.8</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB16">
         <v>0.95</v>
@@ -1969,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6248171</v>
+        <v>6248170</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1981,46 +1981,46 @@
         <v>44967.35416666666</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K17">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="L17">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N17">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="O17">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q17">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T17">
         <v>1.75</v>
@@ -2035,16 +2035,16 @@
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.7250000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB17">
         <v>0.95</v>
@@ -6152,7 +6152,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6612737</v>
+        <v>6612738</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6164,73 +6164,73 @@
         <v>45052.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64">
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K64">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L64">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="M64">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="N64">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="O64">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P64">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q64">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R64">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="S64">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="T64">
         <v>1.75</v>
       </c>
       <c r="U64">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V64">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA64">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC64">
         <v>-1</v>
@@ -6241,7 +6241,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6612738</v>
+        <v>6612737</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6253,73 +6253,73 @@
         <v>45052.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K65">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L65">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="M65">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="N65">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="O65">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P65">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R65">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="S65">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="T65">
         <v>1.75</v>
       </c>
       <c r="U65">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V65">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="W65">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z65">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB65">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -7576,7 +7576,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6704935</v>
+        <v>6707962</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7588,76 +7588,76 @@
         <v>45075.44791666666</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K80">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L80">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M80">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="N80">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="O80">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="P80">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="Q80">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S80">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T80">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U80">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V80">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA80">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC80">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7665,7 +7665,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6707962</v>
+        <v>6704935</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7677,76 +7677,76 @@
         <v>45075.44791666666</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K81">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L81">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M81">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="N81">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="O81">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="P81">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R81">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S81">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T81">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U81">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V81">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W81">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z81">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB81">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -8199,7 +8199,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6729610</v>
+        <v>6729609</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8211,76 +8211,76 @@
         <v>45081.44791666666</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G87" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K87">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L87">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="M87">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="N87">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O87">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="P87">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S87">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T87">
         <v>2</v>
       </c>
       <c r="U87">
+        <v>2</v>
+      </c>
+      <c r="V87">
         <v>1.8</v>
       </c>
-      <c r="V87">
-        <v>2</v>
-      </c>
       <c r="W87">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB87">
+        <v>-1</v>
+      </c>
+      <c r="AC87">
         <v>0.8</v>
-      </c>
-      <c r="AC87">
-        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8288,7 +8288,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6729609</v>
+        <v>6729610</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8300,76 +8300,76 @@
         <v>45081.44791666666</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K88">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L88">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="M88">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="N88">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="O88">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="P88">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R88">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S88">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T88">
         <v>2</v>
       </c>
       <c r="U88">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V88">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X88">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA88">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC88">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -11492,7 +11492,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7407173</v>
+        <v>7406927</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11504,76 +11504,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G124" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124">
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K124">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="M124">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="N124">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="O124">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P124">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q124">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S124">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U124">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V124">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W124">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
+        <v>0.45</v>
+      </c>
+      <c r="AA124">
         <v>-0.5</v>
       </c>
-      <c r="AA124">
-        <v>0.4875</v>
-      </c>
       <c r="AB124">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11581,7 +11581,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7406927</v>
+        <v>7407173</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11593,76 +11593,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F125" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K125">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="L125">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M125">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="N125">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="O125">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="P125">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="Q125">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R125">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S125">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T125">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V125">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X125">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12649,7 +12649,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7453403</v>
+        <v>7453404</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12661,76 +12661,76 @@
         <v>45240.375</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G137" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H137">
         <v>0</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K137">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L137">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M137">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N137">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O137">
         <v>2.9</v>
       </c>
       <c r="P137">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R137">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S137">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T137">
         <v>2</v>
       </c>
       <c r="U137">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V137">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB137">
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12738,7 +12738,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7453404</v>
+        <v>7453403</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12750,76 +12750,76 @@
         <v>45240.375</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G138" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H138">
         <v>0</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K138">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L138">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M138">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N138">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O138">
         <v>2.9</v>
       </c>
       <c r="P138">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q138">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S138">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T138">
         <v>2</v>
       </c>
       <c r="U138">
+        <v>1.975</v>
+      </c>
+      <c r="V138">
+        <v>1.825</v>
+      </c>
+      <c r="W138">
+        <v>-1</v>
+      </c>
+      <c r="X138">
         <v>1.9</v>
       </c>
-      <c r="V138">
-        <v>1.9</v>
-      </c>
-      <c r="W138">
-        <v>-1</v>
-      </c>
-      <c r="X138">
-        <v>-1</v>
-      </c>
       <c r="Y138">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA138">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -13005,7 +13005,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7511490</v>
+        <v>7511489</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13017,10 +13017,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G141" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13032,41 +13032,41 @@
         <v>53</v>
       </c>
       <c r="K141">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L141">
+        <v>3</v>
+      </c>
+      <c r="M141">
         <v>3.1</v>
       </c>
-      <c r="M141">
-        <v>1.909</v>
-      </c>
       <c r="N141">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O141">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P141">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q141">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
+        <v>1.95</v>
+      </c>
+      <c r="S141">
+        <v>1.85</v>
+      </c>
+      <c r="T141">
+        <v>2.25</v>
+      </c>
+      <c r="U141">
+        <v>2.05</v>
+      </c>
+      <c r="V141">
         <v>1.75</v>
       </c>
-      <c r="S141">
-        <v>2.05</v>
-      </c>
-      <c r="T141">
-        <v>1.75</v>
-      </c>
-      <c r="U141">
-        <v>1.9</v>
-      </c>
-      <c r="V141">
-        <v>1.9</v>
-      </c>
       <c r="W141">
         <v>-1</v>
       </c>
@@ -13074,19 +13074,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB141">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC141">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13094,7 +13094,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7511489</v>
+        <v>7511490</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13106,10 +13106,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F142" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -13121,40 +13121,40 @@
         <v>53</v>
       </c>
       <c r="K142">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L142">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M142">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N142">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="O142">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P142">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R142">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S142">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U142">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -13163,19 +13163,19 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB142">
+        <v>0.45</v>
+      </c>
+      <c r="AC142">
         <v>-0.5</v>
-      </c>
-      <c r="AC142">
-        <v>0.375</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -14340,7 +14340,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7565124</v>
+        <v>7565123</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14352,56 +14352,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F156" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G156" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J156" t="s">
         <v>53</v>
       </c>
       <c r="K156">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L156">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M156">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N156">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="O156">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P156">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q156">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R156">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S156">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T156">
         <v>2</v>
       </c>
       <c r="U156">
+        <v>1.925</v>
+      </c>
+      <c r="V156">
         <v>1.875</v>
       </c>
-      <c r="V156">
-        <v>1.925</v>
-      </c>
       <c r="W156">
         <v>-1</v>
       </c>
@@ -14409,19 +14409,19 @@
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC156">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14429,7 +14429,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7565123</v>
+        <v>7565124</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14441,56 +14441,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G157" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
         <v>1</v>
-      </c>
-      <c r="I157">
-        <v>2</v>
       </c>
       <c r="J157" t="s">
         <v>53</v>
       </c>
       <c r="K157">
+        <v>1.5</v>
+      </c>
+      <c r="L157">
+        <v>3.6</v>
+      </c>
+      <c r="M157">
+        <v>6</v>
+      </c>
+      <c r="N157">
         <v>1.727</v>
       </c>
-      <c r="L157">
-        <v>3.4</v>
-      </c>
-      <c r="M157">
+      <c r="O157">
+        <v>3.5</v>
+      </c>
+      <c r="P157">
         <v>4.2</v>
       </c>
-      <c r="N157">
-        <v>1.833</v>
-      </c>
-      <c r="O157">
-        <v>3.3</v>
-      </c>
-      <c r="P157">
-        <v>3.75</v>
-      </c>
       <c r="Q157">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R157">
+        <v>2</v>
+      </c>
+      <c r="S157">
+        <v>1.8</v>
+      </c>
+      <c r="T157">
+        <v>2</v>
+      </c>
+      <c r="U157">
         <v>1.875</v>
       </c>
-      <c r="S157">
+      <c r="V157">
         <v>1.925</v>
       </c>
-      <c r="T157">
-        <v>2</v>
-      </c>
-      <c r="U157">
-        <v>1.925</v>
-      </c>
-      <c r="V157">
-        <v>1.875</v>
-      </c>
       <c r="W157">
         <v>-1</v>
       </c>
@@ -14498,19 +14498,19 @@
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
+        <v>0.8</v>
+      </c>
+      <c r="AB157">
+        <v>-1</v>
+      </c>
+      <c r="AC157">
         <v>0.925</v>
-      </c>
-      <c r="AB157">
-        <v>0.925</v>
-      </c>
-      <c r="AC157">
-        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -15764,7 +15764,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7615329</v>
+        <v>7613564</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15776,76 +15776,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F172" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G172" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K172">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="L172">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="M172">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N172">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="O172">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P172">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Q172">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R172">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S172">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T172">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U172">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V172">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W172">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X172">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA172">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC172">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15853,7 +15853,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7613564</v>
+        <v>7615329</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15865,76 +15865,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F173" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G173" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K173">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="L173">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="M173">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N173">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O173">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P173">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q173">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R173">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S173">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T173">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U173">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V173">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W173">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X173">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB173">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7648519</v>
+        <v>7645264</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,46 +17022,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F186" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G186" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186">
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K186">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L186">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M186">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="N186">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="O186">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P186">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="Q186">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R186">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S186">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T186">
         <v>2</v>
@@ -17076,22 +17076,22 @@
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y186">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
+        <v>0.825</v>
+      </c>
+      <c r="AB186">
+        <v>0</v>
+      </c>
+      <c r="AC186">
         <v>-0</v>
-      </c>
-      <c r="AB186">
-        <v>-1</v>
-      </c>
-      <c r="AC186">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7645264</v>
+        <v>7648519</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,46 +17111,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G187" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187">
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K187">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L187">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M187">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="N187">
+        <v>5.25</v>
+      </c>
+      <c r="O187">
+        <v>3.75</v>
+      </c>
+      <c r="P187">
         <v>1.533</v>
       </c>
-      <c r="O187">
-        <v>3.5</v>
-      </c>
-      <c r="P187">
-        <v>6.5</v>
-      </c>
       <c r="Q187">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R187">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S187">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T187">
         <v>2</v>
@@ -17165,22 +17165,22 @@
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA187">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17455,7 +17455,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7811882</v>
+        <v>7811883</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17467,76 +17467,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F191" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G191" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="s">
         <v>51</v>
       </c>
       <c r="K191">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="L191">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M191">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="N191">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="O191">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P191">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q191">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R191">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S191">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T191">
         <v>1.75</v>
       </c>
       <c r="U191">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="V191">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W191">
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA191">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB191">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC191">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17544,7 +17544,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7811883</v>
+        <v>7811882</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17556,76 +17556,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F192" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G192" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="s">
         <v>51</v>
       </c>
       <c r="K192">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="L192">
+        <v>2.9</v>
+      </c>
+      <c r="M192">
         <v>3.4</v>
       </c>
-      <c r="M192">
-        <v>1.727</v>
-      </c>
       <c r="N192">
+        <v>2.05</v>
+      </c>
+      <c r="O192">
+        <v>2.9</v>
+      </c>
+      <c r="P192">
         <v>3.6</v>
       </c>
-      <c r="O192">
-        <v>3.3</v>
-      </c>
-      <c r="P192">
-        <v>1.909</v>
-      </c>
       <c r="Q192">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R192">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S192">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T192">
         <v>1.75</v>
       </c>
       <c r="U192">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="V192">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W192">
         <v>-1</v>
       </c>
       <c r="X192">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA192">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB192">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC192">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -19052,7 +19052,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="209" spans="1:27">
+    <row r="209" spans="1:29">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -19074,6 +19074,15 @@
       <c r="G209" t="s">
         <v>44</v>
       </c>
+      <c r="H209">
+        <v>1</v>
+      </c>
+      <c r="I209">
+        <v>2</v>
+      </c>
+      <c r="J209" t="s">
+        <v>53</v>
+      </c>
       <c r="K209">
         <v>2.6</v>
       </c>
@@ -19096,10 +19105,10 @@
         <v>-0.25</v>
       </c>
       <c r="R209">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S209">
-        <v>1.7</v>
+        <v>1.675</v>
       </c>
       <c r="T209">
         <v>1.75</v>
@@ -19111,22 +19120,28 @@
         <v>1.975</v>
       </c>
       <c r="W209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Z209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:27">
+        <v>0.675</v>
+      </c>
+      <c r="AB209">
+        <v>0.825</v>
+      </c>
+      <c r="AC209">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:29">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -19148,6 +19163,15 @@
       <c r="G210" t="s">
         <v>48</v>
       </c>
+      <c r="H210">
+        <v>2</v>
+      </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+      <c r="J210" t="s">
+        <v>52</v>
+      </c>
       <c r="K210">
         <v>1.8</v>
       </c>
@@ -19185,18 +19209,172 @@
         <v>1.8</v>
       </c>
       <c r="W210">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA210">
+        <v>-1</v>
+      </c>
+      <c r="AB210">
+        <v>1</v>
+      </c>
+      <c r="AC210">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:29">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>7875109</v>
+      </c>
+      <c r="C211" t="s">
+        <v>28</v>
+      </c>
+      <c r="D211" t="s">
+        <v>28</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45346.33333333334</v>
+      </c>
+      <c r="F211" t="s">
+        <v>29</v>
+      </c>
+      <c r="G211" t="s">
+        <v>45</v>
+      </c>
+      <c r="K211">
+        <v>1.666</v>
+      </c>
+      <c r="L211">
+        <v>3.25</v>
+      </c>
+      <c r="M211">
+        <v>4.75</v>
+      </c>
+      <c r="N211">
+        <v>1.7</v>
+      </c>
+      <c r="O211">
+        <v>3.2</v>
+      </c>
+      <c r="P211">
+        <v>4.5</v>
+      </c>
+      <c r="Q211">
+        <v>-0.75</v>
+      </c>
+      <c r="R211">
+        <v>1.975</v>
+      </c>
+      <c r="S211">
+        <v>1.825</v>
+      </c>
+      <c r="T211">
+        <v>2.25</v>
+      </c>
+      <c r="U211">
+        <v>2</v>
+      </c>
+      <c r="V211">
+        <v>1.8</v>
+      </c>
+      <c r="W211">
+        <v>0</v>
+      </c>
+      <c r="X211">
+        <v>0</v>
+      </c>
+      <c r="Y211">
+        <v>0</v>
+      </c>
+      <c r="Z211">
+        <v>0</v>
+      </c>
+      <c r="AA211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:29">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>7875108</v>
+      </c>
+      <c r="C212" t="s">
+        <v>28</v>
+      </c>
+      <c r="D212" t="s">
+        <v>28</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45346.4375</v>
+      </c>
+      <c r="F212" t="s">
+        <v>34</v>
+      </c>
+      <c r="G212" t="s">
+        <v>35</v>
+      </c>
+      <c r="K212">
+        <v>1.615</v>
+      </c>
+      <c r="L212">
+        <v>3.25</v>
+      </c>
+      <c r="M212">
+        <v>5.25</v>
+      </c>
+      <c r="N212">
+        <v>1.666</v>
+      </c>
+      <c r="O212">
+        <v>3.2</v>
+      </c>
+      <c r="P212">
+        <v>5</v>
+      </c>
+      <c r="Q212">
+        <v>-0.75</v>
+      </c>
+      <c r="R212">
+        <v>1.95</v>
+      </c>
+      <c r="S212">
+        <v>1.85</v>
+      </c>
+      <c r="T212">
+        <v>1.75</v>
+      </c>
+      <c r="U212">
+        <v>1.925</v>
+      </c>
+      <c r="V212">
+        <v>1.875</v>
+      </c>
+      <c r="W212">
+        <v>0</v>
+      </c>
+      <c r="X212">
+        <v>0</v>
+      </c>
+      <c r="Y212">
+        <v>0</v>
+      </c>
+      <c r="Z212">
+        <v>0</v>
+      </c>
+      <c r="AA212">
         <v>0</v>
       </c>
     </row>

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC212"/>
+  <dimension ref="A1:AC211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1702,7 +1702,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6230048</v>
+        <v>6230049</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1714,46 +1714,46 @@
         <v>44963.5625</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M14">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="N14">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O14">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P14">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R14">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S14">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T14">
         <v>2</v>
@@ -1765,25 +1765,25 @@
         <v>1.775</v>
       </c>
       <c r="W14">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z14">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1791,7 +1791,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6230049</v>
+        <v>6230048</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1803,46 +1803,46 @@
         <v>44963.5625</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K15">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L15">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M15">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N15">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O15">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P15">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S15">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
         <v>2</v>
@@ -1854,25 +1854,25 @@
         <v>1.775</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA15">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1880,7 +1880,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6248171</v>
+        <v>6248170</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1892,46 +1892,46 @@
         <v>44967.35416666666</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K16">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="L16">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M16">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="O16">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T16">
         <v>1.75</v>
@@ -1946,16 +1946,16 @@
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.7250000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB16">
         <v>0.95</v>
@@ -1969,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6248170</v>
+        <v>6248171</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1981,46 +1981,46 @@
         <v>44967.35416666666</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K17">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N17">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q17">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S17">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="T17">
         <v>1.75</v>
@@ -2035,16 +2035,16 @@
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.8</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB17">
         <v>0.95</v>
@@ -7576,7 +7576,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6707962</v>
+        <v>6704935</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7588,76 +7588,76 @@
         <v>45075.44791666666</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K80">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L80">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M80">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="N80">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="O80">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="P80">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R80">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S80">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T80">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U80">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V80">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W80">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z80">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB80">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7665,7 +7665,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6704935</v>
+        <v>6707962</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7677,76 +7677,76 @@
         <v>45075.44791666666</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K81">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L81">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M81">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="N81">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="O81">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="P81">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="Q81">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S81">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T81">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U81">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V81">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA81">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC81">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -15764,7 +15764,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7613564</v>
+        <v>7615329</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15776,76 +15776,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G172" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H172">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K172">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="L172">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="M172">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N172">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O172">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P172">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q172">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R172">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S172">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T172">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U172">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V172">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W172">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB172">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15853,7 +15853,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7615329</v>
+        <v>7613564</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15865,76 +15865,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F173" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G173" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K173">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="L173">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="M173">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N173">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="O173">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P173">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Q173">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R173">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S173">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T173">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U173">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V173">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X173">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA173">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC173">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7645264</v>
+        <v>7648519</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,46 +17022,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F186" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G186" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186">
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K186">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L186">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M186">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="N186">
+        <v>5.25</v>
+      </c>
+      <c r="O186">
+        <v>3.75</v>
+      </c>
+      <c r="P186">
         <v>1.533</v>
       </c>
-      <c r="O186">
-        <v>3.5</v>
-      </c>
-      <c r="P186">
-        <v>6.5</v>
-      </c>
       <c r="Q186">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R186">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S186">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T186">
         <v>2</v>
@@ -17076,22 +17076,22 @@
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA186">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB186">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7648519</v>
+        <v>7645264</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,46 +17111,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G187" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187">
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K187">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L187">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M187">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="N187">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="O187">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P187">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="Q187">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R187">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S187">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T187">
         <v>2</v>
@@ -17165,22 +17165,22 @@
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y187">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
+        <v>0.825</v>
+      </c>
+      <c r="AB187">
+        <v>0</v>
+      </c>
+      <c r="AC187">
         <v>-0</v>
-      </c>
-      <c r="AB187">
-        <v>-1</v>
-      </c>
-      <c r="AC187">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17455,7 +17455,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7811883</v>
+        <v>7811882</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17467,76 +17467,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F191" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G191" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="s">
         <v>51</v>
       </c>
       <c r="K191">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="L191">
+        <v>2.9</v>
+      </c>
+      <c r="M191">
         <v>3.4</v>
       </c>
-      <c r="M191">
-        <v>1.727</v>
-      </c>
       <c r="N191">
+        <v>2.05</v>
+      </c>
+      <c r="O191">
+        <v>2.9</v>
+      </c>
+      <c r="P191">
         <v>3.6</v>
       </c>
-      <c r="O191">
-        <v>3.3</v>
-      </c>
-      <c r="P191">
-        <v>1.909</v>
-      </c>
       <c r="Q191">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R191">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S191">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T191">
         <v>1.75</v>
       </c>
       <c r="U191">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="V191">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W191">
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC191">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17544,7 +17544,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7811882</v>
+        <v>7811883</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17556,76 +17556,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F192" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G192" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192" t="s">
         <v>51</v>
       </c>
       <c r="K192">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="L192">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M192">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="N192">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="O192">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P192">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q192">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R192">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S192">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T192">
         <v>1.75</v>
       </c>
       <c r="U192">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="V192">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W192">
         <v>-1</v>
       </c>
       <c r="X192">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA192">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC192">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -19235,7 +19235,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7875109</v>
+        <v>7864432</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19244,13 +19244,13 @@
         <v>28</v>
       </c>
       <c r="E211" s="2">
-        <v>45346.33333333334</v>
+        <v>45346.54166666666</v>
       </c>
       <c r="F211" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G211" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K211">
         <v>1.666</v>
@@ -19262,31 +19262,31 @@
         <v>4.75</v>
       </c>
       <c r="N211">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="O211">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P211">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q211">
         <v>-0.75</v>
       </c>
       <c r="R211">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S211">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T211">
         <v>2.25</v>
       </c>
       <c r="U211">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V211">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W211">
         <v>0</v>
@@ -19301,80 +19301,6 @@
         <v>0</v>
       </c>
       <c r="AA211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:29">
-      <c r="A212" s="1">
-        <v>210</v>
-      </c>
-      <c r="B212">
-        <v>7875108</v>
-      </c>
-      <c r="C212" t="s">
-        <v>28</v>
-      </c>
-      <c r="D212" t="s">
-        <v>28</v>
-      </c>
-      <c r="E212" s="2">
-        <v>45346.4375</v>
-      </c>
-      <c r="F212" t="s">
-        <v>34</v>
-      </c>
-      <c r="G212" t="s">
-        <v>35</v>
-      </c>
-      <c r="K212">
-        <v>1.615</v>
-      </c>
-      <c r="L212">
-        <v>3.25</v>
-      </c>
-      <c r="M212">
-        <v>5.25</v>
-      </c>
-      <c r="N212">
-        <v>1.666</v>
-      </c>
-      <c r="O212">
-        <v>3.2</v>
-      </c>
-      <c r="P212">
-        <v>5</v>
-      </c>
-      <c r="Q212">
-        <v>-0.75</v>
-      </c>
-      <c r="R212">
-        <v>1.95</v>
-      </c>
-      <c r="S212">
-        <v>1.85</v>
-      </c>
-      <c r="T212">
-        <v>1.75</v>
-      </c>
-      <c r="U212">
-        <v>1.925</v>
-      </c>
-      <c r="V212">
-        <v>1.875</v>
-      </c>
-      <c r="W212">
-        <v>0</v>
-      </c>
-      <c r="X212">
-        <v>0</v>
-      </c>
-      <c r="Y212">
-        <v>0</v>
-      </c>
-      <c r="Z212">
-        <v>0</v>
-      </c>
-      <c r="AA212">
         <v>0</v>
       </c>
     </row>

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC211"/>
+  <dimension ref="A1:AC214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1702,7 +1702,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6230049</v>
+        <v>6230048</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1714,46 +1714,46 @@
         <v>44963.5625</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K14">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L14">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M14">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N14">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O14">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P14">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="Q14">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S14">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T14">
         <v>2</v>
@@ -1765,25 +1765,25 @@
         <v>1.775</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA14">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1791,7 +1791,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6230048</v>
+        <v>6230049</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1803,46 +1803,46 @@
         <v>44963.5625</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K15">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M15">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="N15">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P15">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R15">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S15">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T15">
         <v>2</v>
@@ -1854,25 +1854,25 @@
         <v>1.775</v>
       </c>
       <c r="W15">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z15">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2681,7 +2681,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6315120</v>
+        <v>6315121</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2693,76 +2693,76 @@
         <v>44981.33333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K25">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="L25">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M25">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="N25">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="O25">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="P25">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S25">
+        <v>2.075</v>
+      </c>
+      <c r="T25">
+        <v>1.75</v>
+      </c>
+      <c r="U25">
         <v>1.8</v>
       </c>
-      <c r="T25">
-        <v>2</v>
-      </c>
-      <c r="U25">
-        <v>2</v>
-      </c>
       <c r="V25">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X25">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA25">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
+        <v>-1</v>
+      </c>
+      <c r="AC25">
         <v>1</v>
-      </c>
-      <c r="AC25">
-        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2770,7 +2770,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6315121</v>
+        <v>6315120</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2782,76 +2782,76 @@
         <v>44981.33333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26">
+        <v>2.6</v>
+      </c>
+      <c r="L26">
+        <v>2.6</v>
+      </c>
+      <c r="M26">
+        <v>2.9</v>
+      </c>
+      <c r="N26">
+        <v>2.9</v>
+      </c>
+      <c r="O26">
+        <v>2.5</v>
+      </c>
+      <c r="P26">
+        <v>2.7</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>2</v>
+      </c>
+      <c r="S26">
+        <v>1.8</v>
+      </c>
+      <c r="T26">
+        <v>2</v>
+      </c>
+      <c r="U26">
+        <v>2</v>
+      </c>
+      <c r="V26">
+        <v>1.8</v>
+      </c>
+      <c r="W26">
+        <v>-1</v>
+      </c>
+      <c r="X26">
+        <v>1.5</v>
+      </c>
+      <c r="Y26">
+        <v>-1</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>-0</v>
+      </c>
+      <c r="AB26">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26" t="s">
-        <v>52</v>
-      </c>
-      <c r="K26">
-        <v>3.4</v>
-      </c>
-      <c r="L26">
-        <v>2.5</v>
-      </c>
-      <c r="M26">
-        <v>2.4</v>
-      </c>
-      <c r="N26">
-        <v>3.25</v>
-      </c>
-      <c r="O26">
-        <v>2.55</v>
-      </c>
-      <c r="P26">
-        <v>2.45</v>
-      </c>
-      <c r="Q26">
-        <v>0.25</v>
-      </c>
-      <c r="R26">
-        <v>1.725</v>
-      </c>
-      <c r="S26">
-        <v>2.075</v>
-      </c>
-      <c r="T26">
-        <v>1.75</v>
-      </c>
-      <c r="U26">
-        <v>1.8</v>
-      </c>
-      <c r="V26">
-        <v>2</v>
-      </c>
-      <c r="W26">
-        <v>2.25</v>
-      </c>
-      <c r="X26">
-        <v>-1</v>
-      </c>
-      <c r="Y26">
-        <v>-1</v>
-      </c>
-      <c r="Z26">
-        <v>0.7250000000000001</v>
-      </c>
-      <c r="AA26">
-        <v>-1</v>
-      </c>
-      <c r="AB26">
-        <v>-1</v>
-      </c>
       <c r="AC26">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3927,7 +3927,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6410619</v>
+        <v>6410621</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3939,40 +3939,40 @@
         <v>45003.375</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K39">
+        <v>2.8</v>
+      </c>
+      <c r="L39">
+        <v>2.8</v>
+      </c>
+      <c r="M39">
         <v>2.5</v>
       </c>
-      <c r="L39">
-        <v>2.6</v>
-      </c>
-      <c r="M39">
-        <v>3</v>
-      </c>
       <c r="N39">
+        <v>2.7</v>
+      </c>
+      <c r="O39">
+        <v>2.9</v>
+      </c>
+      <c r="P39">
         <v>2.5</v>
       </c>
-      <c r="O39">
-        <v>2.6</v>
-      </c>
-      <c r="P39">
-        <v>3</v>
-      </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R39">
         <v>2</v>
@@ -3984,31 +3984,31 @@
         <v>1.75</v>
       </c>
       <c r="U39">
+        <v>1.725</v>
+      </c>
+      <c r="V39">
+        <v>1.975</v>
+      </c>
+      <c r="W39">
+        <v>-1</v>
+      </c>
+      <c r="X39">
         <v>1.9</v>
       </c>
-      <c r="V39">
-        <v>1.9</v>
-      </c>
-      <c r="W39">
-        <v>1.5</v>
-      </c>
-      <c r="X39">
-        <v>-1</v>
-      </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB39">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4016,7 +4016,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6410621</v>
+        <v>6410619</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4028,40 +4028,40 @@
         <v>45003.375</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K40">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="L40">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="M40">
+        <v>3</v>
+      </c>
+      <c r="N40">
         <v>2.5</v>
       </c>
-      <c r="N40">
-        <v>2.7</v>
-      </c>
       <c r="O40">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="P40">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
         <v>2</v>
@@ -4073,31 +4073,31 @@
         <v>1.75</v>
       </c>
       <c r="U40">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="V40">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X40">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA40">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC40">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4461,7 +4461,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6497756</v>
+        <v>6497757</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4473,76 +4473,76 @@
         <v>45024.39583333334</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L45">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="M45">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="N45">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="O45">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P45">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R45">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S45">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T45">
         <v>1.75</v>
       </c>
       <c r="U45">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z45">
+        <v>-1</v>
+      </c>
+      <c r="AA45">
+        <v>0.825</v>
+      </c>
+      <c r="AB45">
+        <v>-1</v>
+      </c>
+      <c r="AC45">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA45">
-        <v>-1</v>
-      </c>
-      <c r="AB45">
-        <v>0.875</v>
-      </c>
-      <c r="AC45">
-        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4550,7 +4550,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6497757</v>
+        <v>6497756</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4562,76 +4562,76 @@
         <v>45024.39583333334</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K46">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="L46">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="M46">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="N46">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="O46">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P46">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q46">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S46">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T46">
         <v>1.75</v>
       </c>
       <c r="U46">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V46">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA46">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC46">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -7576,7 +7576,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6704935</v>
+        <v>6707962</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7588,76 +7588,76 @@
         <v>45075.44791666666</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K80">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L80">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M80">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="N80">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="O80">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="P80">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="Q80">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S80">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T80">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U80">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V80">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA80">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC80">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7665,7 +7665,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6707962</v>
+        <v>6704935</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7677,76 +7677,76 @@
         <v>45075.44791666666</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K81">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L81">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M81">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="N81">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="O81">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="P81">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R81">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S81">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T81">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U81">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V81">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W81">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z81">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB81">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -9801,7 +9801,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6862617</v>
+        <v>6862618</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9813,76 +9813,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G105" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K105">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L105">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="M105">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N105">
+        <v>2.05</v>
+      </c>
+      <c r="O105">
+        <v>2.625</v>
+      </c>
+      <c r="P105">
+        <v>4</v>
+      </c>
+      <c r="Q105">
+        <v>-0.25</v>
+      </c>
+      <c r="R105">
+        <v>1.775</v>
+      </c>
+      <c r="S105">
+        <v>2.025</v>
+      </c>
+      <c r="T105">
+        <v>2</v>
+      </c>
+      <c r="U105">
         <v>1.95</v>
       </c>
-      <c r="O105">
-        <v>2.8</v>
-      </c>
-      <c r="P105">
-        <v>4.1</v>
-      </c>
-      <c r="Q105">
-        <v>-0.5</v>
-      </c>
-      <c r="R105">
-        <v>2</v>
-      </c>
-      <c r="S105">
-        <v>1.8</v>
-      </c>
-      <c r="T105">
-        <v>2.25</v>
-      </c>
-      <c r="U105">
-        <v>2.025</v>
-      </c>
       <c r="V105">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC105">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9890,7 +9890,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6862618</v>
+        <v>6862617</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9902,76 +9902,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K106">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L106">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="M106">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N106">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O106">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P106">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q106">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R106">
+        <v>2</v>
+      </c>
+      <c r="S106">
+        <v>1.8</v>
+      </c>
+      <c r="T106">
+        <v>2.25</v>
+      </c>
+      <c r="U106">
+        <v>2.025</v>
+      </c>
+      <c r="V106">
         <v>1.775</v>
       </c>
-      <c r="S106">
-        <v>2.025</v>
-      </c>
-      <c r="T106">
-        <v>2</v>
-      </c>
-      <c r="U106">
-        <v>1.95</v>
-      </c>
-      <c r="V106">
-        <v>1.85</v>
-      </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y106">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB106">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -11492,7 +11492,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7406927</v>
+        <v>7407173</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11504,76 +11504,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F124" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124">
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K124">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="L124">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M124">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="N124">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="O124">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="P124">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R124">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S124">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T124">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V124">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X124">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA124">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AB124">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC124">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11581,7 +11581,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7407173</v>
+        <v>7406927</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11593,76 +11593,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G125" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K125">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="M125">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="N125">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="O125">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P125">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q125">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S125">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T125">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U125">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V125">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W125">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
+        <v>0.45</v>
+      </c>
+      <c r="AA125">
         <v>-0.5</v>
       </c>
-      <c r="AA125">
-        <v>0.4875</v>
-      </c>
       <c r="AB125">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -13984,7 +13984,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7555937</v>
+        <v>7555939</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13996,13 +13996,13 @@
         <v>45265.35416666666</v>
       </c>
       <c r="F152" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G152" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152">
         <v>2</v>
@@ -14011,40 +14011,40 @@
         <v>53</v>
       </c>
       <c r="K152">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="L152">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M152">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="N152">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="O152">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="P152">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="Q152">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R152">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S152">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T152">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U152">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V152">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W152">
         <v>-1</v>
@@ -14053,19 +14053,19 @@
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>2.4</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA152">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB152">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC152">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14073,7 +14073,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7555939</v>
+        <v>7555937</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14085,13 +14085,13 @@
         <v>45265.35416666666</v>
       </c>
       <c r="F153" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G153" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153">
         <v>2</v>
@@ -14100,40 +14100,40 @@
         <v>53</v>
       </c>
       <c r="K153">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="L153">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M153">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="N153">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="O153">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P153">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q153">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R153">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S153">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T153">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U153">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V153">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W153">
         <v>-1</v>
@@ -14142,19 +14142,19 @@
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>0.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="Z153">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB153">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14340,7 +14340,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7565123</v>
+        <v>7565124</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14352,56 +14352,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F156" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G156" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
         <v>1</v>
-      </c>
-      <c r="I156">
-        <v>2</v>
       </c>
       <c r="J156" t="s">
         <v>53</v>
       </c>
       <c r="K156">
+        <v>1.5</v>
+      </c>
+      <c r="L156">
+        <v>3.6</v>
+      </c>
+      <c r="M156">
+        <v>6</v>
+      </c>
+      <c r="N156">
         <v>1.727</v>
       </c>
-      <c r="L156">
-        <v>3.4</v>
-      </c>
-      <c r="M156">
+      <c r="O156">
+        <v>3.5</v>
+      </c>
+      <c r="P156">
         <v>4.2</v>
       </c>
-      <c r="N156">
-        <v>1.833</v>
-      </c>
-      <c r="O156">
-        <v>3.3</v>
-      </c>
-      <c r="P156">
-        <v>3.75</v>
-      </c>
       <c r="Q156">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R156">
+        <v>2</v>
+      </c>
+      <c r="S156">
+        <v>1.8</v>
+      </c>
+      <c r="T156">
+        <v>2</v>
+      </c>
+      <c r="U156">
         <v>1.875</v>
       </c>
-      <c r="S156">
+      <c r="V156">
         <v>1.925</v>
       </c>
-      <c r="T156">
-        <v>2</v>
-      </c>
-      <c r="U156">
-        <v>1.925</v>
-      </c>
-      <c r="V156">
-        <v>1.875</v>
-      </c>
       <c r="W156">
         <v>-1</v>
       </c>
@@ -14409,19 +14409,19 @@
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
+        <v>0.8</v>
+      </c>
+      <c r="AB156">
+        <v>-1</v>
+      </c>
+      <c r="AC156">
         <v>0.925</v>
-      </c>
-      <c r="AB156">
-        <v>0.925</v>
-      </c>
-      <c r="AC156">
-        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14429,7 +14429,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7565124</v>
+        <v>7565123</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14441,56 +14441,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F157" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G157" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
         <v>53</v>
       </c>
       <c r="K157">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L157">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M157">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N157">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="O157">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P157">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q157">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S157">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T157">
         <v>2</v>
       </c>
       <c r="U157">
+        <v>1.925</v>
+      </c>
+      <c r="V157">
         <v>1.875</v>
       </c>
-      <c r="V157">
-        <v>1.925</v>
-      </c>
       <c r="W157">
         <v>-1</v>
       </c>
@@ -14498,19 +14498,19 @@
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC157">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14785,7 +14785,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7590595</v>
+        <v>7592803</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14797,49 +14797,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H161">
         <v>0</v>
       </c>
       <c r="I161">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J161" t="s">
         <v>53</v>
       </c>
       <c r="K161">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L161">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M161">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N161">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="O161">
+        <v>2.875</v>
+      </c>
+      <c r="P161">
         <v>3</v>
       </c>
-      <c r="P161">
-        <v>1.75</v>
-      </c>
       <c r="Q161">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S161">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T161">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U161">
         <v>2</v>
@@ -14854,19 +14854,19 @@
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB161">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14874,7 +14874,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7592803</v>
+        <v>7590595</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14886,49 +14886,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F162" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G162" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H162">
         <v>0</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J162" t="s">
         <v>53</v>
       </c>
       <c r="K162">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L162">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M162">
+        <v>2</v>
+      </c>
+      <c r="N162">
+        <v>4.5</v>
+      </c>
+      <c r="O162">
         <v>3</v>
       </c>
-      <c r="N162">
-        <v>2.3</v>
-      </c>
-      <c r="O162">
-        <v>2.875</v>
-      </c>
       <c r="P162">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q162">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R162">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S162">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T162">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U162">
         <v>2</v>
@@ -14943,19 +14943,19 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC162">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15942,7 +15942,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7618724</v>
+        <v>7618726</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15954,76 +15954,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F174" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G174" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H174">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174">
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K174">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="L174">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M174">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N174">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="O174">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P174">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q174">
         <v>0</v>
       </c>
       <c r="R174">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S174">
+        <v>2.05</v>
+      </c>
+      <c r="T174">
+        <v>1.75</v>
+      </c>
+      <c r="U174">
         <v>1.8</v>
       </c>
-      <c r="T174">
-        <v>2</v>
-      </c>
-      <c r="U174">
-        <v>2</v>
-      </c>
       <c r="V174">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W174">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z174">
+        <v>-1</v>
+      </c>
+      <c r="AA174">
+        <v>1.05</v>
+      </c>
+      <c r="AB174">
+        <v>-1</v>
+      </c>
+      <c r="AC174">
         <v>1</v>
-      </c>
-      <c r="AA174">
-        <v>-1</v>
-      </c>
-      <c r="AB174">
-        <v>1</v>
-      </c>
-      <c r="AC174">
-        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16031,7 +16031,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7618726</v>
+        <v>7618724</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16043,76 +16043,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F175" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G175" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I175">
         <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K175">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L175">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M175">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N175">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="O175">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P175">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q175">
         <v>0</v>
       </c>
       <c r="R175">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S175">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T175">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U175">
+        <v>2</v>
+      </c>
+      <c r="V175">
         <v>1.8</v>
       </c>
-      <c r="V175">
-        <v>2</v>
-      </c>
       <c r="W175">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA175">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC175">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7648519</v>
+        <v>7645264</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,46 +17022,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F186" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G186" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186">
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K186">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L186">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M186">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="N186">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="O186">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P186">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="Q186">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R186">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S186">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T186">
         <v>2</v>
@@ -17076,22 +17076,22 @@
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y186">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
+        <v>0.825</v>
+      </c>
+      <c r="AB186">
+        <v>0</v>
+      </c>
+      <c r="AC186">
         <v>-0</v>
-      </c>
-      <c r="AB186">
-        <v>-1</v>
-      </c>
-      <c r="AC186">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7645264</v>
+        <v>7648519</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,46 +17111,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G187" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187">
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K187">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L187">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M187">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="N187">
+        <v>5.25</v>
+      </c>
+      <c r="O187">
+        <v>3.75</v>
+      </c>
+      <c r="P187">
         <v>1.533</v>
       </c>
-      <c r="O187">
-        <v>3.5</v>
-      </c>
-      <c r="P187">
-        <v>6.5</v>
-      </c>
       <c r="Q187">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R187">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S187">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T187">
         <v>2</v>
@@ -17165,22 +17165,22 @@
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA187">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17455,7 +17455,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7811882</v>
+        <v>7811883</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17467,76 +17467,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F191" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G191" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="s">
         <v>51</v>
       </c>
       <c r="K191">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="L191">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M191">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="N191">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="O191">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P191">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q191">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R191">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S191">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T191">
         <v>1.75</v>
       </c>
       <c r="U191">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="V191">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W191">
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA191">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB191">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC191">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17544,7 +17544,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7811883</v>
+        <v>7811882</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17556,76 +17556,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F192" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G192" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="s">
         <v>51</v>
       </c>
       <c r="K192">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="L192">
+        <v>2.9</v>
+      </c>
+      <c r="M192">
         <v>3.4</v>
       </c>
-      <c r="M192">
-        <v>1.727</v>
-      </c>
       <c r="N192">
+        <v>2.05</v>
+      </c>
+      <c r="O192">
+        <v>2.9</v>
+      </c>
+      <c r="P192">
         <v>3.6</v>
       </c>
-      <c r="O192">
-        <v>3.3</v>
-      </c>
-      <c r="P192">
-        <v>1.909</v>
-      </c>
       <c r="Q192">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R192">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S192">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T192">
         <v>1.75</v>
       </c>
       <c r="U192">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="V192">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W192">
         <v>-1</v>
       </c>
       <c r="X192">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA192">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB192">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC192">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -19235,73 +19235,355 @@
         <v>209</v>
       </c>
       <c r="B211">
+        <v>7870837</v>
+      </c>
+      <c r="C211" t="s">
+        <v>28</v>
+      </c>
+      <c r="D211" t="s">
+        <v>28</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45345.54166666666</v>
+      </c>
+      <c r="F211" t="s">
+        <v>32</v>
+      </c>
+      <c r="G211" t="s">
+        <v>40</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211" t="s">
+        <v>51</v>
+      </c>
+      <c r="K211">
+        <v>1.4</v>
+      </c>
+      <c r="L211">
+        <v>3.75</v>
+      </c>
+      <c r="M211">
+        <v>7.5</v>
+      </c>
+      <c r="N211">
+        <v>1.333</v>
+      </c>
+      <c r="O211">
+        <v>3.75</v>
+      </c>
+      <c r="P211">
+        <v>10</v>
+      </c>
+      <c r="Q211">
+        <v>-1.25</v>
+      </c>
+      <c r="R211">
+        <v>1.8</v>
+      </c>
+      <c r="S211">
+        <v>2</v>
+      </c>
+      <c r="T211">
+        <v>2.5</v>
+      </c>
+      <c r="U211">
+        <v>1.975</v>
+      </c>
+      <c r="V211">
+        <v>1.825</v>
+      </c>
+      <c r="W211">
+        <v>-1</v>
+      </c>
+      <c r="X211">
+        <v>2.75</v>
+      </c>
+      <c r="Y211">
+        <v>-1</v>
+      </c>
+      <c r="Z211">
+        <v>-1</v>
+      </c>
+      <c r="AA211">
+        <v>1</v>
+      </c>
+      <c r="AB211">
+        <v>-1</v>
+      </c>
+      <c r="AC211">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="212" spans="1:29">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>7875109</v>
+      </c>
+      <c r="C212" t="s">
+        <v>28</v>
+      </c>
+      <c r="D212" t="s">
+        <v>28</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45346.33333333334</v>
+      </c>
+      <c r="F212" t="s">
+        <v>29</v>
+      </c>
+      <c r="G212" t="s">
+        <v>45</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212" t="s">
+        <v>51</v>
+      </c>
+      <c r="K212">
+        <v>1.666</v>
+      </c>
+      <c r="L212">
+        <v>3.25</v>
+      </c>
+      <c r="M212">
+        <v>4.75</v>
+      </c>
+      <c r="N212">
+        <v>1.8</v>
+      </c>
+      <c r="O212">
+        <v>3</v>
+      </c>
+      <c r="P212">
+        <v>4.5</v>
+      </c>
+      <c r="Q212">
+        <v>-0.5</v>
+      </c>
+      <c r="R212">
+        <v>1.825</v>
+      </c>
+      <c r="S212">
+        <v>1.975</v>
+      </c>
+      <c r="T212">
+        <v>2</v>
+      </c>
+      <c r="U212">
+        <v>2.025</v>
+      </c>
+      <c r="V212">
+        <v>1.775</v>
+      </c>
+      <c r="W212">
+        <v>-1</v>
+      </c>
+      <c r="X212">
+        <v>2</v>
+      </c>
+      <c r="Y212">
+        <v>-1</v>
+      </c>
+      <c r="Z212">
+        <v>-1</v>
+      </c>
+      <c r="AA212">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB212">
+        <v>0</v>
+      </c>
+      <c r="AC212">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:29">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>7875108</v>
+      </c>
+      <c r="C213" t="s">
+        <v>28</v>
+      </c>
+      <c r="D213" t="s">
+        <v>28</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45346.4375</v>
+      </c>
+      <c r="F213" t="s">
+        <v>34</v>
+      </c>
+      <c r="G213" t="s">
+        <v>35</v>
+      </c>
+      <c r="H213">
+        <v>1</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213" t="s">
+        <v>51</v>
+      </c>
+      <c r="K213">
+        <v>1.615</v>
+      </c>
+      <c r="L213">
+        <v>3.25</v>
+      </c>
+      <c r="M213">
+        <v>5.25</v>
+      </c>
+      <c r="N213">
+        <v>1.666</v>
+      </c>
+      <c r="O213">
+        <v>3.2</v>
+      </c>
+      <c r="P213">
+        <v>5</v>
+      </c>
+      <c r="Q213">
+        <v>-0.75</v>
+      </c>
+      <c r="R213">
+        <v>1.95</v>
+      </c>
+      <c r="S213">
+        <v>1.85</v>
+      </c>
+      <c r="T213">
+        <v>1.75</v>
+      </c>
+      <c r="U213">
+        <v>1.925</v>
+      </c>
+      <c r="V213">
+        <v>1.875</v>
+      </c>
+      <c r="W213">
+        <v>-1</v>
+      </c>
+      <c r="X213">
+        <v>2.2</v>
+      </c>
+      <c r="Y213">
+        <v>-1</v>
+      </c>
+      <c r="Z213">
+        <v>-1</v>
+      </c>
+      <c r="AA213">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB213">
+        <v>0.4625</v>
+      </c>
+      <c r="AC213">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:29">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
         <v>7864432</v>
       </c>
-      <c r="C211" t="s">
-        <v>28</v>
-      </c>
-      <c r="D211" t="s">
-        <v>28</v>
-      </c>
-      <c r="E211" s="2">
+      <c r="C214" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214" t="s">
+        <v>28</v>
+      </c>
+      <c r="E214" s="2">
         <v>45346.54166666666</v>
       </c>
-      <c r="F211" t="s">
+      <c r="F214" t="s">
         <v>36</v>
       </c>
-      <c r="G211" t="s">
+      <c r="G214" t="s">
         <v>30</v>
       </c>
-      <c r="K211">
+      <c r="H214">
+        <v>2</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214" t="s">
+        <v>52</v>
+      </c>
+      <c r="K214">
         <v>1.666</v>
       </c>
-      <c r="L211">
+      <c r="L214">
         <v>3.25</v>
       </c>
-      <c r="M211">
+      <c r="M214">
         <v>4.75</v>
       </c>
-      <c r="N211">
+      <c r="N214">
         <v>1.6</v>
       </c>
-      <c r="O211">
+      <c r="O214">
         <v>3.3</v>
       </c>
-      <c r="P211">
+      <c r="P214">
         <v>5.75</v>
       </c>
-      <c r="Q211">
+      <c r="Q214">
         <v>-0.75</v>
       </c>
-      <c r="R211">
+      <c r="R214">
         <v>1.775</v>
       </c>
-      <c r="S211">
+      <c r="S214">
         <v>2.025</v>
       </c>
-      <c r="T211">
+      <c r="T214">
         <v>2.25</v>
       </c>
-      <c r="U211">
+      <c r="U214">
         <v>1.875</v>
       </c>
-      <c r="V211">
+      <c r="V214">
         <v>1.925</v>
       </c>
-      <c r="W211">
-        <v>0</v>
-      </c>
-      <c r="X211">
-        <v>0</v>
-      </c>
-      <c r="Y211">
-        <v>0</v>
-      </c>
-      <c r="Z211">
-        <v>0</v>
-      </c>
-      <c r="AA211">
-        <v>0</v>
+      <c r="W214">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X214">
+        <v>-1</v>
+      </c>
+      <c r="Y214">
+        <v>-1</v>
+      </c>
+      <c r="Z214">
+        <v>0.3875</v>
+      </c>
+      <c r="AA214">
+        <v>-0.5</v>
+      </c>
+      <c r="AB214">
+        <v>0.875</v>
+      </c>
+      <c r="AC214">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -1969,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6838980</v>
+        <v>6838982</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1981,76 +1981,76 @@
         <v>45107.44791666666</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L17">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N17">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O17">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Q17">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R17">
+        <v>1.725</v>
+      </c>
+      <c r="S17">
+        <v>1.975</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
         <v>1.8</v>
       </c>
-      <c r="S17">
-        <v>2</v>
-      </c>
-      <c r="T17">
-        <v>2</v>
-      </c>
-      <c r="U17">
-        <v>1.85</v>
-      </c>
-      <c r="V17">
-        <v>1.95</v>
-      </c>
       <c r="W17">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2058,7 +2058,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6838982</v>
+        <v>6838980</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2070,76 +2070,76 @@
         <v>45107.44791666666</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N18">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R18">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S18">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T18">
         <v>2</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V18">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA18">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2414,7 +2414,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6862617</v>
+        <v>6862618</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2426,76 +2426,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="M22">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N22">
+        <v>2.05</v>
+      </c>
+      <c r="O22">
+        <v>2.625</v>
+      </c>
+      <c r="P22">
+        <v>4</v>
+      </c>
+      <c r="Q22">
+        <v>-0.25</v>
+      </c>
+      <c r="R22">
+        <v>1.775</v>
+      </c>
+      <c r="S22">
+        <v>2.025</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
         <v>1.95</v>
       </c>
-      <c r="O22">
-        <v>2.8</v>
-      </c>
-      <c r="P22">
-        <v>4.1</v>
-      </c>
-      <c r="Q22">
-        <v>-0.5</v>
-      </c>
-      <c r="R22">
-        <v>2</v>
-      </c>
-      <c r="S22">
-        <v>1.8</v>
-      </c>
-      <c r="T22">
-        <v>2.25</v>
-      </c>
-      <c r="U22">
-        <v>2.025</v>
-      </c>
       <c r="V22">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2503,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6862618</v>
+        <v>6862617</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2515,76 +2515,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L23">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="M23">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N23">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O23">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P23">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>1.8</v>
+      </c>
+      <c r="T23">
+        <v>2.25</v>
+      </c>
+      <c r="U23">
+        <v>2.025</v>
+      </c>
+      <c r="V23">
         <v>1.775</v>
       </c>
-      <c r="S23">
-        <v>2.025</v>
-      </c>
-      <c r="T23">
-        <v>2</v>
-      </c>
-      <c r="U23">
-        <v>1.95</v>
-      </c>
-      <c r="V23">
-        <v>1.85</v>
-      </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y23">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -6597,7 +6597,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7555937</v>
+        <v>7555939</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6609,13 +6609,13 @@
         <v>45265.35416666666</v>
       </c>
       <c r="F69" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69">
         <v>2</v>
@@ -6624,40 +6624,40 @@
         <v>52</v>
       </c>
       <c r="K69">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="L69">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M69">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="N69">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="O69">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="P69">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R69">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S69">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T69">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V69">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6666,19 +6666,19 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>2.4</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA69">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC69">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6686,7 +6686,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7555939</v>
+        <v>7555937</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6698,13 +6698,13 @@
         <v>45265.35416666666</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>2</v>
@@ -6713,40 +6713,40 @@
         <v>52</v>
       </c>
       <c r="K70">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="L70">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M70">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="N70">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="O70">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P70">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q70">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S70">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U70">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V70">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6755,19 +6755,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="Z70">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB70">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7398,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7592803</v>
+        <v>7590595</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7410,49 +7410,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F78" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J78" t="s">
         <v>52</v>
       </c>
       <c r="K78">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L78">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78">
+        <v>4.5</v>
+      </c>
+      <c r="O78">
         <v>3</v>
       </c>
-      <c r="N78">
-        <v>2.3</v>
-      </c>
-      <c r="O78">
-        <v>2.875</v>
-      </c>
       <c r="P78">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R78">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S78">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
         <v>2</v>
@@ -7467,19 +7467,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7590595</v>
+        <v>7592803</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7499,49 +7499,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G79" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
         <v>52</v>
       </c>
       <c r="K79">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L79">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N79">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="O79">
+        <v>2.875</v>
+      </c>
+      <c r="P79">
         <v>3</v>
       </c>
-      <c r="P79">
-        <v>1.75</v>
-      </c>
       <c r="Q79">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S79">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U79">
         <v>2</v>
@@ -7556,19 +7556,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB79">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -8555,7 +8555,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7618726</v>
+        <v>7618724</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8567,76 +8567,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K91">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L91">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M91">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N91">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="O91">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P91">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q91">
         <v>0</v>
       </c>
       <c r="R91">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S91">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T91">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U91">
+        <v>2</v>
+      </c>
+      <c r="V91">
         <v>1.8</v>
       </c>
-      <c r="V91">
-        <v>2</v>
-      </c>
       <c r="W91">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA91">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC91">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8644,7 +8644,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7618724</v>
+        <v>7618726</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8656,76 +8656,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K92">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="L92">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M92">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N92">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="O92">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P92">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q92">
         <v>0</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S92">
+        <v>2.05</v>
+      </c>
+      <c r="T92">
+        <v>1.75</v>
+      </c>
+      <c r="U92">
         <v>1.8</v>
       </c>
-      <c r="T92">
-        <v>2</v>
-      </c>
-      <c r="U92">
-        <v>2</v>
-      </c>
       <c r="V92">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W92">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z92">
+        <v>-1</v>
+      </c>
+      <c r="AA92">
+        <v>1.05</v>
+      </c>
+      <c r="AB92">
+        <v>-1</v>
+      </c>
+      <c r="AC92">
         <v>1</v>
-      </c>
-      <c r="AA92">
-        <v>-1</v>
-      </c>
-      <c r="AB92">
-        <v>1</v>
-      </c>
-      <c r="AC92">
-        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -9623,7 +9623,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7645264</v>
+        <v>7648519</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9635,46 +9635,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K103">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L103">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="N103">
+        <v>5.25</v>
+      </c>
+      <c r="O103">
+        <v>3.75</v>
+      </c>
+      <c r="P103">
         <v>1.533</v>
       </c>
-      <c r="O103">
-        <v>3.5</v>
-      </c>
-      <c r="P103">
-        <v>6.5</v>
-      </c>
       <c r="Q103">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R103">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S103">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T103">
         <v>2</v>
@@ -9689,22 +9689,22 @@
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA103">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9712,7 +9712,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7648519</v>
+        <v>7645264</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9724,46 +9724,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K104">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L104">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M104">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="N104">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="O104">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P104">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="Q104">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R104">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S104">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T104">
         <v>2</v>
@@ -9778,22 +9778,22 @@
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y104">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
+        <v>0.825</v>
+      </c>
+      <c r="AB104">
+        <v>0</v>
+      </c>
+      <c r="AC104">
         <v>-0</v>
-      </c>
-      <c r="AB104">
-        <v>-1</v>
-      </c>
-      <c r="AC104">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10068,7 +10068,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7811883</v>
+        <v>7811882</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10080,76 +10080,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G108" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
         <v>51</v>
       </c>
       <c r="K108">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="L108">
+        <v>2.9</v>
+      </c>
+      <c r="M108">
         <v>3.4</v>
       </c>
-      <c r="M108">
-        <v>1.727</v>
-      </c>
       <c r="N108">
+        <v>2.05</v>
+      </c>
+      <c r="O108">
+        <v>2.9</v>
+      </c>
+      <c r="P108">
         <v>3.6</v>
       </c>
-      <c r="O108">
-        <v>3.3</v>
-      </c>
-      <c r="P108">
-        <v>1.909</v>
-      </c>
       <c r="Q108">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S108">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T108">
         <v>1.75</v>
       </c>
       <c r="U108">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="V108">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC108">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10157,7 +10157,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7811882</v>
+        <v>7811883</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10169,76 +10169,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
         <v>51</v>
       </c>
       <c r="K109">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="L109">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M109">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="N109">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="O109">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P109">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q109">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R109">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S109">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T109">
         <v>1.75</v>
       </c>
       <c r="U109">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="V109">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA109">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:29">

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Al Zawraa</t>
   </si>
   <si>
-    <t>Al Karkh</t>
+    <t>Al Sinaah</t>
   </si>
   <si>
-    <t>Al Sinaah</t>
+    <t>Al Karkh</t>
   </si>
   <si>
     <t>Al Shorta SC</t>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC131"/>
+  <dimension ref="A1:AC134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6729609</v>
+        <v>6729610</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -827,73 +827,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K4">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L4">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="M4">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="N4">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="O4">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="P4">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T4">
         <v>2</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X4">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA4">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC4">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6729610</v>
+        <v>6729609</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -916,73 +916,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K5">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L5">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="M5">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="N5">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O5">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="P5">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S5">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T5">
         <v>2</v>
       </c>
       <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
         <v>1.8</v>
       </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
       <c r="W5">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB5">
+        <v>-1</v>
+      </c>
+      <c r="AC5">
         <v>0.8</v>
-      </c>
-      <c r="AC5">
-        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1183,7 +1183,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1969,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6838982</v>
+        <v>6838980</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1984,73 +1984,73 @@
         <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K17">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N17">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Q17">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S17">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T17">
         <v>2</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA17">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2058,7 +2058,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6838980</v>
+        <v>6838982</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2073,73 +2073,73 @@
         <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K18">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L18">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N18">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O18">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Q18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
+        <v>1.725</v>
+      </c>
+      <c r="S18">
+        <v>1.975</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="V18">
         <v>1.8</v>
       </c>
-      <c r="S18">
-        <v>2</v>
-      </c>
-      <c r="T18">
-        <v>2</v>
-      </c>
-      <c r="U18">
-        <v>1.85</v>
-      </c>
-      <c r="V18">
-        <v>1.95</v>
-      </c>
       <c r="W18">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z18">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC18">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2340,7 +2340,7 @@
         <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2607,7 +2607,7 @@
         <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2782,7 +2782,7 @@
         <v>45117.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
         <v>37</v>
@@ -3049,7 +3049,7 @@
         <v>45118.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3497,7 +3497,7 @@
         <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3672,10 +3672,10 @@
         <v>45128.45833333334</v>
       </c>
       <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
         <v>32</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -4105,7 +4105,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7406927</v>
+        <v>7407173</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4117,76 +4117,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K41">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="L41">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M41">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="N41">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="O41">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="P41">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="Q41">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S41">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T41">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U41">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V41">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X41">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA41">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC41">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4194,7 +4194,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7407173</v>
+        <v>7406927</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4206,76 +4206,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K42">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="M42">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="N42">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="O42">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P42">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q42">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R42">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T42">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U42">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W42">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
+        <v>0.45</v>
+      </c>
+      <c r="AA42">
         <v>-0.5</v>
       </c>
-      <c r="AA42">
-        <v>0.4875</v>
-      </c>
       <c r="AB42">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4565,7 +4565,7 @@
         <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -5262,7 +5262,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7453404</v>
+        <v>7453403</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5274,76 +5274,76 @@
         <v>45240.375</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K54">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L54">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M54">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N54">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O54">
         <v>2.9</v>
       </c>
       <c r="P54">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q54">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S54">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T54">
         <v>2</v>
       </c>
       <c r="U54">
+        <v>1.975</v>
+      </c>
+      <c r="V54">
+        <v>1.825</v>
+      </c>
+      <c r="W54">
+        <v>-1</v>
+      </c>
+      <c r="X54">
         <v>1.9</v>
       </c>
-      <c r="V54">
-        <v>1.9</v>
-      </c>
-      <c r="W54">
-        <v>-1</v>
-      </c>
-      <c r="X54">
-        <v>-1</v>
-      </c>
       <c r="Y54">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA54">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5351,7 +5351,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7453403</v>
+        <v>7453404</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5363,76 +5363,76 @@
         <v>45240.375</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K55">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L55">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M55">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N55">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O55">
         <v>2.9</v>
       </c>
       <c r="P55">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R55">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S55">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T55">
         <v>2</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V55">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5618,7 +5618,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7511489</v>
+        <v>7511490</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5630,10 +5630,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5645,40 +5645,40 @@
         <v>52</v>
       </c>
       <c r="K58">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L58">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M58">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N58">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="O58">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P58">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q58">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R58">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S58">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T58">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U58">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V58">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W58">
         <v>-1</v>
@@ -5687,19 +5687,19 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB58">
+        <v>0.45</v>
+      </c>
+      <c r="AC58">
         <v>-0.5</v>
-      </c>
-      <c r="AC58">
-        <v>0.375</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5707,7 +5707,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7511490</v>
+        <v>7511489</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5719,10 +5719,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5734,41 +5734,41 @@
         <v>52</v>
       </c>
       <c r="K59">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="M59">
         <v>3.1</v>
       </c>
-      <c r="M59">
-        <v>1.909</v>
-      </c>
       <c r="N59">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O59">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P59">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R59">
+        <v>1.95</v>
+      </c>
+      <c r="S59">
+        <v>1.85</v>
+      </c>
+      <c r="T59">
+        <v>2.25</v>
+      </c>
+      <c r="U59">
+        <v>2.05</v>
+      </c>
+      <c r="V59">
         <v>1.75</v>
       </c>
-      <c r="S59">
-        <v>2.05</v>
-      </c>
-      <c r="T59">
-        <v>1.75</v>
-      </c>
-      <c r="U59">
-        <v>1.9</v>
-      </c>
-      <c r="V59">
-        <v>1.9</v>
-      </c>
       <c r="W59">
         <v>-1</v>
       </c>
@@ -5776,19 +5776,19 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB59">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC59">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5989,7 +5989,7 @@
         <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6523,7 +6523,7 @@
         <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -7054,7 +7054,7 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
         <v>48</v>
@@ -7766,7 +7766,7 @@
         <v>45279.3125</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
         <v>29</v>
@@ -8377,7 +8377,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7613564</v>
+        <v>7615329</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8389,76 +8389,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K89">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="L89">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="M89">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N89">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O89">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P89">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q89">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R89">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S89">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T89">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U89">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V89">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W89">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB89">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8466,7 +8466,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7615329</v>
+        <v>7613564</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8478,76 +8478,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F90" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K90">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="L90">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="M90">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N90">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="O90">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P90">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Q90">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R90">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S90">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T90">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V90">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X90">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC90">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8555,7 +8555,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7618724</v>
+        <v>7618726</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8567,76 +8567,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K91">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="L91">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M91">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N91">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="O91">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P91">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q91">
         <v>0</v>
       </c>
       <c r="R91">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S91">
+        <v>2.05</v>
+      </c>
+      <c r="T91">
+        <v>1.75</v>
+      </c>
+      <c r="U91">
         <v>1.8</v>
       </c>
-      <c r="T91">
-        <v>2</v>
-      </c>
-      <c r="U91">
-        <v>2</v>
-      </c>
       <c r="V91">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W91">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z91">
+        <v>-1</v>
+      </c>
+      <c r="AA91">
+        <v>1.05</v>
+      </c>
+      <c r="AB91">
+        <v>-1</v>
+      </c>
+      <c r="AC91">
         <v>1</v>
-      </c>
-      <c r="AA91">
-        <v>-1</v>
-      </c>
-      <c r="AB91">
-        <v>1</v>
-      </c>
-      <c r="AC91">
-        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8644,7 +8644,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7618726</v>
+        <v>7618724</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8656,76 +8656,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K92">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L92">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M92">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N92">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="O92">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P92">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q92">
         <v>0</v>
       </c>
       <c r="R92">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S92">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T92">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U92">
+        <v>2</v>
+      </c>
+      <c r="V92">
         <v>1.8</v>
       </c>
-      <c r="V92">
-        <v>2</v>
-      </c>
       <c r="W92">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA92">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC92">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -9371,7 +9371,7 @@
         <v>47</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9623,7 +9623,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7648519</v>
+        <v>7645264</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9635,46 +9635,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K103">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L103">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M103">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="N103">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="O103">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P103">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="Q103">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R103">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S103">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T103">
         <v>2</v>
@@ -9689,22 +9689,22 @@
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y103">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
+        <v>0.825</v>
+      </c>
+      <c r="AB103">
+        <v>0</v>
+      </c>
+      <c r="AC103">
         <v>-0</v>
-      </c>
-      <c r="AB103">
-        <v>-1</v>
-      </c>
-      <c r="AC103">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9712,7 +9712,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7645264</v>
+        <v>7648519</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9724,46 +9724,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K104">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L104">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="N104">
+        <v>5.25</v>
+      </c>
+      <c r="O104">
+        <v>3.75</v>
+      </c>
+      <c r="P104">
         <v>1.533</v>
       </c>
-      <c r="O104">
-        <v>3.5</v>
-      </c>
-      <c r="P104">
-        <v>6.5</v>
-      </c>
       <c r="Q104">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R104">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T104">
         <v>2</v>
@@ -9778,22 +9778,22 @@
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10068,7 +10068,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7811882</v>
+        <v>7811883</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10080,76 +10080,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
         <v>51</v>
       </c>
       <c r="K108">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="L108">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M108">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="N108">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="O108">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P108">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R108">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S108">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T108">
         <v>1.75</v>
       </c>
       <c r="U108">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="V108">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA108">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10157,7 +10157,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7811883</v>
+        <v>7811882</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10169,76 +10169,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
         <v>51</v>
       </c>
       <c r="K109">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="L109">
+        <v>2.9</v>
+      </c>
+      <c r="M109">
         <v>3.4</v>
       </c>
-      <c r="M109">
-        <v>1.727</v>
-      </c>
       <c r="N109">
+        <v>2.05</v>
+      </c>
+      <c r="O109">
+        <v>2.9</v>
+      </c>
+      <c r="P109">
         <v>3.6</v>
       </c>
-      <c r="O109">
-        <v>3.3</v>
-      </c>
-      <c r="P109">
-        <v>1.909</v>
-      </c>
       <c r="Q109">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S109">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T109">
         <v>1.75</v>
       </c>
       <c r="U109">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="V109">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC109">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -11059,7 +11059,7 @@
         <v>45342.33333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
         <v>35</v>
@@ -12041,7 +12041,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12197,6 +12197,228 @@
       </c>
       <c r="AC131">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>7893609</v>
+      </c>
+      <c r="C132" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" t="s">
+        <v>28</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45351.35416666666</v>
+      </c>
+      <c r="F132" t="s">
+        <v>47</v>
+      </c>
+      <c r="G132" t="s">
+        <v>33</v>
+      </c>
+      <c r="K132">
+        <v>3.1</v>
+      </c>
+      <c r="L132">
+        <v>3.2</v>
+      </c>
+      <c r="M132">
+        <v>2.1</v>
+      </c>
+      <c r="N132">
+        <v>3.8</v>
+      </c>
+      <c r="O132">
+        <v>3.3</v>
+      </c>
+      <c r="P132">
+        <v>1.8</v>
+      </c>
+      <c r="Q132">
+        <v>0.5</v>
+      </c>
+      <c r="R132">
+        <v>1.95</v>
+      </c>
+      <c r="S132">
+        <v>1.85</v>
+      </c>
+      <c r="T132">
+        <v>2</v>
+      </c>
+      <c r="U132">
+        <v>1.875</v>
+      </c>
+      <c r="V132">
+        <v>1.925</v>
+      </c>
+      <c r="W132">
+        <v>0</v>
+      </c>
+      <c r="X132">
+        <v>0</v>
+      </c>
+      <c r="Y132">
+        <v>0</v>
+      </c>
+      <c r="Z132">
+        <v>0</v>
+      </c>
+      <c r="AA132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>7893608</v>
+      </c>
+      <c r="C133" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" t="s">
+        <v>28</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45351.45833333334</v>
+      </c>
+      <c r="F133" t="s">
+        <v>43</v>
+      </c>
+      <c r="G133" t="s">
+        <v>41</v>
+      </c>
+      <c r="K133">
+        <v>2</v>
+      </c>
+      <c r="L133">
+        <v>3.2</v>
+      </c>
+      <c r="M133">
+        <v>3.3</v>
+      </c>
+      <c r="N133">
+        <v>1.7</v>
+      </c>
+      <c r="O133">
+        <v>3.4</v>
+      </c>
+      <c r="P133">
+        <v>4.2</v>
+      </c>
+      <c r="Q133">
+        <v>-0.75</v>
+      </c>
+      <c r="R133">
+        <v>1.975</v>
+      </c>
+      <c r="S133">
+        <v>1.825</v>
+      </c>
+      <c r="T133">
+        <v>2.25</v>
+      </c>
+      <c r="U133">
+        <v>1.9</v>
+      </c>
+      <c r="V133">
+        <v>1.9</v>
+      </c>
+      <c r="W133">
+        <v>0</v>
+      </c>
+      <c r="X133">
+        <v>0</v>
+      </c>
+      <c r="Y133">
+        <v>0</v>
+      </c>
+      <c r="Z133">
+        <v>0</v>
+      </c>
+      <c r="AA133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>7893607</v>
+      </c>
+      <c r="C134" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" t="s">
+        <v>28</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45351.5625</v>
+      </c>
+      <c r="F134" t="s">
+        <v>34</v>
+      </c>
+      <c r="G134" t="s">
+        <v>29</v>
+      </c>
+      <c r="K134">
+        <v>2</v>
+      </c>
+      <c r="L134">
+        <v>3.2</v>
+      </c>
+      <c r="M134">
+        <v>3.3</v>
+      </c>
+      <c r="N134">
+        <v>1.8</v>
+      </c>
+      <c r="O134">
+        <v>3.25</v>
+      </c>
+      <c r="P134">
+        <v>3.8</v>
+      </c>
+      <c r="Q134">
+        <v>-0.5</v>
+      </c>
+      <c r="R134">
+        <v>1.875</v>
+      </c>
+      <c r="S134">
+        <v>1.925</v>
+      </c>
+      <c r="T134">
+        <v>2.25</v>
+      </c>
+      <c r="U134">
+        <v>1.925</v>
+      </c>
+      <c r="V134">
+        <v>1.875</v>
+      </c>
+      <c r="W134">
+        <v>0</v>
+      </c>
+      <c r="X134">
+        <v>0</v>
+      </c>
+      <c r="Y134">
+        <v>0</v>
+      </c>
+      <c r="Z134">
+        <v>0</v>
+      </c>
+      <c r="AA134">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Al Zawraa</t>
   </si>
   <si>
-    <t>Al Sinaah</t>
+    <t>Al Karkh</t>
   </si>
   <si>
-    <t>Al Karkh</t>
+    <t>Al Sinaah</t>
   </si>
   <si>
     <t>Al Shorta SC</t>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC134"/>
+  <dimension ref="A1:AC138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6729610</v>
+        <v>6729609</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -827,73 +827,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K4">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L4">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="M4">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="N4">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O4">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="P4">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S4">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T4">
         <v>2</v>
       </c>
       <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
         <v>1.8</v>
       </c>
-      <c r="V4">
-        <v>2</v>
-      </c>
       <c r="W4">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB4">
+        <v>-1</v>
+      </c>
+      <c r="AC4">
         <v>0.8</v>
-      </c>
-      <c r="AC4">
-        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6729609</v>
+        <v>6729610</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -916,73 +916,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K5">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L5">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="M5">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="N5">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="O5">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="P5">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T5">
         <v>2</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X5">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA5">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC5">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1183,7 +1183,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1981,7 +1981,7 @@
         <v>45107.44791666666</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
         <v>34</v>
@@ -2070,7 +2070,7 @@
         <v>45107.44791666666</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
         <v>43</v>
@@ -2340,7 +2340,7 @@
         <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2607,7 +2607,7 @@
         <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2782,7 +2782,7 @@
         <v>45117.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
         <v>37</v>
@@ -3049,7 +3049,7 @@
         <v>45118.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3497,7 +3497,7 @@
         <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3672,10 +3672,10 @@
         <v>45128.45833333334</v>
       </c>
       <c r="F36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
         <v>31</v>
-      </c>
-      <c r="G36" t="s">
-        <v>32</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -4105,7 +4105,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7407173</v>
+        <v>7406927</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4117,76 +4117,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K41">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="M41">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="N41">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="O41">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P41">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q41">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R41">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U41">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V41">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W41">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
+        <v>0.45</v>
+      </c>
+      <c r="AA41">
         <v>-0.5</v>
       </c>
-      <c r="AA41">
-        <v>0.4875</v>
-      </c>
       <c r="AB41">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4194,7 +4194,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7406927</v>
+        <v>7407173</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4206,76 +4206,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K42">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="L42">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M42">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="N42">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="O42">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="P42">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="Q42">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R42">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S42">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T42">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U42">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V42">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X42">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA42">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC42">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4565,7 +4565,7 @@
         <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -5989,7 +5989,7 @@
         <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6523,7 +6523,7 @@
         <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -7054,7 +7054,7 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
         <v>48</v>
@@ -7766,7 +7766,7 @@
         <v>45279.3125</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
         <v>29</v>
@@ -8377,7 +8377,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7615329</v>
+        <v>7613564</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8389,76 +8389,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F89" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K89">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="L89">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="M89">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N89">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="O89">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P89">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Q89">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R89">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S89">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T89">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U89">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V89">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X89">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC89">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8466,7 +8466,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7613564</v>
+        <v>7615329</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8478,76 +8478,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K90">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="L90">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="M90">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N90">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O90">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P90">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q90">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R90">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S90">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T90">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U90">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W90">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB90">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -9371,7 +9371,7 @@
         <v>47</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9623,7 +9623,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7645264</v>
+        <v>7648519</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9635,46 +9635,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K103">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L103">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="N103">
+        <v>5.25</v>
+      </c>
+      <c r="O103">
+        <v>3.75</v>
+      </c>
+      <c r="P103">
         <v>1.533</v>
       </c>
-      <c r="O103">
-        <v>3.5</v>
-      </c>
-      <c r="P103">
-        <v>6.5</v>
-      </c>
       <c r="Q103">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R103">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S103">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T103">
         <v>2</v>
@@ -9689,22 +9689,22 @@
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA103">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9712,7 +9712,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7648519</v>
+        <v>7645264</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9724,46 +9724,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K104">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L104">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M104">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="N104">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="O104">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P104">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="Q104">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R104">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S104">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T104">
         <v>2</v>
@@ -9778,22 +9778,22 @@
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y104">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
+        <v>0.825</v>
+      </c>
+      <c r="AB104">
+        <v>0</v>
+      </c>
+      <c r="AC104">
         <v>-0</v>
-      </c>
-      <c r="AB104">
-        <v>-1</v>
-      </c>
-      <c r="AC104">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10080,7 +10080,7 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>42</v>
@@ -11059,7 +11059,7 @@
         <v>45342.33333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
         <v>35</v>
@@ -12041,7 +12041,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12221,6 +12221,15 @@
       <c r="G132" t="s">
         <v>33</v>
       </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132" t="s">
+        <v>51</v>
+      </c>
       <c r="K132">
         <v>3.1</v>
       </c>
@@ -12258,19 +12267,25 @@
         <v>1.925</v>
       </c>
       <c r="W132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X132">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Y132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA132">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB132">
+        <v>0</v>
+      </c>
+      <c r="AC132">
+        <v>-0</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12295,6 +12310,15 @@
       <c r="G133" t="s">
         <v>41</v>
       </c>
+      <c r="H133">
+        <v>4</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133" t="s">
+        <v>53</v>
+      </c>
       <c r="K133">
         <v>2</v>
       </c>
@@ -12305,46 +12329,52 @@
         <v>3.3</v>
       </c>
       <c r="N133">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="O133">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P133">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q133">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S133">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T133">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U133">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V133">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W133">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA133">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB133">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC133">
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12369,6 +12399,15 @@
       <c r="G134" t="s">
         <v>29</v>
       </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134" t="s">
+        <v>52</v>
+      </c>
       <c r="K134">
         <v>2</v>
       </c>
@@ -12379,46 +12418,408 @@
         <v>3.3</v>
       </c>
       <c r="N134">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O134">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P134">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q134">
         <v>-0.5</v>
       </c>
       <c r="R134">
+        <v>1.925</v>
+      </c>
+      <c r="S134">
         <v>1.875</v>
       </c>
-      <c r="S134">
+      <c r="T134">
+        <v>2</v>
+      </c>
+      <c r="U134">
+        <v>1.85</v>
+      </c>
+      <c r="V134">
+        <v>1.95</v>
+      </c>
+      <c r="W134">
+        <v>-1</v>
+      </c>
+      <c r="X134">
+        <v>-1</v>
+      </c>
+      <c r="Y134">
+        <v>3</v>
+      </c>
+      <c r="Z134">
+        <v>-1</v>
+      </c>
+      <c r="AA134">
+        <v>0.875</v>
+      </c>
+      <c r="AB134">
+        <v>-1</v>
+      </c>
+      <c r="AC134">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>7901411</v>
+      </c>
+      <c r="C135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" t="s">
+        <v>28</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45352.35416666666</v>
+      </c>
+      <c r="F135" t="s">
+        <v>42</v>
+      </c>
+      <c r="G135" t="s">
+        <v>38</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135" t="s">
+        <v>51</v>
+      </c>
+      <c r="K135">
+        <v>2.1</v>
+      </c>
+      <c r="L135">
+        <v>2.9</v>
+      </c>
+      <c r="M135">
+        <v>3.4</v>
+      </c>
+      <c r="N135">
+        <v>2.15</v>
+      </c>
+      <c r="O135">
+        <v>2.875</v>
+      </c>
+      <c r="P135">
+        <v>3.3</v>
+      </c>
+      <c r="Q135">
+        <v>-0.25</v>
+      </c>
+      <c r="R135">
         <v>1.925</v>
       </c>
-      <c r="T134">
-        <v>2.25</v>
-      </c>
-      <c r="U134">
-        <v>1.925</v>
-      </c>
-      <c r="V134">
+      <c r="S135">
         <v>1.875</v>
       </c>
-      <c r="W134">
-        <v>0</v>
-      </c>
-      <c r="X134">
-        <v>0</v>
-      </c>
-      <c r="Y134">
-        <v>0</v>
-      </c>
-      <c r="Z134">
-        <v>0</v>
-      </c>
-      <c r="AA134">
-        <v>0</v>
+      <c r="T135">
+        <v>1.75</v>
+      </c>
+      <c r="U135">
+        <v>1.75</v>
+      </c>
+      <c r="V135">
+        <v>2.05</v>
+      </c>
+      <c r="W135">
+        <v>-1</v>
+      </c>
+      <c r="X135">
+        <v>1.875</v>
+      </c>
+      <c r="Y135">
+        <v>-1</v>
+      </c>
+      <c r="Z135">
+        <v>-0.5</v>
+      </c>
+      <c r="AA135">
+        <v>0.4375</v>
+      </c>
+      <c r="AB135">
+        <v>-1</v>
+      </c>
+      <c r="AC135">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>7897090</v>
+      </c>
+      <c r="C136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" t="s">
+        <v>28</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45352.35416666666</v>
+      </c>
+      <c r="F136" t="s">
+        <v>31</v>
+      </c>
+      <c r="G136" t="s">
+        <v>39</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>3</v>
+      </c>
+      <c r="J136" t="s">
+        <v>52</v>
+      </c>
+      <c r="K136">
+        <v>2.1</v>
+      </c>
+      <c r="L136">
+        <v>2.8</v>
+      </c>
+      <c r="M136">
+        <v>3.6</v>
+      </c>
+      <c r="N136">
+        <v>2.1</v>
+      </c>
+      <c r="O136">
+        <v>2.8</v>
+      </c>
+      <c r="P136">
+        <v>3.6</v>
+      </c>
+      <c r="Q136">
+        <v>-0.25</v>
+      </c>
+      <c r="R136">
+        <v>1.9</v>
+      </c>
+      <c r="S136">
+        <v>1.9</v>
+      </c>
+      <c r="T136">
+        <v>2</v>
+      </c>
+      <c r="U136">
+        <v>2</v>
+      </c>
+      <c r="V136">
+        <v>1.8</v>
+      </c>
+      <c r="W136">
+        <v>-1</v>
+      </c>
+      <c r="X136">
+        <v>-1</v>
+      </c>
+      <c r="Y136">
+        <v>2.6</v>
+      </c>
+      <c r="Z136">
+        <v>-1</v>
+      </c>
+      <c r="AA136">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB136">
+        <v>1</v>
+      </c>
+      <c r="AC136">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>7897091</v>
+      </c>
+      <c r="C137" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" t="s">
+        <v>28</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45352.45833333334</v>
+      </c>
+      <c r="F137" t="s">
+        <v>37</v>
+      </c>
+      <c r="G137" t="s">
+        <v>45</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137" t="s">
+        <v>51</v>
+      </c>
+      <c r="K137">
+        <v>1.333</v>
+      </c>
+      <c r="L137">
+        <v>4.2</v>
+      </c>
+      <c r="M137">
+        <v>8</v>
+      </c>
+      <c r="N137">
+        <v>1.3</v>
+      </c>
+      <c r="O137">
+        <v>4.5</v>
+      </c>
+      <c r="P137">
+        <v>8</v>
+      </c>
+      <c r="Q137">
+        <v>-1.75</v>
+      </c>
+      <c r="R137">
+        <v>2.1</v>
+      </c>
+      <c r="S137">
+        <v>1.7</v>
+      </c>
+      <c r="T137">
+        <v>2.5</v>
+      </c>
+      <c r="U137">
+        <v>1.8</v>
+      </c>
+      <c r="V137">
+        <v>2</v>
+      </c>
+      <c r="W137">
+        <v>-1</v>
+      </c>
+      <c r="X137">
+        <v>3.5</v>
+      </c>
+      <c r="Y137">
+        <v>-1</v>
+      </c>
+      <c r="Z137">
+        <v>-1</v>
+      </c>
+      <c r="AA137">
+        <v>0.7</v>
+      </c>
+      <c r="AB137">
+        <v>-1</v>
+      </c>
+      <c r="AC137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>7897092</v>
+      </c>
+      <c r="C138" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" t="s">
+        <v>28</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45352.625</v>
+      </c>
+      <c r="F138" t="s">
+        <v>40</v>
+      </c>
+      <c r="G138" t="s">
+        <v>35</v>
+      </c>
+      <c r="H138">
+        <v>3</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138" t="s">
+        <v>53</v>
+      </c>
+      <c r="K138">
+        <v>1.5</v>
+      </c>
+      <c r="L138">
+        <v>3.6</v>
+      </c>
+      <c r="M138">
+        <v>6</v>
+      </c>
+      <c r="N138">
+        <v>1.571</v>
+      </c>
+      <c r="O138">
+        <v>3.5</v>
+      </c>
+      <c r="P138">
+        <v>5.25</v>
+      </c>
+      <c r="Q138">
+        <v>-0.75</v>
+      </c>
+      <c r="R138">
+        <v>1.775</v>
+      </c>
+      <c r="S138">
+        <v>2.025</v>
+      </c>
+      <c r="T138">
+        <v>2</v>
+      </c>
+      <c r="U138">
+        <v>1.825</v>
+      </c>
+      <c r="V138">
+        <v>1.975</v>
+      </c>
+      <c r="W138">
+        <v>0.571</v>
+      </c>
+      <c r="X138">
+        <v>-1</v>
+      </c>
+      <c r="Y138">
+        <v>-1</v>
+      </c>
+      <c r="Z138">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA138">
+        <v>-1</v>
+      </c>
+      <c r="AB138">
+        <v>0.825</v>
+      </c>
+      <c r="AC138">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -1969,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6838980</v>
+        <v>6838982</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1981,76 +1981,76 @@
         <v>45107.44791666666</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L17">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N17">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O17">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Q17">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R17">
+        <v>1.725</v>
+      </c>
+      <c r="S17">
+        <v>1.975</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
         <v>1.8</v>
       </c>
-      <c r="S17">
-        <v>2</v>
-      </c>
-      <c r="T17">
-        <v>2</v>
-      </c>
-      <c r="U17">
-        <v>1.85</v>
-      </c>
-      <c r="V17">
-        <v>1.95</v>
-      </c>
       <c r="W17">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2058,7 +2058,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6838982</v>
+        <v>6838980</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2070,76 +2070,76 @@
         <v>45107.44791666666</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N18">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R18">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S18">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T18">
         <v>2</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V18">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA18">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -4105,7 +4105,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7406927</v>
+        <v>7407173</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4117,76 +4117,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K41">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="L41">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M41">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="N41">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="O41">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="P41">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="Q41">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S41">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T41">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U41">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V41">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X41">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA41">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC41">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4194,7 +4194,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7407173</v>
+        <v>7406927</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4206,76 +4206,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K42">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="M42">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="N42">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="O42">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P42">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q42">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R42">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T42">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U42">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W42">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
+        <v>0.45</v>
+      </c>
+      <c r="AA42">
         <v>-0.5</v>
       </c>
-      <c r="AA42">
-        <v>0.4875</v>
-      </c>
       <c r="AB42">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -5618,7 +5618,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7511490</v>
+        <v>7511489</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5630,10 +5630,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5645,41 +5645,41 @@
         <v>52</v>
       </c>
       <c r="K58">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58">
         <v>3.1</v>
       </c>
-      <c r="M58">
-        <v>1.909</v>
-      </c>
       <c r="N58">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O58">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P58">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q58">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R58">
+        <v>1.95</v>
+      </c>
+      <c r="S58">
+        <v>1.85</v>
+      </c>
+      <c r="T58">
+        <v>2.25</v>
+      </c>
+      <c r="U58">
+        <v>2.05</v>
+      </c>
+      <c r="V58">
         <v>1.75</v>
       </c>
-      <c r="S58">
-        <v>2.05</v>
-      </c>
-      <c r="T58">
-        <v>1.75</v>
-      </c>
-      <c r="U58">
-        <v>1.9</v>
-      </c>
-      <c r="V58">
-        <v>1.9</v>
-      </c>
       <c r="W58">
         <v>-1</v>
       </c>
@@ -5687,19 +5687,19 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB58">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC58">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5707,7 +5707,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7511489</v>
+        <v>7511490</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5719,10 +5719,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F59" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5734,40 +5734,40 @@
         <v>52</v>
       </c>
       <c r="K59">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L59">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M59">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N59">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="O59">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P59">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q59">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S59">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T59">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U59">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V59">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W59">
         <v>-1</v>
@@ -5776,19 +5776,19 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB59">
+        <v>0.45</v>
+      </c>
+      <c r="AC59">
         <v>-0.5</v>
-      </c>
-      <c r="AC59">
-        <v>0.375</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -6953,7 +6953,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7565124</v>
+        <v>7565123</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6965,56 +6965,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
         <v>52</v>
       </c>
       <c r="K73">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L73">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M73">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N73">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="O73">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P73">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q73">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R73">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S73">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T73">
         <v>2</v>
       </c>
       <c r="U73">
+        <v>1.925</v>
+      </c>
+      <c r="V73">
         <v>1.875</v>
       </c>
-      <c r="V73">
-        <v>1.925</v>
-      </c>
       <c r="W73">
         <v>-1</v>
       </c>
@@ -7022,19 +7022,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC73">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7042,7 +7042,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7565123</v>
+        <v>7565124</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7054,56 +7054,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
         <v>1</v>
-      </c>
-      <c r="I74">
-        <v>2</v>
       </c>
       <c r="J74" t="s">
         <v>52</v>
       </c>
       <c r="K74">
+        <v>1.5</v>
+      </c>
+      <c r="L74">
+        <v>3.6</v>
+      </c>
+      <c r="M74">
+        <v>6</v>
+      </c>
+      <c r="N74">
         <v>1.727</v>
       </c>
-      <c r="L74">
-        <v>3.4</v>
-      </c>
-      <c r="M74">
+      <c r="O74">
+        <v>3.5</v>
+      </c>
+      <c r="P74">
         <v>4.2</v>
       </c>
-      <c r="N74">
-        <v>1.833</v>
-      </c>
-      <c r="O74">
-        <v>3.3</v>
-      </c>
-      <c r="P74">
-        <v>3.75</v>
-      </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R74">
+        <v>2</v>
+      </c>
+      <c r="S74">
+        <v>1.8</v>
+      </c>
+      <c r="T74">
+        <v>2</v>
+      </c>
+      <c r="U74">
         <v>1.875</v>
       </c>
-      <c r="S74">
+      <c r="V74">
         <v>1.925</v>
       </c>
-      <c r="T74">
-        <v>2</v>
-      </c>
-      <c r="U74">
-        <v>1.925</v>
-      </c>
-      <c r="V74">
-        <v>1.875</v>
-      </c>
       <c r="W74">
         <v>-1</v>
       </c>
@@ -7111,19 +7111,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
+        <v>0.8</v>
+      </c>
+      <c r="AB74">
+        <v>-1</v>
+      </c>
+      <c r="AC74">
         <v>0.925</v>
-      </c>
-      <c r="AB74">
-        <v>0.925</v>
-      </c>
-      <c r="AC74">
-        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7398,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7590595</v>
+        <v>7592803</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7410,49 +7410,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
         <v>52</v>
       </c>
       <c r="K78">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L78">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N78">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="O78">
+        <v>2.875</v>
+      </c>
+      <c r="P78">
         <v>3</v>
       </c>
-      <c r="P78">
-        <v>1.75</v>
-      </c>
       <c r="Q78">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S78">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U78">
         <v>2</v>
@@ -7467,19 +7467,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB78">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7592803</v>
+        <v>7590595</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7499,49 +7499,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J79" t="s">
         <v>52</v>
       </c>
       <c r="K79">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L79">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M79">
+        <v>2</v>
+      </c>
+      <c r="N79">
+        <v>4.5</v>
+      </c>
+      <c r="O79">
         <v>3</v>
       </c>
-      <c r="N79">
-        <v>2.3</v>
-      </c>
-      <c r="O79">
-        <v>2.875</v>
-      </c>
       <c r="P79">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R79">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S79">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T79">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
         <v>2</v>
@@ -7556,19 +7556,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC79">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -8377,7 +8377,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7613564</v>
+        <v>7615329</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8389,76 +8389,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K89">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="L89">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="M89">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N89">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O89">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P89">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q89">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R89">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S89">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T89">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U89">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V89">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W89">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB89">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8466,7 +8466,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7615329</v>
+        <v>7613564</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8478,76 +8478,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F90" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K90">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="L90">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="M90">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N90">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="O90">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P90">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Q90">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R90">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S90">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T90">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V90">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X90">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC90">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8555,7 +8555,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7618726</v>
+        <v>7618724</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8567,76 +8567,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K91">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L91">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M91">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N91">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="O91">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P91">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q91">
         <v>0</v>
       </c>
       <c r="R91">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S91">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T91">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U91">
+        <v>2</v>
+      </c>
+      <c r="V91">
         <v>1.8</v>
       </c>
-      <c r="V91">
-        <v>2</v>
-      </c>
       <c r="W91">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA91">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC91">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8644,7 +8644,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7618724</v>
+        <v>7618726</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8656,76 +8656,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K92">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="L92">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M92">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N92">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="O92">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P92">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q92">
         <v>0</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S92">
+        <v>2.05</v>
+      </c>
+      <c r="T92">
+        <v>1.75</v>
+      </c>
+      <c r="U92">
         <v>1.8</v>
       </c>
-      <c r="T92">
-        <v>2</v>
-      </c>
-      <c r="U92">
-        <v>2</v>
-      </c>
       <c r="V92">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W92">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z92">
+        <v>-1</v>
+      </c>
+      <c r="AA92">
+        <v>1.05</v>
+      </c>
+      <c r="AB92">
+        <v>-1</v>
+      </c>
+      <c r="AC92">
         <v>1</v>
-      </c>
-      <c r="AA92">
-        <v>-1</v>
-      </c>
-      <c r="AB92">
-        <v>1</v>
-      </c>
-      <c r="AC92">
-        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -12471,7 +12471,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7901411</v>
+        <v>7897090</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12483,76 +12483,76 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J135" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K135">
         <v>2.1</v>
       </c>
       <c r="L135">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M135">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N135">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O135">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P135">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q135">
         <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S135">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T135">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U135">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V135">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC135">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12560,7 +12560,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7897090</v>
+        <v>7901411</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12572,76 +12572,76 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K136">
         <v>2.1</v>
       </c>
       <c r="L136">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M136">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N136">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O136">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P136">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q136">
         <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S136">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T136">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U136">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V136">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y136">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB136">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="137" spans="1:29">

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Al Zawraa</t>
   </si>
   <si>
-    <t>Al Karkh</t>
+    <t>Al Sinaah</t>
   </si>
   <si>
-    <t>Al Sinaah</t>
+    <t>Al Karkh</t>
   </si>
   <si>
     <t>Al Shorta SC</t>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC138"/>
+  <dimension ref="A1:AC144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6729609</v>
+        <v>6729610</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -827,73 +827,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K4">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L4">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="M4">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="N4">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="O4">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="P4">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T4">
         <v>2</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X4">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA4">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC4">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6729610</v>
+        <v>6729609</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -916,73 +916,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K5">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L5">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="M5">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="N5">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O5">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="P5">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S5">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T5">
         <v>2</v>
       </c>
       <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
         <v>1.8</v>
       </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
       <c r="W5">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB5">
+        <v>-1</v>
+      </c>
+      <c r="AC5">
         <v>0.8</v>
-      </c>
-      <c r="AC5">
-        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1183,7 +1183,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1981,7 +1981,7 @@
         <v>45107.44791666666</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
         <v>43</v>
@@ -2070,7 +2070,7 @@
         <v>45107.44791666666</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
         <v>34</v>
@@ -2340,7 +2340,7 @@
         <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2607,7 +2607,7 @@
         <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2782,7 +2782,7 @@
         <v>45117.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
         <v>37</v>
@@ -3049,7 +3049,7 @@
         <v>45118.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3497,7 +3497,7 @@
         <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3672,10 +3672,10 @@
         <v>45128.45833333334</v>
       </c>
       <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
         <v>32</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -4565,7 +4565,7 @@
         <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -5618,7 +5618,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7511489</v>
+        <v>7511490</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5630,10 +5630,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5645,40 +5645,40 @@
         <v>52</v>
       </c>
       <c r="K58">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L58">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M58">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N58">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="O58">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P58">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q58">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R58">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S58">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T58">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U58">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V58">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W58">
         <v>-1</v>
@@ -5687,19 +5687,19 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB58">
+        <v>0.45</v>
+      </c>
+      <c r="AC58">
         <v>-0.5</v>
-      </c>
-      <c r="AC58">
-        <v>0.375</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5707,7 +5707,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7511490</v>
+        <v>7511489</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5719,10 +5719,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5734,41 +5734,41 @@
         <v>52</v>
       </c>
       <c r="K59">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="M59">
         <v>3.1</v>
       </c>
-      <c r="M59">
-        <v>1.909</v>
-      </c>
       <c r="N59">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O59">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P59">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R59">
+        <v>1.95</v>
+      </c>
+      <c r="S59">
+        <v>1.85</v>
+      </c>
+      <c r="T59">
+        <v>2.25</v>
+      </c>
+      <c r="U59">
+        <v>2.05</v>
+      </c>
+      <c r="V59">
         <v>1.75</v>
       </c>
-      <c r="S59">
-        <v>2.05</v>
-      </c>
-      <c r="T59">
-        <v>1.75</v>
-      </c>
-      <c r="U59">
-        <v>1.9</v>
-      </c>
-      <c r="V59">
-        <v>1.9</v>
-      </c>
       <c r="W59">
         <v>-1</v>
       </c>
@@ -5776,19 +5776,19 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB59">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC59">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5989,7 +5989,7 @@
         <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6523,7 +6523,7 @@
         <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6597,7 +6597,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7555939</v>
+        <v>7555937</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6609,13 +6609,13 @@
         <v>45265.35416666666</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>2</v>
@@ -6624,40 +6624,40 @@
         <v>52</v>
       </c>
       <c r="K69">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="L69">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M69">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="N69">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="O69">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P69">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q69">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S69">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U69">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V69">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6666,19 +6666,19 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="Z69">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB69">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6686,7 +6686,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7555937</v>
+        <v>7555939</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6698,13 +6698,13 @@
         <v>45265.35416666666</v>
       </c>
       <c r="F70" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70">
         <v>2</v>
@@ -6713,40 +6713,40 @@
         <v>52</v>
       </c>
       <c r="K70">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="L70">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M70">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="N70">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="O70">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="P70">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R70">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S70">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T70">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V70">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6755,19 +6755,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>2.4</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA70">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB70">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC70">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6953,7 +6953,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7565123</v>
+        <v>7565124</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6965,56 +6965,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
         <v>1</v>
-      </c>
-      <c r="I73">
-        <v>2</v>
       </c>
       <c r="J73" t="s">
         <v>52</v>
       </c>
       <c r="K73">
+        <v>1.5</v>
+      </c>
+      <c r="L73">
+        <v>3.6</v>
+      </c>
+      <c r="M73">
+        <v>6</v>
+      </c>
+      <c r="N73">
         <v>1.727</v>
       </c>
-      <c r="L73">
-        <v>3.4</v>
-      </c>
-      <c r="M73">
+      <c r="O73">
+        <v>3.5</v>
+      </c>
+      <c r="P73">
         <v>4.2</v>
       </c>
-      <c r="N73">
-        <v>1.833</v>
-      </c>
-      <c r="O73">
-        <v>3.3</v>
-      </c>
-      <c r="P73">
-        <v>3.75</v>
-      </c>
       <c r="Q73">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R73">
+        <v>2</v>
+      </c>
+      <c r="S73">
+        <v>1.8</v>
+      </c>
+      <c r="T73">
+        <v>2</v>
+      </c>
+      <c r="U73">
         <v>1.875</v>
       </c>
-      <c r="S73">
+      <c r="V73">
         <v>1.925</v>
       </c>
-      <c r="T73">
-        <v>2</v>
-      </c>
-      <c r="U73">
-        <v>1.925</v>
-      </c>
-      <c r="V73">
-        <v>1.875</v>
-      </c>
       <c r="W73">
         <v>-1</v>
       </c>
@@ -7022,19 +7022,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
+        <v>0.8</v>
+      </c>
+      <c r="AB73">
+        <v>-1</v>
+      </c>
+      <c r="AC73">
         <v>0.925</v>
-      </c>
-      <c r="AB73">
-        <v>0.925</v>
-      </c>
-      <c r="AC73">
-        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7042,7 +7042,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7565124</v>
+        <v>7565123</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7054,56 +7054,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
         <v>52</v>
       </c>
       <c r="K74">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L74">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M74">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N74">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="O74">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P74">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q74">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S74">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T74">
         <v>2</v>
       </c>
       <c r="U74">
+        <v>1.925</v>
+      </c>
+      <c r="V74">
         <v>1.875</v>
       </c>
-      <c r="V74">
-        <v>1.925</v>
-      </c>
       <c r="W74">
         <v>-1</v>
       </c>
@@ -7111,19 +7111,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7398,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7592803</v>
+        <v>7590595</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7410,49 +7410,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F78" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J78" t="s">
         <v>52</v>
       </c>
       <c r="K78">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L78">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78">
+        <v>4.5</v>
+      </c>
+      <c r="O78">
         <v>3</v>
       </c>
-      <c r="N78">
-        <v>2.3</v>
-      </c>
-      <c r="O78">
-        <v>2.875</v>
-      </c>
       <c r="P78">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R78">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S78">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
         <v>2</v>
@@ -7467,19 +7467,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7590595</v>
+        <v>7592803</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7499,49 +7499,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G79" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
         <v>52</v>
       </c>
       <c r="K79">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L79">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N79">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="O79">
+        <v>2.875</v>
+      </c>
+      <c r="P79">
         <v>3</v>
       </c>
-      <c r="P79">
-        <v>1.75</v>
-      </c>
       <c r="Q79">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S79">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U79">
         <v>2</v>
@@ -7556,19 +7556,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB79">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7766,7 +7766,7 @@
         <v>45279.3125</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
         <v>29</v>
@@ -8555,7 +8555,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7618724</v>
+        <v>7618726</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8567,76 +8567,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K91">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="L91">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M91">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N91">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="O91">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P91">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q91">
         <v>0</v>
       </c>
       <c r="R91">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S91">
+        <v>2.05</v>
+      </c>
+      <c r="T91">
+        <v>1.75</v>
+      </c>
+      <c r="U91">
         <v>1.8</v>
       </c>
-      <c r="T91">
-        <v>2</v>
-      </c>
-      <c r="U91">
-        <v>2</v>
-      </c>
       <c r="V91">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W91">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z91">
+        <v>-1</v>
+      </c>
+      <c r="AA91">
+        <v>1.05</v>
+      </c>
+      <c r="AB91">
+        <v>-1</v>
+      </c>
+      <c r="AC91">
         <v>1</v>
-      </c>
-      <c r="AA91">
-        <v>-1</v>
-      </c>
-      <c r="AB91">
-        <v>1</v>
-      </c>
-      <c r="AC91">
-        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8644,7 +8644,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7618726</v>
+        <v>7618724</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8656,76 +8656,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K92">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L92">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M92">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N92">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="O92">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P92">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q92">
         <v>0</v>
       </c>
       <c r="R92">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S92">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T92">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U92">
+        <v>2</v>
+      </c>
+      <c r="V92">
         <v>1.8</v>
       </c>
-      <c r="V92">
-        <v>2</v>
-      </c>
       <c r="W92">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA92">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC92">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -9371,7 +9371,7 @@
         <v>47</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9623,7 +9623,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7648519</v>
+        <v>7645264</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9635,46 +9635,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K103">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L103">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M103">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="N103">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="O103">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P103">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="Q103">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R103">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S103">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T103">
         <v>2</v>
@@ -9689,22 +9689,22 @@
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y103">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
+        <v>0.825</v>
+      </c>
+      <c r="AB103">
+        <v>0</v>
+      </c>
+      <c r="AC103">
         <v>-0</v>
-      </c>
-      <c r="AB103">
-        <v>-1</v>
-      </c>
-      <c r="AC103">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9712,7 +9712,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7645264</v>
+        <v>7648519</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9724,46 +9724,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K104">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L104">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="N104">
+        <v>5.25</v>
+      </c>
+      <c r="O104">
+        <v>3.75</v>
+      </c>
+      <c r="P104">
         <v>1.533</v>
       </c>
-      <c r="O104">
-        <v>3.5</v>
-      </c>
-      <c r="P104">
-        <v>6.5</v>
-      </c>
       <c r="Q104">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R104">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T104">
         <v>2</v>
@@ -9778,22 +9778,22 @@
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10080,7 +10080,7 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
         <v>42</v>
@@ -11059,7 +11059,7 @@
         <v>45342.33333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
         <v>35</v>
@@ -12041,7 +12041,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12483,7 +12483,7 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
         <v>39</v>
@@ -12820,6 +12820,525 @@
       </c>
       <c r="AC138">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>7913240</v>
+      </c>
+      <c r="C139" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" t="s">
+        <v>28</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45355.35416666666</v>
+      </c>
+      <c r="F139" t="s">
+        <v>29</v>
+      </c>
+      <c r="G139" t="s">
+        <v>43</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139" t="s">
+        <v>53</v>
+      </c>
+      <c r="K139">
+        <v>2.5</v>
+      </c>
+      <c r="L139">
+        <v>2.75</v>
+      </c>
+      <c r="M139">
+        <v>2.875</v>
+      </c>
+      <c r="N139">
+        <v>2.5</v>
+      </c>
+      <c r="O139">
+        <v>2.75</v>
+      </c>
+      <c r="P139">
+        <v>2.875</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="R139">
+        <v>1.775</v>
+      </c>
+      <c r="S139">
+        <v>2.025</v>
+      </c>
+      <c r="T139">
+        <v>2</v>
+      </c>
+      <c r="U139">
+        <v>1.9</v>
+      </c>
+      <c r="V139">
+        <v>1.9</v>
+      </c>
+      <c r="W139">
+        <v>1.5</v>
+      </c>
+      <c r="X139">
+        <v>-1</v>
+      </c>
+      <c r="Y139">
+        <v>-1</v>
+      </c>
+      <c r="Z139">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA139">
+        <v>-1</v>
+      </c>
+      <c r="AB139">
+        <v>-1</v>
+      </c>
+      <c r="AC139">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>7913929</v>
+      </c>
+      <c r="C140" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140" t="s">
+        <v>28</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45355.45833333334</v>
+      </c>
+      <c r="F140" t="s">
+        <v>38</v>
+      </c>
+      <c r="G140" t="s">
+        <v>37</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140">
+        <v>4</v>
+      </c>
+      <c r="J140" t="s">
+        <v>52</v>
+      </c>
+      <c r="K140">
+        <v>4.75</v>
+      </c>
+      <c r="L140">
+        <v>3</v>
+      </c>
+      <c r="M140">
+        <v>1.8</v>
+      </c>
+      <c r="N140">
+        <v>6.5</v>
+      </c>
+      <c r="O140">
+        <v>3.3</v>
+      </c>
+      <c r="P140">
+        <v>1.55</v>
+      </c>
+      <c r="Q140">
+        <v>1</v>
+      </c>
+      <c r="R140">
+        <v>1.8</v>
+      </c>
+      <c r="S140">
+        <v>2</v>
+      </c>
+      <c r="T140">
+        <v>2</v>
+      </c>
+      <c r="U140">
+        <v>1.95</v>
+      </c>
+      <c r="V140">
+        <v>1.85</v>
+      </c>
+      <c r="W140">
+        <v>-1</v>
+      </c>
+      <c r="X140">
+        <v>-1</v>
+      </c>
+      <c r="Y140">
+        <v>0.55</v>
+      </c>
+      <c r="Z140">
+        <v>-1</v>
+      </c>
+      <c r="AA140">
+        <v>1</v>
+      </c>
+      <c r="AB140">
+        <v>0.95</v>
+      </c>
+      <c r="AC140">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>7914041</v>
+      </c>
+      <c r="C141" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" t="s">
+        <v>28</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45355.5625</v>
+      </c>
+      <c r="F141" t="s">
+        <v>35</v>
+      </c>
+      <c r="G141" t="s">
+        <v>36</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141" t="s">
+        <v>51</v>
+      </c>
+      <c r="K141">
+        <v>3.3</v>
+      </c>
+      <c r="L141">
+        <v>2.875</v>
+      </c>
+      <c r="M141">
+        <v>2.15</v>
+      </c>
+      <c r="N141">
+        <v>3.3</v>
+      </c>
+      <c r="O141">
+        <v>2.875</v>
+      </c>
+      <c r="P141">
+        <v>2.15</v>
+      </c>
+      <c r="Q141">
+        <v>0.25</v>
+      </c>
+      <c r="R141">
+        <v>1.9</v>
+      </c>
+      <c r="S141">
+        <v>1.9</v>
+      </c>
+      <c r="T141">
+        <v>1.75</v>
+      </c>
+      <c r="U141">
+        <v>1.85</v>
+      </c>
+      <c r="V141">
+        <v>1.95</v>
+      </c>
+      <c r="W141">
+        <v>-1</v>
+      </c>
+      <c r="X141">
+        <v>1.875</v>
+      </c>
+      <c r="Y141">
+        <v>-1</v>
+      </c>
+      <c r="Z141">
+        <v>0.45</v>
+      </c>
+      <c r="AA141">
+        <v>-0.5</v>
+      </c>
+      <c r="AB141">
+        <v>0.425</v>
+      </c>
+      <c r="AC141">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>7915075</v>
+      </c>
+      <c r="C142" t="s">
+        <v>28</v>
+      </c>
+      <c r="D142" t="s">
+        <v>28</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45356.35416666666</v>
+      </c>
+      <c r="F142" t="s">
+        <v>41</v>
+      </c>
+      <c r="G142" t="s">
+        <v>44</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142" t="s">
+        <v>52</v>
+      </c>
+      <c r="K142">
+        <v>2.5</v>
+      </c>
+      <c r="L142">
+        <v>3</v>
+      </c>
+      <c r="M142">
+        <v>2.625</v>
+      </c>
+      <c r="N142">
+        <v>2.15</v>
+      </c>
+      <c r="O142">
+        <v>2.625</v>
+      </c>
+      <c r="P142">
+        <v>3.6</v>
+      </c>
+      <c r="Q142">
+        <v>-0.25</v>
+      </c>
+      <c r="R142">
+        <v>1.9</v>
+      </c>
+      <c r="S142">
+        <v>1.9</v>
+      </c>
+      <c r="T142">
+        <v>2</v>
+      </c>
+      <c r="U142">
+        <v>2</v>
+      </c>
+      <c r="V142">
+        <v>1.8</v>
+      </c>
+      <c r="W142">
+        <v>-1</v>
+      </c>
+      <c r="X142">
+        <v>-1</v>
+      </c>
+      <c r="Y142">
+        <v>2.6</v>
+      </c>
+      <c r="Z142">
+        <v>-1</v>
+      </c>
+      <c r="AA142">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB142">
+        <v>-1</v>
+      </c>
+      <c r="AC142">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>7919126</v>
+      </c>
+      <c r="C143" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143" t="s">
+        <v>28</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45357.5625</v>
+      </c>
+      <c r="F143" t="s">
+        <v>30</v>
+      </c>
+      <c r="G143" t="s">
+        <v>34</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143" t="s">
+        <v>51</v>
+      </c>
+      <c r="K143">
+        <v>2.25</v>
+      </c>
+      <c r="L143">
+        <v>2.75</v>
+      </c>
+      <c r="M143">
+        <v>3.25</v>
+      </c>
+      <c r="N143">
+        <v>1.95</v>
+      </c>
+      <c r="O143">
+        <v>2.9</v>
+      </c>
+      <c r="P143">
+        <v>4</v>
+      </c>
+      <c r="Q143">
+        <v>-0.5</v>
+      </c>
+      <c r="R143">
+        <v>2</v>
+      </c>
+      <c r="S143">
+        <v>1.8</v>
+      </c>
+      <c r="T143">
+        <v>1.75</v>
+      </c>
+      <c r="U143">
+        <v>1.725</v>
+      </c>
+      <c r="V143">
+        <v>1.975</v>
+      </c>
+      <c r="W143">
+        <v>-1</v>
+      </c>
+      <c r="X143">
+        <v>1.9</v>
+      </c>
+      <c r="Y143">
+        <v>-1</v>
+      </c>
+      <c r="Z143">
+        <v>-1</v>
+      </c>
+      <c r="AA143">
+        <v>0.8</v>
+      </c>
+      <c r="AB143">
+        <v>0.3625</v>
+      </c>
+      <c r="AC143">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>7927234</v>
+      </c>
+      <c r="C144" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" t="s">
+        <v>28</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45359.35416666666</v>
+      </c>
+      <c r="F144" t="s">
+        <v>32</v>
+      </c>
+      <c r="G144" t="s">
+        <v>33</v>
+      </c>
+      <c r="K144">
+        <v>5.75</v>
+      </c>
+      <c r="L144">
+        <v>4</v>
+      </c>
+      <c r="M144">
+        <v>1.444</v>
+      </c>
+      <c r="N144">
+        <v>5.75</v>
+      </c>
+      <c r="O144">
+        <v>4</v>
+      </c>
+      <c r="P144">
+        <v>1.444</v>
+      </c>
+      <c r="Q144">
+        <v>1.25</v>
+      </c>
+      <c r="R144">
+        <v>1.8</v>
+      </c>
+      <c r="S144">
+        <v>2</v>
+      </c>
+      <c r="T144">
+        <v>2.25</v>
+      </c>
+      <c r="U144">
+        <v>1.9</v>
+      </c>
+      <c r="V144">
+        <v>1.9</v>
+      </c>
+      <c r="W144">
+        <v>0</v>
+      </c>
+      <c r="X144">
+        <v>0</v>
+      </c>
+      <c r="Y144">
+        <v>0</v>
+      </c>
+      <c r="Z144">
+        <v>0</v>
+      </c>
+      <c r="AA144">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC144"/>
+  <dimension ref="A1:AC147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1969,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6838982</v>
+        <v>6838980</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1981,76 +1981,76 @@
         <v>45107.44791666666</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K17">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N17">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Q17">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S17">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T17">
         <v>2</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA17">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2058,7 +2058,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6838980</v>
+        <v>6838982</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2070,76 +2070,76 @@
         <v>45107.44791666666</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K18">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L18">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N18">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O18">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Q18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
+        <v>1.725</v>
+      </c>
+      <c r="S18">
+        <v>1.975</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="V18">
         <v>1.8</v>
       </c>
-      <c r="S18">
-        <v>2</v>
-      </c>
-      <c r="T18">
-        <v>2</v>
-      </c>
-      <c r="U18">
-        <v>1.85</v>
-      </c>
-      <c r="V18">
-        <v>1.95</v>
-      </c>
       <c r="W18">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z18">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC18">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -4105,7 +4105,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7407173</v>
+        <v>7406927</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4117,76 +4117,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K41">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="M41">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="N41">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="O41">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P41">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q41">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R41">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U41">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V41">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W41">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
+        <v>0.45</v>
+      </c>
+      <c r="AA41">
         <v>-0.5</v>
       </c>
-      <c r="AA41">
-        <v>0.4875</v>
-      </c>
       <c r="AB41">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4194,7 +4194,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7406927</v>
+        <v>7407173</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4206,76 +4206,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K42">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="L42">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M42">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="N42">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="O42">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="P42">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="Q42">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R42">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S42">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T42">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U42">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V42">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X42">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA42">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC42">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -5618,7 +5618,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7511490</v>
+        <v>7511489</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5630,10 +5630,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5645,41 +5645,41 @@
         <v>52</v>
       </c>
       <c r="K58">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58">
         <v>3.1</v>
       </c>
-      <c r="M58">
-        <v>1.909</v>
-      </c>
       <c r="N58">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O58">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P58">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q58">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R58">
+        <v>1.95</v>
+      </c>
+      <c r="S58">
+        <v>1.85</v>
+      </c>
+      <c r="T58">
+        <v>2.25</v>
+      </c>
+      <c r="U58">
+        <v>2.05</v>
+      </c>
+      <c r="V58">
         <v>1.75</v>
       </c>
-      <c r="S58">
-        <v>2.05</v>
-      </c>
-      <c r="T58">
-        <v>1.75</v>
-      </c>
-      <c r="U58">
-        <v>1.9</v>
-      </c>
-      <c r="V58">
-        <v>1.9</v>
-      </c>
       <c r="W58">
         <v>-1</v>
       </c>
@@ -5687,19 +5687,19 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB58">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC58">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5707,7 +5707,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7511489</v>
+        <v>7511490</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5719,10 +5719,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F59" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5734,40 +5734,40 @@
         <v>52</v>
       </c>
       <c r="K59">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L59">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M59">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N59">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="O59">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P59">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q59">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S59">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T59">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U59">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V59">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W59">
         <v>-1</v>
@@ -5776,19 +5776,19 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB59">
+        <v>0.45</v>
+      </c>
+      <c r="AC59">
         <v>-0.5</v>
-      </c>
-      <c r="AC59">
-        <v>0.375</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -6597,7 +6597,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7555937</v>
+        <v>7555939</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6609,13 +6609,13 @@
         <v>45265.35416666666</v>
       </c>
       <c r="F69" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69">
         <v>2</v>
@@ -6624,40 +6624,40 @@
         <v>52</v>
       </c>
       <c r="K69">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="L69">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M69">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="N69">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="O69">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="P69">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R69">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S69">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T69">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V69">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6666,19 +6666,19 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>2.4</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA69">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC69">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6686,7 +6686,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7555939</v>
+        <v>7555937</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6698,13 +6698,13 @@
         <v>45265.35416666666</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>2</v>
@@ -6713,40 +6713,40 @@
         <v>52</v>
       </c>
       <c r="K70">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="L70">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M70">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="N70">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="O70">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P70">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q70">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S70">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U70">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V70">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6755,19 +6755,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="Z70">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB70">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7398,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7590595</v>
+        <v>7592803</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7410,49 +7410,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
         <v>52</v>
       </c>
       <c r="K78">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L78">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N78">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="O78">
+        <v>2.875</v>
+      </c>
+      <c r="P78">
         <v>3</v>
       </c>
-      <c r="P78">
-        <v>1.75</v>
-      </c>
       <c r="Q78">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S78">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U78">
         <v>2</v>
@@ -7467,19 +7467,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB78">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7592803</v>
+        <v>7590595</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7499,49 +7499,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J79" t="s">
         <v>52</v>
       </c>
       <c r="K79">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L79">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M79">
+        <v>2</v>
+      </c>
+      <c r="N79">
+        <v>4.5</v>
+      </c>
+      <c r="O79">
         <v>3</v>
       </c>
-      <c r="N79">
-        <v>2.3</v>
-      </c>
-      <c r="O79">
-        <v>2.875</v>
-      </c>
       <c r="P79">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R79">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S79">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T79">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
         <v>2</v>
@@ -7556,19 +7556,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC79">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -8377,7 +8377,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7615329</v>
+        <v>7613564</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8389,76 +8389,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F89" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K89">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="L89">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="M89">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N89">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="O89">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P89">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Q89">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R89">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S89">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T89">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U89">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V89">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X89">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC89">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8466,7 +8466,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7613564</v>
+        <v>7615329</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8478,76 +8478,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K90">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="L90">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="M90">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N90">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O90">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P90">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q90">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R90">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S90">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T90">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U90">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W90">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB90">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8555,7 +8555,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7618726</v>
+        <v>7618724</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8567,76 +8567,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K91">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L91">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M91">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N91">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="O91">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P91">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q91">
         <v>0</v>
       </c>
       <c r="R91">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S91">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T91">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U91">
+        <v>2</v>
+      </c>
+      <c r="V91">
         <v>1.8</v>
       </c>
-      <c r="V91">
-        <v>2</v>
-      </c>
       <c r="W91">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA91">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC91">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8644,7 +8644,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7618724</v>
+        <v>7618726</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8656,76 +8656,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K92">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="L92">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M92">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N92">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="O92">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P92">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q92">
         <v>0</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S92">
+        <v>2.05</v>
+      </c>
+      <c r="T92">
+        <v>1.75</v>
+      </c>
+      <c r="U92">
         <v>1.8</v>
       </c>
-      <c r="T92">
-        <v>2</v>
-      </c>
-      <c r="U92">
-        <v>2</v>
-      </c>
       <c r="V92">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W92">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z92">
+        <v>-1</v>
+      </c>
+      <c r="AA92">
+        <v>1.05</v>
+      </c>
+      <c r="AB92">
+        <v>-1</v>
+      </c>
+      <c r="AC92">
         <v>1</v>
-      </c>
-      <c r="AA92">
-        <v>-1</v>
-      </c>
-      <c r="AB92">
-        <v>1</v>
-      </c>
-      <c r="AC92">
-        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -9623,7 +9623,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7645264</v>
+        <v>7648519</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9635,46 +9635,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K103">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L103">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="N103">
+        <v>5.25</v>
+      </c>
+      <c r="O103">
+        <v>3.75</v>
+      </c>
+      <c r="P103">
         <v>1.533</v>
       </c>
-      <c r="O103">
-        <v>3.5</v>
-      </c>
-      <c r="P103">
-        <v>6.5</v>
-      </c>
       <c r="Q103">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R103">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S103">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T103">
         <v>2</v>
@@ -9689,22 +9689,22 @@
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA103">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9712,7 +9712,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7648519</v>
+        <v>7645264</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9724,46 +9724,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K104">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L104">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M104">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="N104">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="O104">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P104">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="Q104">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R104">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S104">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T104">
         <v>2</v>
@@ -9778,22 +9778,22 @@
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y104">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
+        <v>0.825</v>
+      </c>
+      <c r="AB104">
+        <v>0</v>
+      </c>
+      <c r="AC104">
         <v>-0</v>
-      </c>
-      <c r="AB104">
-        <v>-1</v>
-      </c>
-      <c r="AC104">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -13289,6 +13289,15 @@
       <c r="G144" t="s">
         <v>33</v>
       </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
+        <v>4</v>
+      </c>
+      <c r="J144" t="s">
+        <v>52</v>
+      </c>
       <c r="K144">
         <v>5.75</v>
       </c>
@@ -13299,22 +13308,22 @@
         <v>1.444</v>
       </c>
       <c r="N144">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="O144">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P144">
-        <v>1.444</v>
+        <v>1.5</v>
       </c>
       <c r="Q144">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R144">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S144">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T144">
         <v>2.25</v>
@@ -13326,18 +13335,276 @@
         <v>1.9</v>
       </c>
       <c r="W144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB144">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC144">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:29">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>7927236</v>
+      </c>
+      <c r="C145" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145" t="s">
+        <v>28</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45359.45833333334</v>
+      </c>
+      <c r="F145" t="s">
+        <v>43</v>
+      </c>
+      <c r="G145" t="s">
+        <v>46</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145" t="s">
+        <v>51</v>
+      </c>
+      <c r="K145">
+        <v>2.4</v>
+      </c>
+      <c r="L145">
+        <v>2.9</v>
+      </c>
+      <c r="M145">
+        <v>2.8</v>
+      </c>
+      <c r="N145">
+        <v>2.3</v>
+      </c>
+      <c r="O145">
+        <v>2.9</v>
+      </c>
+      <c r="P145">
+        <v>3.1</v>
+      </c>
+      <c r="Q145">
+        <v>-0.25</v>
+      </c>
+      <c r="R145">
+        <v>1.95</v>
+      </c>
+      <c r="S145">
+        <v>1.85</v>
+      </c>
+      <c r="T145">
+        <v>2</v>
+      </c>
+      <c r="U145">
+        <v>1.975</v>
+      </c>
+      <c r="V145">
+        <v>1.725</v>
+      </c>
+      <c r="W145">
+        <v>-1</v>
+      </c>
+      <c r="X145">
+        <v>1.9</v>
+      </c>
+      <c r="Y145">
+        <v>-1</v>
+      </c>
+      <c r="Z145">
+        <v>-0.5</v>
+      </c>
+      <c r="AA145">
+        <v>0.425</v>
+      </c>
+      <c r="AB145">
+        <v>0</v>
+      </c>
+      <c r="AC145">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:29">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>7927235</v>
+      </c>
+      <c r="C146" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" t="s">
+        <v>28</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45359.60416666666</v>
+      </c>
+      <c r="F146" t="s">
+        <v>40</v>
+      </c>
+      <c r="G146" t="s">
+        <v>45</v>
+      </c>
+      <c r="H146">
+        <v>3</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146" t="s">
+        <v>53</v>
+      </c>
+      <c r="K146">
+        <v>1.909</v>
+      </c>
+      <c r="L146">
+        <v>3.1</v>
+      </c>
+      <c r="M146">
+        <v>3.75</v>
+      </c>
+      <c r="N146">
+        <v>1.8</v>
+      </c>
+      <c r="O146">
+        <v>3.4</v>
+      </c>
+      <c r="P146">
+        <v>4</v>
+      </c>
+      <c r="Q146">
+        <v>-0.5</v>
+      </c>
+      <c r="R146">
+        <v>1.825</v>
+      </c>
+      <c r="S146">
+        <v>1.975</v>
+      </c>
+      <c r="T146">
+        <v>2.25</v>
+      </c>
+      <c r="U146">
+        <v>1.975</v>
+      </c>
+      <c r="V146">
+        <v>1.725</v>
+      </c>
+      <c r="W146">
+        <v>0.8</v>
+      </c>
+      <c r="X146">
+        <v>-1</v>
+      </c>
+      <c r="Y146">
+        <v>-1</v>
+      </c>
+      <c r="Z146">
+        <v>0.825</v>
+      </c>
+      <c r="AA146">
+        <v>-1</v>
+      </c>
+      <c r="AB146">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC146">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:29">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>7935121</v>
+      </c>
+      <c r="C147" t="s">
+        <v>28</v>
+      </c>
+      <c r="D147" t="s">
+        <v>28</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45360.5625</v>
+      </c>
+      <c r="F147" t="s">
+        <v>34</v>
+      </c>
+      <c r="G147" t="s">
+        <v>39</v>
+      </c>
+      <c r="K147">
+        <v>2.2</v>
+      </c>
+      <c r="L147">
+        <v>2.8</v>
+      </c>
+      <c r="M147">
+        <v>3.25</v>
+      </c>
+      <c r="N147">
+        <v>2.2</v>
+      </c>
+      <c r="O147">
+        <v>2.8</v>
+      </c>
+      <c r="P147">
+        <v>3.25</v>
+      </c>
+      <c r="Q147">
+        <v>-0.25</v>
+      </c>
+      <c r="R147">
+        <v>1.95</v>
+      </c>
+      <c r="S147">
+        <v>1.85</v>
+      </c>
+      <c r="T147">
+        <v>2</v>
+      </c>
+      <c r="U147">
+        <v>1.85</v>
+      </c>
+      <c r="V147">
+        <v>1.95</v>
+      </c>
+      <c r="W147">
+        <v>0</v>
+      </c>
+      <c r="X147">
+        <v>0</v>
+      </c>
+      <c r="Y147">
+        <v>0</v>
+      </c>
+      <c r="Z147">
+        <v>0</v>
+      </c>
+      <c r="AA147">
         <v>0</v>
       </c>
     </row>

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Al Zawraa</t>
   </si>
   <si>
-    <t>Al Sinaah</t>
+    <t>Al Karkh</t>
   </si>
   <si>
-    <t>Al Karkh</t>
+    <t>Al Sinaah</t>
   </si>
   <si>
     <t>Al Shorta SC</t>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC147"/>
+  <dimension ref="A1:AC149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6729610</v>
+        <v>6729609</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -827,73 +827,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K4">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L4">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="M4">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="N4">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O4">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="P4">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S4">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T4">
         <v>2</v>
       </c>
       <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
         <v>1.8</v>
       </c>
-      <c r="V4">
-        <v>2</v>
-      </c>
       <c r="W4">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB4">
+        <v>-1</v>
+      </c>
+      <c r="AC4">
         <v>0.8</v>
-      </c>
-      <c r="AC4">
-        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6729609</v>
+        <v>6729610</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -916,73 +916,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K5">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L5">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="M5">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="N5">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="O5">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="P5">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T5">
         <v>2</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X5">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA5">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC5">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1183,7 +1183,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1969,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6838980</v>
+        <v>6838982</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1984,73 +1984,73 @@
         <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L17">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N17">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O17">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Q17">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R17">
+        <v>1.725</v>
+      </c>
+      <c r="S17">
+        <v>1.975</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
         <v>1.8</v>
       </c>
-      <c r="S17">
-        <v>2</v>
-      </c>
-      <c r="T17">
-        <v>2</v>
-      </c>
-      <c r="U17">
-        <v>1.85</v>
-      </c>
-      <c r="V17">
-        <v>1.95</v>
-      </c>
       <c r="W17">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2058,7 +2058,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6838982</v>
+        <v>6838980</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2073,73 +2073,73 @@
         <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N18">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R18">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S18">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T18">
         <v>2</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V18">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA18">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2340,7 +2340,7 @@
         <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2414,7 +2414,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6862618</v>
+        <v>6862617</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2426,76 +2426,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L22">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="M22">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N22">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O22">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P22">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>1.8</v>
+      </c>
+      <c r="T22">
+        <v>2.25</v>
+      </c>
+      <c r="U22">
+        <v>2.025</v>
+      </c>
+      <c r="V22">
         <v>1.775</v>
       </c>
-      <c r="S22">
-        <v>2.025</v>
-      </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
-      <c r="U22">
-        <v>1.95</v>
-      </c>
-      <c r="V22">
-        <v>1.85</v>
-      </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y22">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2503,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6862617</v>
+        <v>6862618</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2515,76 +2515,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="M23">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N23">
+        <v>2.05</v>
+      </c>
+      <c r="O23">
+        <v>2.625</v>
+      </c>
+      <c r="P23">
+        <v>4</v>
+      </c>
+      <c r="Q23">
+        <v>-0.25</v>
+      </c>
+      <c r="R23">
+        <v>1.775</v>
+      </c>
+      <c r="S23">
+        <v>2.025</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
         <v>1.95</v>
       </c>
-      <c r="O23">
-        <v>2.8</v>
-      </c>
-      <c r="P23">
-        <v>4.1</v>
-      </c>
-      <c r="Q23">
-        <v>-0.5</v>
-      </c>
-      <c r="R23">
-        <v>2</v>
-      </c>
-      <c r="S23">
-        <v>1.8</v>
-      </c>
-      <c r="T23">
-        <v>2.25</v>
-      </c>
-      <c r="U23">
-        <v>2.025</v>
-      </c>
       <c r="V23">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2607,7 +2607,7 @@
         <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2782,7 +2782,7 @@
         <v>45117.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
         <v>37</v>
@@ -3049,7 +3049,7 @@
         <v>45118.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3497,7 +3497,7 @@
         <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3672,10 +3672,10 @@
         <v>45128.45833333334</v>
       </c>
       <c r="F36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
         <v>31</v>
-      </c>
-      <c r="G36" t="s">
-        <v>32</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -4105,7 +4105,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7406927</v>
+        <v>7407173</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4117,76 +4117,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K41">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="L41">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M41">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="N41">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="O41">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="P41">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="Q41">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S41">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T41">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U41">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V41">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X41">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA41">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC41">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4194,7 +4194,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7407173</v>
+        <v>7406927</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4206,76 +4206,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K42">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="M42">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="N42">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="O42">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P42">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q42">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R42">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T42">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U42">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W42">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
+        <v>0.45</v>
+      </c>
+      <c r="AA42">
         <v>-0.5</v>
       </c>
-      <c r="AA42">
-        <v>0.4875</v>
-      </c>
       <c r="AB42">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4565,7 +4565,7 @@
         <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -5989,7 +5989,7 @@
         <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6523,7 +6523,7 @@
         <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6597,7 +6597,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7555939</v>
+        <v>7555937</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6609,13 +6609,13 @@
         <v>45265.35416666666</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>2</v>
@@ -6624,40 +6624,40 @@
         <v>52</v>
       </c>
       <c r="K69">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="L69">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M69">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="N69">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="O69">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P69">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q69">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S69">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U69">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V69">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6666,19 +6666,19 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="Z69">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB69">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6686,7 +6686,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7555937</v>
+        <v>7555939</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6698,13 +6698,13 @@
         <v>45265.35416666666</v>
       </c>
       <c r="F70" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70">
         <v>2</v>
@@ -6713,40 +6713,40 @@
         <v>52</v>
       </c>
       <c r="K70">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="L70">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M70">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="N70">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="O70">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="P70">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R70">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S70">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T70">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V70">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6755,19 +6755,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>2.4</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA70">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB70">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC70">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6953,7 +6953,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7565124</v>
+        <v>7565123</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6965,56 +6965,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
         <v>52</v>
       </c>
       <c r="K73">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L73">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M73">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N73">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="O73">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P73">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q73">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R73">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S73">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T73">
         <v>2</v>
       </c>
       <c r="U73">
+        <v>1.925</v>
+      </c>
+      <c r="V73">
         <v>1.875</v>
       </c>
-      <c r="V73">
-        <v>1.925</v>
-      </c>
       <c r="W73">
         <v>-1</v>
       </c>
@@ -7022,19 +7022,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC73">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7042,7 +7042,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7565123</v>
+        <v>7565124</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7054,56 +7054,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
         <v>52</v>
       </c>
       <c r="K74">
+        <v>1.5</v>
+      </c>
+      <c r="L74">
+        <v>3.6</v>
+      </c>
+      <c r="M74">
+        <v>6</v>
+      </c>
+      <c r="N74">
         <v>1.727</v>
       </c>
-      <c r="L74">
-        <v>3.4</v>
-      </c>
-      <c r="M74">
+      <c r="O74">
+        <v>3.5</v>
+      </c>
+      <c r="P74">
         <v>4.2</v>
       </c>
-      <c r="N74">
-        <v>1.833</v>
-      </c>
-      <c r="O74">
-        <v>3.3</v>
-      </c>
-      <c r="P74">
-        <v>3.75</v>
-      </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R74">
+        <v>2</v>
+      </c>
+      <c r="S74">
+        <v>1.8</v>
+      </c>
+      <c r="T74">
+        <v>2</v>
+      </c>
+      <c r="U74">
         <v>1.875</v>
       </c>
-      <c r="S74">
+      <c r="V74">
         <v>1.925</v>
       </c>
-      <c r="T74">
-        <v>2</v>
-      </c>
-      <c r="U74">
-        <v>1.925</v>
-      </c>
-      <c r="V74">
-        <v>1.875</v>
-      </c>
       <c r="W74">
         <v>-1</v>
       </c>
@@ -7111,19 +7111,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
+        <v>0.8</v>
+      </c>
+      <c r="AB74">
+        <v>-1</v>
+      </c>
+      <c r="AC74">
         <v>0.925</v>
-      </c>
-      <c r="AB74">
-        <v>0.925</v>
-      </c>
-      <c r="AC74">
-        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7398,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7592803</v>
+        <v>7590595</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7410,49 +7410,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F78" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J78" t="s">
         <v>52</v>
       </c>
       <c r="K78">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L78">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78">
+        <v>4.5</v>
+      </c>
+      <c r="O78">
         <v>3</v>
       </c>
-      <c r="N78">
-        <v>2.3</v>
-      </c>
-      <c r="O78">
-        <v>2.875</v>
-      </c>
       <c r="P78">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R78">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S78">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
         <v>2</v>
@@ -7467,19 +7467,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7590595</v>
+        <v>7592803</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7499,49 +7499,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G79" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
         <v>52</v>
       </c>
       <c r="K79">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L79">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N79">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="O79">
+        <v>2.875</v>
+      </c>
+      <c r="P79">
         <v>3</v>
       </c>
-      <c r="P79">
-        <v>1.75</v>
-      </c>
       <c r="Q79">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S79">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U79">
         <v>2</v>
@@ -7556,19 +7556,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB79">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7766,7 +7766,7 @@
         <v>45279.3125</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
         <v>29</v>
@@ -9371,7 +9371,7 @@
         <v>47</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -10068,7 +10068,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7811883</v>
+        <v>7811882</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10080,76 +10080,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G108" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
         <v>51</v>
       </c>
       <c r="K108">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="L108">
+        <v>2.9</v>
+      </c>
+      <c r="M108">
         <v>3.4</v>
       </c>
-      <c r="M108">
-        <v>1.727</v>
-      </c>
       <c r="N108">
+        <v>2.05</v>
+      </c>
+      <c r="O108">
+        <v>2.9</v>
+      </c>
+      <c r="P108">
         <v>3.6</v>
       </c>
-      <c r="O108">
-        <v>3.3</v>
-      </c>
-      <c r="P108">
-        <v>1.909</v>
-      </c>
       <c r="Q108">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S108">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T108">
         <v>1.75</v>
       </c>
       <c r="U108">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="V108">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC108">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10157,7 +10157,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7811882</v>
+        <v>7811883</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10169,76 +10169,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
         <v>51</v>
       </c>
       <c r="K109">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="L109">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M109">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="N109">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="O109">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P109">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q109">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R109">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S109">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T109">
         <v>1.75</v>
       </c>
       <c r="U109">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="V109">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA109">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -11059,7 +11059,7 @@
         <v>45342.33333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
         <v>35</v>
@@ -12041,7 +12041,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12483,7 +12483,7 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
         <v>39</v>
@@ -13284,7 +13284,7 @@
         <v>45359.35416666666</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
         <v>33</v>
@@ -13539,7 +13539,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7935121</v>
+        <v>7935060</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13548,34 +13548,43 @@
         <v>28</v>
       </c>
       <c r="E147" s="2">
-        <v>45360.5625</v>
+        <v>45360.35416666666</v>
       </c>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G147" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147" t="s">
+        <v>51</v>
       </c>
       <c r="K147">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L147">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="M147">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="N147">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="O147">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="P147">
-        <v>3.25</v>
+        <v>10</v>
       </c>
       <c r="Q147">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R147">
         <v>1.95</v>
@@ -13584,28 +13593,212 @@
         <v>1.85</v>
       </c>
       <c r="T147">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U147">
+        <v>1.95</v>
+      </c>
+      <c r="V147">
         <v>1.85</v>
       </c>
-      <c r="V147">
+      <c r="W147">
+        <v>-1</v>
+      </c>
+      <c r="X147">
+        <v>3.333</v>
+      </c>
+      <c r="Y147">
+        <v>-1</v>
+      </c>
+      <c r="Z147">
+        <v>-1</v>
+      </c>
+      <c r="AA147">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB147">
+        <v>-1</v>
+      </c>
+      <c r="AC147">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>7935122</v>
+      </c>
+      <c r="C148" t="s">
+        <v>28</v>
+      </c>
+      <c r="D148" t="s">
+        <v>28</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45360.45833333334</v>
+      </c>
+      <c r="F148" t="s">
+        <v>49</v>
+      </c>
+      <c r="G148" t="s">
+        <v>35</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148" t="s">
+        <v>51</v>
+      </c>
+      <c r="K148">
+        <v>1.285</v>
+      </c>
+      <c r="L148">
+        <v>4.5</v>
+      </c>
+      <c r="M148">
+        <v>9</v>
+      </c>
+      <c r="N148">
+        <v>1.5</v>
+      </c>
+      <c r="O148">
+        <v>3.8</v>
+      </c>
+      <c r="P148">
+        <v>5.5</v>
+      </c>
+      <c r="Q148">
+        <v>-1</v>
+      </c>
+      <c r="R148">
         <v>1.95</v>
       </c>
-      <c r="W147">
-        <v>0</v>
-      </c>
-      <c r="X147">
-        <v>0</v>
-      </c>
-      <c r="Y147">
-        <v>0</v>
-      </c>
-      <c r="Z147">
-        <v>0</v>
-      </c>
-      <c r="AA147">
-        <v>0</v>
+      <c r="S148">
+        <v>1.85</v>
+      </c>
+      <c r="T148">
+        <v>1.75</v>
+      </c>
+      <c r="U148">
+        <v>1.8</v>
+      </c>
+      <c r="V148">
+        <v>2</v>
+      </c>
+      <c r="W148">
+        <v>-1</v>
+      </c>
+      <c r="X148">
+        <v>2.8</v>
+      </c>
+      <c r="Y148">
+        <v>-1</v>
+      </c>
+      <c r="Z148">
+        <v>-1</v>
+      </c>
+      <c r="AA148">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB148">
+        <v>-1</v>
+      </c>
+      <c r="AC148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>7935121</v>
+      </c>
+      <c r="C149" t="s">
+        <v>28</v>
+      </c>
+      <c r="D149" t="s">
+        <v>28</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45360.5625</v>
+      </c>
+      <c r="F149" t="s">
+        <v>34</v>
+      </c>
+      <c r="G149" t="s">
+        <v>39</v>
+      </c>
+      <c r="H149">
+        <v>2</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149" t="s">
+        <v>53</v>
+      </c>
+      <c r="K149">
+        <v>2.2</v>
+      </c>
+      <c r="L149">
+        <v>2.8</v>
+      </c>
+      <c r="M149">
+        <v>3.25</v>
+      </c>
+      <c r="N149">
+        <v>2.2</v>
+      </c>
+      <c r="O149">
+        <v>2.8</v>
+      </c>
+      <c r="P149">
+        <v>3.25</v>
+      </c>
+      <c r="Q149">
+        <v>-0.25</v>
+      </c>
+      <c r="R149">
+        <v>1.95</v>
+      </c>
+      <c r="S149">
+        <v>1.85</v>
+      </c>
+      <c r="T149">
+        <v>2</v>
+      </c>
+      <c r="U149">
+        <v>1.85</v>
+      </c>
+      <c r="V149">
+        <v>1.95</v>
+      </c>
+      <c r="W149">
+        <v>1.2</v>
+      </c>
+      <c r="X149">
+        <v>-1</v>
+      </c>
+      <c r="Y149">
+        <v>-1</v>
+      </c>
+      <c r="Z149">
+        <v>0.95</v>
+      </c>
+      <c r="AA149">
+        <v>-1</v>
+      </c>
+      <c r="AB149">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC149">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -2414,7 +2414,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6862617</v>
+        <v>6862618</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2426,76 +2426,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="M22">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N22">
+        <v>2.05</v>
+      </c>
+      <c r="O22">
+        <v>2.625</v>
+      </c>
+      <c r="P22">
+        <v>4</v>
+      </c>
+      <c r="Q22">
+        <v>-0.25</v>
+      </c>
+      <c r="R22">
+        <v>1.775</v>
+      </c>
+      <c r="S22">
+        <v>2.025</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
         <v>1.95</v>
       </c>
-      <c r="O22">
-        <v>2.8</v>
-      </c>
-      <c r="P22">
-        <v>4.1</v>
-      </c>
-      <c r="Q22">
-        <v>-0.5</v>
-      </c>
-      <c r="R22">
-        <v>2</v>
-      </c>
-      <c r="S22">
-        <v>1.8</v>
-      </c>
-      <c r="T22">
-        <v>2.25</v>
-      </c>
-      <c r="U22">
-        <v>2.025</v>
-      </c>
       <c r="V22">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2503,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6862618</v>
+        <v>6862617</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2515,76 +2515,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L23">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="M23">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N23">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O23">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P23">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>1.8</v>
+      </c>
+      <c r="T23">
+        <v>2.25</v>
+      </c>
+      <c r="U23">
+        <v>2.025</v>
+      </c>
+      <c r="V23">
         <v>1.775</v>
       </c>
-      <c r="S23">
-        <v>2.025</v>
-      </c>
-      <c r="T23">
-        <v>2</v>
-      </c>
-      <c r="U23">
-        <v>1.95</v>
-      </c>
-      <c r="V23">
-        <v>1.85</v>
-      </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y23">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -5262,7 +5262,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7453403</v>
+        <v>7453404</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5274,76 +5274,76 @@
         <v>45240.375</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K54">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L54">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M54">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N54">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O54">
         <v>2.9</v>
       </c>
       <c r="P54">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R54">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S54">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T54">
         <v>2</v>
       </c>
       <c r="U54">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z54">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5351,7 +5351,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7453404</v>
+        <v>7453403</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5363,76 +5363,76 @@
         <v>45240.375</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K55">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L55">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M55">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N55">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O55">
         <v>2.9</v>
       </c>
       <c r="P55">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q55">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S55">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T55">
         <v>2</v>
       </c>
       <c r="U55">
+        <v>1.975</v>
+      </c>
+      <c r="V55">
+        <v>1.825</v>
+      </c>
+      <c r="W55">
+        <v>-1</v>
+      </c>
+      <c r="X55">
         <v>1.9</v>
       </c>
-      <c r="V55">
-        <v>1.9</v>
-      </c>
-      <c r="W55">
-        <v>-1</v>
-      </c>
-      <c r="X55">
-        <v>-1</v>
-      </c>
       <c r="Y55">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA55">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5618,7 +5618,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7511489</v>
+        <v>7511490</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5630,10 +5630,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5645,40 +5645,40 @@
         <v>52</v>
       </c>
       <c r="K58">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L58">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M58">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N58">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="O58">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P58">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q58">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R58">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S58">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T58">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U58">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V58">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W58">
         <v>-1</v>
@@ -5687,19 +5687,19 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB58">
+        <v>0.45</v>
+      </c>
+      <c r="AC58">
         <v>-0.5</v>
-      </c>
-      <c r="AC58">
-        <v>0.375</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5707,7 +5707,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7511490</v>
+        <v>7511489</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5719,10 +5719,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5734,41 +5734,41 @@
         <v>52</v>
       </c>
       <c r="K59">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="M59">
         <v>3.1</v>
       </c>
-      <c r="M59">
-        <v>1.909</v>
-      </c>
       <c r="N59">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O59">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P59">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R59">
+        <v>1.95</v>
+      </c>
+      <c r="S59">
+        <v>1.85</v>
+      </c>
+      <c r="T59">
+        <v>2.25</v>
+      </c>
+      <c r="U59">
+        <v>2.05</v>
+      </c>
+      <c r="V59">
         <v>1.75</v>
       </c>
-      <c r="S59">
-        <v>2.05</v>
-      </c>
-      <c r="T59">
-        <v>1.75</v>
-      </c>
-      <c r="U59">
-        <v>1.9</v>
-      </c>
-      <c r="V59">
-        <v>1.9</v>
-      </c>
       <c r="W59">
         <v>-1</v>
       </c>
@@ -5776,19 +5776,19 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB59">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC59">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -6953,7 +6953,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7565123</v>
+        <v>7565124</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6965,56 +6965,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
         <v>52</v>
       </c>
       <c r="K73">
+        <v>1.5</v>
+      </c>
+      <c r="L73">
+        <v>3.6</v>
+      </c>
+      <c r="M73">
+        <v>6</v>
+      </c>
+      <c r="N73">
         <v>1.727</v>
       </c>
-      <c r="L73">
-        <v>3.4</v>
-      </c>
-      <c r="M73">
+      <c r="O73">
+        <v>3.5</v>
+      </c>
+      <c r="P73">
         <v>4.2</v>
       </c>
-      <c r="N73">
-        <v>1.833</v>
-      </c>
-      <c r="O73">
-        <v>3.3</v>
-      </c>
-      <c r="P73">
-        <v>3.75</v>
-      </c>
       <c r="Q73">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R73">
+        <v>2</v>
+      </c>
+      <c r="S73">
+        <v>1.8</v>
+      </c>
+      <c r="T73">
+        <v>2</v>
+      </c>
+      <c r="U73">
         <v>1.875</v>
       </c>
-      <c r="S73">
+      <c r="V73">
         <v>1.925</v>
       </c>
-      <c r="T73">
-        <v>2</v>
-      </c>
-      <c r="U73">
-        <v>1.925</v>
-      </c>
-      <c r="V73">
-        <v>1.875</v>
-      </c>
       <c r="W73">
         <v>-1</v>
       </c>
@@ -7022,19 +7022,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
+        <v>0.8</v>
+      </c>
+      <c r="AB73">
+        <v>-1</v>
+      </c>
+      <c r="AC73">
         <v>0.925</v>
-      </c>
-      <c r="AB73">
-        <v>0.925</v>
-      </c>
-      <c r="AC73">
-        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7042,7 +7042,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7565124</v>
+        <v>7565123</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7054,56 +7054,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
         <v>52</v>
       </c>
       <c r="K74">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L74">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M74">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N74">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="O74">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P74">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q74">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S74">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T74">
         <v>2</v>
       </c>
       <c r="U74">
+        <v>1.925</v>
+      </c>
+      <c r="V74">
         <v>1.875</v>
       </c>
-      <c r="V74">
-        <v>1.925</v>
-      </c>
       <c r="W74">
         <v>-1</v>
       </c>
@@ -7111,19 +7111,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7398,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7590595</v>
+        <v>7592803</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7410,49 +7410,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
         <v>52</v>
       </c>
       <c r="K78">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L78">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N78">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="O78">
+        <v>2.875</v>
+      </c>
+      <c r="P78">
         <v>3</v>
       </c>
-      <c r="P78">
-        <v>1.75</v>
-      </c>
       <c r="Q78">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S78">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U78">
         <v>2</v>
@@ -7467,19 +7467,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB78">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7592803</v>
+        <v>7590595</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7499,49 +7499,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J79" t="s">
         <v>52</v>
       </c>
       <c r="K79">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L79">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M79">
+        <v>2</v>
+      </c>
+      <c r="N79">
+        <v>4.5</v>
+      </c>
+      <c r="O79">
         <v>3</v>
       </c>
-      <c r="N79">
-        <v>2.3</v>
-      </c>
-      <c r="O79">
-        <v>2.875</v>
-      </c>
       <c r="P79">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R79">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S79">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T79">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
         <v>2</v>
@@ -7556,19 +7556,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC79">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -8555,7 +8555,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7618724</v>
+        <v>7618726</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8567,76 +8567,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91" t="s">
+        <v>52</v>
+      </c>
+      <c r="K91">
+        <v>2.375</v>
+      </c>
+      <c r="L91">
+        <v>2.8</v>
+      </c>
+      <c r="M91">
         <v>3</v>
       </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
-      <c r="J91" t="s">
-        <v>53</v>
-      </c>
-      <c r="K91">
-        <v>2.875</v>
-      </c>
-      <c r="L91">
-        <v>2.75</v>
-      </c>
-      <c r="M91">
-        <v>2.5</v>
-      </c>
       <c r="N91">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="O91">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P91">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q91">
         <v>0</v>
       </c>
       <c r="R91">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S91">
+        <v>2.05</v>
+      </c>
+      <c r="T91">
+        <v>1.75</v>
+      </c>
+      <c r="U91">
         <v>1.8</v>
       </c>
-      <c r="T91">
-        <v>2</v>
-      </c>
-      <c r="U91">
-        <v>2</v>
-      </c>
       <c r="V91">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W91">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8644,7 +8644,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7618726</v>
+        <v>7618724</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8656,76 +8656,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K92">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L92">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M92">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N92">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="O92">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P92">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q92">
         <v>0</v>
       </c>
       <c r="R92">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S92">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T92">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U92">
+        <v>2</v>
+      </c>
+      <c r="V92">
         <v>1.8</v>
       </c>
-      <c r="V92">
-        <v>2</v>
-      </c>
       <c r="W92">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA92">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC92">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -10068,7 +10068,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7811882</v>
+        <v>7811883</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10080,76 +10080,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
         <v>51</v>
       </c>
       <c r="K108">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="L108">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M108">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="N108">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="O108">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P108">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R108">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S108">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T108">
         <v>1.75</v>
       </c>
       <c r="U108">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="V108">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA108">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10157,7 +10157,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7811883</v>
+        <v>7811882</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10169,76 +10169,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
         <v>51</v>
       </c>
       <c r="K109">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="L109">
+        <v>2.9</v>
+      </c>
+      <c r="M109">
         <v>3.4</v>
       </c>
-      <c r="M109">
-        <v>1.727</v>
-      </c>
       <c r="N109">
+        <v>2.05</v>
+      </c>
+      <c r="O109">
+        <v>2.9</v>
+      </c>
+      <c r="P109">
         <v>3.6</v>
       </c>
-      <c r="O109">
-        <v>3.3</v>
-      </c>
-      <c r="P109">
-        <v>1.909</v>
-      </c>
       <c r="Q109">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S109">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T109">
         <v>1.75</v>
       </c>
       <c r="U109">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="V109">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC109">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="110" spans="1:29">

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -109,10 +109,10 @@
     <t>Al Zawraa</t>
   </si>
   <si>
-    <t>Al Karkh</t>
+    <t>Al Sinaah</t>
   </si>
   <si>
-    <t>Al Sinaah</t>
+    <t>Al Karkh</t>
   </si>
   <si>
     <t>Al Shorta SC</t>
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6729609</v>
+        <v>6729610</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -827,73 +827,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K4">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L4">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="M4">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="N4">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="O4">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="P4">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T4">
         <v>2</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X4">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA4">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC4">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6729610</v>
+        <v>6729609</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -916,73 +916,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K5">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L5">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="M5">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="N5">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O5">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="P5">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S5">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T5">
         <v>2</v>
       </c>
       <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
         <v>1.8</v>
       </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
       <c r="W5">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB5">
+        <v>-1</v>
+      </c>
+      <c r="AC5">
         <v>0.8</v>
-      </c>
-      <c r="AC5">
-        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1183,7 +1183,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1969,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6838982</v>
+        <v>6838980</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1984,73 +1984,73 @@
         <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K17">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N17">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Q17">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S17">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T17">
         <v>2</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA17">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2058,7 +2058,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6838980</v>
+        <v>6838982</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2073,73 +2073,73 @@
         <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K18">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L18">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N18">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O18">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Q18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
+        <v>1.725</v>
+      </c>
+      <c r="S18">
+        <v>1.975</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="V18">
         <v>1.8</v>
       </c>
-      <c r="S18">
-        <v>2</v>
-      </c>
-      <c r="T18">
-        <v>2</v>
-      </c>
-      <c r="U18">
-        <v>1.85</v>
-      </c>
-      <c r="V18">
-        <v>1.95</v>
-      </c>
       <c r="W18">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z18">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC18">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2340,7 +2340,7 @@
         <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2414,7 +2414,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6862618</v>
+        <v>6862617</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2426,76 +2426,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L22">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="M22">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N22">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O22">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P22">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>1.8</v>
+      </c>
+      <c r="T22">
+        <v>2.25</v>
+      </c>
+      <c r="U22">
+        <v>2.025</v>
+      </c>
+      <c r="V22">
         <v>1.775</v>
       </c>
-      <c r="S22">
-        <v>2.025</v>
-      </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
-      <c r="U22">
-        <v>1.95</v>
-      </c>
-      <c r="V22">
-        <v>1.85</v>
-      </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y22">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2503,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6862617</v>
+        <v>6862618</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2515,76 +2515,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="M23">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N23">
+        <v>2.05</v>
+      </c>
+      <c r="O23">
+        <v>2.625</v>
+      </c>
+      <c r="P23">
+        <v>4</v>
+      </c>
+      <c r="Q23">
+        <v>-0.25</v>
+      </c>
+      <c r="R23">
+        <v>1.775</v>
+      </c>
+      <c r="S23">
+        <v>2.025</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
         <v>1.95</v>
       </c>
-      <c r="O23">
-        <v>2.8</v>
-      </c>
-      <c r="P23">
-        <v>4.1</v>
-      </c>
-      <c r="Q23">
-        <v>-0.5</v>
-      </c>
-      <c r="R23">
-        <v>2</v>
-      </c>
-      <c r="S23">
-        <v>1.8</v>
-      </c>
-      <c r="T23">
-        <v>2.25</v>
-      </c>
-      <c r="U23">
-        <v>2.025</v>
-      </c>
       <c r="V23">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2607,7 +2607,7 @@
         <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2782,7 +2782,7 @@
         <v>45117.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
         <v>37</v>
@@ -3049,7 +3049,7 @@
         <v>45118.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3497,7 +3497,7 @@
         <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3672,10 +3672,10 @@
         <v>45128.45833333334</v>
       </c>
       <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
         <v>32</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -4105,7 +4105,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7407173</v>
+        <v>7406927</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4117,76 +4117,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K41">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="M41">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="N41">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="O41">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P41">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q41">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R41">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U41">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V41">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W41">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
+        <v>0.45</v>
+      </c>
+      <c r="AA41">
         <v>-0.5</v>
       </c>
-      <c r="AA41">
-        <v>0.4875</v>
-      </c>
       <c r="AB41">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4194,7 +4194,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7406927</v>
+        <v>7407173</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4206,76 +4206,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K42">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="L42">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M42">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="N42">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="O42">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="P42">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="Q42">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R42">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S42">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T42">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U42">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V42">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X42">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA42">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC42">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4565,7 +4565,7 @@
         <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -5262,7 +5262,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7453404</v>
+        <v>7453403</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5274,76 +5274,76 @@
         <v>45240.375</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K54">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L54">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M54">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N54">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O54">
         <v>2.9</v>
       </c>
       <c r="P54">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q54">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S54">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T54">
         <v>2</v>
       </c>
       <c r="U54">
+        <v>1.975</v>
+      </c>
+      <c r="V54">
+        <v>1.825</v>
+      </c>
+      <c r="W54">
+        <v>-1</v>
+      </c>
+      <c r="X54">
         <v>1.9</v>
       </c>
-      <c r="V54">
-        <v>1.9</v>
-      </c>
-      <c r="W54">
-        <v>-1</v>
-      </c>
-      <c r="X54">
-        <v>-1</v>
-      </c>
       <c r="Y54">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA54">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5351,7 +5351,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7453403</v>
+        <v>7453404</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5363,76 +5363,76 @@
         <v>45240.375</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K55">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L55">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M55">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N55">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O55">
         <v>2.9</v>
       </c>
       <c r="P55">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R55">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S55">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T55">
         <v>2</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V55">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5618,7 +5618,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7511490</v>
+        <v>7511489</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5630,10 +5630,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5645,41 +5645,41 @@
         <v>52</v>
       </c>
       <c r="K58">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58">
         <v>3.1</v>
       </c>
-      <c r="M58">
-        <v>1.909</v>
-      </c>
       <c r="N58">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O58">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P58">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q58">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R58">
+        <v>1.95</v>
+      </c>
+      <c r="S58">
+        <v>1.85</v>
+      </c>
+      <c r="T58">
+        <v>2.25</v>
+      </c>
+      <c r="U58">
+        <v>2.05</v>
+      </c>
+      <c r="V58">
         <v>1.75</v>
       </c>
-      <c r="S58">
-        <v>2.05</v>
-      </c>
-      <c r="T58">
-        <v>1.75</v>
-      </c>
-      <c r="U58">
-        <v>1.9</v>
-      </c>
-      <c r="V58">
-        <v>1.9</v>
-      </c>
       <c r="W58">
         <v>-1</v>
       </c>
@@ -5687,19 +5687,19 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB58">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC58">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5707,7 +5707,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7511489</v>
+        <v>7511490</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5719,10 +5719,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F59" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5734,40 +5734,40 @@
         <v>52</v>
       </c>
       <c r="K59">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L59">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M59">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N59">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="O59">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P59">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q59">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S59">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T59">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U59">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V59">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W59">
         <v>-1</v>
@@ -5776,19 +5776,19 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB59">
+        <v>0.45</v>
+      </c>
+      <c r="AC59">
         <v>-0.5</v>
-      </c>
-      <c r="AC59">
-        <v>0.375</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5989,7 +5989,7 @@
         <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6523,7 +6523,7 @@
         <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6953,7 +6953,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7565124</v>
+        <v>7565123</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6965,56 +6965,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
         <v>52</v>
       </c>
       <c r="K73">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L73">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M73">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N73">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="O73">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P73">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q73">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R73">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S73">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T73">
         <v>2</v>
       </c>
       <c r="U73">
+        <v>1.925</v>
+      </c>
+      <c r="V73">
         <v>1.875</v>
       </c>
-      <c r="V73">
-        <v>1.925</v>
-      </c>
       <c r="W73">
         <v>-1</v>
       </c>
@@ -7022,19 +7022,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC73">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7042,7 +7042,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7565123</v>
+        <v>7565124</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7054,56 +7054,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
         <v>52</v>
       </c>
       <c r="K74">
+        <v>1.5</v>
+      </c>
+      <c r="L74">
+        <v>3.6</v>
+      </c>
+      <c r="M74">
+        <v>6</v>
+      </c>
+      <c r="N74">
         <v>1.727</v>
       </c>
-      <c r="L74">
-        <v>3.4</v>
-      </c>
-      <c r="M74">
+      <c r="O74">
+        <v>3.5</v>
+      </c>
+      <c r="P74">
         <v>4.2</v>
       </c>
-      <c r="N74">
-        <v>1.833</v>
-      </c>
-      <c r="O74">
-        <v>3.3</v>
-      </c>
-      <c r="P74">
-        <v>3.75</v>
-      </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R74">
+        <v>2</v>
+      </c>
+      <c r="S74">
+        <v>1.8</v>
+      </c>
+      <c r="T74">
+        <v>2</v>
+      </c>
+      <c r="U74">
         <v>1.875</v>
       </c>
-      <c r="S74">
+      <c r="V74">
         <v>1.925</v>
       </c>
-      <c r="T74">
-        <v>2</v>
-      </c>
-      <c r="U74">
-        <v>1.925</v>
-      </c>
-      <c r="V74">
-        <v>1.875</v>
-      </c>
       <c r="W74">
         <v>-1</v>
       </c>
@@ -7111,19 +7111,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
+        <v>0.8</v>
+      </c>
+      <c r="AB74">
+        <v>-1</v>
+      </c>
+      <c r="AC74">
         <v>0.925</v>
-      </c>
-      <c r="AB74">
-        <v>0.925</v>
-      </c>
-      <c r="AC74">
-        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7766,7 +7766,7 @@
         <v>45279.3125</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
         <v>29</v>
@@ -8377,7 +8377,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7613564</v>
+        <v>7615329</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8389,76 +8389,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K89">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="L89">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="M89">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N89">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O89">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P89">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q89">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R89">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S89">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T89">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U89">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V89">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W89">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB89">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8466,7 +8466,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7615329</v>
+        <v>7613564</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8478,76 +8478,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F90" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K90">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="L90">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="M90">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N90">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="O90">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P90">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Q90">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R90">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S90">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T90">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V90">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X90">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC90">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -9371,7 +9371,7 @@
         <v>47</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -10068,7 +10068,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7811883</v>
+        <v>7811882</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10080,76 +10080,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G108" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
         <v>51</v>
       </c>
       <c r="K108">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="L108">
+        <v>2.9</v>
+      </c>
+      <c r="M108">
         <v>3.4</v>
       </c>
-      <c r="M108">
-        <v>1.727</v>
-      </c>
       <c r="N108">
+        <v>2.05</v>
+      </c>
+      <c r="O108">
+        <v>2.9</v>
+      </c>
+      <c r="P108">
         <v>3.6</v>
       </c>
-      <c r="O108">
-        <v>3.3</v>
-      </c>
-      <c r="P108">
-        <v>1.909</v>
-      </c>
       <c r="Q108">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S108">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T108">
         <v>1.75</v>
       </c>
       <c r="U108">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="V108">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC108">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10157,7 +10157,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7811882</v>
+        <v>7811883</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10169,76 +10169,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
         <v>51</v>
       </c>
       <c r="K109">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="L109">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M109">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="N109">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="O109">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P109">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q109">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R109">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S109">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T109">
         <v>1.75</v>
       </c>
       <c r="U109">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="V109">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA109">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -11059,7 +11059,7 @@
         <v>45342.33333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
         <v>35</v>
@@ -12041,7 +12041,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12471,7 +12471,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7897090</v>
+        <v>7901411</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12483,76 +12483,76 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K135">
         <v>2.1</v>
       </c>
       <c r="L135">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M135">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N135">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O135">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P135">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q135">
         <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S135">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T135">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U135">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V135">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y135">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB135">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12560,7 +12560,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7901411</v>
+        <v>7897090</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12572,76 +12572,76 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F136" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K136">
         <v>2.1</v>
       </c>
       <c r="L136">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M136">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N136">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O136">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P136">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q136">
         <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S136">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T136">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U136">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V136">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC136">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13284,7 +13284,7 @@
         <v>45359.35416666666</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
         <v>33</v>

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Al Zawraa</t>
   </si>
   <si>
-    <t>Al Sinaah</t>
+    <t>Al Karkh</t>
   </si>
   <si>
-    <t>Al Karkh</t>
+    <t>Al Sinaah</t>
   </si>
   <si>
     <t>Al Shorta SC</t>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC149"/>
+  <dimension ref="A1:AC150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6729610</v>
+        <v>6729609</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -827,73 +827,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K4">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L4">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="M4">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="N4">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O4">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="P4">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S4">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T4">
         <v>2</v>
       </c>
       <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
         <v>1.8</v>
       </c>
-      <c r="V4">
-        <v>2</v>
-      </c>
       <c r="W4">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB4">
+        <v>-1</v>
+      </c>
+      <c r="AC4">
         <v>0.8</v>
-      </c>
-      <c r="AC4">
-        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6729609</v>
+        <v>6729610</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -916,73 +916,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K5">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L5">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="M5">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="N5">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="O5">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="P5">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T5">
         <v>2</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X5">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA5">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC5">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1183,7 +1183,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1981,7 +1981,7 @@
         <v>45107.44791666666</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
         <v>34</v>
@@ -2070,7 +2070,7 @@
         <v>45107.44791666666</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
         <v>43</v>
@@ -2340,7 +2340,7 @@
         <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2414,7 +2414,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6862617</v>
+        <v>6862618</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2426,76 +2426,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="M22">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N22">
+        <v>2.05</v>
+      </c>
+      <c r="O22">
+        <v>2.625</v>
+      </c>
+      <c r="P22">
+        <v>4</v>
+      </c>
+      <c r="Q22">
+        <v>-0.25</v>
+      </c>
+      <c r="R22">
+        <v>1.775</v>
+      </c>
+      <c r="S22">
+        <v>2.025</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
         <v>1.95</v>
       </c>
-      <c r="O22">
-        <v>2.8</v>
-      </c>
-      <c r="P22">
-        <v>4.1</v>
-      </c>
-      <c r="Q22">
-        <v>-0.5</v>
-      </c>
-      <c r="R22">
-        <v>2</v>
-      </c>
-      <c r="S22">
-        <v>1.8</v>
-      </c>
-      <c r="T22">
-        <v>2.25</v>
-      </c>
-      <c r="U22">
-        <v>2.025</v>
-      </c>
       <c r="V22">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2503,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6862618</v>
+        <v>6862617</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2515,76 +2515,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L23">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="M23">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N23">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O23">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P23">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>1.8</v>
+      </c>
+      <c r="T23">
+        <v>2.25</v>
+      </c>
+      <c r="U23">
+        <v>2.025</v>
+      </c>
+      <c r="V23">
         <v>1.775</v>
       </c>
-      <c r="S23">
-        <v>2.025</v>
-      </c>
-      <c r="T23">
-        <v>2</v>
-      </c>
-      <c r="U23">
-        <v>1.95</v>
-      </c>
-      <c r="V23">
-        <v>1.85</v>
-      </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y23">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2607,7 +2607,7 @@
         <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2782,7 +2782,7 @@
         <v>45117.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
         <v>37</v>
@@ -3049,7 +3049,7 @@
         <v>45118.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3497,7 +3497,7 @@
         <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3672,10 +3672,10 @@
         <v>45128.45833333334</v>
       </c>
       <c r="F36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
         <v>31</v>
-      </c>
-      <c r="G36" t="s">
-        <v>32</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -4105,7 +4105,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7406927</v>
+        <v>7407173</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4117,76 +4117,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K41">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="L41">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M41">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="N41">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="O41">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="P41">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="Q41">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S41">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T41">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U41">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V41">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X41">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA41">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC41">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4194,7 +4194,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7407173</v>
+        <v>7406927</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4206,76 +4206,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K42">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="M42">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="N42">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="O42">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P42">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q42">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R42">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T42">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U42">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W42">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
+        <v>0.45</v>
+      </c>
+      <c r="AA42">
         <v>-0.5</v>
       </c>
-      <c r="AA42">
-        <v>0.4875</v>
-      </c>
       <c r="AB42">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4565,7 +4565,7 @@
         <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -5262,7 +5262,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7453403</v>
+        <v>7453404</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5274,76 +5274,76 @@
         <v>45240.375</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K54">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L54">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M54">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N54">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O54">
         <v>2.9</v>
       </c>
       <c r="P54">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R54">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S54">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T54">
         <v>2</v>
       </c>
       <c r="U54">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z54">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5351,7 +5351,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7453404</v>
+        <v>7453403</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5363,76 +5363,76 @@
         <v>45240.375</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K55">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L55">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M55">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N55">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O55">
         <v>2.9</v>
       </c>
       <c r="P55">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q55">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S55">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T55">
         <v>2</v>
       </c>
       <c r="U55">
+        <v>1.975</v>
+      </c>
+      <c r="V55">
+        <v>1.825</v>
+      </c>
+      <c r="W55">
+        <v>-1</v>
+      </c>
+      <c r="X55">
         <v>1.9</v>
       </c>
-      <c r="V55">
-        <v>1.9</v>
-      </c>
-      <c r="W55">
-        <v>-1</v>
-      </c>
-      <c r="X55">
-        <v>-1</v>
-      </c>
       <c r="Y55">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA55">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5618,7 +5618,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7511489</v>
+        <v>7511490</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5630,10 +5630,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5645,40 +5645,40 @@
         <v>52</v>
       </c>
       <c r="K58">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L58">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M58">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N58">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="O58">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P58">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q58">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R58">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S58">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T58">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U58">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V58">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W58">
         <v>-1</v>
@@ -5687,19 +5687,19 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB58">
+        <v>0.45</v>
+      </c>
+      <c r="AC58">
         <v>-0.5</v>
-      </c>
-      <c r="AC58">
-        <v>0.375</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5707,7 +5707,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7511490</v>
+        <v>7511489</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5719,10 +5719,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5734,41 +5734,41 @@
         <v>52</v>
       </c>
       <c r="K59">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="M59">
         <v>3.1</v>
       </c>
-      <c r="M59">
-        <v>1.909</v>
-      </c>
       <c r="N59">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O59">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P59">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R59">
+        <v>1.95</v>
+      </c>
+      <c r="S59">
+        <v>1.85</v>
+      </c>
+      <c r="T59">
+        <v>2.25</v>
+      </c>
+      <c r="U59">
+        <v>2.05</v>
+      </c>
+      <c r="V59">
         <v>1.75</v>
       </c>
-      <c r="S59">
-        <v>2.05</v>
-      </c>
-      <c r="T59">
-        <v>1.75</v>
-      </c>
-      <c r="U59">
-        <v>1.9</v>
-      </c>
-      <c r="V59">
-        <v>1.9</v>
-      </c>
       <c r="W59">
         <v>-1</v>
       </c>
@@ -5776,19 +5776,19 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB59">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC59">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5989,7 +5989,7 @@
         <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6523,7 +6523,7 @@
         <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6597,7 +6597,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7555937</v>
+        <v>7555939</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6609,13 +6609,13 @@
         <v>45265.35416666666</v>
       </c>
       <c r="F69" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69">
         <v>2</v>
@@ -6624,40 +6624,40 @@
         <v>52</v>
       </c>
       <c r="K69">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="L69">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M69">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="N69">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="O69">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="P69">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R69">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S69">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T69">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V69">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6666,19 +6666,19 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>2.4</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA69">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC69">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6686,7 +6686,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7555939</v>
+        <v>7555937</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6698,13 +6698,13 @@
         <v>45265.35416666666</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>2</v>
@@ -6713,40 +6713,40 @@
         <v>52</v>
       </c>
       <c r="K70">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="L70">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M70">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="N70">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="O70">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P70">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q70">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S70">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U70">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V70">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6755,19 +6755,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="Z70">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB70">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6965,7 +6965,7 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
         <v>48</v>
@@ -7766,7 +7766,7 @@
         <v>45279.3125</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
         <v>29</v>
@@ -8377,7 +8377,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7615329</v>
+        <v>7613564</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8389,76 +8389,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F89" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K89">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="L89">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="M89">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N89">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="O89">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P89">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Q89">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R89">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S89">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T89">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U89">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V89">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X89">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC89">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8466,7 +8466,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7613564</v>
+        <v>7615329</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8478,76 +8478,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K90">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="L90">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="M90">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N90">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O90">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P90">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q90">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R90">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S90">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T90">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U90">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W90">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB90">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -9371,7 +9371,7 @@
         <v>47</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -10169,7 +10169,7 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
         <v>42</v>
@@ -11059,7 +11059,7 @@
         <v>45342.33333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
         <v>35</v>
@@ -12041,7 +12041,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12572,7 +12572,7 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
         <v>39</v>
@@ -13284,7 +13284,7 @@
         <v>45359.35416666666</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
         <v>33</v>
@@ -13799,6 +13799,95 @@
       </c>
       <c r="AC149">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>8013111</v>
+      </c>
+      <c r="C150" t="s">
+        <v>28</v>
+      </c>
+      <c r="D150" t="s">
+        <v>28</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45378.64583333334</v>
+      </c>
+      <c r="F150" t="s">
+        <v>40</v>
+      </c>
+      <c r="G150" t="s">
+        <v>41</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150" t="s">
+        <v>53</v>
+      </c>
+      <c r="K150">
+        <v>1.615</v>
+      </c>
+      <c r="L150">
+        <v>3.2</v>
+      </c>
+      <c r="M150">
+        <v>5.5</v>
+      </c>
+      <c r="N150">
+        <v>1.727</v>
+      </c>
+      <c r="O150">
+        <v>3.3</v>
+      </c>
+      <c r="P150">
+        <v>4.333</v>
+      </c>
+      <c r="Q150">
+        <v>-0.75</v>
+      </c>
+      <c r="R150">
+        <v>2</v>
+      </c>
+      <c r="S150">
+        <v>1.8</v>
+      </c>
+      <c r="T150">
+        <v>2</v>
+      </c>
+      <c r="U150">
+        <v>1.8</v>
+      </c>
+      <c r="V150">
+        <v>2</v>
+      </c>
+      <c r="W150">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X150">
+        <v>-1</v>
+      </c>
+      <c r="Y150">
+        <v>-1</v>
+      </c>
+      <c r="Z150">
+        <v>0.5</v>
+      </c>
+      <c r="AA150">
+        <v>-0.5</v>
+      </c>
+      <c r="AB150">
+        <v>-1</v>
+      </c>
+      <c r="AC150">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -2414,7 +2414,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6862618</v>
+        <v>6862617</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2426,76 +2426,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L22">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="M22">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N22">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O22">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P22">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>1.8</v>
+      </c>
+      <c r="T22">
+        <v>2.25</v>
+      </c>
+      <c r="U22">
+        <v>2.025</v>
+      </c>
+      <c r="V22">
         <v>1.775</v>
       </c>
-      <c r="S22">
-        <v>2.025</v>
-      </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
-      <c r="U22">
-        <v>1.95</v>
-      </c>
-      <c r="V22">
-        <v>1.85</v>
-      </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y22">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2503,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6862617</v>
+        <v>6862618</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2515,76 +2515,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="M23">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N23">
+        <v>2.05</v>
+      </c>
+      <c r="O23">
+        <v>2.625</v>
+      </c>
+      <c r="P23">
+        <v>4</v>
+      </c>
+      <c r="Q23">
+        <v>-0.25</v>
+      </c>
+      <c r="R23">
+        <v>1.775</v>
+      </c>
+      <c r="S23">
+        <v>2.025</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
         <v>1.95</v>
       </c>
-      <c r="O23">
-        <v>2.8</v>
-      </c>
-      <c r="P23">
-        <v>4.1</v>
-      </c>
-      <c r="Q23">
-        <v>-0.5</v>
-      </c>
-      <c r="R23">
-        <v>2</v>
-      </c>
-      <c r="S23">
-        <v>1.8</v>
-      </c>
-      <c r="T23">
-        <v>2.25</v>
-      </c>
-      <c r="U23">
-        <v>2.025</v>
-      </c>
       <c r="V23">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -7398,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7592803</v>
+        <v>7590595</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7410,49 +7410,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F78" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J78" t="s">
         <v>52</v>
       </c>
       <c r="K78">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L78">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78">
+        <v>4.5</v>
+      </c>
+      <c r="O78">
         <v>3</v>
       </c>
-      <c r="N78">
-        <v>2.3</v>
-      </c>
-      <c r="O78">
-        <v>2.875</v>
-      </c>
       <c r="P78">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R78">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S78">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
         <v>2</v>
@@ -7467,19 +7467,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7590595</v>
+        <v>7592803</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7499,49 +7499,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G79" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
         <v>52</v>
       </c>
       <c r="K79">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L79">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N79">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="O79">
+        <v>2.875</v>
+      </c>
+      <c r="P79">
         <v>3</v>
       </c>
-      <c r="P79">
-        <v>1.75</v>
-      </c>
       <c r="Q79">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S79">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U79">
         <v>2</v>
@@ -7556,19 +7556,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB79">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -9623,7 +9623,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7648519</v>
+        <v>7645264</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9635,46 +9635,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K103">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L103">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M103">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="N103">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="O103">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P103">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="Q103">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R103">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S103">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T103">
         <v>2</v>
@@ -9689,22 +9689,22 @@
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y103">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
+        <v>0.825</v>
+      </c>
+      <c r="AB103">
+        <v>0</v>
+      </c>
+      <c r="AC103">
         <v>-0</v>
-      </c>
-      <c r="AB103">
-        <v>-1</v>
-      </c>
-      <c r="AC103">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9712,7 +9712,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7645264</v>
+        <v>7648519</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9724,46 +9724,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K104">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L104">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="N104">
+        <v>5.25</v>
+      </c>
+      <c r="O104">
+        <v>3.75</v>
+      </c>
+      <c r="P104">
         <v>1.533</v>
       </c>
-      <c r="O104">
-        <v>3.5</v>
-      </c>
-      <c r="P104">
-        <v>6.5</v>
-      </c>
       <c r="Q104">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R104">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T104">
         <v>2</v>
@@ -9778,22 +9778,22 @@
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -12471,7 +12471,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7901411</v>
+        <v>7897090</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12483,76 +12483,76 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J135" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K135">
         <v>2.1</v>
       </c>
       <c r="L135">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M135">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N135">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O135">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P135">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q135">
         <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S135">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T135">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U135">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V135">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC135">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12560,7 +12560,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7897090</v>
+        <v>7901411</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12572,76 +12572,76 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K136">
         <v>2.1</v>
       </c>
       <c r="L136">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M136">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N136">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O136">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P136">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q136">
         <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S136">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T136">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U136">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V136">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y136">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB136">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="137" spans="1:29">

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -2414,7 +2414,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6862617</v>
+        <v>6862618</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2426,76 +2426,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="M22">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N22">
+        <v>2.05</v>
+      </c>
+      <c r="O22">
+        <v>2.625</v>
+      </c>
+      <c r="P22">
+        <v>4</v>
+      </c>
+      <c r="Q22">
+        <v>-0.25</v>
+      </c>
+      <c r="R22">
+        <v>1.775</v>
+      </c>
+      <c r="S22">
+        <v>2.025</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
         <v>1.95</v>
       </c>
-      <c r="O22">
-        <v>2.8</v>
-      </c>
-      <c r="P22">
-        <v>4.1</v>
-      </c>
-      <c r="Q22">
-        <v>-0.5</v>
-      </c>
-      <c r="R22">
-        <v>2</v>
-      </c>
-      <c r="S22">
-        <v>1.8</v>
-      </c>
-      <c r="T22">
-        <v>2.25</v>
-      </c>
-      <c r="U22">
-        <v>2.025</v>
-      </c>
       <c r="V22">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2503,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6862618</v>
+        <v>6862617</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2515,76 +2515,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L23">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="M23">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N23">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O23">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P23">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>1.8</v>
+      </c>
+      <c r="T23">
+        <v>2.25</v>
+      </c>
+      <c r="U23">
+        <v>2.025</v>
+      </c>
+      <c r="V23">
         <v>1.775</v>
       </c>
-      <c r="S23">
-        <v>2.025</v>
-      </c>
-      <c r="T23">
-        <v>2</v>
-      </c>
-      <c r="U23">
-        <v>1.95</v>
-      </c>
-      <c r="V23">
-        <v>1.85</v>
-      </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y23">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -6953,7 +6953,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7565123</v>
+        <v>7565124</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6965,56 +6965,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
         <v>52</v>
       </c>
       <c r="K73">
+        <v>1.5</v>
+      </c>
+      <c r="L73">
+        <v>3.6</v>
+      </c>
+      <c r="M73">
+        <v>6</v>
+      </c>
+      <c r="N73">
         <v>1.727</v>
       </c>
-      <c r="L73">
-        <v>3.4</v>
-      </c>
-      <c r="M73">
+      <c r="O73">
+        <v>3.5</v>
+      </c>
+      <c r="P73">
         <v>4.2</v>
       </c>
-      <c r="N73">
-        <v>1.833</v>
-      </c>
-      <c r="O73">
-        <v>3.3</v>
-      </c>
-      <c r="P73">
-        <v>3.75</v>
-      </c>
       <c r="Q73">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R73">
+        <v>2</v>
+      </c>
+      <c r="S73">
+        <v>1.8</v>
+      </c>
+      <c r="T73">
+        <v>2</v>
+      </c>
+      <c r="U73">
         <v>1.875</v>
       </c>
-      <c r="S73">
+      <c r="V73">
         <v>1.925</v>
       </c>
-      <c r="T73">
-        <v>2</v>
-      </c>
-      <c r="U73">
-        <v>1.925</v>
-      </c>
-      <c r="V73">
-        <v>1.875</v>
-      </c>
       <c r="W73">
         <v>-1</v>
       </c>
@@ -7022,19 +7022,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
+        <v>0.8</v>
+      </c>
+      <c r="AB73">
+        <v>-1</v>
+      </c>
+      <c r="AC73">
         <v>0.925</v>
-      </c>
-      <c r="AB73">
-        <v>0.925</v>
-      </c>
-      <c r="AC73">
-        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7042,7 +7042,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7565124</v>
+        <v>7565123</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7054,56 +7054,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
         <v>52</v>
       </c>
       <c r="K74">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L74">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M74">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N74">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="O74">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P74">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q74">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S74">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T74">
         <v>2</v>
       </c>
       <c r="U74">
+        <v>1.925</v>
+      </c>
+      <c r="V74">
         <v>1.875</v>
       </c>
-      <c r="V74">
-        <v>1.925</v>
-      </c>
       <c r="W74">
         <v>-1</v>
       </c>
@@ -7111,19 +7111,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -12471,7 +12471,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7897090</v>
+        <v>7901411</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12483,76 +12483,76 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K135">
         <v>2.1</v>
       </c>
       <c r="L135">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M135">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N135">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O135">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P135">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q135">
         <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S135">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T135">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U135">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V135">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y135">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB135">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12560,7 +12560,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7901411</v>
+        <v>7897090</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12572,76 +12572,76 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F136" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K136">
         <v>2.1</v>
       </c>
       <c r="L136">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M136">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N136">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O136">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P136">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q136">
         <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S136">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T136">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U136">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V136">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC136">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC150"/>
+  <dimension ref="A1:AC151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1969,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6838980</v>
+        <v>6838982</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1981,76 +1981,76 @@
         <v>45107.44791666666</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L17">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N17">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O17">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Q17">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R17">
+        <v>1.725</v>
+      </c>
+      <c r="S17">
+        <v>1.975</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
         <v>1.8</v>
       </c>
-      <c r="S17">
-        <v>2</v>
-      </c>
-      <c r="T17">
-        <v>2</v>
-      </c>
-      <c r="U17">
-        <v>1.85</v>
-      </c>
-      <c r="V17">
-        <v>1.95</v>
-      </c>
       <c r="W17">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2058,7 +2058,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6838982</v>
+        <v>6838980</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2070,76 +2070,76 @@
         <v>45107.44791666666</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N18">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R18">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S18">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T18">
         <v>2</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V18">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA18">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2414,7 +2414,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6862618</v>
+        <v>6862617</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2426,76 +2426,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L22">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="M22">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N22">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O22">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P22">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>1.8</v>
+      </c>
+      <c r="T22">
+        <v>2.25</v>
+      </c>
+      <c r="U22">
+        <v>2.025</v>
+      </c>
+      <c r="V22">
         <v>1.775</v>
       </c>
-      <c r="S22">
-        <v>2.025</v>
-      </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
-      <c r="U22">
-        <v>1.95</v>
-      </c>
-      <c r="V22">
-        <v>1.85</v>
-      </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y22">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2503,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6862617</v>
+        <v>6862618</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2515,76 +2515,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="M23">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N23">
+        <v>2.05</v>
+      </c>
+      <c r="O23">
+        <v>2.625</v>
+      </c>
+      <c r="P23">
+        <v>4</v>
+      </c>
+      <c r="Q23">
+        <v>-0.25</v>
+      </c>
+      <c r="R23">
+        <v>1.775</v>
+      </c>
+      <c r="S23">
+        <v>2.025</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
         <v>1.95</v>
       </c>
-      <c r="O23">
-        <v>2.8</v>
-      </c>
-      <c r="P23">
-        <v>4.1</v>
-      </c>
-      <c r="Q23">
-        <v>-0.5</v>
-      </c>
-      <c r="R23">
-        <v>2</v>
-      </c>
-      <c r="S23">
-        <v>1.8</v>
-      </c>
-      <c r="T23">
-        <v>2.25</v>
-      </c>
-      <c r="U23">
-        <v>2.025</v>
-      </c>
       <c r="V23">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -4105,7 +4105,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7407173</v>
+        <v>7406927</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4117,76 +4117,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K41">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="M41">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="N41">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="O41">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P41">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q41">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R41">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U41">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V41">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W41">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
+        <v>0.45</v>
+      </c>
+      <c r="AA41">
         <v>-0.5</v>
       </c>
-      <c r="AA41">
-        <v>0.4875</v>
-      </c>
       <c r="AB41">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4194,7 +4194,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7406927</v>
+        <v>7407173</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4206,76 +4206,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K42">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="L42">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M42">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="N42">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="O42">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="P42">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="Q42">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R42">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S42">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T42">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U42">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V42">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X42">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA42">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC42">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -5262,7 +5262,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7453404</v>
+        <v>7453403</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5274,76 +5274,76 @@
         <v>45240.375</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K54">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L54">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M54">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N54">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O54">
         <v>2.9</v>
       </c>
       <c r="P54">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q54">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S54">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T54">
         <v>2</v>
       </c>
       <c r="U54">
+        <v>1.975</v>
+      </c>
+      <c r="V54">
+        <v>1.825</v>
+      </c>
+      <c r="W54">
+        <v>-1</v>
+      </c>
+      <c r="X54">
         <v>1.9</v>
       </c>
-      <c r="V54">
-        <v>1.9</v>
-      </c>
-      <c r="W54">
-        <v>-1</v>
-      </c>
-      <c r="X54">
-        <v>-1</v>
-      </c>
       <c r="Y54">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA54">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5351,7 +5351,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7453403</v>
+        <v>7453404</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5363,76 +5363,76 @@
         <v>45240.375</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K55">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L55">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M55">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N55">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O55">
         <v>2.9</v>
       </c>
       <c r="P55">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R55">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S55">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T55">
         <v>2</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V55">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -6953,7 +6953,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7565124</v>
+        <v>7565123</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6965,56 +6965,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
         <v>52</v>
       </c>
       <c r="K73">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L73">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M73">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N73">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="O73">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P73">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q73">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R73">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S73">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T73">
         <v>2</v>
       </c>
       <c r="U73">
+        <v>1.925</v>
+      </c>
+      <c r="V73">
         <v>1.875</v>
       </c>
-      <c r="V73">
-        <v>1.925</v>
-      </c>
       <c r="W73">
         <v>-1</v>
       </c>
@@ -7022,19 +7022,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC73">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7042,7 +7042,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7565123</v>
+        <v>7565124</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7054,56 +7054,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
         <v>52</v>
       </c>
       <c r="K74">
+        <v>1.5</v>
+      </c>
+      <c r="L74">
+        <v>3.6</v>
+      </c>
+      <c r="M74">
+        <v>6</v>
+      </c>
+      <c r="N74">
         <v>1.727</v>
       </c>
-      <c r="L74">
-        <v>3.4</v>
-      </c>
-      <c r="M74">
+      <c r="O74">
+        <v>3.5</v>
+      </c>
+      <c r="P74">
         <v>4.2</v>
       </c>
-      <c r="N74">
-        <v>1.833</v>
-      </c>
-      <c r="O74">
-        <v>3.3</v>
-      </c>
-      <c r="P74">
-        <v>3.75</v>
-      </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R74">
+        <v>2</v>
+      </c>
+      <c r="S74">
+        <v>1.8</v>
+      </c>
+      <c r="T74">
+        <v>2</v>
+      </c>
+      <c r="U74">
         <v>1.875</v>
       </c>
-      <c r="S74">
+      <c r="V74">
         <v>1.925</v>
       </c>
-      <c r="T74">
-        <v>2</v>
-      </c>
-      <c r="U74">
-        <v>1.925</v>
-      </c>
-      <c r="V74">
-        <v>1.875</v>
-      </c>
       <c r="W74">
         <v>-1</v>
       </c>
@@ -7111,19 +7111,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
+        <v>0.8</v>
+      </c>
+      <c r="AB74">
+        <v>-1</v>
+      </c>
+      <c r="AC74">
         <v>0.925</v>
-      </c>
-      <c r="AB74">
-        <v>0.925</v>
-      </c>
-      <c r="AC74">
-        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7398,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7590595</v>
+        <v>7592803</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7410,49 +7410,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
         <v>52</v>
       </c>
       <c r="K78">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L78">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N78">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="O78">
+        <v>2.875</v>
+      </c>
+      <c r="P78">
         <v>3</v>
       </c>
-      <c r="P78">
-        <v>1.75</v>
-      </c>
       <c r="Q78">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S78">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U78">
         <v>2</v>
@@ -7467,19 +7467,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB78">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7592803</v>
+        <v>7590595</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7499,49 +7499,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J79" t="s">
         <v>52</v>
       </c>
       <c r="K79">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L79">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M79">
+        <v>2</v>
+      </c>
+      <c r="N79">
+        <v>4.5</v>
+      </c>
+      <c r="O79">
         <v>3</v>
       </c>
-      <c r="N79">
-        <v>2.3</v>
-      </c>
-      <c r="O79">
-        <v>2.875</v>
-      </c>
       <c r="P79">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R79">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S79">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T79">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
         <v>2</v>
@@ -7556,19 +7556,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC79">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -9623,7 +9623,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7645264</v>
+        <v>7648519</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9635,46 +9635,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K103">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L103">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="N103">
+        <v>5.25</v>
+      </c>
+      <c r="O103">
+        <v>3.75</v>
+      </c>
+      <c r="P103">
         <v>1.533</v>
       </c>
-      <c r="O103">
-        <v>3.5</v>
-      </c>
-      <c r="P103">
-        <v>6.5</v>
-      </c>
       <c r="Q103">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R103">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S103">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T103">
         <v>2</v>
@@ -9689,22 +9689,22 @@
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA103">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9712,7 +9712,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7648519</v>
+        <v>7645264</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9724,46 +9724,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K104">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L104">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M104">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="N104">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="O104">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P104">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="Q104">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R104">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S104">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T104">
         <v>2</v>
@@ -9778,22 +9778,22 @@
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y104">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
+        <v>0.825</v>
+      </c>
+      <c r="AB104">
+        <v>0</v>
+      </c>
+      <c r="AC104">
         <v>-0</v>
-      </c>
-      <c r="AB104">
-        <v>-1</v>
-      </c>
-      <c r="AC104">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -13888,6 +13888,80 @@
       </c>
       <c r="AC150">
         <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:29">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>8030838</v>
+      </c>
+      <c r="C151" t="s">
+        <v>28</v>
+      </c>
+      <c r="D151" t="s">
+        <v>28</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45383.64583333334</v>
+      </c>
+      <c r="F151" t="s">
+        <v>38</v>
+      </c>
+      <c r="G151" t="s">
+        <v>40</v>
+      </c>
+      <c r="K151">
+        <v>2.75</v>
+      </c>
+      <c r="L151">
+        <v>2.875</v>
+      </c>
+      <c r="M151">
+        <v>2.5</v>
+      </c>
+      <c r="N151">
+        <v>2.75</v>
+      </c>
+      <c r="O151">
+        <v>2.875</v>
+      </c>
+      <c r="P151">
+        <v>2.5</v>
+      </c>
+      <c r="Q151">
+        <v>0</v>
+      </c>
+      <c r="R151">
+        <v>2</v>
+      </c>
+      <c r="S151">
+        <v>1.8</v>
+      </c>
+      <c r="T151">
+        <v>2</v>
+      </c>
+      <c r="U151">
+        <v>1.85</v>
+      </c>
+      <c r="V151">
+        <v>1.95</v>
+      </c>
+      <c r="W151">
+        <v>0</v>
+      </c>
+      <c r="X151">
+        <v>0</v>
+      </c>
+      <c r="Y151">
+        <v>0</v>
+      </c>
+      <c r="Z151">
+        <v>0</v>
+      </c>
+      <c r="AA151">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Al Zawraa</t>
   </si>
   <si>
-    <t>Al Karkh</t>
+    <t>Al Sinaah</t>
   </si>
   <si>
-    <t>Al Sinaah</t>
+    <t>Al Karkh</t>
   </si>
   <si>
     <t>Al Shorta SC</t>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC151"/>
+  <dimension ref="A1:AC153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6729609</v>
+        <v>6729610</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -827,73 +827,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K4">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L4">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="M4">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="N4">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="O4">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="P4">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T4">
         <v>2</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X4">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA4">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC4">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6729610</v>
+        <v>6729609</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -916,73 +916,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K5">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L5">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="M5">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="N5">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O5">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="P5">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S5">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T5">
         <v>2</v>
       </c>
       <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
         <v>1.8</v>
       </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
       <c r="W5">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB5">
+        <v>-1</v>
+      </c>
+      <c r="AC5">
         <v>0.8</v>
-      </c>
-      <c r="AC5">
-        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1183,7 +1183,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1981,7 +1981,7 @@
         <v>45107.44791666666</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
         <v>43</v>
@@ -2070,7 +2070,7 @@
         <v>45107.44791666666</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
         <v>34</v>
@@ -2340,7 +2340,7 @@
         <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2414,7 +2414,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6862617</v>
+        <v>6862618</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2426,76 +2426,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="M22">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N22">
+        <v>2.05</v>
+      </c>
+      <c r="O22">
+        <v>2.625</v>
+      </c>
+      <c r="P22">
+        <v>4</v>
+      </c>
+      <c r="Q22">
+        <v>-0.25</v>
+      </c>
+      <c r="R22">
+        <v>1.775</v>
+      </c>
+      <c r="S22">
+        <v>2.025</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
         <v>1.95</v>
       </c>
-      <c r="O22">
-        <v>2.8</v>
-      </c>
-      <c r="P22">
-        <v>4.1</v>
-      </c>
-      <c r="Q22">
-        <v>-0.5</v>
-      </c>
-      <c r="R22">
-        <v>2</v>
-      </c>
-      <c r="S22">
-        <v>1.8</v>
-      </c>
-      <c r="T22">
-        <v>2.25</v>
-      </c>
-      <c r="U22">
-        <v>2.025</v>
-      </c>
       <c r="V22">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2503,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6862618</v>
+        <v>6862617</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2515,76 +2515,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L23">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="M23">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N23">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O23">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P23">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>1.8</v>
+      </c>
+      <c r="T23">
+        <v>2.25</v>
+      </c>
+      <c r="U23">
+        <v>2.025</v>
+      </c>
+      <c r="V23">
         <v>1.775</v>
       </c>
-      <c r="S23">
-        <v>2.025</v>
-      </c>
-      <c r="T23">
-        <v>2</v>
-      </c>
-      <c r="U23">
-        <v>1.95</v>
-      </c>
-      <c r="V23">
-        <v>1.85</v>
-      </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y23">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2607,7 +2607,7 @@
         <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2782,7 +2782,7 @@
         <v>45117.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
         <v>37</v>
@@ -3049,7 +3049,7 @@
         <v>45118.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3497,7 +3497,7 @@
         <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3672,10 +3672,10 @@
         <v>45128.45833333334</v>
       </c>
       <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
         <v>32</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -4565,7 +4565,7 @@
         <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -5618,7 +5618,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7511490</v>
+        <v>7511489</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5630,10 +5630,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5645,41 +5645,41 @@
         <v>52</v>
       </c>
       <c r="K58">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58">
         <v>3.1</v>
       </c>
-      <c r="M58">
-        <v>1.909</v>
-      </c>
       <c r="N58">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O58">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P58">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q58">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R58">
+        <v>1.95</v>
+      </c>
+      <c r="S58">
+        <v>1.85</v>
+      </c>
+      <c r="T58">
+        <v>2.25</v>
+      </c>
+      <c r="U58">
+        <v>2.05</v>
+      </c>
+      <c r="V58">
         <v>1.75</v>
       </c>
-      <c r="S58">
-        <v>2.05</v>
-      </c>
-      <c r="T58">
-        <v>1.75</v>
-      </c>
-      <c r="U58">
-        <v>1.9</v>
-      </c>
-      <c r="V58">
-        <v>1.9</v>
-      </c>
       <c r="W58">
         <v>-1</v>
       </c>
@@ -5687,19 +5687,19 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB58">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC58">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5707,7 +5707,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7511489</v>
+        <v>7511490</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5719,10 +5719,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F59" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5734,40 +5734,40 @@
         <v>52</v>
       </c>
       <c r="K59">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L59">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M59">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N59">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="O59">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P59">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q59">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S59">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T59">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U59">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V59">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W59">
         <v>-1</v>
@@ -5776,19 +5776,19 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB59">
+        <v>0.45</v>
+      </c>
+      <c r="AC59">
         <v>-0.5</v>
-      </c>
-      <c r="AC59">
-        <v>0.375</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5989,7 +5989,7 @@
         <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6523,7 +6523,7 @@
         <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6597,7 +6597,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7555939</v>
+        <v>7555937</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6609,13 +6609,13 @@
         <v>45265.35416666666</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>2</v>
@@ -6624,40 +6624,40 @@
         <v>52</v>
       </c>
       <c r="K69">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="L69">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M69">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="N69">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="O69">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P69">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q69">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S69">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U69">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V69">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6666,19 +6666,19 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="Z69">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB69">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6686,7 +6686,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7555937</v>
+        <v>7555939</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6698,13 +6698,13 @@
         <v>45265.35416666666</v>
       </c>
       <c r="F70" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70">
         <v>2</v>
@@ -6713,40 +6713,40 @@
         <v>52</v>
       </c>
       <c r="K70">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="L70">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M70">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="N70">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="O70">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="P70">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R70">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S70">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T70">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V70">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6755,19 +6755,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>2.4</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA70">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB70">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC70">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6953,7 +6953,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7565123</v>
+        <v>7565124</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6965,56 +6965,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
         <v>52</v>
       </c>
       <c r="K73">
+        <v>1.5</v>
+      </c>
+      <c r="L73">
+        <v>3.6</v>
+      </c>
+      <c r="M73">
+        <v>6</v>
+      </c>
+      <c r="N73">
         <v>1.727</v>
       </c>
-      <c r="L73">
-        <v>3.4</v>
-      </c>
-      <c r="M73">
+      <c r="O73">
+        <v>3.5</v>
+      </c>
+      <c r="P73">
         <v>4.2</v>
       </c>
-      <c r="N73">
-        <v>1.833</v>
-      </c>
-      <c r="O73">
-        <v>3.3</v>
-      </c>
-      <c r="P73">
-        <v>3.75</v>
-      </c>
       <c r="Q73">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R73">
+        <v>2</v>
+      </c>
+      <c r="S73">
+        <v>1.8</v>
+      </c>
+      <c r="T73">
+        <v>2</v>
+      </c>
+      <c r="U73">
         <v>1.875</v>
       </c>
-      <c r="S73">
+      <c r="V73">
         <v>1.925</v>
       </c>
-      <c r="T73">
-        <v>2</v>
-      </c>
-      <c r="U73">
-        <v>1.925</v>
-      </c>
-      <c r="V73">
-        <v>1.875</v>
-      </c>
       <c r="W73">
         <v>-1</v>
       </c>
@@ -7022,19 +7022,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
+        <v>0.8</v>
+      </c>
+      <c r="AB73">
+        <v>-1</v>
+      </c>
+      <c r="AC73">
         <v>0.925</v>
-      </c>
-      <c r="AB73">
-        <v>0.925</v>
-      </c>
-      <c r="AC73">
-        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7042,7 +7042,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7565124</v>
+        <v>7565123</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7054,56 +7054,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
         <v>52</v>
       </c>
       <c r="K74">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L74">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M74">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N74">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="O74">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P74">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q74">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S74">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T74">
         <v>2</v>
       </c>
       <c r="U74">
+        <v>1.925</v>
+      </c>
+      <c r="V74">
         <v>1.875</v>
       </c>
-      <c r="V74">
-        <v>1.925</v>
-      </c>
       <c r="W74">
         <v>-1</v>
       </c>
@@ -7111,19 +7111,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7398,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7592803</v>
+        <v>7590595</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7410,49 +7410,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F78" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J78" t="s">
         <v>52</v>
       </c>
       <c r="K78">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L78">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78">
+        <v>4.5</v>
+      </c>
+      <c r="O78">
         <v>3</v>
       </c>
-      <c r="N78">
-        <v>2.3</v>
-      </c>
-      <c r="O78">
-        <v>2.875</v>
-      </c>
       <c r="P78">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R78">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S78">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
         <v>2</v>
@@ -7467,19 +7467,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7590595</v>
+        <v>7592803</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7499,49 +7499,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G79" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
         <v>52</v>
       </c>
       <c r="K79">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L79">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N79">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="O79">
+        <v>2.875</v>
+      </c>
+      <c r="P79">
         <v>3</v>
       </c>
-      <c r="P79">
-        <v>1.75</v>
-      </c>
       <c r="Q79">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S79">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U79">
         <v>2</v>
@@ -7556,19 +7556,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB79">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7766,7 +7766,7 @@
         <v>45279.3125</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
         <v>29</v>
@@ -8377,7 +8377,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7613564</v>
+        <v>7615329</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8389,76 +8389,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K89">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="L89">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="M89">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N89">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O89">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P89">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q89">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R89">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S89">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T89">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U89">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V89">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W89">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB89">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8466,7 +8466,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7615329</v>
+        <v>7613564</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8478,76 +8478,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F90" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K90">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="L90">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="M90">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N90">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="O90">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P90">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Q90">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R90">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S90">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T90">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V90">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X90">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC90">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -9371,7 +9371,7 @@
         <v>47</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -10068,7 +10068,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7811882</v>
+        <v>7811883</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10080,76 +10080,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
         <v>51</v>
       </c>
       <c r="K108">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="L108">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M108">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="N108">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="O108">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P108">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R108">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S108">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T108">
         <v>1.75</v>
       </c>
       <c r="U108">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="V108">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA108">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10157,7 +10157,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7811883</v>
+        <v>7811882</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10169,76 +10169,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
         <v>51</v>
       </c>
       <c r="K109">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="L109">
+        <v>2.9</v>
+      </c>
+      <c r="M109">
         <v>3.4</v>
       </c>
-      <c r="M109">
-        <v>1.727</v>
-      </c>
       <c r="N109">
+        <v>2.05</v>
+      </c>
+      <c r="O109">
+        <v>2.9</v>
+      </c>
+      <c r="P109">
         <v>3.6</v>
       </c>
-      <c r="O109">
-        <v>3.3</v>
-      </c>
-      <c r="P109">
-        <v>1.909</v>
-      </c>
       <c r="Q109">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S109">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T109">
         <v>1.75</v>
       </c>
       <c r="U109">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="V109">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC109">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -11059,7 +11059,7 @@
         <v>45342.33333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
         <v>35</v>
@@ -12041,7 +12041,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12572,7 +12572,7 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
         <v>39</v>
@@ -13284,7 +13284,7 @@
         <v>45359.35416666666</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
         <v>33</v>
@@ -13895,73 +13895,266 @@
         <v>149</v>
       </c>
       <c r="B151">
+        <v>8031832</v>
+      </c>
+      <c r="C151" t="s">
+        <v>28</v>
+      </c>
+      <c r="D151" t="s">
+        <v>28</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45382.64583333334</v>
+      </c>
+      <c r="F151" t="s">
+        <v>30</v>
+      </c>
+      <c r="G151" t="s">
+        <v>39</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151" t="s">
+        <v>51</v>
+      </c>
+      <c r="K151">
+        <v>1.909</v>
+      </c>
+      <c r="L151">
+        <v>2.95</v>
+      </c>
+      <c r="M151">
+        <v>4</v>
+      </c>
+      <c r="N151">
+        <v>1.833</v>
+      </c>
+      <c r="O151">
+        <v>2.8</v>
+      </c>
+      <c r="P151">
+        <v>4.75</v>
+      </c>
+      <c r="Q151">
+        <v>-0.5</v>
+      </c>
+      <c r="R151">
+        <v>1.875</v>
+      </c>
+      <c r="S151">
+        <v>1.925</v>
+      </c>
+      <c r="T151">
+        <v>1.75</v>
+      </c>
+      <c r="U151">
+        <v>1.95</v>
+      </c>
+      <c r="V151">
+        <v>1.85</v>
+      </c>
+      <c r="W151">
+        <v>-1</v>
+      </c>
+      <c r="X151">
+        <v>1.8</v>
+      </c>
+      <c r="Y151">
+        <v>-1</v>
+      </c>
+      <c r="Z151">
+        <v>-1</v>
+      </c>
+      <c r="AA151">
+        <v>0.925</v>
+      </c>
+      <c r="AB151">
+        <v>-1</v>
+      </c>
+      <c r="AC151">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:29">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>8031833</v>
+      </c>
+      <c r="C152" t="s">
+        <v>28</v>
+      </c>
+      <c r="D152" t="s">
+        <v>28</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45382.64583333334</v>
+      </c>
+      <c r="F152" t="s">
+        <v>41</v>
+      </c>
+      <c r="G152" t="s">
+        <v>42</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152" t="s">
+        <v>51</v>
+      </c>
+      <c r="K152">
+        <v>4.1</v>
+      </c>
+      <c r="L152">
+        <v>3.1</v>
+      </c>
+      <c r="M152">
+        <v>1.833</v>
+      </c>
+      <c r="N152">
+        <v>3.5</v>
+      </c>
+      <c r="O152">
+        <v>2.9</v>
+      </c>
+      <c r="P152">
+        <v>2.05</v>
+      </c>
+      <c r="Q152">
+        <v>0.25</v>
+      </c>
+      <c r="R152">
+        <v>1.975</v>
+      </c>
+      <c r="S152">
+        <v>1.825</v>
+      </c>
+      <c r="T152">
+        <v>2</v>
+      </c>
+      <c r="U152">
+        <v>2.025</v>
+      </c>
+      <c r="V152">
+        <v>1.775</v>
+      </c>
+      <c r="W152">
+        <v>-1</v>
+      </c>
+      <c r="X152">
+        <v>1.9</v>
+      </c>
+      <c r="Y152">
+        <v>-1</v>
+      </c>
+      <c r="Z152">
+        <v>0.4875</v>
+      </c>
+      <c r="AA152">
+        <v>-0.5</v>
+      </c>
+      <c r="AB152">
+        <v>0</v>
+      </c>
+      <c r="AC152">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:29">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
         <v>8030838</v>
       </c>
-      <c r="C151" t="s">
-        <v>28</v>
-      </c>
-      <c r="D151" t="s">
-        <v>28</v>
-      </c>
-      <c r="E151" s="2">
+      <c r="C153" t="s">
+        <v>28</v>
+      </c>
+      <c r="D153" t="s">
+        <v>28</v>
+      </c>
+      <c r="E153" s="2">
         <v>45383.64583333334</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F153" t="s">
         <v>38</v>
       </c>
-      <c r="G151" t="s">
+      <c r="G153" t="s">
         <v>40</v>
       </c>
-      <c r="K151">
+      <c r="H153">
+        <v>3</v>
+      </c>
+      <c r="I153">
+        <v>2</v>
+      </c>
+      <c r="J153" t="s">
+        <v>53</v>
+      </c>
+      <c r="K153">
         <v>2.75</v>
       </c>
-      <c r="L151">
+      <c r="L153">
         <v>2.875</v>
       </c>
-      <c r="M151">
+      <c r="M153">
         <v>2.5</v>
       </c>
-      <c r="N151">
-        <v>2.75</v>
-      </c>
-      <c r="O151">
+      <c r="N153">
         <v>2.875</v>
       </c>
-      <c r="P151">
-        <v>2.5</v>
-      </c>
-      <c r="Q151">
-        <v>0</v>
-      </c>
-      <c r="R151">
-        <v>2</v>
-      </c>
-      <c r="S151">
-        <v>1.8</v>
-      </c>
-      <c r="T151">
-        <v>2</v>
-      </c>
-      <c r="U151">
+      <c r="O153">
+        <v>2.8</v>
+      </c>
+      <c r="P153">
+        <v>2.45</v>
+      </c>
+      <c r="Q153">
+        <v>0</v>
+      </c>
+      <c r="R153">
+        <v>2.025</v>
+      </c>
+      <c r="S153">
+        <v>1.775</v>
+      </c>
+      <c r="T153">
+        <v>2</v>
+      </c>
+      <c r="U153">
+        <v>1.95</v>
+      </c>
+      <c r="V153">
         <v>1.85</v>
       </c>
-      <c r="V151">
-        <v>1.95</v>
-      </c>
-      <c r="W151">
-        <v>0</v>
-      </c>
-      <c r="X151">
-        <v>0</v>
-      </c>
-      <c r="Y151">
-        <v>0</v>
-      </c>
-      <c r="Z151">
-        <v>0</v>
-      </c>
-      <c r="AA151">
-        <v>0</v>
+      <c r="W153">
+        <v>1.875</v>
+      </c>
+      <c r="X153">
+        <v>-1</v>
+      </c>
+      <c r="Y153">
+        <v>-1</v>
+      </c>
+      <c r="Z153">
+        <v>1.025</v>
+      </c>
+      <c r="AA153">
+        <v>-1</v>
+      </c>
+      <c r="AB153">
+        <v>0.95</v>
+      </c>
+      <c r="AC153">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Al Zawraa</t>
   </si>
   <si>
-    <t>Al Sinaah</t>
+    <t>Al Karkh</t>
   </si>
   <si>
-    <t>Al Karkh</t>
+    <t>Al Sinaah</t>
   </si>
   <si>
     <t>Al Shorta SC</t>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC153"/>
+  <dimension ref="A1:AC154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6729610</v>
+        <v>6729609</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -827,73 +827,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K4">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L4">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="M4">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="N4">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O4">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="P4">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S4">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T4">
         <v>2</v>
       </c>
       <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
         <v>1.8</v>
       </c>
-      <c r="V4">
-        <v>2</v>
-      </c>
       <c r="W4">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB4">
+        <v>-1</v>
+      </c>
+      <c r="AC4">
         <v>0.8</v>
-      </c>
-      <c r="AC4">
-        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6729609</v>
+        <v>6729610</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -916,73 +916,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K5">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L5">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="M5">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="N5">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="O5">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="P5">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T5">
         <v>2</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X5">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA5">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC5">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1183,7 +1183,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1969,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6838982</v>
+        <v>6838980</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1984,73 +1984,73 @@
         <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K17">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N17">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Q17">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S17">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T17">
         <v>2</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA17">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2058,7 +2058,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6838980</v>
+        <v>6838982</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2073,73 +2073,73 @@
         <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K18">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L18">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N18">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O18">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Q18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
+        <v>1.725</v>
+      </c>
+      <c r="S18">
+        <v>1.975</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="V18">
         <v>1.8</v>
       </c>
-      <c r="S18">
-        <v>2</v>
-      </c>
-      <c r="T18">
-        <v>2</v>
-      </c>
-      <c r="U18">
-        <v>1.85</v>
-      </c>
-      <c r="V18">
-        <v>1.95</v>
-      </c>
       <c r="W18">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z18">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC18">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2340,7 +2340,7 @@
         <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2414,7 +2414,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6862618</v>
+        <v>6862617</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2426,76 +2426,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L22">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="M22">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N22">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O22">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P22">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>1.8</v>
+      </c>
+      <c r="T22">
+        <v>2.25</v>
+      </c>
+      <c r="U22">
+        <v>2.025</v>
+      </c>
+      <c r="V22">
         <v>1.775</v>
       </c>
-      <c r="S22">
-        <v>2.025</v>
-      </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
-      <c r="U22">
-        <v>1.95</v>
-      </c>
-      <c r="V22">
-        <v>1.85</v>
-      </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y22">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2503,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6862617</v>
+        <v>6862618</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2515,76 +2515,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="M23">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N23">
+        <v>2.05</v>
+      </c>
+      <c r="O23">
+        <v>2.625</v>
+      </c>
+      <c r="P23">
+        <v>4</v>
+      </c>
+      <c r="Q23">
+        <v>-0.25</v>
+      </c>
+      <c r="R23">
+        <v>1.775</v>
+      </c>
+      <c r="S23">
+        <v>2.025</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
         <v>1.95</v>
       </c>
-      <c r="O23">
-        <v>2.8</v>
-      </c>
-      <c r="P23">
-        <v>4.1</v>
-      </c>
-      <c r="Q23">
-        <v>-0.5</v>
-      </c>
-      <c r="R23">
-        <v>2</v>
-      </c>
-      <c r="S23">
-        <v>1.8</v>
-      </c>
-      <c r="T23">
-        <v>2.25</v>
-      </c>
-      <c r="U23">
-        <v>2.025</v>
-      </c>
       <c r="V23">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2607,7 +2607,7 @@
         <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2782,7 +2782,7 @@
         <v>45117.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
         <v>37</v>
@@ -3049,7 +3049,7 @@
         <v>45118.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3497,7 +3497,7 @@
         <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3672,10 +3672,10 @@
         <v>45128.45833333334</v>
       </c>
       <c r="F36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
         <v>31</v>
-      </c>
-      <c r="G36" t="s">
-        <v>32</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -4105,7 +4105,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7406927</v>
+        <v>7407173</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4117,76 +4117,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K41">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="L41">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M41">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="N41">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="O41">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="P41">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="Q41">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S41">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T41">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U41">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V41">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X41">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA41">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC41">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4194,7 +4194,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7407173</v>
+        <v>7406927</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4206,76 +4206,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K42">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="M42">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="N42">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="O42">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P42">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q42">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R42">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T42">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U42">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W42">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
+        <v>0.45</v>
+      </c>
+      <c r="AA42">
         <v>-0.5</v>
       </c>
-      <c r="AA42">
-        <v>0.4875</v>
-      </c>
       <c r="AB42">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4565,7 +4565,7 @@
         <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -5618,7 +5618,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7511489</v>
+        <v>7511490</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5630,10 +5630,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5645,40 +5645,40 @@
         <v>52</v>
       </c>
       <c r="K58">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L58">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M58">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N58">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="O58">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P58">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q58">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R58">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S58">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T58">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U58">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V58">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W58">
         <v>-1</v>
@@ -5687,19 +5687,19 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB58">
+        <v>0.45</v>
+      </c>
+      <c r="AC58">
         <v>-0.5</v>
-      </c>
-      <c r="AC58">
-        <v>0.375</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5707,7 +5707,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7511490</v>
+        <v>7511489</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5719,10 +5719,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5734,41 +5734,41 @@
         <v>52</v>
       </c>
       <c r="K59">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="M59">
         <v>3.1</v>
       </c>
-      <c r="M59">
-        <v>1.909</v>
-      </c>
       <c r="N59">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O59">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P59">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R59">
+        <v>1.95</v>
+      </c>
+      <c r="S59">
+        <v>1.85</v>
+      </c>
+      <c r="T59">
+        <v>2.25</v>
+      </c>
+      <c r="U59">
+        <v>2.05</v>
+      </c>
+      <c r="V59">
         <v>1.75</v>
       </c>
-      <c r="S59">
-        <v>2.05</v>
-      </c>
-      <c r="T59">
-        <v>1.75</v>
-      </c>
-      <c r="U59">
-        <v>1.9</v>
-      </c>
-      <c r="V59">
-        <v>1.9</v>
-      </c>
       <c r="W59">
         <v>-1</v>
       </c>
@@ -5776,19 +5776,19 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB59">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC59">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5989,7 +5989,7 @@
         <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6523,7 +6523,7 @@
         <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6597,7 +6597,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7555937</v>
+        <v>7555939</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6609,13 +6609,13 @@
         <v>45265.35416666666</v>
       </c>
       <c r="F69" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69">
         <v>2</v>
@@ -6624,40 +6624,40 @@
         <v>52</v>
       </c>
       <c r="K69">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="L69">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M69">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="N69">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="O69">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="P69">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R69">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S69">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T69">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V69">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6666,19 +6666,19 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>2.4</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA69">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC69">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6686,7 +6686,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7555939</v>
+        <v>7555937</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6698,13 +6698,13 @@
         <v>45265.35416666666</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>2</v>
@@ -6713,40 +6713,40 @@
         <v>52</v>
       </c>
       <c r="K70">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="L70">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M70">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="N70">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="O70">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P70">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q70">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S70">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U70">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V70">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6755,19 +6755,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="Z70">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB70">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7054,7 +7054,7 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
         <v>48</v>
@@ -7766,7 +7766,7 @@
         <v>45279.3125</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
         <v>29</v>
@@ -8377,7 +8377,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7615329</v>
+        <v>7613564</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8389,76 +8389,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F89" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K89">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="L89">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="M89">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N89">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="O89">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P89">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Q89">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R89">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S89">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T89">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U89">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V89">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X89">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC89">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8466,7 +8466,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7613564</v>
+        <v>7615329</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8478,76 +8478,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K90">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="L90">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="M90">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N90">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O90">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P90">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q90">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R90">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S90">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T90">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U90">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W90">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB90">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -9371,7 +9371,7 @@
         <v>47</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -10068,7 +10068,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7811883</v>
+        <v>7811882</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10080,76 +10080,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G108" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
         <v>51</v>
       </c>
       <c r="K108">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="L108">
+        <v>2.9</v>
+      </c>
+      <c r="M108">
         <v>3.4</v>
       </c>
-      <c r="M108">
-        <v>1.727</v>
-      </c>
       <c r="N108">
+        <v>2.05</v>
+      </c>
+      <c r="O108">
+        <v>2.9</v>
+      </c>
+      <c r="P108">
         <v>3.6</v>
       </c>
-      <c r="O108">
-        <v>3.3</v>
-      </c>
-      <c r="P108">
-        <v>1.909</v>
-      </c>
       <c r="Q108">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S108">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T108">
         <v>1.75</v>
       </c>
       <c r="U108">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="V108">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC108">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10157,7 +10157,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7811882</v>
+        <v>7811883</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10169,76 +10169,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
         <v>51</v>
       </c>
       <c r="K109">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="L109">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M109">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="N109">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="O109">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P109">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q109">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R109">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S109">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T109">
         <v>1.75</v>
       </c>
       <c r="U109">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="V109">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA109">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -11059,7 +11059,7 @@
         <v>45342.33333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
         <v>35</v>
@@ -12041,7 +12041,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12572,7 +12572,7 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
         <v>39</v>
@@ -13284,7 +13284,7 @@
         <v>45359.35416666666</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
         <v>33</v>
@@ -13895,7 +13895,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>8031832</v>
+        <v>8031833</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13907,76 +13907,76 @@
         <v>45382.64583333334</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G151" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="s">
         <v>51</v>
       </c>
       <c r="K151">
-        <v>1.909</v>
+        <v>4.1</v>
       </c>
       <c r="L151">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="M151">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N151">
-        <v>1.833</v>
+        <v>3.5</v>
       </c>
       <c r="O151">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P151">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q151">
+        <v>0.25</v>
+      </c>
+      <c r="R151">
+        <v>1.975</v>
+      </c>
+      <c r="S151">
+        <v>1.825</v>
+      </c>
+      <c r="T151">
+        <v>2</v>
+      </c>
+      <c r="U151">
+        <v>2.025</v>
+      </c>
+      <c r="V151">
+        <v>1.775</v>
+      </c>
+      <c r="W151">
+        <v>-1</v>
+      </c>
+      <c r="X151">
+        <v>1.9</v>
+      </c>
+      <c r="Y151">
+        <v>-1</v>
+      </c>
+      <c r="Z151">
+        <v>0.4875</v>
+      </c>
+      <c r="AA151">
         <v>-0.5</v>
       </c>
-      <c r="R151">
-        <v>1.875</v>
-      </c>
-      <c r="S151">
-        <v>1.925</v>
-      </c>
-      <c r="T151">
-        <v>1.75</v>
-      </c>
-      <c r="U151">
-        <v>1.95</v>
-      </c>
-      <c r="V151">
-        <v>1.85</v>
-      </c>
-      <c r="W151">
-        <v>-1</v>
-      </c>
-      <c r="X151">
-        <v>1.8</v>
-      </c>
-      <c r="Y151">
-        <v>-1</v>
-      </c>
-      <c r="Z151">
-        <v>-1</v>
-      </c>
-      <c r="AA151">
-        <v>0.925</v>
-      </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC151">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13984,7 +13984,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>8031833</v>
+        <v>8031832</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13996,76 +13996,76 @@
         <v>45382.64583333334</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G152" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
         <v>51</v>
       </c>
       <c r="K152">
-        <v>4.1</v>
+        <v>1.909</v>
       </c>
       <c r="L152">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="M152">
+        <v>4</v>
+      </c>
+      <c r="N152">
         <v>1.833</v>
       </c>
-      <c r="N152">
-        <v>3.5</v>
-      </c>
       <c r="O152">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P152">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="Q152">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R152">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S152">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T152">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U152">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V152">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14155,6 +14155,95 @@
       </c>
       <c r="AC153">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:29">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>8038699</v>
+      </c>
+      <c r="C154" t="s">
+        <v>28</v>
+      </c>
+      <c r="D154" t="s">
+        <v>28</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45384.375</v>
+      </c>
+      <c r="F154" t="s">
+        <v>31</v>
+      </c>
+      <c r="G154" t="s">
+        <v>34</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154" t="s">
+        <v>51</v>
+      </c>
+      <c r="K154">
+        <v>3.2</v>
+      </c>
+      <c r="L154">
+        <v>2.75</v>
+      </c>
+      <c r="M154">
+        <v>2.3</v>
+      </c>
+      <c r="N154">
+        <v>3</v>
+      </c>
+      <c r="O154">
+        <v>2.75</v>
+      </c>
+      <c r="P154">
+        <v>2.4</v>
+      </c>
+      <c r="Q154">
+        <v>0.25</v>
+      </c>
+      <c r="R154">
+        <v>1.725</v>
+      </c>
+      <c r="S154">
+        <v>2.075</v>
+      </c>
+      <c r="T154">
+        <v>2</v>
+      </c>
+      <c r="U154">
+        <v>2</v>
+      </c>
+      <c r="V154">
+        <v>1.8</v>
+      </c>
+      <c r="W154">
+        <v>-1</v>
+      </c>
+      <c r="X154">
+        <v>1.75</v>
+      </c>
+      <c r="Y154">
+        <v>-1</v>
+      </c>
+      <c r="Z154">
+        <v>0.3625</v>
+      </c>
+      <c r="AA154">
+        <v>-0.5</v>
+      </c>
+      <c r="AB154">
+        <v>0</v>
+      </c>
+      <c r="AC154">
+        <v>-0</v>
       </c>
     </row>
   </sheetData>

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -8377,7 +8377,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7613564</v>
+        <v>7615329</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8389,76 +8389,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K89">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="L89">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="M89">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N89">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O89">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P89">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q89">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R89">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S89">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T89">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U89">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V89">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W89">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB89">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8466,7 +8466,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7615329</v>
+        <v>7613564</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8478,76 +8478,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F90" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K90">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="L90">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="M90">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N90">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="O90">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P90">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Q90">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R90">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S90">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T90">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V90">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X90">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC90">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -8377,7 +8377,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7615329</v>
+        <v>7613564</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8389,76 +8389,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F89" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K89">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="L89">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="M89">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N89">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="O89">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P89">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Q89">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R89">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S89">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T89">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U89">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V89">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X89">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC89">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8466,7 +8466,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7613564</v>
+        <v>7615329</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8478,76 +8478,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K90">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="L90">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="M90">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N90">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O90">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P90">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q90">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R90">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S90">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T90">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U90">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W90">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB90">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="91" spans="1:29">

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Al Zawraa</t>
   </si>
   <si>
-    <t>Al Karkh</t>
+    <t>Al Sinaah</t>
   </si>
   <si>
-    <t>Al Sinaah</t>
+    <t>Al Karkh</t>
   </si>
   <si>
     <t>Al Shorta SC</t>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC154"/>
+  <dimension ref="A1:AC157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6729609</v>
+        <v>6729610</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -827,73 +827,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K4">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L4">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="M4">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="N4">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="O4">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="P4">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T4">
         <v>2</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X4">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA4">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC4">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6729610</v>
+        <v>6729609</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -916,73 +916,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K5">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L5">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="M5">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="N5">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O5">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="P5">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S5">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T5">
         <v>2</v>
       </c>
       <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
         <v>1.8</v>
       </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
       <c r="W5">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB5">
+        <v>-1</v>
+      </c>
+      <c r="AC5">
         <v>0.8</v>
-      </c>
-      <c r="AC5">
-        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1183,7 +1183,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1981,7 +1981,7 @@
         <v>45107.44791666666</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
         <v>34</v>
@@ -2070,7 +2070,7 @@
         <v>45107.44791666666</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
         <v>43</v>
@@ -2340,7 +2340,7 @@
         <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2414,7 +2414,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6862617</v>
+        <v>6862618</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2426,76 +2426,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="M22">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N22">
+        <v>2.05</v>
+      </c>
+      <c r="O22">
+        <v>2.625</v>
+      </c>
+      <c r="P22">
+        <v>4</v>
+      </c>
+      <c r="Q22">
+        <v>-0.25</v>
+      </c>
+      <c r="R22">
+        <v>1.775</v>
+      </c>
+      <c r="S22">
+        <v>2.025</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
         <v>1.95</v>
       </c>
-      <c r="O22">
-        <v>2.8</v>
-      </c>
-      <c r="P22">
-        <v>4.1</v>
-      </c>
-      <c r="Q22">
-        <v>-0.5</v>
-      </c>
-      <c r="R22">
-        <v>2</v>
-      </c>
-      <c r="S22">
-        <v>1.8</v>
-      </c>
-      <c r="T22">
-        <v>2.25</v>
-      </c>
-      <c r="U22">
-        <v>2.025</v>
-      </c>
       <c r="V22">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2503,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6862618</v>
+        <v>6862617</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2515,76 +2515,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L23">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="M23">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N23">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O23">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P23">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>1.8</v>
+      </c>
+      <c r="T23">
+        <v>2.25</v>
+      </c>
+      <c r="U23">
+        <v>2.025</v>
+      </c>
+      <c r="V23">
         <v>1.775</v>
       </c>
-      <c r="S23">
-        <v>2.025</v>
-      </c>
-      <c r="T23">
-        <v>2</v>
-      </c>
-      <c r="U23">
-        <v>1.95</v>
-      </c>
-      <c r="V23">
-        <v>1.85</v>
-      </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y23">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2607,7 +2607,7 @@
         <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2782,7 +2782,7 @@
         <v>45117.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
         <v>37</v>
@@ -3049,7 +3049,7 @@
         <v>45118.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3497,7 +3497,7 @@
         <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3672,10 +3672,10 @@
         <v>45128.45833333334</v>
       </c>
       <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
         <v>32</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -4105,7 +4105,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7407173</v>
+        <v>7406927</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4117,76 +4117,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K41">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="M41">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="N41">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="O41">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P41">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q41">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R41">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U41">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V41">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W41">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
+        <v>0.45</v>
+      </c>
+      <c r="AA41">
         <v>-0.5</v>
       </c>
-      <c r="AA41">
-        <v>0.4875</v>
-      </c>
       <c r="AB41">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4194,7 +4194,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7406927</v>
+        <v>7407173</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4206,76 +4206,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K42">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="L42">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M42">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="N42">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="O42">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="P42">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="Q42">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R42">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S42">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T42">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U42">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V42">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X42">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA42">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC42">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4565,7 +4565,7 @@
         <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -5262,7 +5262,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7453403</v>
+        <v>7453404</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5274,76 +5274,76 @@
         <v>45240.375</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K54">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L54">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M54">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N54">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O54">
         <v>2.9</v>
       </c>
       <c r="P54">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R54">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S54">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T54">
         <v>2</v>
       </c>
       <c r="U54">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z54">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5351,7 +5351,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7453404</v>
+        <v>7453403</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5363,76 +5363,76 @@
         <v>45240.375</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K55">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L55">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M55">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N55">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O55">
         <v>2.9</v>
       </c>
       <c r="P55">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q55">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S55">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T55">
         <v>2</v>
       </c>
       <c r="U55">
+        <v>1.975</v>
+      </c>
+      <c r="V55">
+        <v>1.825</v>
+      </c>
+      <c r="W55">
+        <v>-1</v>
+      </c>
+      <c r="X55">
         <v>1.9</v>
       </c>
-      <c r="V55">
-        <v>1.9</v>
-      </c>
-      <c r="W55">
-        <v>-1</v>
-      </c>
-      <c r="X55">
-        <v>-1</v>
-      </c>
       <c r="Y55">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA55">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5989,7 +5989,7 @@
         <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6523,7 +6523,7 @@
         <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6597,7 +6597,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7555939</v>
+        <v>7555937</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6609,13 +6609,13 @@
         <v>45265.35416666666</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>2</v>
@@ -6624,40 +6624,40 @@
         <v>52</v>
       </c>
       <c r="K69">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="L69">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M69">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="N69">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="O69">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P69">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q69">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S69">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U69">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V69">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6666,19 +6666,19 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="Z69">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB69">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6686,7 +6686,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7555937</v>
+        <v>7555939</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6698,13 +6698,13 @@
         <v>45265.35416666666</v>
       </c>
       <c r="F70" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70">
         <v>2</v>
@@ -6713,40 +6713,40 @@
         <v>52</v>
       </c>
       <c r="K70">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="L70">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M70">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="N70">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="O70">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="P70">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R70">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S70">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T70">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V70">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6755,19 +6755,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>2.4</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA70">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB70">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC70">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6953,7 +6953,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7565124</v>
+        <v>7565123</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6965,56 +6965,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
         <v>52</v>
       </c>
       <c r="K73">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L73">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M73">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N73">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="O73">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P73">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q73">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R73">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S73">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T73">
         <v>2</v>
       </c>
       <c r="U73">
+        <v>1.925</v>
+      </c>
+      <c r="V73">
         <v>1.875</v>
       </c>
-      <c r="V73">
-        <v>1.925</v>
-      </c>
       <c r="W73">
         <v>-1</v>
       </c>
@@ -7022,19 +7022,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC73">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7042,7 +7042,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7565123</v>
+        <v>7565124</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7054,56 +7054,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
         <v>52</v>
       </c>
       <c r="K74">
+        <v>1.5</v>
+      </c>
+      <c r="L74">
+        <v>3.6</v>
+      </c>
+      <c r="M74">
+        <v>6</v>
+      </c>
+      <c r="N74">
         <v>1.727</v>
       </c>
-      <c r="L74">
-        <v>3.4</v>
-      </c>
-      <c r="M74">
+      <c r="O74">
+        <v>3.5</v>
+      </c>
+      <c r="P74">
         <v>4.2</v>
       </c>
-      <c r="N74">
-        <v>1.833</v>
-      </c>
-      <c r="O74">
-        <v>3.3</v>
-      </c>
-      <c r="P74">
-        <v>3.75</v>
-      </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R74">
+        <v>2</v>
+      </c>
+      <c r="S74">
+        <v>1.8</v>
+      </c>
+      <c r="T74">
+        <v>2</v>
+      </c>
+      <c r="U74">
         <v>1.875</v>
       </c>
-      <c r="S74">
+      <c r="V74">
         <v>1.925</v>
       </c>
-      <c r="T74">
-        <v>2</v>
-      </c>
-      <c r="U74">
-        <v>1.925</v>
-      </c>
-      <c r="V74">
-        <v>1.875</v>
-      </c>
       <c r="W74">
         <v>-1</v>
       </c>
@@ -7111,19 +7111,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
+        <v>0.8</v>
+      </c>
+      <c r="AB74">
+        <v>-1</v>
+      </c>
+      <c r="AC74">
         <v>0.925</v>
-      </c>
-      <c r="AB74">
-        <v>0.925</v>
-      </c>
-      <c r="AC74">
-        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7398,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7590595</v>
+        <v>7592803</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7410,49 +7410,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
         <v>52</v>
       </c>
       <c r="K78">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L78">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N78">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="O78">
+        <v>2.875</v>
+      </c>
+      <c r="P78">
         <v>3</v>
       </c>
-      <c r="P78">
-        <v>1.75</v>
-      </c>
       <c r="Q78">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S78">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U78">
         <v>2</v>
@@ -7467,19 +7467,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB78">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7592803</v>
+        <v>7590595</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7499,49 +7499,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J79" t="s">
         <v>52</v>
       </c>
       <c r="K79">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L79">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M79">
+        <v>2</v>
+      </c>
+      <c r="N79">
+        <v>4.5</v>
+      </c>
+      <c r="O79">
         <v>3</v>
       </c>
-      <c r="N79">
-        <v>2.3</v>
-      </c>
-      <c r="O79">
-        <v>2.875</v>
-      </c>
       <c r="P79">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R79">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S79">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T79">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
         <v>2</v>
@@ -7556,19 +7556,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC79">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7766,7 +7766,7 @@
         <v>45279.3125</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
         <v>29</v>
@@ -8555,7 +8555,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7618726</v>
+        <v>7618724</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8567,76 +8567,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K91">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L91">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M91">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N91">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="O91">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P91">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q91">
         <v>0</v>
       </c>
       <c r="R91">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S91">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T91">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U91">
+        <v>2</v>
+      </c>
+      <c r="V91">
         <v>1.8</v>
       </c>
-      <c r="V91">
-        <v>2</v>
-      </c>
       <c r="W91">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA91">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC91">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8644,7 +8644,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7618724</v>
+        <v>7618726</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8656,76 +8656,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92" t="s">
+        <v>52</v>
+      </c>
+      <c r="K92">
+        <v>2.375</v>
+      </c>
+      <c r="L92">
+        <v>2.8</v>
+      </c>
+      <c r="M92">
         <v>3</v>
       </c>
-      <c r="I92">
-        <v>1</v>
-      </c>
-      <c r="J92" t="s">
-        <v>53</v>
-      </c>
-      <c r="K92">
-        <v>2.875</v>
-      </c>
-      <c r="L92">
-        <v>2.75</v>
-      </c>
-      <c r="M92">
-        <v>2.5</v>
-      </c>
       <c r="N92">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="O92">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P92">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q92">
         <v>0</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S92">
+        <v>2.05</v>
+      </c>
+      <c r="T92">
+        <v>1.75</v>
+      </c>
+      <c r="U92">
         <v>1.8</v>
       </c>
-      <c r="T92">
-        <v>2</v>
-      </c>
-      <c r="U92">
-        <v>2</v>
-      </c>
       <c r="V92">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W92">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -9371,7 +9371,7 @@
         <v>47</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9623,7 +9623,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7648519</v>
+        <v>7645264</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9635,46 +9635,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K103">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L103">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M103">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="N103">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="O103">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P103">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="Q103">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R103">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S103">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T103">
         <v>2</v>
@@ -9689,22 +9689,22 @@
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y103">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
+        <v>0.825</v>
+      </c>
+      <c r="AB103">
+        <v>0</v>
+      </c>
+      <c r="AC103">
         <v>-0</v>
-      </c>
-      <c r="AB103">
-        <v>-1</v>
-      </c>
-      <c r="AC103">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9712,7 +9712,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7645264</v>
+        <v>7648519</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9724,46 +9724,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K104">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L104">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="N104">
+        <v>5.25</v>
+      </c>
+      <c r="O104">
+        <v>3.75</v>
+      </c>
+      <c r="P104">
         <v>1.533</v>
       </c>
-      <c r="O104">
-        <v>3.5</v>
-      </c>
-      <c r="P104">
-        <v>6.5</v>
-      </c>
       <c r="Q104">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R104">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T104">
         <v>2</v>
@@ -9778,22 +9778,22 @@
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10169,7 +10169,7 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
         <v>42</v>
@@ -11059,7 +11059,7 @@
         <v>45342.33333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
         <v>35</v>
@@ -12041,7 +12041,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12471,7 +12471,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7901411</v>
+        <v>7897090</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12483,76 +12483,76 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J135" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K135">
         <v>2.1</v>
       </c>
       <c r="L135">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M135">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N135">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O135">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P135">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q135">
         <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S135">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T135">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U135">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V135">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC135">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12560,7 +12560,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7897090</v>
+        <v>7901411</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12572,76 +12572,76 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K136">
         <v>2.1</v>
       </c>
       <c r="L136">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M136">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N136">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O136">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P136">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q136">
         <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S136">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T136">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U136">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V136">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y136">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB136">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13284,7 +13284,7 @@
         <v>45359.35416666666</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
         <v>33</v>
@@ -13895,7 +13895,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>8031833</v>
+        <v>8031832</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13907,76 +13907,76 @@
         <v>45382.64583333334</v>
       </c>
       <c r="F151" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
         <v>51</v>
       </c>
       <c r="K151">
-        <v>4.1</v>
+        <v>1.909</v>
       </c>
       <c r="L151">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="M151">
+        <v>4</v>
+      </c>
+      <c r="N151">
         <v>1.833</v>
       </c>
-      <c r="N151">
-        <v>3.5</v>
-      </c>
       <c r="O151">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P151">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="Q151">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R151">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S151">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T151">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U151">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V151">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB151">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13984,7 +13984,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>8031832</v>
+        <v>8031833</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13996,76 +13996,76 @@
         <v>45382.64583333334</v>
       </c>
       <c r="F152" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G152" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
         <v>51</v>
       </c>
       <c r="K152">
-        <v>1.909</v>
+        <v>4.1</v>
       </c>
       <c r="L152">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="M152">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N152">
-        <v>1.833</v>
+        <v>3.5</v>
       </c>
       <c r="O152">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P152">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q152">
+        <v>0.25</v>
+      </c>
+      <c r="R152">
+        <v>1.975</v>
+      </c>
+      <c r="S152">
+        <v>1.825</v>
+      </c>
+      <c r="T152">
+        <v>2</v>
+      </c>
+      <c r="U152">
+        <v>2.025</v>
+      </c>
+      <c r="V152">
+        <v>1.775</v>
+      </c>
+      <c r="W152">
+        <v>-1</v>
+      </c>
+      <c r="X152">
+        <v>1.9</v>
+      </c>
+      <c r="Y152">
+        <v>-1</v>
+      </c>
+      <c r="Z152">
+        <v>0.4875</v>
+      </c>
+      <c r="AA152">
         <v>-0.5</v>
       </c>
-      <c r="R152">
-        <v>1.875</v>
-      </c>
-      <c r="S152">
-        <v>1.925</v>
-      </c>
-      <c r="T152">
-        <v>1.75</v>
-      </c>
-      <c r="U152">
-        <v>1.95</v>
-      </c>
-      <c r="V152">
-        <v>1.85</v>
-      </c>
-      <c r="W152">
-        <v>-1</v>
-      </c>
-      <c r="X152">
-        <v>1.8</v>
-      </c>
-      <c r="Y152">
-        <v>-1</v>
-      </c>
-      <c r="Z152">
-        <v>-1</v>
-      </c>
-      <c r="AA152">
-        <v>0.925</v>
-      </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC152">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14174,7 +14174,7 @@
         <v>45384.375</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G154" t="s">
         <v>34</v>
@@ -14244,6 +14244,273 @@
       </c>
       <c r="AC154">
         <v>-0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:29">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>8048602</v>
+      </c>
+      <c r="C155" t="s">
+        <v>28</v>
+      </c>
+      <c r="D155" t="s">
+        <v>28</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45386.375</v>
+      </c>
+      <c r="F155" t="s">
+        <v>47</v>
+      </c>
+      <c r="G155" t="s">
+        <v>41</v>
+      </c>
+      <c r="H155">
+        <v>3</v>
+      </c>
+      <c r="I155">
+        <v>2</v>
+      </c>
+      <c r="J155" t="s">
+        <v>53</v>
+      </c>
+      <c r="K155">
+        <v>1.6</v>
+      </c>
+      <c r="L155">
+        <v>3.25</v>
+      </c>
+      <c r="M155">
+        <v>5.5</v>
+      </c>
+      <c r="N155">
+        <v>1.5</v>
+      </c>
+      <c r="O155">
+        <v>3.4</v>
+      </c>
+      <c r="P155">
+        <v>6.5</v>
+      </c>
+      <c r="Q155">
+        <v>-1</v>
+      </c>
+      <c r="R155">
+        <v>1.95</v>
+      </c>
+      <c r="S155">
+        <v>1.85</v>
+      </c>
+      <c r="T155">
+        <v>2</v>
+      </c>
+      <c r="U155">
+        <v>1.825</v>
+      </c>
+      <c r="V155">
+        <v>1.975</v>
+      </c>
+      <c r="W155">
+        <v>0.5</v>
+      </c>
+      <c r="X155">
+        <v>-1</v>
+      </c>
+      <c r="Y155">
+        <v>-1</v>
+      </c>
+      <c r="Z155">
+        <v>0</v>
+      </c>
+      <c r="AA155">
+        <v>-0</v>
+      </c>
+      <c r="AB155">
+        <v>0.825</v>
+      </c>
+      <c r="AC155">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:29">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>8048596</v>
+      </c>
+      <c r="C156" t="s">
+        <v>28</v>
+      </c>
+      <c r="D156" t="s">
+        <v>28</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45386.64583333334</v>
+      </c>
+      <c r="F156" t="s">
+        <v>30</v>
+      </c>
+      <c r="G156" t="s">
+        <v>40</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156" t="s">
+        <v>53</v>
+      </c>
+      <c r="K156">
+        <v>2.1</v>
+      </c>
+      <c r="L156">
+        <v>2.75</v>
+      </c>
+      <c r="M156">
+        <v>3.6</v>
+      </c>
+      <c r="N156">
+        <v>1.85</v>
+      </c>
+      <c r="O156">
+        <v>2.875</v>
+      </c>
+      <c r="P156">
+        <v>4.333</v>
+      </c>
+      <c r="Q156">
+        <v>-0.5</v>
+      </c>
+      <c r="R156">
+        <v>1.975</v>
+      </c>
+      <c r="S156">
+        <v>1.825</v>
+      </c>
+      <c r="T156">
+        <v>1.75</v>
+      </c>
+      <c r="U156">
+        <v>1.8</v>
+      </c>
+      <c r="V156">
+        <v>2</v>
+      </c>
+      <c r="W156">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="X156">
+        <v>-1</v>
+      </c>
+      <c r="Y156">
+        <v>-1</v>
+      </c>
+      <c r="Z156">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA156">
+        <v>-1</v>
+      </c>
+      <c r="AB156">
+        <v>-1</v>
+      </c>
+      <c r="AC156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:29">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>8052760</v>
+      </c>
+      <c r="C157" t="s">
+        <v>28</v>
+      </c>
+      <c r="D157" t="s">
+        <v>28</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45387.64583333334</v>
+      </c>
+      <c r="F157" t="s">
+        <v>34</v>
+      </c>
+      <c r="G157" t="s">
+        <v>37</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157">
+        <v>2</v>
+      </c>
+      <c r="J157" t="s">
+        <v>52</v>
+      </c>
+      <c r="K157">
+        <v>4.5</v>
+      </c>
+      <c r="L157">
+        <v>3.2</v>
+      </c>
+      <c r="M157">
+        <v>1.727</v>
+      </c>
+      <c r="N157">
+        <v>4.333</v>
+      </c>
+      <c r="O157">
+        <v>3.8</v>
+      </c>
+      <c r="P157">
+        <v>1.6</v>
+      </c>
+      <c r="Q157">
+        <v>0.75</v>
+      </c>
+      <c r="R157">
+        <v>1.975</v>
+      </c>
+      <c r="S157">
+        <v>1.825</v>
+      </c>
+      <c r="T157">
+        <v>2</v>
+      </c>
+      <c r="U157">
+        <v>1.825</v>
+      </c>
+      <c r="V157">
+        <v>1.975</v>
+      </c>
+      <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
+        <v>-1</v>
+      </c>
+      <c r="Y157">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="Z157">
+        <v>-0.5</v>
+      </c>
+      <c r="AA157">
+        <v>0.4125</v>
+      </c>
+      <c r="AB157">
+        <v>0.825</v>
+      </c>
+      <c r="AC157">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC157"/>
+  <dimension ref="A1:AC158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2414,7 +2414,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6862618</v>
+        <v>6862617</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2426,76 +2426,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L22">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="M22">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N22">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O22">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P22">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>1.8</v>
+      </c>
+      <c r="T22">
+        <v>2.25</v>
+      </c>
+      <c r="U22">
+        <v>2.025</v>
+      </c>
+      <c r="V22">
         <v>1.775</v>
       </c>
-      <c r="S22">
-        <v>2.025</v>
-      </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
-      <c r="U22">
-        <v>1.95</v>
-      </c>
-      <c r="V22">
-        <v>1.85</v>
-      </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y22">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2503,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6862617</v>
+        <v>6862618</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2515,76 +2515,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="M23">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N23">
+        <v>2.05</v>
+      </c>
+      <c r="O23">
+        <v>2.625</v>
+      </c>
+      <c r="P23">
+        <v>4</v>
+      </c>
+      <c r="Q23">
+        <v>-0.25</v>
+      </c>
+      <c r="R23">
+        <v>1.775</v>
+      </c>
+      <c r="S23">
+        <v>2.025</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
         <v>1.95</v>
       </c>
-      <c r="O23">
-        <v>2.8</v>
-      </c>
-      <c r="P23">
-        <v>4.1</v>
-      </c>
-      <c r="Q23">
-        <v>-0.5</v>
-      </c>
-      <c r="R23">
-        <v>2</v>
-      </c>
-      <c r="S23">
-        <v>1.8</v>
-      </c>
-      <c r="T23">
-        <v>2.25</v>
-      </c>
-      <c r="U23">
-        <v>2.025</v>
-      </c>
       <c r="V23">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -4105,7 +4105,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7406927</v>
+        <v>7407173</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4117,76 +4117,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K41">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="L41">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M41">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="N41">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="O41">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="P41">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="Q41">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S41">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T41">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U41">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V41">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X41">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA41">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC41">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4194,7 +4194,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7407173</v>
+        <v>7406927</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4206,76 +4206,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K42">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="M42">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="N42">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="O42">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P42">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q42">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R42">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T42">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U42">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W42">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
+        <v>0.45</v>
+      </c>
+      <c r="AA42">
         <v>-0.5</v>
       </c>
-      <c r="AA42">
-        <v>0.4875</v>
-      </c>
       <c r="AB42">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -7398,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7592803</v>
+        <v>7590595</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7410,49 +7410,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F78" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J78" t="s">
         <v>52</v>
       </c>
       <c r="K78">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L78">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78">
+        <v>4.5</v>
+      </c>
+      <c r="O78">
         <v>3</v>
       </c>
-      <c r="N78">
-        <v>2.3</v>
-      </c>
-      <c r="O78">
-        <v>2.875</v>
-      </c>
       <c r="P78">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R78">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S78">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
         <v>2</v>
@@ -7467,19 +7467,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7590595</v>
+        <v>7592803</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7499,49 +7499,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G79" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
         <v>52</v>
       </c>
       <c r="K79">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L79">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N79">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="O79">
+        <v>2.875</v>
+      </c>
+      <c r="P79">
         <v>3</v>
       </c>
-      <c r="P79">
-        <v>1.75</v>
-      </c>
       <c r="Q79">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S79">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U79">
         <v>2</v>
@@ -7556,19 +7556,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB79">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -8555,7 +8555,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7618724</v>
+        <v>7618726</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8567,76 +8567,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91" t="s">
+        <v>52</v>
+      </c>
+      <c r="K91">
+        <v>2.375</v>
+      </c>
+      <c r="L91">
+        <v>2.8</v>
+      </c>
+      <c r="M91">
         <v>3</v>
       </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
-      <c r="J91" t="s">
-        <v>53</v>
-      </c>
-      <c r="K91">
-        <v>2.875</v>
-      </c>
-      <c r="L91">
-        <v>2.75</v>
-      </c>
-      <c r="M91">
-        <v>2.5</v>
-      </c>
       <c r="N91">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="O91">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P91">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q91">
         <v>0</v>
       </c>
       <c r="R91">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S91">
+        <v>2.05</v>
+      </c>
+      <c r="T91">
+        <v>1.75</v>
+      </c>
+      <c r="U91">
         <v>1.8</v>
       </c>
-      <c r="T91">
-        <v>2</v>
-      </c>
-      <c r="U91">
-        <v>2</v>
-      </c>
       <c r="V91">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W91">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8644,7 +8644,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7618726</v>
+        <v>7618724</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8656,76 +8656,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K92">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L92">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M92">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N92">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="O92">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P92">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q92">
         <v>0</v>
       </c>
       <c r="R92">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S92">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T92">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U92">
+        <v>2</v>
+      </c>
+      <c r="V92">
         <v>1.8</v>
       </c>
-      <c r="V92">
-        <v>2</v>
-      </c>
       <c r="W92">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA92">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC92">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -9623,7 +9623,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7645264</v>
+        <v>7648519</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9635,46 +9635,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K103">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L103">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="N103">
+        <v>5.25</v>
+      </c>
+      <c r="O103">
+        <v>3.75</v>
+      </c>
+      <c r="P103">
         <v>1.533</v>
       </c>
-      <c r="O103">
-        <v>3.5</v>
-      </c>
-      <c r="P103">
-        <v>6.5</v>
-      </c>
       <c r="Q103">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R103">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S103">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T103">
         <v>2</v>
@@ -9689,22 +9689,22 @@
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA103">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9712,7 +9712,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7648519</v>
+        <v>7645264</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9724,46 +9724,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K104">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L104">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M104">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="N104">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="O104">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P104">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="Q104">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R104">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S104">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T104">
         <v>2</v>
@@ -9778,22 +9778,22 @@
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y104">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
+        <v>0.825</v>
+      </c>
+      <c r="AB104">
+        <v>0</v>
+      </c>
+      <c r="AC104">
         <v>-0</v>
-      </c>
-      <c r="AB104">
-        <v>-1</v>
-      </c>
-      <c r="AC104">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -12471,7 +12471,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7897090</v>
+        <v>7901411</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12483,76 +12483,76 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K135">
         <v>2.1</v>
       </c>
       <c r="L135">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M135">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N135">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O135">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P135">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q135">
         <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S135">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T135">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U135">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V135">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y135">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB135">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12560,7 +12560,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7901411</v>
+        <v>7897090</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12572,76 +12572,76 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F136" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K136">
         <v>2.1</v>
       </c>
       <c r="L136">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M136">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N136">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O136">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P136">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q136">
         <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S136">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T136">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U136">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V136">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC136">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13895,7 +13895,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>8031832</v>
+        <v>8031833</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13907,76 +13907,76 @@
         <v>45382.64583333334</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G151" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="s">
         <v>51</v>
       </c>
       <c r="K151">
-        <v>1.909</v>
+        <v>4.1</v>
       </c>
       <c r="L151">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="M151">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N151">
-        <v>1.833</v>
+        <v>3.5</v>
       </c>
       <c r="O151">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P151">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q151">
+        <v>0.25</v>
+      </c>
+      <c r="R151">
+        <v>1.975</v>
+      </c>
+      <c r="S151">
+        <v>1.825</v>
+      </c>
+      <c r="T151">
+        <v>2</v>
+      </c>
+      <c r="U151">
+        <v>2.025</v>
+      </c>
+      <c r="V151">
+        <v>1.775</v>
+      </c>
+      <c r="W151">
+        <v>-1</v>
+      </c>
+      <c r="X151">
+        <v>1.9</v>
+      </c>
+      <c r="Y151">
+        <v>-1</v>
+      </c>
+      <c r="Z151">
+        <v>0.4875</v>
+      </c>
+      <c r="AA151">
         <v>-0.5</v>
       </c>
-      <c r="R151">
-        <v>1.875</v>
-      </c>
-      <c r="S151">
-        <v>1.925</v>
-      </c>
-      <c r="T151">
-        <v>1.75</v>
-      </c>
-      <c r="U151">
-        <v>1.95</v>
-      </c>
-      <c r="V151">
-        <v>1.85</v>
-      </c>
-      <c r="W151">
-        <v>-1</v>
-      </c>
-      <c r="X151">
-        <v>1.8</v>
-      </c>
-      <c r="Y151">
-        <v>-1</v>
-      </c>
-      <c r="Z151">
-        <v>-1</v>
-      </c>
-      <c r="AA151">
-        <v>0.925</v>
-      </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC151">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13984,7 +13984,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>8031833</v>
+        <v>8031832</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13996,76 +13996,76 @@
         <v>45382.64583333334</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G152" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
         <v>51</v>
       </c>
       <c r="K152">
-        <v>4.1</v>
+        <v>1.909</v>
       </c>
       <c r="L152">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="M152">
+        <v>4</v>
+      </c>
+      <c r="N152">
         <v>1.833</v>
       </c>
-      <c r="N152">
-        <v>3.5</v>
-      </c>
       <c r="O152">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P152">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="Q152">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R152">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S152">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T152">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U152">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V152">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14511,6 +14511,80 @@
       </c>
       <c r="AC157">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:29">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>8056530</v>
+      </c>
+      <c r="C158" t="s">
+        <v>28</v>
+      </c>
+      <c r="D158" t="s">
+        <v>28</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45388.64583333334</v>
+      </c>
+      <c r="F158" t="s">
+        <v>43</v>
+      </c>
+      <c r="G158" t="s">
+        <v>36</v>
+      </c>
+      <c r="K158">
+        <v>2</v>
+      </c>
+      <c r="L158">
+        <v>2.875</v>
+      </c>
+      <c r="M158">
+        <v>3.75</v>
+      </c>
+      <c r="N158">
+        <v>2</v>
+      </c>
+      <c r="O158">
+        <v>2.875</v>
+      </c>
+      <c r="P158">
+        <v>3.75</v>
+      </c>
+      <c r="Q158">
+        <v>-0.25</v>
+      </c>
+      <c r="R158">
+        <v>1.75</v>
+      </c>
+      <c r="S158">
+        <v>2.05</v>
+      </c>
+      <c r="T158">
+        <v>2.25</v>
+      </c>
+      <c r="U158">
+        <v>2.025</v>
+      </c>
+      <c r="V158">
+        <v>1.775</v>
+      </c>
+      <c r="W158">
+        <v>0</v>
+      </c>
+      <c r="X158">
+        <v>0</v>
+      </c>
+      <c r="Y158">
+        <v>0</v>
+      </c>
+      <c r="Z158">
+        <v>0</v>
+      </c>
+      <c r="AA158">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Al Zawraa</t>
   </si>
   <si>
-    <t>Al Sinaah</t>
+    <t>Al Karkh</t>
   </si>
   <si>
-    <t>Al Karkh</t>
+    <t>Al Sinaah</t>
   </si>
   <si>
     <t>Al Shorta SC</t>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC158"/>
+  <dimension ref="A1:AC159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6729610</v>
+        <v>6729609</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -827,73 +827,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K4">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L4">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="M4">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="N4">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O4">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="P4">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S4">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T4">
         <v>2</v>
       </c>
       <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
         <v>1.8</v>
       </c>
-      <c r="V4">
-        <v>2</v>
-      </c>
       <c r="W4">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB4">
+        <v>-1</v>
+      </c>
+      <c r="AC4">
         <v>0.8</v>
-      </c>
-      <c r="AC4">
-        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6729609</v>
+        <v>6729610</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -916,73 +916,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K5">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L5">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="M5">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="N5">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="O5">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="P5">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T5">
         <v>2</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X5">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA5">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC5">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1183,7 +1183,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1981,7 +1981,7 @@
         <v>45107.44791666666</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
         <v>34</v>
@@ -2070,7 +2070,7 @@
         <v>45107.44791666666</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
         <v>43</v>
@@ -2340,7 +2340,7 @@
         <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2414,7 +2414,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6862617</v>
+        <v>6862618</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2426,76 +2426,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="M22">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N22">
+        <v>2.05</v>
+      </c>
+      <c r="O22">
+        <v>2.625</v>
+      </c>
+      <c r="P22">
+        <v>4</v>
+      </c>
+      <c r="Q22">
+        <v>-0.25</v>
+      </c>
+      <c r="R22">
+        <v>1.775</v>
+      </c>
+      <c r="S22">
+        <v>2.025</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
         <v>1.95</v>
       </c>
-      <c r="O22">
-        <v>2.8</v>
-      </c>
-      <c r="P22">
-        <v>4.1</v>
-      </c>
-      <c r="Q22">
-        <v>-0.5</v>
-      </c>
-      <c r="R22">
-        <v>2</v>
-      </c>
-      <c r="S22">
-        <v>1.8</v>
-      </c>
-      <c r="T22">
-        <v>2.25</v>
-      </c>
-      <c r="U22">
-        <v>2.025</v>
-      </c>
       <c r="V22">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2503,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6862618</v>
+        <v>6862617</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2515,76 +2515,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L23">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="M23">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N23">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O23">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P23">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>1.8</v>
+      </c>
+      <c r="T23">
+        <v>2.25</v>
+      </c>
+      <c r="U23">
+        <v>2.025</v>
+      </c>
+      <c r="V23">
         <v>1.775</v>
       </c>
-      <c r="S23">
-        <v>2.025</v>
-      </c>
-      <c r="T23">
-        <v>2</v>
-      </c>
-      <c r="U23">
-        <v>1.95</v>
-      </c>
-      <c r="V23">
-        <v>1.85</v>
-      </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y23">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2607,7 +2607,7 @@
         <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2782,7 +2782,7 @@
         <v>45117.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
         <v>37</v>
@@ -3049,7 +3049,7 @@
         <v>45118.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3497,7 +3497,7 @@
         <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3672,10 +3672,10 @@
         <v>45128.45833333334</v>
       </c>
       <c r="F36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
         <v>31</v>
-      </c>
-      <c r="G36" t="s">
-        <v>32</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -4565,7 +4565,7 @@
         <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -5262,7 +5262,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7453404</v>
+        <v>7453403</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5274,76 +5274,76 @@
         <v>45240.375</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K54">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L54">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M54">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N54">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O54">
         <v>2.9</v>
       </c>
       <c r="P54">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q54">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S54">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T54">
         <v>2</v>
       </c>
       <c r="U54">
+        <v>1.975</v>
+      </c>
+      <c r="V54">
+        <v>1.825</v>
+      </c>
+      <c r="W54">
+        <v>-1</v>
+      </c>
+      <c r="X54">
         <v>1.9</v>
       </c>
-      <c r="V54">
-        <v>1.9</v>
-      </c>
-      <c r="W54">
-        <v>-1</v>
-      </c>
-      <c r="X54">
-        <v>-1</v>
-      </c>
       <c r="Y54">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA54">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5351,7 +5351,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7453403</v>
+        <v>7453404</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5363,76 +5363,76 @@
         <v>45240.375</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K55">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L55">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M55">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N55">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O55">
         <v>2.9</v>
       </c>
       <c r="P55">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R55">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S55">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T55">
         <v>2</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V55">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5618,7 +5618,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7511490</v>
+        <v>7511489</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5630,10 +5630,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5645,41 +5645,41 @@
         <v>52</v>
       </c>
       <c r="K58">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58">
         <v>3.1</v>
       </c>
-      <c r="M58">
-        <v>1.909</v>
-      </c>
       <c r="N58">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O58">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P58">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q58">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R58">
+        <v>1.95</v>
+      </c>
+      <c r="S58">
+        <v>1.85</v>
+      </c>
+      <c r="T58">
+        <v>2.25</v>
+      </c>
+      <c r="U58">
+        <v>2.05</v>
+      </c>
+      <c r="V58">
         <v>1.75</v>
       </c>
-      <c r="S58">
-        <v>2.05</v>
-      </c>
-      <c r="T58">
-        <v>1.75</v>
-      </c>
-      <c r="U58">
-        <v>1.9</v>
-      </c>
-      <c r="V58">
-        <v>1.9</v>
-      </c>
       <c r="W58">
         <v>-1</v>
       </c>
@@ -5687,19 +5687,19 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB58">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC58">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5707,7 +5707,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7511489</v>
+        <v>7511490</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5719,10 +5719,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F59" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5734,40 +5734,40 @@
         <v>52</v>
       </c>
       <c r="K59">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L59">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M59">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N59">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="O59">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P59">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q59">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S59">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T59">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U59">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V59">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W59">
         <v>-1</v>
@@ -5776,19 +5776,19 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB59">
+        <v>0.45</v>
+      </c>
+      <c r="AC59">
         <v>-0.5</v>
-      </c>
-      <c r="AC59">
-        <v>0.375</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5989,7 +5989,7 @@
         <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6523,7 +6523,7 @@
         <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6597,7 +6597,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7555937</v>
+        <v>7555939</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6609,13 +6609,13 @@
         <v>45265.35416666666</v>
       </c>
       <c r="F69" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69">
         <v>2</v>
@@ -6624,40 +6624,40 @@
         <v>52</v>
       </c>
       <c r="K69">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="L69">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M69">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="N69">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="O69">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="P69">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R69">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S69">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T69">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V69">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6666,19 +6666,19 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>2.4</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA69">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC69">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6686,7 +6686,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7555939</v>
+        <v>7555937</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6698,13 +6698,13 @@
         <v>45265.35416666666</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>2</v>
@@ -6713,40 +6713,40 @@
         <v>52</v>
       </c>
       <c r="K70">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="L70">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M70">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="N70">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="O70">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P70">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q70">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S70">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U70">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V70">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6755,19 +6755,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="Z70">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB70">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6953,7 +6953,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7565123</v>
+        <v>7565124</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6965,56 +6965,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
         <v>52</v>
       </c>
       <c r="K73">
+        <v>1.5</v>
+      </c>
+      <c r="L73">
+        <v>3.6</v>
+      </c>
+      <c r="M73">
+        <v>6</v>
+      </c>
+      <c r="N73">
         <v>1.727</v>
       </c>
-      <c r="L73">
-        <v>3.4</v>
-      </c>
-      <c r="M73">
+      <c r="O73">
+        <v>3.5</v>
+      </c>
+      <c r="P73">
         <v>4.2</v>
       </c>
-      <c r="N73">
-        <v>1.833</v>
-      </c>
-      <c r="O73">
-        <v>3.3</v>
-      </c>
-      <c r="P73">
-        <v>3.75</v>
-      </c>
       <c r="Q73">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R73">
+        <v>2</v>
+      </c>
+      <c r="S73">
+        <v>1.8</v>
+      </c>
+      <c r="T73">
+        <v>2</v>
+      </c>
+      <c r="U73">
         <v>1.875</v>
       </c>
-      <c r="S73">
+      <c r="V73">
         <v>1.925</v>
       </c>
-      <c r="T73">
-        <v>2</v>
-      </c>
-      <c r="U73">
-        <v>1.925</v>
-      </c>
-      <c r="V73">
-        <v>1.875</v>
-      </c>
       <c r="W73">
         <v>-1</v>
       </c>
@@ -7022,19 +7022,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
+        <v>0.8</v>
+      </c>
+      <c r="AB73">
+        <v>-1</v>
+      </c>
+      <c r="AC73">
         <v>0.925</v>
-      </c>
-      <c r="AB73">
-        <v>0.925</v>
-      </c>
-      <c r="AC73">
-        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7042,7 +7042,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7565124</v>
+        <v>7565123</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7054,56 +7054,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
         <v>52</v>
       </c>
       <c r="K74">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L74">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M74">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N74">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="O74">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P74">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q74">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S74">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T74">
         <v>2</v>
       </c>
       <c r="U74">
+        <v>1.925</v>
+      </c>
+      <c r="V74">
         <v>1.875</v>
       </c>
-      <c r="V74">
-        <v>1.925</v>
-      </c>
       <c r="W74">
         <v>-1</v>
       </c>
@@ -7111,19 +7111,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7398,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7590595</v>
+        <v>7592803</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7410,49 +7410,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
         <v>52</v>
       </c>
       <c r="K78">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L78">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N78">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="O78">
+        <v>2.875</v>
+      </c>
+      <c r="P78">
         <v>3</v>
       </c>
-      <c r="P78">
-        <v>1.75</v>
-      </c>
       <c r="Q78">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S78">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U78">
         <v>2</v>
@@ -7467,19 +7467,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB78">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7592803</v>
+        <v>7590595</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7499,49 +7499,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J79" t="s">
         <v>52</v>
       </c>
       <c r="K79">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L79">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M79">
+        <v>2</v>
+      </c>
+      <c r="N79">
+        <v>4.5</v>
+      </c>
+      <c r="O79">
         <v>3</v>
       </c>
-      <c r="N79">
-        <v>2.3</v>
-      </c>
-      <c r="O79">
-        <v>2.875</v>
-      </c>
       <c r="P79">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R79">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S79">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T79">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
         <v>2</v>
@@ -7556,19 +7556,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC79">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7766,7 +7766,7 @@
         <v>45279.3125</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
         <v>29</v>
@@ -8377,7 +8377,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7613564</v>
+        <v>7615329</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8389,76 +8389,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K89">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="L89">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="M89">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N89">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O89">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P89">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q89">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R89">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S89">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T89">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U89">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V89">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W89">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB89">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8466,7 +8466,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7615329</v>
+        <v>7613564</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8478,76 +8478,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F90" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K90">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="L90">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="M90">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N90">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="O90">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P90">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Q90">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R90">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S90">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T90">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V90">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X90">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC90">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -9371,7 +9371,7 @@
         <v>47</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9623,7 +9623,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7648519</v>
+        <v>7645264</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9635,46 +9635,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K103">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L103">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M103">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="N103">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="O103">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P103">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="Q103">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R103">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S103">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T103">
         <v>2</v>
@@ -9689,22 +9689,22 @@
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y103">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
+        <v>0.825</v>
+      </c>
+      <c r="AB103">
+        <v>0</v>
+      </c>
+      <c r="AC103">
         <v>-0</v>
-      </c>
-      <c r="AB103">
-        <v>-1</v>
-      </c>
-      <c r="AC103">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9712,7 +9712,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7645264</v>
+        <v>7648519</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9724,46 +9724,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K104">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L104">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="N104">
+        <v>5.25</v>
+      </c>
+      <c r="O104">
+        <v>3.75</v>
+      </c>
+      <c r="P104">
         <v>1.533</v>
       </c>
-      <c r="O104">
-        <v>3.5</v>
-      </c>
-      <c r="P104">
-        <v>6.5</v>
-      </c>
       <c r="Q104">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R104">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T104">
         <v>2</v>
@@ -9778,22 +9778,22 @@
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10068,7 +10068,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7811882</v>
+        <v>7811883</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10080,76 +10080,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
         <v>51</v>
       </c>
       <c r="K108">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="L108">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M108">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="N108">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="O108">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P108">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R108">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S108">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T108">
         <v>1.75</v>
       </c>
       <c r="U108">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="V108">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA108">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10157,7 +10157,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7811883</v>
+        <v>7811882</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10169,76 +10169,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
         <v>51</v>
       </c>
       <c r="K109">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="L109">
+        <v>2.9</v>
+      </c>
+      <c r="M109">
         <v>3.4</v>
       </c>
-      <c r="M109">
-        <v>1.727</v>
-      </c>
       <c r="N109">
+        <v>2.05</v>
+      </c>
+      <c r="O109">
+        <v>2.9</v>
+      </c>
+      <c r="P109">
         <v>3.6</v>
       </c>
-      <c r="O109">
-        <v>3.3</v>
-      </c>
-      <c r="P109">
-        <v>1.909</v>
-      </c>
       <c r="Q109">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S109">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T109">
         <v>1.75</v>
       </c>
       <c r="U109">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="V109">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC109">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -11059,7 +11059,7 @@
         <v>45342.33333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
         <v>35</v>
@@ -12041,7 +12041,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12471,7 +12471,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7901411</v>
+        <v>7897090</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12483,76 +12483,76 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J135" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K135">
         <v>2.1</v>
       </c>
       <c r="L135">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M135">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N135">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O135">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P135">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q135">
         <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S135">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T135">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U135">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V135">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC135">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12560,7 +12560,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7897090</v>
+        <v>7901411</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12572,76 +12572,76 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K136">
         <v>2.1</v>
       </c>
       <c r="L136">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M136">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N136">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O136">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P136">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q136">
         <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S136">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T136">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U136">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V136">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y136">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB136">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13284,7 +13284,7 @@
         <v>45359.35416666666</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
         <v>33</v>
@@ -13895,7 +13895,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>8031833</v>
+        <v>8031832</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13907,76 +13907,76 @@
         <v>45382.64583333334</v>
       </c>
       <c r="F151" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
         <v>51</v>
       </c>
       <c r="K151">
-        <v>4.1</v>
+        <v>1.909</v>
       </c>
       <c r="L151">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="M151">
+        <v>4</v>
+      </c>
+      <c r="N151">
         <v>1.833</v>
       </c>
-      <c r="N151">
-        <v>3.5</v>
-      </c>
       <c r="O151">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P151">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="Q151">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R151">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S151">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T151">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U151">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V151">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB151">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13984,7 +13984,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>8031832</v>
+        <v>8031833</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13996,76 +13996,76 @@
         <v>45382.64583333334</v>
       </c>
       <c r="F152" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G152" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
         <v>51</v>
       </c>
       <c r="K152">
-        <v>1.909</v>
+        <v>4.1</v>
       </c>
       <c r="L152">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="M152">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N152">
-        <v>1.833</v>
+        <v>3.5</v>
       </c>
       <c r="O152">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P152">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q152">
+        <v>0.25</v>
+      </c>
+      <c r="R152">
+        <v>1.975</v>
+      </c>
+      <c r="S152">
+        <v>1.825</v>
+      </c>
+      <c r="T152">
+        <v>2</v>
+      </c>
+      <c r="U152">
+        <v>2.025</v>
+      </c>
+      <c r="V152">
+        <v>1.775</v>
+      </c>
+      <c r="W152">
+        <v>-1</v>
+      </c>
+      <c r="X152">
+        <v>1.9</v>
+      </c>
+      <c r="Y152">
+        <v>-1</v>
+      </c>
+      <c r="Z152">
+        <v>0.4875</v>
+      </c>
+      <c r="AA152">
         <v>-0.5</v>
       </c>
-      <c r="R152">
-        <v>1.875</v>
-      </c>
-      <c r="S152">
-        <v>1.925</v>
-      </c>
-      <c r="T152">
-        <v>1.75</v>
-      </c>
-      <c r="U152">
-        <v>1.95</v>
-      </c>
-      <c r="V152">
-        <v>1.85</v>
-      </c>
-      <c r="W152">
-        <v>-1</v>
-      </c>
-      <c r="X152">
-        <v>1.8</v>
-      </c>
-      <c r="Y152">
-        <v>-1</v>
-      </c>
-      <c r="Z152">
-        <v>-1</v>
-      </c>
-      <c r="AA152">
-        <v>0.925</v>
-      </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC152">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14174,7 +14174,7 @@
         <v>45384.375</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G154" t="s">
         <v>34</v>
@@ -14518,7 +14518,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>8056530</v>
+        <v>8052761</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14527,64 +14527,168 @@
         <v>28</v>
       </c>
       <c r="E158" s="2">
-        <v>45388.64583333334</v>
+        <v>45388.375</v>
       </c>
       <c r="F158" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G158" t="s">
-        <v>36</v>
+        <v>48</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>2</v>
+      </c>
+      <c r="J158" t="s">
+        <v>52</v>
       </c>
       <c r="K158">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="L158">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M158">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N158">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O158">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P158">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q158">
         <v>-0.25</v>
       </c>
       <c r="R158">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S158">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T158">
         <v>2.25</v>
       </c>
       <c r="U158">
+        <v>1.9</v>
+      </c>
+      <c r="V158">
+        <v>1.9</v>
+      </c>
+      <c r="W158">
+        <v>-1</v>
+      </c>
+      <c r="X158">
+        <v>-1</v>
+      </c>
+      <c r="Y158">
+        <v>2.25</v>
+      </c>
+      <c r="Z158">
+        <v>-1</v>
+      </c>
+      <c r="AA158">
+        <v>0.95</v>
+      </c>
+      <c r="AB158">
+        <v>-0.5</v>
+      </c>
+      <c r="AC158">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="159" spans="1:29">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>8056530</v>
+      </c>
+      <c r="C159" t="s">
+        <v>28</v>
+      </c>
+      <c r="D159" t="s">
+        <v>28</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45388.64583333334</v>
+      </c>
+      <c r="F159" t="s">
+        <v>43</v>
+      </c>
+      <c r="G159" t="s">
+        <v>36</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159" t="s">
+        <v>52</v>
+      </c>
+      <c r="K159">
+        <v>2</v>
+      </c>
+      <c r="L159">
+        <v>2.875</v>
+      </c>
+      <c r="M159">
+        <v>3.75</v>
+      </c>
+      <c r="N159">
+        <v>2</v>
+      </c>
+      <c r="O159">
+        <v>2.875</v>
+      </c>
+      <c r="P159">
+        <v>3.75</v>
+      </c>
+      <c r="Q159">
+        <v>-0.25</v>
+      </c>
+      <c r="R159">
+        <v>1.75</v>
+      </c>
+      <c r="S159">
+        <v>2.05</v>
+      </c>
+      <c r="T159">
+        <v>2.25</v>
+      </c>
+      <c r="U159">
         <v>2.025</v>
       </c>
-      <c r="V158">
+      <c r="V159">
         <v>1.775</v>
       </c>
-      <c r="W158">
-        <v>0</v>
-      </c>
-      <c r="X158">
-        <v>0</v>
-      </c>
-      <c r="Y158">
-        <v>0</v>
-      </c>
-      <c r="Z158">
-        <v>0</v>
-      </c>
-      <c r="AA158">
-        <v>0</v>
+      <c r="W159">
+        <v>-1</v>
+      </c>
+      <c r="X159">
+        <v>-1</v>
+      </c>
+      <c r="Y159">
+        <v>2.75</v>
+      </c>
+      <c r="Z159">
+        <v>-1</v>
+      </c>
+      <c r="AA159">
+        <v>1.05</v>
+      </c>
+      <c r="AB159">
+        <v>-1</v>
+      </c>
+      <c r="AC159">
+        <v>0.7749999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -109,10 +109,10 @@
     <t>Al Zawraa</t>
   </si>
   <si>
-    <t>Al Karkh</t>
+    <t>Al Sinaah</t>
   </si>
   <si>
-    <t>Al Sinaah</t>
+    <t>Al Karkh</t>
   </si>
   <si>
     <t>Al Shorta SC</t>
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6729609</v>
+        <v>6729610</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -827,73 +827,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K4">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L4">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="M4">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="N4">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="O4">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="P4">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T4">
         <v>2</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X4">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA4">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC4">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6729610</v>
+        <v>6729609</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -916,73 +916,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K5">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L5">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="M5">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="N5">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O5">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="P5">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S5">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T5">
         <v>2</v>
       </c>
       <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
         <v>1.8</v>
       </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
       <c r="W5">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB5">
+        <v>-1</v>
+      </c>
+      <c r="AC5">
         <v>0.8</v>
-      </c>
-      <c r="AC5">
-        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1183,7 +1183,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1969,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6838980</v>
+        <v>6838982</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1984,73 +1984,73 @@
         <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L17">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N17">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O17">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Q17">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R17">
+        <v>1.725</v>
+      </c>
+      <c r="S17">
+        <v>1.975</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
         <v>1.8</v>
       </c>
-      <c r="S17">
-        <v>2</v>
-      </c>
-      <c r="T17">
-        <v>2</v>
-      </c>
-      <c r="U17">
-        <v>1.85</v>
-      </c>
-      <c r="V17">
-        <v>1.95</v>
-      </c>
       <c r="W17">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2058,7 +2058,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6838982</v>
+        <v>6838980</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2073,73 +2073,73 @@
         <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N18">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R18">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S18">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T18">
         <v>2</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V18">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA18">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2340,7 +2340,7 @@
         <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2414,7 +2414,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6862618</v>
+        <v>6862617</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2426,76 +2426,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L22">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="M22">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N22">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O22">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P22">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>1.8</v>
+      </c>
+      <c r="T22">
+        <v>2.25</v>
+      </c>
+      <c r="U22">
+        <v>2.025</v>
+      </c>
+      <c r="V22">
         <v>1.775</v>
       </c>
-      <c r="S22">
-        <v>2.025</v>
-      </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
-      <c r="U22">
-        <v>1.95</v>
-      </c>
-      <c r="V22">
-        <v>1.85</v>
-      </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y22">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2503,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6862617</v>
+        <v>6862618</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2515,76 +2515,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="M23">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N23">
+        <v>2.05</v>
+      </c>
+      <c r="O23">
+        <v>2.625</v>
+      </c>
+      <c r="P23">
+        <v>4</v>
+      </c>
+      <c r="Q23">
+        <v>-0.25</v>
+      </c>
+      <c r="R23">
+        <v>1.775</v>
+      </c>
+      <c r="S23">
+        <v>2.025</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
         <v>1.95</v>
       </c>
-      <c r="O23">
-        <v>2.8</v>
-      </c>
-      <c r="P23">
-        <v>4.1</v>
-      </c>
-      <c r="Q23">
-        <v>-0.5</v>
-      </c>
-      <c r="R23">
-        <v>2</v>
-      </c>
-      <c r="S23">
-        <v>1.8</v>
-      </c>
-      <c r="T23">
-        <v>2.25</v>
-      </c>
-      <c r="U23">
-        <v>2.025</v>
-      </c>
       <c r="V23">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2607,7 +2607,7 @@
         <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2782,7 +2782,7 @@
         <v>45117.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
         <v>37</v>
@@ -3049,7 +3049,7 @@
         <v>45118.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3497,7 +3497,7 @@
         <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3672,10 +3672,10 @@
         <v>45128.45833333334</v>
       </c>
       <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
         <v>32</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -4565,7 +4565,7 @@
         <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -5262,7 +5262,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7453403</v>
+        <v>7453404</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5274,76 +5274,76 @@
         <v>45240.375</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K54">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L54">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M54">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N54">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O54">
         <v>2.9</v>
       </c>
       <c r="P54">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R54">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S54">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T54">
         <v>2</v>
       </c>
       <c r="U54">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z54">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5351,7 +5351,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7453404</v>
+        <v>7453403</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5363,76 +5363,76 @@
         <v>45240.375</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K55">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L55">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M55">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N55">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O55">
         <v>2.9</v>
       </c>
       <c r="P55">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q55">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S55">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T55">
         <v>2</v>
       </c>
       <c r="U55">
+        <v>1.975</v>
+      </c>
+      <c r="V55">
+        <v>1.825</v>
+      </c>
+      <c r="W55">
+        <v>-1</v>
+      </c>
+      <c r="X55">
         <v>1.9</v>
       </c>
-      <c r="V55">
-        <v>1.9</v>
-      </c>
-      <c r="W55">
-        <v>-1</v>
-      </c>
-      <c r="X55">
-        <v>-1</v>
-      </c>
       <c r="Y55">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA55">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5989,7 +5989,7 @@
         <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6523,7 +6523,7 @@
         <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -7054,7 +7054,7 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
         <v>48</v>
@@ -7398,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7592803</v>
+        <v>7590595</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7410,49 +7410,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F78" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J78" t="s">
         <v>52</v>
       </c>
       <c r="K78">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L78">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78">
+        <v>4.5</v>
+      </c>
+      <c r="O78">
         <v>3</v>
       </c>
-      <c r="N78">
-        <v>2.3</v>
-      </c>
-      <c r="O78">
-        <v>2.875</v>
-      </c>
       <c r="P78">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R78">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S78">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
         <v>2</v>
@@ -7467,19 +7467,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7590595</v>
+        <v>7592803</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7499,49 +7499,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G79" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
         <v>52</v>
       </c>
       <c r="K79">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L79">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N79">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="O79">
+        <v>2.875</v>
+      </c>
+      <c r="P79">
         <v>3</v>
       </c>
-      <c r="P79">
-        <v>1.75</v>
-      </c>
       <c r="Q79">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S79">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U79">
         <v>2</v>
@@ -7556,19 +7556,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB79">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7766,7 +7766,7 @@
         <v>45279.3125</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
         <v>29</v>
@@ -8555,7 +8555,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7618726</v>
+        <v>7618724</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8567,76 +8567,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K91">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L91">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M91">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N91">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="O91">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P91">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q91">
         <v>0</v>
       </c>
       <c r="R91">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S91">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T91">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U91">
+        <v>2</v>
+      </c>
+      <c r="V91">
         <v>1.8</v>
       </c>
-      <c r="V91">
-        <v>2</v>
-      </c>
       <c r="W91">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA91">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC91">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8644,7 +8644,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7618724</v>
+        <v>7618726</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8656,76 +8656,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92" t="s">
+        <v>52</v>
+      </c>
+      <c r="K92">
+        <v>2.375</v>
+      </c>
+      <c r="L92">
+        <v>2.8</v>
+      </c>
+      <c r="M92">
         <v>3</v>
       </c>
-      <c r="I92">
-        <v>1</v>
-      </c>
-      <c r="J92" t="s">
-        <v>53</v>
-      </c>
-      <c r="K92">
-        <v>2.875</v>
-      </c>
-      <c r="L92">
-        <v>2.75</v>
-      </c>
-      <c r="M92">
-        <v>2.5</v>
-      </c>
       <c r="N92">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="O92">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P92">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q92">
         <v>0</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S92">
+        <v>2.05</v>
+      </c>
+      <c r="T92">
+        <v>1.75</v>
+      </c>
+      <c r="U92">
         <v>1.8</v>
       </c>
-      <c r="T92">
-        <v>2</v>
-      </c>
-      <c r="U92">
-        <v>2</v>
-      </c>
       <c r="V92">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W92">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -9371,7 +9371,7 @@
         <v>47</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9623,7 +9623,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7645264</v>
+        <v>7648519</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9635,46 +9635,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K103">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L103">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="N103">
+        <v>5.25</v>
+      </c>
+      <c r="O103">
+        <v>3.75</v>
+      </c>
+      <c r="P103">
         <v>1.533</v>
       </c>
-      <c r="O103">
-        <v>3.5</v>
-      </c>
-      <c r="P103">
-        <v>6.5</v>
-      </c>
       <c r="Q103">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R103">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S103">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T103">
         <v>2</v>
@@ -9689,22 +9689,22 @@
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA103">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9712,7 +9712,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7648519</v>
+        <v>7645264</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9724,46 +9724,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K104">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L104">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M104">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="N104">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="O104">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P104">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="Q104">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R104">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S104">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T104">
         <v>2</v>
@@ -9778,22 +9778,22 @@
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y104">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
+        <v>0.825</v>
+      </c>
+      <c r="AB104">
+        <v>0</v>
+      </c>
+      <c r="AC104">
         <v>-0</v>
-      </c>
-      <c r="AB104">
-        <v>-1</v>
-      </c>
-      <c r="AC104">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10080,7 +10080,7 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
         <v>42</v>
@@ -11059,7 +11059,7 @@
         <v>45342.33333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
         <v>35</v>
@@ -12041,7 +12041,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12471,7 +12471,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7897090</v>
+        <v>7901411</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12483,76 +12483,76 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K135">
         <v>2.1</v>
       </c>
       <c r="L135">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M135">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N135">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O135">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P135">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q135">
         <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S135">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T135">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U135">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V135">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y135">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB135">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12560,7 +12560,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7901411</v>
+        <v>7897090</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12572,76 +12572,76 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F136" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K136">
         <v>2.1</v>
       </c>
       <c r="L136">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M136">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N136">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O136">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P136">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q136">
         <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S136">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T136">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U136">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V136">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC136">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13284,7 +13284,7 @@
         <v>45359.35416666666</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
         <v>33</v>
@@ -13895,7 +13895,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>8031832</v>
+        <v>8031833</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13907,76 +13907,76 @@
         <v>45382.64583333334</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G151" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="s">
         <v>51</v>
       </c>
       <c r="K151">
-        <v>1.909</v>
+        <v>4.1</v>
       </c>
       <c r="L151">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="M151">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N151">
-        <v>1.833</v>
+        <v>3.5</v>
       </c>
       <c r="O151">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P151">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q151">
+        <v>0.25</v>
+      </c>
+      <c r="R151">
+        <v>1.975</v>
+      </c>
+      <c r="S151">
+        <v>1.825</v>
+      </c>
+      <c r="T151">
+        <v>2</v>
+      </c>
+      <c r="U151">
+        <v>2.025</v>
+      </c>
+      <c r="V151">
+        <v>1.775</v>
+      </c>
+      <c r="W151">
+        <v>-1</v>
+      </c>
+      <c r="X151">
+        <v>1.9</v>
+      </c>
+      <c r="Y151">
+        <v>-1</v>
+      </c>
+      <c r="Z151">
+        <v>0.4875</v>
+      </c>
+      <c r="AA151">
         <v>-0.5</v>
       </c>
-      <c r="R151">
-        <v>1.875</v>
-      </c>
-      <c r="S151">
-        <v>1.925</v>
-      </c>
-      <c r="T151">
-        <v>1.75</v>
-      </c>
-      <c r="U151">
-        <v>1.95</v>
-      </c>
-      <c r="V151">
-        <v>1.85</v>
-      </c>
-      <c r="W151">
-        <v>-1</v>
-      </c>
-      <c r="X151">
-        <v>1.8</v>
-      </c>
-      <c r="Y151">
-        <v>-1</v>
-      </c>
-      <c r="Z151">
-        <v>-1</v>
-      </c>
-      <c r="AA151">
-        <v>0.925</v>
-      </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC151">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13984,7 +13984,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>8031833</v>
+        <v>8031832</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13996,76 +13996,76 @@
         <v>45382.64583333334</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G152" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
         <v>51</v>
       </c>
       <c r="K152">
-        <v>4.1</v>
+        <v>1.909</v>
       </c>
       <c r="L152">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="M152">
+        <v>4</v>
+      </c>
+      <c r="N152">
         <v>1.833</v>
       </c>
-      <c r="N152">
-        <v>3.5</v>
-      </c>
       <c r="O152">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P152">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="Q152">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R152">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S152">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T152">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U152">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V152">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14174,7 +14174,7 @@
         <v>45384.375</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G154" t="s">
         <v>34</v>

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -109,10 +109,10 @@
     <t>Al Zawraa</t>
   </si>
   <si>
-    <t>Al Sinaah</t>
+    <t>Al Karkh</t>
   </si>
   <si>
-    <t>Al Karkh</t>
+    <t>Al Sinaah</t>
   </si>
   <si>
     <t>Al Shorta SC</t>
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6729610</v>
+        <v>6729609</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -827,73 +827,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K4">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L4">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="M4">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="N4">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O4">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="P4">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S4">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T4">
         <v>2</v>
       </c>
       <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
         <v>1.8</v>
       </c>
-      <c r="V4">
-        <v>2</v>
-      </c>
       <c r="W4">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB4">
+        <v>-1</v>
+      </c>
+      <c r="AC4">
         <v>0.8</v>
-      </c>
-      <c r="AC4">
-        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6729609</v>
+        <v>6729610</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -916,73 +916,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K5">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L5">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="M5">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="N5">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="O5">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="P5">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T5">
         <v>2</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X5">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA5">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC5">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1183,7 +1183,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1969,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6838982</v>
+        <v>6838980</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1984,73 +1984,73 @@
         <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K17">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N17">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Q17">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S17">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T17">
         <v>2</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA17">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2058,7 +2058,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6838980</v>
+        <v>6838982</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2073,73 +2073,73 @@
         <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K18">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L18">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N18">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O18">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Q18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
+        <v>1.725</v>
+      </c>
+      <c r="S18">
+        <v>1.975</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="V18">
         <v>1.8</v>
       </c>
-      <c r="S18">
-        <v>2</v>
-      </c>
-      <c r="T18">
-        <v>2</v>
-      </c>
-      <c r="U18">
-        <v>1.85</v>
-      </c>
-      <c r="V18">
-        <v>1.95</v>
-      </c>
       <c r="W18">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z18">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC18">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2340,7 +2340,7 @@
         <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2414,7 +2414,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6862617</v>
+        <v>6862618</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2426,76 +2426,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="M22">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N22">
+        <v>2.05</v>
+      </c>
+      <c r="O22">
+        <v>2.625</v>
+      </c>
+      <c r="P22">
+        <v>4</v>
+      </c>
+      <c r="Q22">
+        <v>-0.25</v>
+      </c>
+      <c r="R22">
+        <v>1.775</v>
+      </c>
+      <c r="S22">
+        <v>2.025</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
         <v>1.95</v>
       </c>
-      <c r="O22">
-        <v>2.8</v>
-      </c>
-      <c r="P22">
-        <v>4.1</v>
-      </c>
-      <c r="Q22">
-        <v>-0.5</v>
-      </c>
-      <c r="R22">
-        <v>2</v>
-      </c>
-      <c r="S22">
-        <v>1.8</v>
-      </c>
-      <c r="T22">
-        <v>2.25</v>
-      </c>
-      <c r="U22">
-        <v>2.025</v>
-      </c>
       <c r="V22">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2503,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6862618</v>
+        <v>6862617</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2515,76 +2515,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L23">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="M23">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N23">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O23">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P23">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>1.8</v>
+      </c>
+      <c r="T23">
+        <v>2.25</v>
+      </c>
+      <c r="U23">
+        <v>2.025</v>
+      </c>
+      <c r="V23">
         <v>1.775</v>
       </c>
-      <c r="S23">
-        <v>2.025</v>
-      </c>
-      <c r="T23">
-        <v>2</v>
-      </c>
-      <c r="U23">
-        <v>1.95</v>
-      </c>
-      <c r="V23">
-        <v>1.85</v>
-      </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y23">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2607,7 +2607,7 @@
         <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2782,7 +2782,7 @@
         <v>45117.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
         <v>37</v>
@@ -3049,7 +3049,7 @@
         <v>45118.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3497,7 +3497,7 @@
         <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3672,10 +3672,10 @@
         <v>45128.45833333334</v>
       </c>
       <c r="F36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
         <v>31</v>
-      </c>
-      <c r="G36" t="s">
-        <v>32</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -4565,7 +4565,7 @@
         <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -5989,7 +5989,7 @@
         <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6523,7 +6523,7 @@
         <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6953,7 +6953,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7565124</v>
+        <v>7565123</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6965,56 +6965,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
         <v>52</v>
       </c>
       <c r="K73">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L73">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M73">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N73">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="O73">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P73">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q73">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R73">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S73">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T73">
         <v>2</v>
       </c>
       <c r="U73">
+        <v>1.925</v>
+      </c>
+      <c r="V73">
         <v>1.875</v>
       </c>
-      <c r="V73">
-        <v>1.925</v>
-      </c>
       <c r="W73">
         <v>-1</v>
       </c>
@@ -7022,19 +7022,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC73">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7042,7 +7042,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7565123</v>
+        <v>7565124</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7054,56 +7054,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
         <v>52</v>
       </c>
       <c r="K74">
+        <v>1.5</v>
+      </c>
+      <c r="L74">
+        <v>3.6</v>
+      </c>
+      <c r="M74">
+        <v>6</v>
+      </c>
+      <c r="N74">
         <v>1.727</v>
       </c>
-      <c r="L74">
-        <v>3.4</v>
-      </c>
-      <c r="M74">
+      <c r="O74">
+        <v>3.5</v>
+      </c>
+      <c r="P74">
         <v>4.2</v>
       </c>
-      <c r="N74">
-        <v>1.833</v>
-      </c>
-      <c r="O74">
-        <v>3.3</v>
-      </c>
-      <c r="P74">
-        <v>3.75</v>
-      </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R74">
+        <v>2</v>
+      </c>
+      <c r="S74">
+        <v>1.8</v>
+      </c>
+      <c r="T74">
+        <v>2</v>
+      </c>
+      <c r="U74">
         <v>1.875</v>
       </c>
-      <c r="S74">
+      <c r="V74">
         <v>1.925</v>
       </c>
-      <c r="T74">
-        <v>2</v>
-      </c>
-      <c r="U74">
-        <v>1.925</v>
-      </c>
-      <c r="V74">
-        <v>1.875</v>
-      </c>
       <c r="W74">
         <v>-1</v>
       </c>
@@ -7111,19 +7111,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
+        <v>0.8</v>
+      </c>
+      <c r="AB74">
+        <v>-1</v>
+      </c>
+      <c r="AC74">
         <v>0.925</v>
-      </c>
-      <c r="AB74">
-        <v>0.925</v>
-      </c>
-      <c r="AC74">
-        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7398,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7590595</v>
+        <v>7592803</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7410,49 +7410,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
         <v>52</v>
       </c>
       <c r="K78">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L78">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N78">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="O78">
+        <v>2.875</v>
+      </c>
+      <c r="P78">
         <v>3</v>
       </c>
-      <c r="P78">
-        <v>1.75</v>
-      </c>
       <c r="Q78">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S78">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U78">
         <v>2</v>
@@ -7467,19 +7467,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB78">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7592803</v>
+        <v>7590595</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7499,49 +7499,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J79" t="s">
         <v>52</v>
       </c>
       <c r="K79">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L79">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M79">
+        <v>2</v>
+      </c>
+      <c r="N79">
+        <v>4.5</v>
+      </c>
+      <c r="O79">
         <v>3</v>
       </c>
-      <c r="N79">
-        <v>2.3</v>
-      </c>
-      <c r="O79">
-        <v>2.875</v>
-      </c>
       <c r="P79">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R79">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S79">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T79">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
         <v>2</v>
@@ -7556,19 +7556,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC79">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7766,7 +7766,7 @@
         <v>45279.3125</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
         <v>29</v>
@@ -8555,7 +8555,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7618724</v>
+        <v>7618726</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8567,76 +8567,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91" t="s">
+        <v>52</v>
+      </c>
+      <c r="K91">
+        <v>2.375</v>
+      </c>
+      <c r="L91">
+        <v>2.8</v>
+      </c>
+      <c r="M91">
         <v>3</v>
       </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
-      <c r="J91" t="s">
-        <v>53</v>
-      </c>
-      <c r="K91">
-        <v>2.875</v>
-      </c>
-      <c r="L91">
-        <v>2.75</v>
-      </c>
-      <c r="M91">
-        <v>2.5</v>
-      </c>
       <c r="N91">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="O91">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P91">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q91">
         <v>0</v>
       </c>
       <c r="R91">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S91">
+        <v>2.05</v>
+      </c>
+      <c r="T91">
+        <v>1.75</v>
+      </c>
+      <c r="U91">
         <v>1.8</v>
       </c>
-      <c r="T91">
-        <v>2</v>
-      </c>
-      <c r="U91">
-        <v>2</v>
-      </c>
       <c r="V91">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W91">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8644,7 +8644,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7618726</v>
+        <v>7618724</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8656,76 +8656,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K92">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L92">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M92">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N92">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="O92">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P92">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q92">
         <v>0</v>
       </c>
       <c r="R92">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S92">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T92">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U92">
+        <v>2</v>
+      </c>
+      <c r="V92">
         <v>1.8</v>
       </c>
-      <c r="V92">
-        <v>2</v>
-      </c>
       <c r="W92">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA92">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC92">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -9371,7 +9371,7 @@
         <v>47</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9623,7 +9623,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7648519</v>
+        <v>7645264</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9635,46 +9635,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K103">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L103">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M103">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="N103">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="O103">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P103">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="Q103">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R103">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S103">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T103">
         <v>2</v>
@@ -9689,22 +9689,22 @@
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y103">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
+        <v>0.825</v>
+      </c>
+      <c r="AB103">
+        <v>0</v>
+      </c>
+      <c r="AC103">
         <v>-0</v>
-      </c>
-      <c r="AB103">
-        <v>-1</v>
-      </c>
-      <c r="AC103">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9712,7 +9712,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7645264</v>
+        <v>7648519</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9724,46 +9724,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K104">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L104">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="N104">
+        <v>5.25</v>
+      </c>
+      <c r="O104">
+        <v>3.75</v>
+      </c>
+      <c r="P104">
         <v>1.533</v>
       </c>
-      <c r="O104">
-        <v>3.5</v>
-      </c>
-      <c r="P104">
-        <v>6.5</v>
-      </c>
       <c r="Q104">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R104">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T104">
         <v>2</v>
@@ -9778,22 +9778,22 @@
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10068,7 +10068,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7811883</v>
+        <v>7811882</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10080,76 +10080,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G108" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
         <v>51</v>
       </c>
       <c r="K108">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="L108">
+        <v>2.9</v>
+      </c>
+      <c r="M108">
         <v>3.4</v>
       </c>
-      <c r="M108">
-        <v>1.727</v>
-      </c>
       <c r="N108">
+        <v>2.05</v>
+      </c>
+      <c r="O108">
+        <v>2.9</v>
+      </c>
+      <c r="P108">
         <v>3.6</v>
       </c>
-      <c r="O108">
-        <v>3.3</v>
-      </c>
-      <c r="P108">
-        <v>1.909</v>
-      </c>
       <c r="Q108">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S108">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T108">
         <v>1.75</v>
       </c>
       <c r="U108">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="V108">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC108">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10157,7 +10157,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7811882</v>
+        <v>7811883</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10169,76 +10169,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
         <v>51</v>
       </c>
       <c r="K109">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="L109">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M109">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="N109">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="O109">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P109">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q109">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R109">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S109">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T109">
         <v>1.75</v>
       </c>
       <c r="U109">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="V109">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA109">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -11059,7 +11059,7 @@
         <v>45342.33333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
         <v>35</v>
@@ -12041,7 +12041,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12572,7 +12572,7 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
         <v>39</v>
@@ -13284,7 +13284,7 @@
         <v>45359.35416666666</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
         <v>33</v>
@@ -13895,7 +13895,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>8031833</v>
+        <v>8031832</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13907,76 +13907,76 @@
         <v>45382.64583333334</v>
       </c>
       <c r="F151" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
         <v>51</v>
       </c>
       <c r="K151">
-        <v>4.1</v>
+        <v>1.909</v>
       </c>
       <c r="L151">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="M151">
+        <v>4</v>
+      </c>
+      <c r="N151">
         <v>1.833</v>
       </c>
-      <c r="N151">
-        <v>3.5</v>
-      </c>
       <c r="O151">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P151">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="Q151">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R151">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S151">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T151">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U151">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V151">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB151">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13984,7 +13984,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>8031832</v>
+        <v>8031833</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13996,76 +13996,76 @@
         <v>45382.64583333334</v>
       </c>
       <c r="F152" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G152" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
         <v>51</v>
       </c>
       <c r="K152">
-        <v>1.909</v>
+        <v>4.1</v>
       </c>
       <c r="L152">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="M152">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N152">
-        <v>1.833</v>
+        <v>3.5</v>
       </c>
       <c r="O152">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P152">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q152">
+        <v>0.25</v>
+      </c>
+      <c r="R152">
+        <v>1.975</v>
+      </c>
+      <c r="S152">
+        <v>1.825</v>
+      </c>
+      <c r="T152">
+        <v>2</v>
+      </c>
+      <c r="U152">
+        <v>2.025</v>
+      </c>
+      <c r="V152">
+        <v>1.775</v>
+      </c>
+      <c r="W152">
+        <v>-1</v>
+      </c>
+      <c r="X152">
+        <v>1.9</v>
+      </c>
+      <c r="Y152">
+        <v>-1</v>
+      </c>
+      <c r="Z152">
+        <v>0.4875</v>
+      </c>
+      <c r="AA152">
         <v>-0.5</v>
       </c>
-      <c r="R152">
-        <v>1.875</v>
-      </c>
-      <c r="S152">
-        <v>1.925</v>
-      </c>
-      <c r="T152">
-        <v>1.75</v>
-      </c>
-      <c r="U152">
-        <v>1.95</v>
-      </c>
-      <c r="V152">
-        <v>1.85</v>
-      </c>
-      <c r="W152">
-        <v>-1</v>
-      </c>
-      <c r="X152">
-        <v>1.8</v>
-      </c>
-      <c r="Y152">
-        <v>-1</v>
-      </c>
-      <c r="Z152">
-        <v>-1</v>
-      </c>
-      <c r="AA152">
-        <v>0.925</v>
-      </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC152">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14174,7 +14174,7 @@
         <v>45384.375</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G154" t="s">
         <v>34</v>

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -1969,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6838980</v>
+        <v>6838982</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1981,76 +1981,76 @@
         <v>45107.44791666666</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L17">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N17">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O17">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Q17">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R17">
+        <v>1.725</v>
+      </c>
+      <c r="S17">
+        <v>1.975</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
         <v>1.8</v>
       </c>
-      <c r="S17">
-        <v>2</v>
-      </c>
-      <c r="T17">
-        <v>2</v>
-      </c>
-      <c r="U17">
-        <v>1.85</v>
-      </c>
-      <c r="V17">
-        <v>1.95</v>
-      </c>
       <c r="W17">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2058,7 +2058,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6838982</v>
+        <v>6838980</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2070,76 +2070,76 @@
         <v>45107.44791666666</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N18">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R18">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S18">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T18">
         <v>2</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V18">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA18">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -5618,7 +5618,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7511489</v>
+        <v>7511490</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5630,10 +5630,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5645,40 +5645,40 @@
         <v>52</v>
       </c>
       <c r="K58">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L58">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M58">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N58">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="O58">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P58">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q58">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R58">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S58">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T58">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U58">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V58">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W58">
         <v>-1</v>
@@ -5687,19 +5687,19 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB58">
+        <v>0.45</v>
+      </c>
+      <c r="AC58">
         <v>-0.5</v>
-      </c>
-      <c r="AC58">
-        <v>0.375</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5707,7 +5707,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7511490</v>
+        <v>7511489</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5719,10 +5719,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5734,41 +5734,41 @@
         <v>52</v>
       </c>
       <c r="K59">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="M59">
         <v>3.1</v>
       </c>
-      <c r="M59">
-        <v>1.909</v>
-      </c>
       <c r="N59">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O59">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P59">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R59">
+        <v>1.95</v>
+      </c>
+      <c r="S59">
+        <v>1.85</v>
+      </c>
+      <c r="T59">
+        <v>2.25</v>
+      </c>
+      <c r="U59">
+        <v>2.05</v>
+      </c>
+      <c r="V59">
         <v>1.75</v>
       </c>
-      <c r="S59">
-        <v>2.05</v>
-      </c>
-      <c r="T59">
-        <v>1.75</v>
-      </c>
-      <c r="U59">
-        <v>1.9</v>
-      </c>
-      <c r="V59">
-        <v>1.9</v>
-      </c>
       <c r="W59">
         <v>-1</v>
       </c>
@@ -5776,19 +5776,19 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB59">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC59">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -6953,7 +6953,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7565123</v>
+        <v>7565124</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6965,56 +6965,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
         <v>52</v>
       </c>
       <c r="K73">
+        <v>1.5</v>
+      </c>
+      <c r="L73">
+        <v>3.6</v>
+      </c>
+      <c r="M73">
+        <v>6</v>
+      </c>
+      <c r="N73">
         <v>1.727</v>
       </c>
-      <c r="L73">
-        <v>3.4</v>
-      </c>
-      <c r="M73">
+      <c r="O73">
+        <v>3.5</v>
+      </c>
+      <c r="P73">
         <v>4.2</v>
       </c>
-      <c r="N73">
-        <v>1.833</v>
-      </c>
-      <c r="O73">
-        <v>3.3</v>
-      </c>
-      <c r="P73">
-        <v>3.75</v>
-      </c>
       <c r="Q73">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R73">
+        <v>2</v>
+      </c>
+      <c r="S73">
+        <v>1.8</v>
+      </c>
+      <c r="T73">
+        <v>2</v>
+      </c>
+      <c r="U73">
         <v>1.875</v>
       </c>
-      <c r="S73">
+      <c r="V73">
         <v>1.925</v>
       </c>
-      <c r="T73">
-        <v>2</v>
-      </c>
-      <c r="U73">
-        <v>1.925</v>
-      </c>
-      <c r="V73">
-        <v>1.875</v>
-      </c>
       <c r="W73">
         <v>-1</v>
       </c>
@@ -7022,19 +7022,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
+        <v>0.8</v>
+      </c>
+      <c r="AB73">
+        <v>-1</v>
+      </c>
+      <c r="AC73">
         <v>0.925</v>
-      </c>
-      <c r="AB73">
-        <v>0.925</v>
-      </c>
-      <c r="AC73">
-        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7042,7 +7042,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7565124</v>
+        <v>7565123</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7054,56 +7054,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
         <v>52</v>
       </c>
       <c r="K74">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L74">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M74">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N74">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="O74">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P74">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q74">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S74">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T74">
         <v>2</v>
       </c>
       <c r="U74">
+        <v>1.925</v>
+      </c>
+      <c r="V74">
         <v>1.875</v>
       </c>
-      <c r="V74">
-        <v>1.925</v>
-      </c>
       <c r="W74">
         <v>-1</v>
       </c>
@@ -7111,19 +7111,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -8377,7 +8377,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7615329</v>
+        <v>7613564</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8389,76 +8389,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F89" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K89">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="L89">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="M89">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N89">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="O89">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P89">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Q89">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R89">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S89">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T89">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U89">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V89">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X89">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC89">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8466,7 +8466,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7613564</v>
+        <v>7615329</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8478,76 +8478,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K90">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="L90">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="M90">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N90">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O90">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P90">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q90">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R90">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S90">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T90">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U90">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W90">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB90">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8555,7 +8555,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7618726</v>
+        <v>7618724</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8567,76 +8567,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K91">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L91">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M91">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N91">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="O91">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P91">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q91">
         <v>0</v>
       </c>
       <c r="R91">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S91">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T91">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U91">
+        <v>2</v>
+      </c>
+      <c r="V91">
         <v>1.8</v>
       </c>
-      <c r="V91">
-        <v>2</v>
-      </c>
       <c r="W91">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA91">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC91">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8644,7 +8644,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7618724</v>
+        <v>7618726</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8656,76 +8656,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92" t="s">
+        <v>52</v>
+      </c>
+      <c r="K92">
+        <v>2.375</v>
+      </c>
+      <c r="L92">
+        <v>2.8</v>
+      </c>
+      <c r="M92">
         <v>3</v>
       </c>
-      <c r="I92">
-        <v>1</v>
-      </c>
-      <c r="J92" t="s">
-        <v>53</v>
-      </c>
-      <c r="K92">
-        <v>2.875</v>
-      </c>
-      <c r="L92">
-        <v>2.75</v>
-      </c>
-      <c r="M92">
-        <v>2.5</v>
-      </c>
       <c r="N92">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="O92">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P92">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q92">
         <v>0</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S92">
+        <v>2.05</v>
+      </c>
+      <c r="T92">
+        <v>1.75</v>
+      </c>
+      <c r="U92">
         <v>1.8</v>
       </c>
-      <c r="T92">
-        <v>2</v>
-      </c>
-      <c r="U92">
-        <v>2</v>
-      </c>
       <c r="V92">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W92">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -9623,7 +9623,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7645264</v>
+        <v>7648519</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9635,46 +9635,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K103">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L103">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="N103">
+        <v>5.25</v>
+      </c>
+      <c r="O103">
+        <v>3.75</v>
+      </c>
+      <c r="P103">
         <v>1.533</v>
       </c>
-      <c r="O103">
-        <v>3.5</v>
-      </c>
-      <c r="P103">
-        <v>6.5</v>
-      </c>
       <c r="Q103">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R103">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S103">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T103">
         <v>2</v>
@@ -9689,22 +9689,22 @@
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA103">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9712,7 +9712,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7648519</v>
+        <v>7645264</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9724,46 +9724,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K104">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L104">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M104">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="N104">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="O104">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P104">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="Q104">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R104">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S104">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T104">
         <v>2</v>
@@ -9778,22 +9778,22 @@
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y104">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
+        <v>0.825</v>
+      </c>
+      <c r="AB104">
+        <v>0</v>
+      </c>
+      <c r="AC104">
         <v>-0</v>
-      </c>
-      <c r="AB104">
-        <v>-1</v>
-      </c>
-      <c r="AC104">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -13895,7 +13895,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>8031832</v>
+        <v>8031833</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13907,76 +13907,76 @@
         <v>45382.64583333334</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G151" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="s">
         <v>51</v>
       </c>
       <c r="K151">
-        <v>1.909</v>
+        <v>4.1</v>
       </c>
       <c r="L151">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="M151">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N151">
-        <v>1.833</v>
+        <v>3.5</v>
       </c>
       <c r="O151">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P151">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q151">
+        <v>0.25</v>
+      </c>
+      <c r="R151">
+        <v>1.975</v>
+      </c>
+      <c r="S151">
+        <v>1.825</v>
+      </c>
+      <c r="T151">
+        <v>2</v>
+      </c>
+      <c r="U151">
+        <v>2.025</v>
+      </c>
+      <c r="V151">
+        <v>1.775</v>
+      </c>
+      <c r="W151">
+        <v>-1</v>
+      </c>
+      <c r="X151">
+        <v>1.9</v>
+      </c>
+      <c r="Y151">
+        <v>-1</v>
+      </c>
+      <c r="Z151">
+        <v>0.4875</v>
+      </c>
+      <c r="AA151">
         <v>-0.5</v>
       </c>
-      <c r="R151">
-        <v>1.875</v>
-      </c>
-      <c r="S151">
-        <v>1.925</v>
-      </c>
-      <c r="T151">
-        <v>1.75</v>
-      </c>
-      <c r="U151">
-        <v>1.95</v>
-      </c>
-      <c r="V151">
-        <v>1.85</v>
-      </c>
-      <c r="W151">
-        <v>-1</v>
-      </c>
-      <c r="X151">
-        <v>1.8</v>
-      </c>
-      <c r="Y151">
-        <v>-1</v>
-      </c>
-      <c r="Z151">
-        <v>-1</v>
-      </c>
-      <c r="AA151">
-        <v>0.925</v>
-      </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC151">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13984,7 +13984,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>8031833</v>
+        <v>8031832</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13996,76 +13996,76 @@
         <v>45382.64583333334</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G152" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
         <v>51</v>
       </c>
       <c r="K152">
-        <v>4.1</v>
+        <v>1.909</v>
       </c>
       <c r="L152">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="M152">
+        <v>4</v>
+      </c>
+      <c r="N152">
         <v>1.833</v>
       </c>
-      <c r="N152">
-        <v>3.5</v>
-      </c>
       <c r="O152">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P152">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="Q152">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R152">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S152">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T152">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U152">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V152">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:29">

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -109,10 +109,10 @@
     <t>Al Zawraa</t>
   </si>
   <si>
-    <t>Al Karkh</t>
+    <t>Al Sinaah</t>
   </si>
   <si>
-    <t>Al Sinaah</t>
+    <t>Al Karkh</t>
   </si>
   <si>
     <t>Al Shorta SC</t>
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6729609</v>
+        <v>6729610</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -827,73 +827,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K4">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L4">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="M4">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="N4">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="O4">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="P4">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T4">
         <v>2</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X4">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA4">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC4">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6729610</v>
+        <v>6729609</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -916,73 +916,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K5">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L5">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="M5">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="N5">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O5">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="P5">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S5">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T5">
         <v>2</v>
       </c>
       <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
         <v>1.8</v>
       </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
       <c r="W5">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB5">
+        <v>-1</v>
+      </c>
+      <c r="AC5">
         <v>0.8</v>
-      </c>
-      <c r="AC5">
-        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1183,7 +1183,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1981,7 +1981,7 @@
         <v>45107.44791666666</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
         <v>43</v>
@@ -2070,7 +2070,7 @@
         <v>45107.44791666666</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
         <v>34</v>
@@ -2340,7 +2340,7 @@
         <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2607,7 +2607,7 @@
         <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2782,7 +2782,7 @@
         <v>45117.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
         <v>37</v>
@@ -3049,7 +3049,7 @@
         <v>45118.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3497,7 +3497,7 @@
         <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3672,10 +3672,10 @@
         <v>45128.45833333334</v>
       </c>
       <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
         <v>32</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -4565,7 +4565,7 @@
         <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -5262,7 +5262,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7453404</v>
+        <v>7453403</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5274,76 +5274,76 @@
         <v>45240.375</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K54">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L54">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M54">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N54">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O54">
         <v>2.9</v>
       </c>
       <c r="P54">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q54">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S54">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T54">
         <v>2</v>
       </c>
       <c r="U54">
+        <v>1.975</v>
+      </c>
+      <c r="V54">
+        <v>1.825</v>
+      </c>
+      <c r="W54">
+        <v>-1</v>
+      </c>
+      <c r="X54">
         <v>1.9</v>
       </c>
-      <c r="V54">
-        <v>1.9</v>
-      </c>
-      <c r="W54">
-        <v>-1</v>
-      </c>
-      <c r="X54">
-        <v>-1</v>
-      </c>
       <c r="Y54">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA54">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5351,7 +5351,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7453403</v>
+        <v>7453404</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5363,76 +5363,76 @@
         <v>45240.375</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K55">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L55">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M55">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N55">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O55">
         <v>2.9</v>
       </c>
       <c r="P55">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R55">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S55">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T55">
         <v>2</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V55">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5618,7 +5618,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7511490</v>
+        <v>7511489</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5630,10 +5630,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5645,41 +5645,41 @@
         <v>52</v>
       </c>
       <c r="K58">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58">
         <v>3.1</v>
       </c>
-      <c r="M58">
-        <v>1.909</v>
-      </c>
       <c r="N58">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O58">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P58">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q58">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R58">
+        <v>1.95</v>
+      </c>
+      <c r="S58">
+        <v>1.85</v>
+      </c>
+      <c r="T58">
+        <v>2.25</v>
+      </c>
+      <c r="U58">
+        <v>2.05</v>
+      </c>
+      <c r="V58">
         <v>1.75</v>
       </c>
-      <c r="S58">
-        <v>2.05</v>
-      </c>
-      <c r="T58">
-        <v>1.75</v>
-      </c>
-      <c r="U58">
-        <v>1.9</v>
-      </c>
-      <c r="V58">
-        <v>1.9</v>
-      </c>
       <c r="W58">
         <v>-1</v>
       </c>
@@ -5687,19 +5687,19 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB58">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC58">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5707,7 +5707,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7511489</v>
+        <v>7511490</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5719,10 +5719,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F59" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5734,40 +5734,40 @@
         <v>52</v>
       </c>
       <c r="K59">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L59">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M59">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N59">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="O59">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P59">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q59">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S59">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T59">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U59">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V59">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W59">
         <v>-1</v>
@@ -5776,19 +5776,19 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB59">
+        <v>0.45</v>
+      </c>
+      <c r="AC59">
         <v>-0.5</v>
-      </c>
-      <c r="AC59">
-        <v>0.375</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5989,7 +5989,7 @@
         <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6523,7 +6523,7 @@
         <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -7054,7 +7054,7 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
         <v>48</v>
@@ -7766,7 +7766,7 @@
         <v>45279.3125</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
         <v>29</v>
@@ -9371,7 +9371,7 @@
         <v>47</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9623,7 +9623,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7648519</v>
+        <v>7645264</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9635,46 +9635,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K103">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L103">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M103">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="N103">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="O103">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P103">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="Q103">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R103">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S103">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T103">
         <v>2</v>
@@ -9689,22 +9689,22 @@
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y103">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
+        <v>0.825</v>
+      </c>
+      <c r="AB103">
+        <v>0</v>
+      </c>
+      <c r="AC103">
         <v>-0</v>
-      </c>
-      <c r="AB103">
-        <v>-1</v>
-      </c>
-      <c r="AC103">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9712,7 +9712,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7645264</v>
+        <v>7648519</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9724,46 +9724,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K104">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L104">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="N104">
+        <v>5.25</v>
+      </c>
+      <c r="O104">
+        <v>3.75</v>
+      </c>
+      <c r="P104">
         <v>1.533</v>
       </c>
-      <c r="O104">
-        <v>3.5</v>
-      </c>
-      <c r="P104">
-        <v>6.5</v>
-      </c>
       <c r="Q104">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R104">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T104">
         <v>2</v>
@@ -9778,22 +9778,22 @@
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10068,7 +10068,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7811882</v>
+        <v>7811883</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10080,76 +10080,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
         <v>51</v>
       </c>
       <c r="K108">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="L108">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M108">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="N108">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="O108">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P108">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R108">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S108">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T108">
         <v>1.75</v>
       </c>
       <c r="U108">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="V108">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA108">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10157,7 +10157,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7811883</v>
+        <v>7811882</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10169,76 +10169,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
         <v>51</v>
       </c>
       <c r="K109">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="L109">
+        <v>2.9</v>
+      </c>
+      <c r="M109">
         <v>3.4</v>
       </c>
-      <c r="M109">
-        <v>1.727</v>
-      </c>
       <c r="N109">
+        <v>2.05</v>
+      </c>
+      <c r="O109">
+        <v>2.9</v>
+      </c>
+      <c r="P109">
         <v>3.6</v>
       </c>
-      <c r="O109">
-        <v>3.3</v>
-      </c>
-      <c r="P109">
-        <v>1.909</v>
-      </c>
       <c r="Q109">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S109">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T109">
         <v>1.75</v>
       </c>
       <c r="U109">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="V109">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC109">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -11059,7 +11059,7 @@
         <v>45342.33333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
         <v>35</v>
@@ -12041,7 +12041,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12471,7 +12471,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7901411</v>
+        <v>7897090</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12483,76 +12483,76 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J135" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K135">
         <v>2.1</v>
       </c>
       <c r="L135">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M135">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N135">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O135">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P135">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q135">
         <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S135">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T135">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U135">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V135">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC135">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12560,7 +12560,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7897090</v>
+        <v>7901411</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12572,76 +12572,76 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K136">
         <v>2.1</v>
       </c>
       <c r="L136">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M136">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N136">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O136">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P136">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q136">
         <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S136">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T136">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U136">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V136">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y136">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB136">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13284,7 +13284,7 @@
         <v>45359.35416666666</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
         <v>33</v>
@@ -13895,7 +13895,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>8031833</v>
+        <v>8031832</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13907,76 +13907,76 @@
         <v>45382.64583333334</v>
       </c>
       <c r="F151" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
         <v>51</v>
       </c>
       <c r="K151">
-        <v>4.1</v>
+        <v>1.909</v>
       </c>
       <c r="L151">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="M151">
+        <v>4</v>
+      </c>
+      <c r="N151">
         <v>1.833</v>
       </c>
-      <c r="N151">
-        <v>3.5</v>
-      </c>
       <c r="O151">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P151">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="Q151">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R151">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S151">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T151">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U151">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V151">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB151">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13984,7 +13984,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>8031832</v>
+        <v>8031833</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13996,76 +13996,76 @@
         <v>45382.64583333334</v>
       </c>
       <c r="F152" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G152" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
         <v>51</v>
       </c>
       <c r="K152">
-        <v>1.909</v>
+        <v>4.1</v>
       </c>
       <c r="L152">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="M152">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N152">
-        <v>1.833</v>
+        <v>3.5</v>
       </c>
       <c r="O152">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P152">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q152">
+        <v>0.25</v>
+      </c>
+      <c r="R152">
+        <v>1.975</v>
+      </c>
+      <c r="S152">
+        <v>1.825</v>
+      </c>
+      <c r="T152">
+        <v>2</v>
+      </c>
+      <c r="U152">
+        <v>2.025</v>
+      </c>
+      <c r="V152">
+        <v>1.775</v>
+      </c>
+      <c r="W152">
+        <v>-1</v>
+      </c>
+      <c r="X152">
+        <v>1.9</v>
+      </c>
+      <c r="Y152">
+        <v>-1</v>
+      </c>
+      <c r="Z152">
+        <v>0.4875</v>
+      </c>
+      <c r="AA152">
         <v>-0.5</v>
       </c>
-      <c r="R152">
-        <v>1.875</v>
-      </c>
-      <c r="S152">
-        <v>1.925</v>
-      </c>
-      <c r="T152">
-        <v>1.75</v>
-      </c>
-      <c r="U152">
-        <v>1.95</v>
-      </c>
-      <c r="V152">
-        <v>1.85</v>
-      </c>
-      <c r="W152">
-        <v>-1</v>
-      </c>
-      <c r="X152">
-        <v>1.8</v>
-      </c>
-      <c r="Y152">
-        <v>-1</v>
-      </c>
-      <c r="Z152">
-        <v>-1</v>
-      </c>
-      <c r="AA152">
-        <v>0.925</v>
-      </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC152">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14174,7 +14174,7 @@
         <v>45384.375</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G154" t="s">
         <v>34</v>

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -109,10 +109,10 @@
     <t>Al Zawraa</t>
   </si>
   <si>
-    <t>Al Sinaah</t>
+    <t>Al Karkh</t>
   </si>
   <si>
-    <t>Al Karkh</t>
+    <t>Al Sinaah</t>
   </si>
   <si>
     <t>Al Shorta SC</t>
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6729610</v>
+        <v>6729609</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -827,73 +827,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K4">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L4">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="M4">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="N4">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O4">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="P4">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S4">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T4">
         <v>2</v>
       </c>
       <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
         <v>1.8</v>
       </c>
-      <c r="V4">
-        <v>2</v>
-      </c>
       <c r="W4">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB4">
+        <v>-1</v>
+      </c>
+      <c r="AC4">
         <v>0.8</v>
-      </c>
-      <c r="AC4">
-        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6729609</v>
+        <v>6729610</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -916,73 +916,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K5">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L5">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="M5">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="N5">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="O5">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="P5">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T5">
         <v>2</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X5">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA5">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC5">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1183,7 +1183,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1969,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6838982</v>
+        <v>6838980</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1984,73 +1984,73 @@
         <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K17">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N17">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Q17">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S17">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T17">
         <v>2</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA17">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2058,7 +2058,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6838980</v>
+        <v>6838982</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2073,73 +2073,73 @@
         <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K18">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L18">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N18">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O18">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Q18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
+        <v>1.725</v>
+      </c>
+      <c r="S18">
+        <v>1.975</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="V18">
         <v>1.8</v>
       </c>
-      <c r="S18">
-        <v>2</v>
-      </c>
-      <c r="T18">
-        <v>2</v>
-      </c>
-      <c r="U18">
-        <v>1.85</v>
-      </c>
-      <c r="V18">
-        <v>1.95</v>
-      </c>
       <c r="W18">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z18">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC18">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2340,7 +2340,7 @@
         <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2414,7 +2414,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6862618</v>
+        <v>6862617</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2426,76 +2426,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L22">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="M22">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N22">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O22">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P22">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>1.8</v>
+      </c>
+      <c r="T22">
+        <v>2.25</v>
+      </c>
+      <c r="U22">
+        <v>2.025</v>
+      </c>
+      <c r="V22">
         <v>1.775</v>
       </c>
-      <c r="S22">
-        <v>2.025</v>
-      </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
-      <c r="U22">
-        <v>1.95</v>
-      </c>
-      <c r="V22">
-        <v>1.85</v>
-      </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y22">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2503,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6862617</v>
+        <v>6862618</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2515,76 +2515,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="M23">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N23">
+        <v>2.05</v>
+      </c>
+      <c r="O23">
+        <v>2.625</v>
+      </c>
+      <c r="P23">
+        <v>4</v>
+      </c>
+      <c r="Q23">
+        <v>-0.25</v>
+      </c>
+      <c r="R23">
+        <v>1.775</v>
+      </c>
+      <c r="S23">
+        <v>2.025</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
         <v>1.95</v>
       </c>
-      <c r="O23">
-        <v>2.8</v>
-      </c>
-      <c r="P23">
-        <v>4.1</v>
-      </c>
-      <c r="Q23">
-        <v>-0.5</v>
-      </c>
-      <c r="R23">
-        <v>2</v>
-      </c>
-      <c r="S23">
-        <v>1.8</v>
-      </c>
-      <c r="T23">
-        <v>2.25</v>
-      </c>
-      <c r="U23">
-        <v>2.025</v>
-      </c>
       <c r="V23">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2607,7 +2607,7 @@
         <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2782,7 +2782,7 @@
         <v>45117.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
         <v>37</v>
@@ -3049,7 +3049,7 @@
         <v>45118.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3497,7 +3497,7 @@
         <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3672,10 +3672,10 @@
         <v>45128.45833333334</v>
       </c>
       <c r="F36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
         <v>31</v>
-      </c>
-      <c r="G36" t="s">
-        <v>32</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -4565,7 +4565,7 @@
         <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -5262,7 +5262,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7453403</v>
+        <v>7453404</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5274,76 +5274,76 @@
         <v>45240.375</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K54">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L54">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M54">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N54">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O54">
         <v>2.9</v>
       </c>
       <c r="P54">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R54">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S54">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T54">
         <v>2</v>
       </c>
       <c r="U54">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z54">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5351,7 +5351,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7453404</v>
+        <v>7453403</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5363,76 +5363,76 @@
         <v>45240.375</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K55">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L55">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M55">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N55">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O55">
         <v>2.9</v>
       </c>
       <c r="P55">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q55">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S55">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T55">
         <v>2</v>
       </c>
       <c r="U55">
+        <v>1.975</v>
+      </c>
+      <c r="V55">
+        <v>1.825</v>
+      </c>
+      <c r="W55">
+        <v>-1</v>
+      </c>
+      <c r="X55">
         <v>1.9</v>
       </c>
-      <c r="V55">
-        <v>1.9</v>
-      </c>
-      <c r="W55">
-        <v>-1</v>
-      </c>
-      <c r="X55">
-        <v>-1</v>
-      </c>
       <c r="Y55">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA55">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5618,7 +5618,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7511489</v>
+        <v>7511490</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5630,10 +5630,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5645,40 +5645,40 @@
         <v>52</v>
       </c>
       <c r="K58">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L58">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M58">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N58">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="O58">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P58">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q58">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R58">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S58">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T58">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U58">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V58">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W58">
         <v>-1</v>
@@ -5687,19 +5687,19 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB58">
+        <v>0.45</v>
+      </c>
+      <c r="AC58">
         <v>-0.5</v>
-      </c>
-      <c r="AC58">
-        <v>0.375</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5707,7 +5707,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7511490</v>
+        <v>7511489</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5719,10 +5719,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5734,41 +5734,41 @@
         <v>52</v>
       </c>
       <c r="K59">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="M59">
         <v>3.1</v>
       </c>
-      <c r="M59">
-        <v>1.909</v>
-      </c>
       <c r="N59">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O59">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P59">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R59">
+        <v>1.95</v>
+      </c>
+      <c r="S59">
+        <v>1.85</v>
+      </c>
+      <c r="T59">
+        <v>2.25</v>
+      </c>
+      <c r="U59">
+        <v>2.05</v>
+      </c>
+      <c r="V59">
         <v>1.75</v>
       </c>
-      <c r="S59">
-        <v>2.05</v>
-      </c>
-      <c r="T59">
-        <v>1.75</v>
-      </c>
-      <c r="U59">
-        <v>1.9</v>
-      </c>
-      <c r="V59">
-        <v>1.9</v>
-      </c>
       <c r="W59">
         <v>-1</v>
       </c>
@@ -5776,19 +5776,19 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB59">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC59">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5989,7 +5989,7 @@
         <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6523,7 +6523,7 @@
         <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -7054,7 +7054,7 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
         <v>48</v>
@@ -7766,7 +7766,7 @@
         <v>45279.3125</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
         <v>29</v>
@@ -9371,7 +9371,7 @@
         <v>47</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9623,7 +9623,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7645264</v>
+        <v>7648519</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9635,46 +9635,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K103">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L103">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="N103">
+        <v>5.25</v>
+      </c>
+      <c r="O103">
+        <v>3.75</v>
+      </c>
+      <c r="P103">
         <v>1.533</v>
       </c>
-      <c r="O103">
-        <v>3.5</v>
-      </c>
-      <c r="P103">
-        <v>6.5</v>
-      </c>
       <c r="Q103">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R103">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S103">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T103">
         <v>2</v>
@@ -9689,22 +9689,22 @@
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA103">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9712,7 +9712,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7648519</v>
+        <v>7645264</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9724,46 +9724,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K104">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L104">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M104">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="N104">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="O104">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P104">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="Q104">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R104">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S104">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T104">
         <v>2</v>
@@ -9778,22 +9778,22 @@
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y104">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
+        <v>0.825</v>
+      </c>
+      <c r="AB104">
+        <v>0</v>
+      </c>
+      <c r="AC104">
         <v>-0</v>
-      </c>
-      <c r="AB104">
-        <v>-1</v>
-      </c>
-      <c r="AC104">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10068,7 +10068,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7811883</v>
+        <v>7811882</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10080,76 +10080,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G108" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
         <v>51</v>
       </c>
       <c r="K108">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="L108">
+        <v>2.9</v>
+      </c>
+      <c r="M108">
         <v>3.4</v>
       </c>
-      <c r="M108">
-        <v>1.727</v>
-      </c>
       <c r="N108">
+        <v>2.05</v>
+      </c>
+      <c r="O108">
+        <v>2.9</v>
+      </c>
+      <c r="P108">
         <v>3.6</v>
       </c>
-      <c r="O108">
-        <v>3.3</v>
-      </c>
-      <c r="P108">
-        <v>1.909</v>
-      </c>
       <c r="Q108">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S108">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T108">
         <v>1.75</v>
       </c>
       <c r="U108">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="V108">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC108">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10157,7 +10157,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7811882</v>
+        <v>7811883</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10169,76 +10169,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
         <v>51</v>
       </c>
       <c r="K109">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="L109">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M109">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="N109">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="O109">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P109">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q109">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R109">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S109">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T109">
         <v>1.75</v>
       </c>
       <c r="U109">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="V109">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA109">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -11059,7 +11059,7 @@
         <v>45342.33333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
         <v>35</v>
@@ -12041,7 +12041,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12471,7 +12471,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7897090</v>
+        <v>7901411</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12483,76 +12483,76 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K135">
         <v>2.1</v>
       </c>
       <c r="L135">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M135">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N135">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O135">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P135">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q135">
         <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S135">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T135">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U135">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V135">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y135">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB135">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12560,7 +12560,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7901411</v>
+        <v>7897090</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12572,76 +12572,76 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F136" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K136">
         <v>2.1</v>
       </c>
       <c r="L136">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M136">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N136">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O136">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P136">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q136">
         <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S136">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T136">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U136">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V136">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC136">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13284,7 +13284,7 @@
         <v>45359.35416666666</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
         <v>33</v>
@@ -13895,7 +13895,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>8031832</v>
+        <v>8031833</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13907,76 +13907,76 @@
         <v>45382.64583333334</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G151" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="s">
         <v>51</v>
       </c>
       <c r="K151">
-        <v>1.909</v>
+        <v>4.1</v>
       </c>
       <c r="L151">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="M151">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N151">
-        <v>1.833</v>
+        <v>3.5</v>
       </c>
       <c r="O151">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P151">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q151">
+        <v>0.25</v>
+      </c>
+      <c r="R151">
+        <v>1.975</v>
+      </c>
+      <c r="S151">
+        <v>1.825</v>
+      </c>
+      <c r="T151">
+        <v>2</v>
+      </c>
+      <c r="U151">
+        <v>2.025</v>
+      </c>
+      <c r="V151">
+        <v>1.775</v>
+      </c>
+      <c r="W151">
+        <v>-1</v>
+      </c>
+      <c r="X151">
+        <v>1.9</v>
+      </c>
+      <c r="Y151">
+        <v>-1</v>
+      </c>
+      <c r="Z151">
+        <v>0.4875</v>
+      </c>
+      <c r="AA151">
         <v>-0.5</v>
       </c>
-      <c r="R151">
-        <v>1.875</v>
-      </c>
-      <c r="S151">
-        <v>1.925</v>
-      </c>
-      <c r="T151">
-        <v>1.75</v>
-      </c>
-      <c r="U151">
-        <v>1.95</v>
-      </c>
-      <c r="V151">
-        <v>1.85</v>
-      </c>
-      <c r="W151">
-        <v>-1</v>
-      </c>
-      <c r="X151">
-        <v>1.8</v>
-      </c>
-      <c r="Y151">
-        <v>-1</v>
-      </c>
-      <c r="Z151">
-        <v>-1</v>
-      </c>
-      <c r="AA151">
-        <v>0.925</v>
-      </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC151">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13984,7 +13984,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>8031833</v>
+        <v>8031832</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13996,76 +13996,76 @@
         <v>45382.64583333334</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G152" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
         <v>51</v>
       </c>
       <c r="K152">
-        <v>4.1</v>
+        <v>1.909</v>
       </c>
       <c r="L152">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="M152">
+        <v>4</v>
+      </c>
+      <c r="N152">
         <v>1.833</v>
       </c>
-      <c r="N152">
-        <v>3.5</v>
-      </c>
       <c r="O152">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P152">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="Q152">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R152">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S152">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T152">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U152">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V152">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14174,7 +14174,7 @@
         <v>45384.375</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G154" t="s">
         <v>34</v>

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -109,10 +109,10 @@
     <t>Al Zawraa</t>
   </si>
   <si>
-    <t>Al Karkh</t>
+    <t>Al Sinaah</t>
   </si>
   <si>
-    <t>Al Sinaah</t>
+    <t>Al Karkh</t>
   </si>
   <si>
     <t>Al Shorta SC</t>
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6729609</v>
+        <v>6729610</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -827,73 +827,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K4">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L4">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="M4">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="N4">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="O4">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="P4">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T4">
         <v>2</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X4">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA4">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC4">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6729610</v>
+        <v>6729609</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -916,73 +916,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K5">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L5">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="M5">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="N5">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O5">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="P5">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S5">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T5">
         <v>2</v>
       </c>
       <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
         <v>1.8</v>
       </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
       <c r="W5">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB5">
+        <v>-1</v>
+      </c>
+      <c r="AC5">
         <v>0.8</v>
-      </c>
-      <c r="AC5">
-        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1183,7 +1183,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1981,7 +1981,7 @@
         <v>45107.44791666666</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
         <v>34</v>
@@ -2070,7 +2070,7 @@
         <v>45107.44791666666</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
         <v>43</v>
@@ -2340,7 +2340,7 @@
         <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2414,7 +2414,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6862617</v>
+        <v>6862618</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2426,76 +2426,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="M22">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N22">
+        <v>2.05</v>
+      </c>
+      <c r="O22">
+        <v>2.625</v>
+      </c>
+      <c r="P22">
+        <v>4</v>
+      </c>
+      <c r="Q22">
+        <v>-0.25</v>
+      </c>
+      <c r="R22">
+        <v>1.775</v>
+      </c>
+      <c r="S22">
+        <v>2.025</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
         <v>1.95</v>
       </c>
-      <c r="O22">
-        <v>2.8</v>
-      </c>
-      <c r="P22">
-        <v>4.1</v>
-      </c>
-      <c r="Q22">
-        <v>-0.5</v>
-      </c>
-      <c r="R22">
-        <v>2</v>
-      </c>
-      <c r="S22">
-        <v>1.8</v>
-      </c>
-      <c r="T22">
-        <v>2.25</v>
-      </c>
-      <c r="U22">
-        <v>2.025</v>
-      </c>
       <c r="V22">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2503,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6862618</v>
+        <v>6862617</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2515,76 +2515,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L23">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="M23">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N23">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O23">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P23">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>1.8</v>
+      </c>
+      <c r="T23">
+        <v>2.25</v>
+      </c>
+      <c r="U23">
+        <v>2.025</v>
+      </c>
+      <c r="V23">
         <v>1.775</v>
       </c>
-      <c r="S23">
-        <v>2.025</v>
-      </c>
-      <c r="T23">
-        <v>2</v>
-      </c>
-      <c r="U23">
-        <v>1.95</v>
-      </c>
-      <c r="V23">
-        <v>1.85</v>
-      </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y23">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2607,7 +2607,7 @@
         <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2782,7 +2782,7 @@
         <v>45117.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
         <v>37</v>
@@ -3049,7 +3049,7 @@
         <v>45118.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3497,7 +3497,7 @@
         <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3672,10 +3672,10 @@
         <v>45128.45833333334</v>
       </c>
       <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
         <v>32</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -4565,7 +4565,7 @@
         <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -5262,7 +5262,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7453404</v>
+        <v>7453403</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5274,76 +5274,76 @@
         <v>45240.375</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K54">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L54">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M54">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N54">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O54">
         <v>2.9</v>
       </c>
       <c r="P54">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q54">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S54">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T54">
         <v>2</v>
       </c>
       <c r="U54">
+        <v>1.975</v>
+      </c>
+      <c r="V54">
+        <v>1.825</v>
+      </c>
+      <c r="W54">
+        <v>-1</v>
+      </c>
+      <c r="X54">
         <v>1.9</v>
       </c>
-      <c r="V54">
-        <v>1.9</v>
-      </c>
-      <c r="W54">
-        <v>-1</v>
-      </c>
-      <c r="X54">
-        <v>-1</v>
-      </c>
       <c r="Y54">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA54">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5351,7 +5351,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7453403</v>
+        <v>7453404</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5363,76 +5363,76 @@
         <v>45240.375</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K55">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L55">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M55">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N55">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O55">
         <v>2.9</v>
       </c>
       <c r="P55">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R55">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S55">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T55">
         <v>2</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V55">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5989,7 +5989,7 @@
         <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6523,7 +6523,7 @@
         <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6597,7 +6597,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7555939</v>
+        <v>7555937</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6609,13 +6609,13 @@
         <v>45265.35416666666</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>2</v>
@@ -6624,40 +6624,40 @@
         <v>52</v>
       </c>
       <c r="K69">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="L69">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M69">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="N69">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="O69">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P69">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q69">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S69">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U69">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V69">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6666,19 +6666,19 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="Z69">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB69">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6686,7 +6686,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7555937</v>
+        <v>7555939</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6698,13 +6698,13 @@
         <v>45265.35416666666</v>
       </c>
       <c r="F70" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70">
         <v>2</v>
@@ -6713,40 +6713,40 @@
         <v>52</v>
       </c>
       <c r="K70">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="L70">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M70">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="N70">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="O70">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="P70">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R70">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S70">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T70">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V70">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6755,19 +6755,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>2.4</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA70">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB70">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC70">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6953,7 +6953,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7565124</v>
+        <v>7565123</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6965,56 +6965,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
         <v>52</v>
       </c>
       <c r="K73">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L73">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M73">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N73">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="O73">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P73">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q73">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R73">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S73">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T73">
         <v>2</v>
       </c>
       <c r="U73">
+        <v>1.925</v>
+      </c>
+      <c r="V73">
         <v>1.875</v>
       </c>
-      <c r="V73">
-        <v>1.925</v>
-      </c>
       <c r="W73">
         <v>-1</v>
       </c>
@@ -7022,19 +7022,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC73">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7042,7 +7042,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7565123</v>
+        <v>7565124</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7054,56 +7054,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
         <v>52</v>
       </c>
       <c r="K74">
+        <v>1.5</v>
+      </c>
+      <c r="L74">
+        <v>3.6</v>
+      </c>
+      <c r="M74">
+        <v>6</v>
+      </c>
+      <c r="N74">
         <v>1.727</v>
       </c>
-      <c r="L74">
-        <v>3.4</v>
-      </c>
-      <c r="M74">
+      <c r="O74">
+        <v>3.5</v>
+      </c>
+      <c r="P74">
         <v>4.2</v>
       </c>
-      <c r="N74">
-        <v>1.833</v>
-      </c>
-      <c r="O74">
-        <v>3.3</v>
-      </c>
-      <c r="P74">
-        <v>3.75</v>
-      </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R74">
+        <v>2</v>
+      </c>
+      <c r="S74">
+        <v>1.8</v>
+      </c>
+      <c r="T74">
+        <v>2</v>
+      </c>
+      <c r="U74">
         <v>1.875</v>
       </c>
-      <c r="S74">
+      <c r="V74">
         <v>1.925</v>
       </c>
-      <c r="T74">
-        <v>2</v>
-      </c>
-      <c r="U74">
-        <v>1.925</v>
-      </c>
-      <c r="V74">
-        <v>1.875</v>
-      </c>
       <c r="W74">
         <v>-1</v>
       </c>
@@ -7111,19 +7111,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
+        <v>0.8</v>
+      </c>
+      <c r="AB74">
+        <v>-1</v>
+      </c>
+      <c r="AC74">
         <v>0.925</v>
-      </c>
-      <c r="AB74">
-        <v>0.925</v>
-      </c>
-      <c r="AC74">
-        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7398,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7592803</v>
+        <v>7590595</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7410,49 +7410,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F78" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J78" t="s">
         <v>52</v>
       </c>
       <c r="K78">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L78">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78">
+        <v>4.5</v>
+      </c>
+      <c r="O78">
         <v>3</v>
       </c>
-      <c r="N78">
-        <v>2.3</v>
-      </c>
-      <c r="O78">
-        <v>2.875</v>
-      </c>
       <c r="P78">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R78">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S78">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
         <v>2</v>
@@ -7467,19 +7467,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7590595</v>
+        <v>7592803</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7499,49 +7499,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G79" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
         <v>52</v>
       </c>
       <c r="K79">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L79">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N79">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="O79">
+        <v>2.875</v>
+      </c>
+      <c r="P79">
         <v>3</v>
       </c>
-      <c r="P79">
-        <v>1.75</v>
-      </c>
       <c r="Q79">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S79">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U79">
         <v>2</v>
@@ -7556,19 +7556,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB79">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7766,7 +7766,7 @@
         <v>45279.3125</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
         <v>29</v>
@@ -8377,7 +8377,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7613564</v>
+        <v>7615329</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8389,76 +8389,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K89">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="L89">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="M89">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N89">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O89">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P89">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q89">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R89">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S89">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T89">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U89">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V89">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W89">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB89">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8466,7 +8466,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7615329</v>
+        <v>7613564</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8478,76 +8478,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F90" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K90">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="L90">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="M90">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N90">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="O90">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P90">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Q90">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R90">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S90">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T90">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V90">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X90">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC90">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -9371,7 +9371,7 @@
         <v>47</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -10169,7 +10169,7 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
         <v>42</v>
@@ -11059,7 +11059,7 @@
         <v>45342.33333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
         <v>35</v>
@@ -12041,7 +12041,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12572,7 +12572,7 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
         <v>39</v>
@@ -13284,7 +13284,7 @@
         <v>45359.35416666666</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
         <v>33</v>
@@ -14174,7 +14174,7 @@
         <v>45384.375</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G154" t="s">
         <v>34</v>

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC159"/>
+  <dimension ref="A1:AC160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1969,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6838980</v>
+        <v>6838982</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1981,76 +1981,76 @@
         <v>45107.44791666666</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L17">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N17">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O17">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Q17">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R17">
+        <v>1.725</v>
+      </c>
+      <c r="S17">
+        <v>1.975</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
         <v>1.8</v>
       </c>
-      <c r="S17">
-        <v>2</v>
-      </c>
-      <c r="T17">
-        <v>2</v>
-      </c>
-      <c r="U17">
-        <v>1.85</v>
-      </c>
-      <c r="V17">
-        <v>1.95</v>
-      </c>
       <c r="W17">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2058,7 +2058,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6838982</v>
+        <v>6838980</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2070,76 +2070,76 @@
         <v>45107.44791666666</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N18">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R18">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S18">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T18">
         <v>2</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V18">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA18">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2414,7 +2414,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6862618</v>
+        <v>6862617</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2426,76 +2426,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L22">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="M22">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N22">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O22">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P22">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>1.8</v>
+      </c>
+      <c r="T22">
+        <v>2.25</v>
+      </c>
+      <c r="U22">
+        <v>2.025</v>
+      </c>
+      <c r="V22">
         <v>1.775</v>
       </c>
-      <c r="S22">
-        <v>2.025</v>
-      </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
-      <c r="U22">
-        <v>1.95</v>
-      </c>
-      <c r="V22">
-        <v>1.85</v>
-      </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y22">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2503,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6862617</v>
+        <v>6862618</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2515,76 +2515,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="M23">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N23">
+        <v>2.05</v>
+      </c>
+      <c r="O23">
+        <v>2.625</v>
+      </c>
+      <c r="P23">
+        <v>4</v>
+      </c>
+      <c r="Q23">
+        <v>-0.25</v>
+      </c>
+      <c r="R23">
+        <v>1.775</v>
+      </c>
+      <c r="S23">
+        <v>2.025</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
         <v>1.95</v>
       </c>
-      <c r="O23">
-        <v>2.8</v>
-      </c>
-      <c r="P23">
-        <v>4.1</v>
-      </c>
-      <c r="Q23">
-        <v>-0.5</v>
-      </c>
-      <c r="R23">
-        <v>2</v>
-      </c>
-      <c r="S23">
-        <v>1.8</v>
-      </c>
-      <c r="T23">
-        <v>2.25</v>
-      </c>
-      <c r="U23">
-        <v>2.025</v>
-      </c>
       <c r="V23">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -7398,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7590595</v>
+        <v>7592803</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7410,49 +7410,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
         <v>52</v>
       </c>
       <c r="K78">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L78">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N78">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="O78">
+        <v>2.875</v>
+      </c>
+      <c r="P78">
         <v>3</v>
       </c>
-      <c r="P78">
-        <v>1.75</v>
-      </c>
       <c r="Q78">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S78">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U78">
         <v>2</v>
@@ -7467,19 +7467,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB78">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7592803</v>
+        <v>7590595</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7499,49 +7499,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J79" t="s">
         <v>52</v>
       </c>
       <c r="K79">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L79">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M79">
+        <v>2</v>
+      </c>
+      <c r="N79">
+        <v>4.5</v>
+      </c>
+      <c r="O79">
         <v>3</v>
       </c>
-      <c r="N79">
-        <v>2.3</v>
-      </c>
-      <c r="O79">
-        <v>2.875</v>
-      </c>
       <c r="P79">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R79">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S79">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T79">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
         <v>2</v>
@@ -7556,19 +7556,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC79">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -8555,7 +8555,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7618724</v>
+        <v>7618726</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8567,76 +8567,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91" t="s">
+        <v>52</v>
+      </c>
+      <c r="K91">
+        <v>2.375</v>
+      </c>
+      <c r="L91">
+        <v>2.8</v>
+      </c>
+      <c r="M91">
         <v>3</v>
       </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
-      <c r="J91" t="s">
-        <v>53</v>
-      </c>
-      <c r="K91">
-        <v>2.875</v>
-      </c>
-      <c r="L91">
-        <v>2.75</v>
-      </c>
-      <c r="M91">
-        <v>2.5</v>
-      </c>
       <c r="N91">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="O91">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P91">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q91">
         <v>0</v>
       </c>
       <c r="R91">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S91">
+        <v>2.05</v>
+      </c>
+      <c r="T91">
+        <v>1.75</v>
+      </c>
+      <c r="U91">
         <v>1.8</v>
       </c>
-      <c r="T91">
-        <v>2</v>
-      </c>
-      <c r="U91">
-        <v>2</v>
-      </c>
       <c r="V91">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W91">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8644,7 +8644,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7618726</v>
+        <v>7618724</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8656,76 +8656,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K92">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L92">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M92">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N92">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="O92">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P92">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q92">
         <v>0</v>
       </c>
       <c r="R92">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S92">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T92">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U92">
+        <v>2</v>
+      </c>
+      <c r="V92">
         <v>1.8</v>
       </c>
-      <c r="V92">
-        <v>2</v>
-      </c>
       <c r="W92">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA92">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC92">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -9623,7 +9623,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7648519</v>
+        <v>7645264</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9635,46 +9635,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K103">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L103">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M103">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="N103">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="O103">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P103">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="Q103">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R103">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S103">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T103">
         <v>2</v>
@@ -9689,22 +9689,22 @@
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y103">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
+        <v>0.825</v>
+      </c>
+      <c r="AB103">
+        <v>0</v>
+      </c>
+      <c r="AC103">
         <v>-0</v>
-      </c>
-      <c r="AB103">
-        <v>-1</v>
-      </c>
-      <c r="AC103">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9712,7 +9712,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7645264</v>
+        <v>7648519</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9724,46 +9724,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K104">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L104">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="N104">
+        <v>5.25</v>
+      </c>
+      <c r="O104">
+        <v>3.75</v>
+      </c>
+      <c r="P104">
         <v>1.533</v>
       </c>
-      <c r="O104">
-        <v>3.5</v>
-      </c>
-      <c r="P104">
-        <v>6.5</v>
-      </c>
       <c r="Q104">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R104">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T104">
         <v>2</v>
@@ -9778,22 +9778,22 @@
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10068,7 +10068,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7811882</v>
+        <v>7811883</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10080,76 +10080,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
         <v>51</v>
       </c>
       <c r="K108">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="L108">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M108">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="N108">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="O108">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P108">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R108">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S108">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T108">
         <v>1.75</v>
       </c>
       <c r="U108">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="V108">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA108">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10157,7 +10157,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7811883</v>
+        <v>7811882</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10169,76 +10169,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
         <v>51</v>
       </c>
       <c r="K109">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="L109">
+        <v>2.9</v>
+      </c>
+      <c r="M109">
         <v>3.4</v>
       </c>
-      <c r="M109">
-        <v>1.727</v>
-      </c>
       <c r="N109">
+        <v>2.05</v>
+      </c>
+      <c r="O109">
+        <v>2.9</v>
+      </c>
+      <c r="P109">
         <v>3.6</v>
       </c>
-      <c r="O109">
-        <v>3.3</v>
-      </c>
-      <c r="P109">
-        <v>1.909</v>
-      </c>
       <c r="Q109">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S109">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T109">
         <v>1.75</v>
       </c>
       <c r="U109">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="V109">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC109">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -12471,7 +12471,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7901411</v>
+        <v>7897090</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12483,76 +12483,76 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J135" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K135">
         <v>2.1</v>
       </c>
       <c r="L135">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M135">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N135">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O135">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P135">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q135">
         <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S135">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T135">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U135">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V135">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC135">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12560,7 +12560,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7897090</v>
+        <v>7901411</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12572,76 +12572,76 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K136">
         <v>2.1</v>
       </c>
       <c r="L136">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M136">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N136">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O136">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P136">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q136">
         <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S136">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T136">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U136">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V136">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y136">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB136">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13895,7 +13895,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>8031833</v>
+        <v>8031832</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13907,76 +13907,76 @@
         <v>45382.64583333334</v>
       </c>
       <c r="F151" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
         <v>51</v>
       </c>
       <c r="K151">
-        <v>4.1</v>
+        <v>1.909</v>
       </c>
       <c r="L151">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="M151">
+        <v>4</v>
+      </c>
+      <c r="N151">
         <v>1.833</v>
       </c>
-      <c r="N151">
-        <v>3.5</v>
-      </c>
       <c r="O151">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P151">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="Q151">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R151">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S151">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T151">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U151">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V151">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB151">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13984,7 +13984,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>8031832</v>
+        <v>8031833</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13996,76 +13996,76 @@
         <v>45382.64583333334</v>
       </c>
       <c r="F152" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G152" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
         <v>51</v>
       </c>
       <c r="K152">
-        <v>1.909</v>
+        <v>4.1</v>
       </c>
       <c r="L152">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="M152">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N152">
-        <v>1.833</v>
+        <v>3.5</v>
       </c>
       <c r="O152">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P152">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q152">
+        <v>0.25</v>
+      </c>
+      <c r="R152">
+        <v>1.975</v>
+      </c>
+      <c r="S152">
+        <v>1.825</v>
+      </c>
+      <c r="T152">
+        <v>2</v>
+      </c>
+      <c r="U152">
+        <v>2.025</v>
+      </c>
+      <c r="V152">
+        <v>1.775</v>
+      </c>
+      <c r="W152">
+        <v>-1</v>
+      </c>
+      <c r="X152">
+        <v>1.9</v>
+      </c>
+      <c r="Y152">
+        <v>-1</v>
+      </c>
+      <c r="Z152">
+        <v>0.4875</v>
+      </c>
+      <c r="AA152">
         <v>-0.5</v>
       </c>
-      <c r="R152">
-        <v>1.875</v>
-      </c>
-      <c r="S152">
-        <v>1.925</v>
-      </c>
-      <c r="T152">
-        <v>1.75</v>
-      </c>
-      <c r="U152">
-        <v>1.95</v>
-      </c>
-      <c r="V152">
-        <v>1.85</v>
-      </c>
-      <c r="W152">
-        <v>-1</v>
-      </c>
-      <c r="X152">
-        <v>1.8</v>
-      </c>
-      <c r="Y152">
-        <v>-1</v>
-      </c>
-      <c r="Z152">
-        <v>-1</v>
-      </c>
-      <c r="AA152">
-        <v>0.925</v>
-      </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC152">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14689,6 +14689,80 @@
       </c>
       <c r="AC159">
         <v>0.7749999999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:29">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>8088065</v>
+      </c>
+      <c r="C160" t="s">
+        <v>28</v>
+      </c>
+      <c r="D160" t="s">
+        <v>28</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45397.66666666666</v>
+      </c>
+      <c r="F160" t="s">
+        <v>37</v>
+      </c>
+      <c r="G160" t="s">
+        <v>42</v>
+      </c>
+      <c r="K160">
+        <v>1.6</v>
+      </c>
+      <c r="L160">
+        <v>3.5</v>
+      </c>
+      <c r="M160">
+        <v>5</v>
+      </c>
+      <c r="N160">
+        <v>1.444</v>
+      </c>
+      <c r="O160">
+        <v>4</v>
+      </c>
+      <c r="P160">
+        <v>6</v>
+      </c>
+      <c r="Q160">
+        <v>-1.25</v>
+      </c>
+      <c r="R160">
+        <v>1.95</v>
+      </c>
+      <c r="S160">
+        <v>1.85</v>
+      </c>
+      <c r="T160">
+        <v>2.75</v>
+      </c>
+      <c r="U160">
+        <v>1.825</v>
+      </c>
+      <c r="V160">
+        <v>1.975</v>
+      </c>
+      <c r="W160">
+        <v>0</v>
+      </c>
+      <c r="X160">
+        <v>0</v>
+      </c>
+      <c r="Y160">
+        <v>0</v>
+      </c>
+      <c r="Z160">
+        <v>0</v>
+      </c>
+      <c r="AA160">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -5618,7 +5618,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7511490</v>
+        <v>7511489</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5630,10 +5630,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5645,41 +5645,41 @@
         <v>52</v>
       </c>
       <c r="K58">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58">
         <v>3.1</v>
       </c>
-      <c r="M58">
-        <v>1.909</v>
-      </c>
       <c r="N58">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O58">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P58">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q58">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R58">
+        <v>1.95</v>
+      </c>
+      <c r="S58">
+        <v>1.85</v>
+      </c>
+      <c r="T58">
+        <v>2.25</v>
+      </c>
+      <c r="U58">
+        <v>2.05</v>
+      </c>
+      <c r="V58">
         <v>1.75</v>
       </c>
-      <c r="S58">
-        <v>2.05</v>
-      </c>
-      <c r="T58">
-        <v>1.75</v>
-      </c>
-      <c r="U58">
-        <v>1.9</v>
-      </c>
-      <c r="V58">
-        <v>1.9</v>
-      </c>
       <c r="W58">
         <v>-1</v>
       </c>
@@ -5687,19 +5687,19 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB58">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC58">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5707,7 +5707,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7511489</v>
+        <v>7511490</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5719,10 +5719,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F59" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5734,40 +5734,40 @@
         <v>52</v>
       </c>
       <c r="K59">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L59">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M59">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N59">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="O59">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P59">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q59">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S59">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T59">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U59">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V59">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W59">
         <v>-1</v>
@@ -5776,19 +5776,19 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB59">
+        <v>0.45</v>
+      </c>
+      <c r="AC59">
         <v>-0.5</v>
-      </c>
-      <c r="AC59">
-        <v>0.375</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -8377,7 +8377,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7615329</v>
+        <v>7613564</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8389,76 +8389,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F89" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K89">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="L89">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="M89">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N89">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="O89">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P89">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Q89">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R89">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S89">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T89">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U89">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V89">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X89">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC89">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8466,7 +8466,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7613564</v>
+        <v>7615329</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8478,76 +8478,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K90">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="L90">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="M90">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N90">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O90">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P90">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q90">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R90">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S90">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T90">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U90">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W90">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB90">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8555,7 +8555,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7618726</v>
+        <v>7618724</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8567,76 +8567,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K91">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L91">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M91">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N91">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="O91">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P91">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q91">
         <v>0</v>
       </c>
       <c r="R91">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S91">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T91">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U91">
+        <v>2</v>
+      </c>
+      <c r="V91">
         <v>1.8</v>
       </c>
-      <c r="V91">
-        <v>2</v>
-      </c>
       <c r="W91">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA91">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC91">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8644,7 +8644,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7618724</v>
+        <v>7618726</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8656,76 +8656,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92" t="s">
+        <v>52</v>
+      </c>
+      <c r="K92">
+        <v>2.375</v>
+      </c>
+      <c r="L92">
+        <v>2.8</v>
+      </c>
+      <c r="M92">
         <v>3</v>
       </c>
-      <c r="I92">
-        <v>1</v>
-      </c>
-      <c r="J92" t="s">
-        <v>53</v>
-      </c>
-      <c r="K92">
-        <v>2.875</v>
-      </c>
-      <c r="L92">
-        <v>2.75</v>
-      </c>
-      <c r="M92">
-        <v>2.5</v>
-      </c>
       <c r="N92">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="O92">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P92">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q92">
         <v>0</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S92">
+        <v>2.05</v>
+      </c>
+      <c r="T92">
+        <v>1.75</v>
+      </c>
+      <c r="U92">
         <v>1.8</v>
       </c>
-      <c r="T92">
-        <v>2</v>
-      </c>
-      <c r="U92">
-        <v>2</v>
-      </c>
       <c r="V92">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W92">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -9623,7 +9623,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7645264</v>
+        <v>7648519</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9635,46 +9635,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K103">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L103">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="N103">
+        <v>5.25</v>
+      </c>
+      <c r="O103">
+        <v>3.75</v>
+      </c>
+      <c r="P103">
         <v>1.533</v>
       </c>
-      <c r="O103">
-        <v>3.5</v>
-      </c>
-      <c r="P103">
-        <v>6.5</v>
-      </c>
       <c r="Q103">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R103">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S103">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T103">
         <v>2</v>
@@ -9689,22 +9689,22 @@
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA103">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9712,7 +9712,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7648519</v>
+        <v>7645264</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9724,46 +9724,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K104">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L104">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M104">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="N104">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="O104">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P104">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="Q104">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R104">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S104">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T104">
         <v>2</v>
@@ -9778,22 +9778,22 @@
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y104">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
+        <v>0.825</v>
+      </c>
+      <c r="AB104">
+        <v>0</v>
+      </c>
+      <c r="AC104">
         <v>-0</v>
-      </c>
-      <c r="AB104">
-        <v>-1</v>
-      </c>
-      <c r="AC104">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10068,7 +10068,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7811883</v>
+        <v>7811882</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10080,76 +10080,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G108" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
         <v>51</v>
       </c>
       <c r="K108">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="L108">
+        <v>2.9</v>
+      </c>
+      <c r="M108">
         <v>3.4</v>
       </c>
-      <c r="M108">
-        <v>1.727</v>
-      </c>
       <c r="N108">
+        <v>2.05</v>
+      </c>
+      <c r="O108">
+        <v>2.9</v>
+      </c>
+      <c r="P108">
         <v>3.6</v>
       </c>
-      <c r="O108">
-        <v>3.3</v>
-      </c>
-      <c r="P108">
-        <v>1.909</v>
-      </c>
       <c r="Q108">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S108">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T108">
         <v>1.75</v>
       </c>
       <c r="U108">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="V108">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC108">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10157,7 +10157,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7811882</v>
+        <v>7811883</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10169,76 +10169,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
         <v>51</v>
       </c>
       <c r="K109">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="L109">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M109">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="N109">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="O109">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P109">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q109">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R109">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S109">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T109">
         <v>1.75</v>
       </c>
       <c r="U109">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="V109">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA109">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -14696,7 +14696,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>8088065</v>
+        <v>8088066</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14705,34 +14705,43 @@
         <v>28</v>
       </c>
       <c r="E160" s="2">
-        <v>45397.66666666666</v>
+        <v>45396.47916666666</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G160" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="H160">
+        <v>2</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160" t="s">
+        <v>53</v>
       </c>
       <c r="K160">
-        <v>1.6</v>
+        <v>1.333</v>
       </c>
       <c r="L160">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M160">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N160">
-        <v>1.444</v>
+        <v>1.25</v>
       </c>
       <c r="O160">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P160">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q160">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R160">
         <v>1.95</v>
@@ -14744,25 +14753,31 @@
         <v>2.75</v>
       </c>
       <c r="U160">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V160">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W160">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="X160">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA160">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB160">
+        <v>-1</v>
+      </c>
+      <c r="AC160">
+        <v>0.8999999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC160"/>
+  <dimension ref="A1:AC164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2414,7 +2414,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6862617</v>
+        <v>6862618</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2426,76 +2426,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="M22">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N22">
+        <v>2.05</v>
+      </c>
+      <c r="O22">
+        <v>2.625</v>
+      </c>
+      <c r="P22">
+        <v>4</v>
+      </c>
+      <c r="Q22">
+        <v>-0.25</v>
+      </c>
+      <c r="R22">
+        <v>1.775</v>
+      </c>
+      <c r="S22">
+        <v>2.025</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
         <v>1.95</v>
       </c>
-      <c r="O22">
-        <v>2.8</v>
-      </c>
-      <c r="P22">
-        <v>4.1</v>
-      </c>
-      <c r="Q22">
-        <v>-0.5</v>
-      </c>
-      <c r="R22">
-        <v>2</v>
-      </c>
-      <c r="S22">
-        <v>1.8</v>
-      </c>
-      <c r="T22">
-        <v>2.25</v>
-      </c>
-      <c r="U22">
-        <v>2.025</v>
-      </c>
       <c r="V22">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2503,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6862618</v>
+        <v>6862617</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2515,76 +2515,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L23">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="M23">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N23">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O23">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P23">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>1.8</v>
+      </c>
+      <c r="T23">
+        <v>2.25</v>
+      </c>
+      <c r="U23">
+        <v>2.025</v>
+      </c>
+      <c r="V23">
         <v>1.775</v>
       </c>
-      <c r="S23">
-        <v>2.025</v>
-      </c>
-      <c r="T23">
-        <v>2</v>
-      </c>
-      <c r="U23">
-        <v>1.95</v>
-      </c>
-      <c r="V23">
-        <v>1.85</v>
-      </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y23">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -7398,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7592803</v>
+        <v>7590595</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7410,49 +7410,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F78" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J78" t="s">
         <v>52</v>
       </c>
       <c r="K78">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L78">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78">
+        <v>4.5</v>
+      </c>
+      <c r="O78">
         <v>3</v>
       </c>
-      <c r="N78">
-        <v>2.3</v>
-      </c>
-      <c r="O78">
-        <v>2.875</v>
-      </c>
       <c r="P78">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R78">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S78">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
         <v>2</v>
@@ -7467,19 +7467,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7590595</v>
+        <v>7592803</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7499,49 +7499,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G79" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
         <v>52</v>
       </c>
       <c r="K79">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L79">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N79">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="O79">
+        <v>2.875</v>
+      </c>
+      <c r="P79">
         <v>3</v>
       </c>
-      <c r="P79">
-        <v>1.75</v>
-      </c>
       <c r="Q79">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S79">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U79">
         <v>2</v>
@@ -7556,19 +7556,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB79">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -8555,7 +8555,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7618724</v>
+        <v>7618726</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8567,76 +8567,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91" t="s">
+        <v>52</v>
+      </c>
+      <c r="K91">
+        <v>2.375</v>
+      </c>
+      <c r="L91">
+        <v>2.8</v>
+      </c>
+      <c r="M91">
         <v>3</v>
       </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
-      <c r="J91" t="s">
-        <v>53</v>
-      </c>
-      <c r="K91">
-        <v>2.875</v>
-      </c>
-      <c r="L91">
-        <v>2.75</v>
-      </c>
-      <c r="M91">
-        <v>2.5</v>
-      </c>
       <c r="N91">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="O91">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P91">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q91">
         <v>0</v>
       </c>
       <c r="R91">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S91">
+        <v>2.05</v>
+      </c>
+      <c r="T91">
+        <v>1.75</v>
+      </c>
+      <c r="U91">
         <v>1.8</v>
       </c>
-      <c r="T91">
-        <v>2</v>
-      </c>
-      <c r="U91">
-        <v>2</v>
-      </c>
       <c r="V91">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W91">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8644,7 +8644,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7618726</v>
+        <v>7618724</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8656,76 +8656,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K92">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L92">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M92">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N92">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="O92">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P92">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q92">
         <v>0</v>
       </c>
       <c r="R92">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S92">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T92">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U92">
+        <v>2</v>
+      </c>
+      <c r="V92">
         <v>1.8</v>
       </c>
-      <c r="V92">
-        <v>2</v>
-      </c>
       <c r="W92">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA92">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC92">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -12471,7 +12471,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7897090</v>
+        <v>7901411</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12483,76 +12483,76 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K135">
         <v>2.1</v>
       </c>
       <c r="L135">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M135">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N135">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O135">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P135">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q135">
         <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S135">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T135">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U135">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V135">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y135">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB135">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12560,7 +12560,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7901411</v>
+        <v>7897090</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12572,76 +12572,76 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F136" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K136">
         <v>2.1</v>
       </c>
       <c r="L136">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M136">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N136">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O136">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P136">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q136">
         <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S136">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T136">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U136">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V136">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC136">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -14778,6 +14778,362 @@
       </c>
       <c r="AC160">
         <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:29">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>8099724</v>
+      </c>
+      <c r="C161" t="s">
+        <v>28</v>
+      </c>
+      <c r="D161" t="s">
+        <v>28</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45397.375</v>
+      </c>
+      <c r="F161" t="s">
+        <v>38</v>
+      </c>
+      <c r="G161" t="s">
+        <v>35</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161" t="s">
+        <v>53</v>
+      </c>
+      <c r="K161">
+        <v>1.6</v>
+      </c>
+      <c r="L161">
+        <v>3.4</v>
+      </c>
+      <c r="M161">
+        <v>5.25</v>
+      </c>
+      <c r="N161">
+        <v>1.6</v>
+      </c>
+      <c r="O161">
+        <v>3.4</v>
+      </c>
+      <c r="P161">
+        <v>5.25</v>
+      </c>
+      <c r="Q161">
+        <v>-0.75</v>
+      </c>
+      <c r="R161">
+        <v>1.8</v>
+      </c>
+      <c r="S161">
+        <v>2</v>
+      </c>
+      <c r="T161">
+        <v>2</v>
+      </c>
+      <c r="U161">
+        <v>1.95</v>
+      </c>
+      <c r="V161">
+        <v>1.85</v>
+      </c>
+      <c r="W161">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X161">
+        <v>-1</v>
+      </c>
+      <c r="Y161">
+        <v>-1</v>
+      </c>
+      <c r="Z161">
+        <v>0.4</v>
+      </c>
+      <c r="AA161">
+        <v>-0.5</v>
+      </c>
+      <c r="AB161">
+        <v>-1</v>
+      </c>
+      <c r="AC161">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:29">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>8100051</v>
+      </c>
+      <c r="C162" t="s">
+        <v>28</v>
+      </c>
+      <c r="D162" t="s">
+        <v>28</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45397.375</v>
+      </c>
+      <c r="F162" t="s">
+        <v>36</v>
+      </c>
+      <c r="G162" t="s">
+        <v>39</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="I162">
+        <v>2</v>
+      </c>
+      <c r="J162" t="s">
+        <v>52</v>
+      </c>
+      <c r="K162">
+        <v>2.7</v>
+      </c>
+      <c r="L162">
+        <v>2.8</v>
+      </c>
+      <c r="M162">
+        <v>2.6</v>
+      </c>
+      <c r="N162">
+        <v>2.7</v>
+      </c>
+      <c r="O162">
+        <v>2.8</v>
+      </c>
+      <c r="P162">
+        <v>2.6</v>
+      </c>
+      <c r="Q162">
+        <v>0</v>
+      </c>
+      <c r="R162">
+        <v>1.95</v>
+      </c>
+      <c r="S162">
+        <v>1.85</v>
+      </c>
+      <c r="T162">
+        <v>1.75</v>
+      </c>
+      <c r="U162">
+        <v>1.775</v>
+      </c>
+      <c r="V162">
+        <v>2.025</v>
+      </c>
+      <c r="W162">
+        <v>-1</v>
+      </c>
+      <c r="X162">
+        <v>-1</v>
+      </c>
+      <c r="Y162">
+        <v>1.6</v>
+      </c>
+      <c r="Z162">
+        <v>-1</v>
+      </c>
+      <c r="AA162">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB162">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC162">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:29">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>8100052</v>
+      </c>
+      <c r="C163" t="s">
+        <v>28</v>
+      </c>
+      <c r="D163" t="s">
+        <v>28</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45397.47916666666</v>
+      </c>
+      <c r="F163" t="s">
+        <v>46</v>
+      </c>
+      <c r="G163" t="s">
+        <v>32</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163" t="s">
+        <v>51</v>
+      </c>
+      <c r="K163">
+        <v>1.909</v>
+      </c>
+      <c r="L163">
+        <v>3.1</v>
+      </c>
+      <c r="M163">
+        <v>3.75</v>
+      </c>
+      <c r="N163">
+        <v>1.909</v>
+      </c>
+      <c r="O163">
+        <v>3.1</v>
+      </c>
+      <c r="P163">
+        <v>3.75</v>
+      </c>
+      <c r="Q163">
+        <v>-0.5</v>
+      </c>
+      <c r="R163">
+        <v>1.975</v>
+      </c>
+      <c r="S163">
+        <v>1.825</v>
+      </c>
+      <c r="T163">
+        <v>2</v>
+      </c>
+      <c r="U163">
+        <v>2</v>
+      </c>
+      <c r="V163">
+        <v>1.8</v>
+      </c>
+      <c r="W163">
+        <v>-1</v>
+      </c>
+      <c r="X163">
+        <v>2.1</v>
+      </c>
+      <c r="Y163">
+        <v>-1</v>
+      </c>
+      <c r="Z163">
+        <v>-1</v>
+      </c>
+      <c r="AA163">
+        <v>0.825</v>
+      </c>
+      <c r="AB163">
+        <v>-1</v>
+      </c>
+      <c r="AC163">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:29">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>8088065</v>
+      </c>
+      <c r="C164" t="s">
+        <v>28</v>
+      </c>
+      <c r="D164" t="s">
+        <v>28</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45397.66666666666</v>
+      </c>
+      <c r="F164" t="s">
+        <v>37</v>
+      </c>
+      <c r="G164" t="s">
+        <v>42</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164" t="s">
+        <v>51</v>
+      </c>
+      <c r="K164">
+        <v>1.6</v>
+      </c>
+      <c r="L164">
+        <v>3.5</v>
+      </c>
+      <c r="M164">
+        <v>5</v>
+      </c>
+      <c r="N164">
+        <v>1.363</v>
+      </c>
+      <c r="O164">
+        <v>4.5</v>
+      </c>
+      <c r="P164">
+        <v>7.5</v>
+      </c>
+      <c r="Q164">
+        <v>-1.25</v>
+      </c>
+      <c r="R164">
+        <v>1.75</v>
+      </c>
+      <c r="S164">
+        <v>1.95</v>
+      </c>
+      <c r="T164">
+        <v>2.75</v>
+      </c>
+      <c r="U164">
+        <v>1.95</v>
+      </c>
+      <c r="V164">
+        <v>1.85</v>
+      </c>
+      <c r="W164">
+        <v>-1</v>
+      </c>
+      <c r="X164">
+        <v>3.5</v>
+      </c>
+      <c r="Y164">
+        <v>-1</v>
+      </c>
+      <c r="Z164">
+        <v>-1</v>
+      </c>
+      <c r="AA164">
+        <v>0.95</v>
+      </c>
+      <c r="AB164">
+        <v>-1</v>
+      </c>
+      <c r="AC164">
+        <v>0.8500000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -109,10 +109,10 @@
     <t>Al Zawraa</t>
   </si>
   <si>
-    <t>Al Sinaah</t>
+    <t>Al Karkh</t>
   </si>
   <si>
-    <t>Al Karkh</t>
+    <t>Al Sinaah</t>
   </si>
   <si>
     <t>Al Shorta SC</t>
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6729610</v>
+        <v>6729609</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -827,73 +827,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K4">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L4">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="M4">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="N4">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O4">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="P4">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S4">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T4">
         <v>2</v>
       </c>
       <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
         <v>1.8</v>
       </c>
-      <c r="V4">
-        <v>2</v>
-      </c>
       <c r="W4">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB4">
+        <v>-1</v>
+      </c>
+      <c r="AC4">
         <v>0.8</v>
-      </c>
-      <c r="AC4">
-        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6729609</v>
+        <v>6729610</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -916,73 +916,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K5">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L5">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="M5">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="N5">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="O5">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="P5">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T5">
         <v>2</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X5">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA5">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC5">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1183,7 +1183,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1969,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6838982</v>
+        <v>6838980</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1984,73 +1984,73 @@
         <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K17">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N17">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Q17">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S17">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T17">
         <v>2</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA17">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2058,7 +2058,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6838980</v>
+        <v>6838982</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2073,73 +2073,73 @@
         <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K18">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L18">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N18">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O18">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Q18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
+        <v>1.725</v>
+      </c>
+      <c r="S18">
+        <v>1.975</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="V18">
         <v>1.8</v>
       </c>
-      <c r="S18">
-        <v>2</v>
-      </c>
-      <c r="T18">
-        <v>2</v>
-      </c>
-      <c r="U18">
-        <v>1.85</v>
-      </c>
-      <c r="V18">
-        <v>1.95</v>
-      </c>
       <c r="W18">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z18">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC18">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2340,7 +2340,7 @@
         <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2414,7 +2414,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6862618</v>
+        <v>6862617</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2426,76 +2426,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L22">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="M22">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N22">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O22">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P22">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>1.8</v>
+      </c>
+      <c r="T22">
+        <v>2.25</v>
+      </c>
+      <c r="U22">
+        <v>2.025</v>
+      </c>
+      <c r="V22">
         <v>1.775</v>
       </c>
-      <c r="S22">
-        <v>2.025</v>
-      </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
-      <c r="U22">
-        <v>1.95</v>
-      </c>
-      <c r="V22">
-        <v>1.85</v>
-      </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y22">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2503,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6862617</v>
+        <v>6862618</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2515,76 +2515,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="M23">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N23">
+        <v>2.05</v>
+      </c>
+      <c r="O23">
+        <v>2.625</v>
+      </c>
+      <c r="P23">
+        <v>4</v>
+      </c>
+      <c r="Q23">
+        <v>-0.25</v>
+      </c>
+      <c r="R23">
+        <v>1.775</v>
+      </c>
+      <c r="S23">
+        <v>2.025</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
         <v>1.95</v>
       </c>
-      <c r="O23">
-        <v>2.8</v>
-      </c>
-      <c r="P23">
-        <v>4.1</v>
-      </c>
-      <c r="Q23">
-        <v>-0.5</v>
-      </c>
-      <c r="R23">
-        <v>2</v>
-      </c>
-      <c r="S23">
-        <v>1.8</v>
-      </c>
-      <c r="T23">
-        <v>2.25</v>
-      </c>
-      <c r="U23">
-        <v>2.025</v>
-      </c>
       <c r="V23">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2607,7 +2607,7 @@
         <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2782,7 +2782,7 @@
         <v>45117.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
         <v>37</v>
@@ -3049,7 +3049,7 @@
         <v>45118.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3497,7 +3497,7 @@
         <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3672,10 +3672,10 @@
         <v>45128.45833333334</v>
       </c>
       <c r="F36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
         <v>31</v>
-      </c>
-      <c r="G36" t="s">
-        <v>32</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -4105,7 +4105,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7407173</v>
+        <v>7406927</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4117,76 +4117,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K41">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="M41">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="N41">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="O41">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P41">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q41">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R41">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U41">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V41">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W41">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
+        <v>0.45</v>
+      </c>
+      <c r="AA41">
         <v>-0.5</v>
       </c>
-      <c r="AA41">
-        <v>0.4875</v>
-      </c>
       <c r="AB41">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4194,7 +4194,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7406927</v>
+        <v>7407173</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4206,76 +4206,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K42">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="L42">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M42">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="N42">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="O42">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="P42">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="Q42">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R42">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S42">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T42">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U42">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V42">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X42">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA42">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC42">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4565,7 +4565,7 @@
         <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -5989,7 +5989,7 @@
         <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6523,7 +6523,7 @@
         <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6597,7 +6597,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7555937</v>
+        <v>7555939</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6609,13 +6609,13 @@
         <v>45265.35416666666</v>
       </c>
       <c r="F69" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69">
         <v>2</v>
@@ -6624,40 +6624,40 @@
         <v>52</v>
       </c>
       <c r="K69">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="L69">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M69">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="N69">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="O69">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="P69">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R69">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S69">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T69">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V69">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6666,19 +6666,19 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>2.4</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA69">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC69">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6686,7 +6686,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7555939</v>
+        <v>7555937</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6698,13 +6698,13 @@
         <v>45265.35416666666</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>2</v>
@@ -6713,40 +6713,40 @@
         <v>52</v>
       </c>
       <c r="K70">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="L70">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M70">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="N70">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="O70">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P70">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q70">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S70">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U70">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V70">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6755,19 +6755,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="Z70">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB70">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6953,7 +6953,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7565123</v>
+        <v>7565124</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6965,56 +6965,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
         <v>52</v>
       </c>
       <c r="K73">
+        <v>1.5</v>
+      </c>
+      <c r="L73">
+        <v>3.6</v>
+      </c>
+      <c r="M73">
+        <v>6</v>
+      </c>
+      <c r="N73">
         <v>1.727</v>
       </c>
-      <c r="L73">
-        <v>3.4</v>
-      </c>
-      <c r="M73">
+      <c r="O73">
+        <v>3.5</v>
+      </c>
+      <c r="P73">
         <v>4.2</v>
       </c>
-      <c r="N73">
-        <v>1.833</v>
-      </c>
-      <c r="O73">
-        <v>3.3</v>
-      </c>
-      <c r="P73">
-        <v>3.75</v>
-      </c>
       <c r="Q73">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R73">
+        <v>2</v>
+      </c>
+      <c r="S73">
+        <v>1.8</v>
+      </c>
+      <c r="T73">
+        <v>2</v>
+      </c>
+      <c r="U73">
         <v>1.875</v>
       </c>
-      <c r="S73">
+      <c r="V73">
         <v>1.925</v>
       </c>
-      <c r="T73">
-        <v>2</v>
-      </c>
-      <c r="U73">
-        <v>1.925</v>
-      </c>
-      <c r="V73">
-        <v>1.875</v>
-      </c>
       <c r="W73">
         <v>-1</v>
       </c>
@@ -7022,19 +7022,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
+        <v>0.8</v>
+      </c>
+      <c r="AB73">
+        <v>-1</v>
+      </c>
+      <c r="AC73">
         <v>0.925</v>
-      </c>
-      <c r="AB73">
-        <v>0.925</v>
-      </c>
-      <c r="AC73">
-        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7042,7 +7042,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7565124</v>
+        <v>7565123</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7054,56 +7054,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
         <v>52</v>
       </c>
       <c r="K74">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L74">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M74">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N74">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="O74">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P74">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q74">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S74">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T74">
         <v>2</v>
       </c>
       <c r="U74">
+        <v>1.925</v>
+      </c>
+      <c r="V74">
         <v>1.875</v>
       </c>
-      <c r="V74">
-        <v>1.925</v>
-      </c>
       <c r="W74">
         <v>-1</v>
       </c>
@@ -7111,19 +7111,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7766,7 +7766,7 @@
         <v>45279.3125</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
         <v>29</v>
@@ -8555,7 +8555,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7618726</v>
+        <v>7618724</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8567,76 +8567,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K91">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L91">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M91">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N91">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="O91">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P91">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q91">
         <v>0</v>
       </c>
       <c r="R91">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S91">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T91">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U91">
+        <v>2</v>
+      </c>
+      <c r="V91">
         <v>1.8</v>
       </c>
-      <c r="V91">
-        <v>2</v>
-      </c>
       <c r="W91">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA91">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC91">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8644,7 +8644,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7618724</v>
+        <v>7618726</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8656,76 +8656,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92" t="s">
+        <v>52</v>
+      </c>
+      <c r="K92">
+        <v>2.375</v>
+      </c>
+      <c r="L92">
+        <v>2.8</v>
+      </c>
+      <c r="M92">
         <v>3</v>
       </c>
-      <c r="I92">
-        <v>1</v>
-      </c>
-      <c r="J92" t="s">
-        <v>53</v>
-      </c>
-      <c r="K92">
-        <v>2.875</v>
-      </c>
-      <c r="L92">
-        <v>2.75</v>
-      </c>
-      <c r="M92">
-        <v>2.5</v>
-      </c>
       <c r="N92">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="O92">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P92">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q92">
         <v>0</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S92">
+        <v>2.05</v>
+      </c>
+      <c r="T92">
+        <v>1.75</v>
+      </c>
+      <c r="U92">
         <v>1.8</v>
       </c>
-      <c r="T92">
-        <v>2</v>
-      </c>
-      <c r="U92">
-        <v>2</v>
-      </c>
       <c r="V92">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W92">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -9371,7 +9371,7 @@
         <v>47</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9623,7 +9623,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7648519</v>
+        <v>7645264</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9635,46 +9635,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K103">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L103">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M103">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="N103">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="O103">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P103">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="Q103">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R103">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S103">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T103">
         <v>2</v>
@@ -9689,22 +9689,22 @@
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y103">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
+        <v>0.825</v>
+      </c>
+      <c r="AB103">
+        <v>0</v>
+      </c>
+      <c r="AC103">
         <v>-0</v>
-      </c>
-      <c r="AB103">
-        <v>-1</v>
-      </c>
-      <c r="AC103">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9712,7 +9712,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7645264</v>
+        <v>7648519</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9724,46 +9724,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K104">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L104">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="N104">
+        <v>5.25</v>
+      </c>
+      <c r="O104">
+        <v>3.75</v>
+      </c>
+      <c r="P104">
         <v>1.533</v>
       </c>
-      <c r="O104">
-        <v>3.5</v>
-      </c>
-      <c r="P104">
-        <v>6.5</v>
-      </c>
       <c r="Q104">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R104">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T104">
         <v>2</v>
@@ -9778,22 +9778,22 @@
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10169,7 +10169,7 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
         <v>42</v>
@@ -11059,7 +11059,7 @@
         <v>45342.33333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
         <v>35</v>
@@ -12041,7 +12041,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12471,7 +12471,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7901411</v>
+        <v>7897090</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12483,76 +12483,76 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J135" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K135">
         <v>2.1</v>
       </c>
       <c r="L135">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M135">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N135">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O135">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P135">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q135">
         <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S135">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T135">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U135">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V135">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC135">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12560,7 +12560,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7897090</v>
+        <v>7901411</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12572,76 +12572,76 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K136">
         <v>2.1</v>
       </c>
       <c r="L136">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M136">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N136">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O136">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P136">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q136">
         <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S136">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T136">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U136">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V136">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y136">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB136">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13284,7 +13284,7 @@
         <v>45359.35416666666</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
         <v>33</v>
@@ -13895,7 +13895,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>8031832</v>
+        <v>8031833</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13907,76 +13907,76 @@
         <v>45382.64583333334</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G151" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="s">
         <v>51</v>
       </c>
       <c r="K151">
-        <v>1.909</v>
+        <v>4.1</v>
       </c>
       <c r="L151">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="M151">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N151">
-        <v>1.833</v>
+        <v>3.5</v>
       </c>
       <c r="O151">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P151">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q151">
+        <v>0.25</v>
+      </c>
+      <c r="R151">
+        <v>1.975</v>
+      </c>
+      <c r="S151">
+        <v>1.825</v>
+      </c>
+      <c r="T151">
+        <v>2</v>
+      </c>
+      <c r="U151">
+        <v>2.025</v>
+      </c>
+      <c r="V151">
+        <v>1.775</v>
+      </c>
+      <c r="W151">
+        <v>-1</v>
+      </c>
+      <c r="X151">
+        <v>1.9</v>
+      </c>
+      <c r="Y151">
+        <v>-1</v>
+      </c>
+      <c r="Z151">
+        <v>0.4875</v>
+      </c>
+      <c r="AA151">
         <v>-0.5</v>
       </c>
-      <c r="R151">
-        <v>1.875</v>
-      </c>
-      <c r="S151">
-        <v>1.925</v>
-      </c>
-      <c r="T151">
-        <v>1.75</v>
-      </c>
-      <c r="U151">
-        <v>1.95</v>
-      </c>
-      <c r="V151">
-        <v>1.85</v>
-      </c>
-      <c r="W151">
-        <v>-1</v>
-      </c>
-      <c r="X151">
-        <v>1.8</v>
-      </c>
-      <c r="Y151">
-        <v>-1</v>
-      </c>
-      <c r="Z151">
-        <v>-1</v>
-      </c>
-      <c r="AA151">
-        <v>0.925</v>
-      </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC151">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13984,7 +13984,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>8031833</v>
+        <v>8031832</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13996,76 +13996,76 @@
         <v>45382.64583333334</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G152" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
         <v>51</v>
       </c>
       <c r="K152">
-        <v>4.1</v>
+        <v>1.909</v>
       </c>
       <c r="L152">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="M152">
+        <v>4</v>
+      </c>
+      <c r="N152">
         <v>1.833</v>
       </c>
-      <c r="N152">
-        <v>3.5</v>
-      </c>
       <c r="O152">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P152">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="Q152">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R152">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S152">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T152">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U152">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V152">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14174,7 +14174,7 @@
         <v>45384.375</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G154" t="s">
         <v>34</v>
@@ -14978,7 +14978,7 @@
         <v>46</v>
       </c>
       <c r="G163" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H163">
         <v>0</v>

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -109,10 +109,10 @@
     <t>Al Zawraa</t>
   </si>
   <si>
-    <t>Al Karkh</t>
+    <t>Al Sinaah</t>
   </si>
   <si>
-    <t>Al Sinaah</t>
+    <t>Al Karkh</t>
   </si>
   <si>
     <t>Al Shorta SC</t>
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6729609</v>
+        <v>6729610</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -827,73 +827,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K4">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L4">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="M4">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="N4">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="O4">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="P4">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T4">
         <v>2</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X4">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA4">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC4">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6729610</v>
+        <v>6729609</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -916,73 +916,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K5">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L5">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="M5">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="N5">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O5">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="P5">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S5">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T5">
         <v>2</v>
       </c>
       <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
         <v>1.8</v>
       </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
       <c r="W5">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB5">
+        <v>-1</v>
+      </c>
+      <c r="AC5">
         <v>0.8</v>
-      </c>
-      <c r="AC5">
-        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1183,7 +1183,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1969,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6838980</v>
+        <v>6838982</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1984,73 +1984,73 @@
         <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L17">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N17">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O17">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Q17">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R17">
+        <v>1.725</v>
+      </c>
+      <c r="S17">
+        <v>1.975</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
         <v>1.8</v>
       </c>
-      <c r="S17">
-        <v>2</v>
-      </c>
-      <c r="T17">
-        <v>2</v>
-      </c>
-      <c r="U17">
-        <v>1.85</v>
-      </c>
-      <c r="V17">
-        <v>1.95</v>
-      </c>
       <c r="W17">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2058,7 +2058,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6838982</v>
+        <v>6838980</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2073,73 +2073,73 @@
         <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N18">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R18">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S18">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T18">
         <v>2</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V18">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA18">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2340,7 +2340,7 @@
         <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2607,7 +2607,7 @@
         <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2782,7 +2782,7 @@
         <v>45117.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
         <v>37</v>
@@ -3049,7 +3049,7 @@
         <v>45118.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3497,7 +3497,7 @@
         <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3672,10 +3672,10 @@
         <v>45128.45833333334</v>
       </c>
       <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
         <v>32</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -4105,7 +4105,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7406927</v>
+        <v>7407173</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4117,76 +4117,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K41">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="L41">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M41">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="N41">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="O41">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="P41">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="Q41">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S41">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T41">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U41">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V41">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X41">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA41">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC41">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4194,7 +4194,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7407173</v>
+        <v>7406927</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4206,76 +4206,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K42">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="M42">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="N42">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="O42">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P42">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q42">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R42">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T42">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U42">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W42">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
+        <v>0.45</v>
+      </c>
+      <c r="AA42">
         <v>-0.5</v>
       </c>
-      <c r="AA42">
-        <v>0.4875</v>
-      </c>
       <c r="AB42">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4565,7 +4565,7 @@
         <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -5262,7 +5262,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7453403</v>
+        <v>7453404</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5274,76 +5274,76 @@
         <v>45240.375</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K54">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L54">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M54">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N54">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O54">
         <v>2.9</v>
       </c>
       <c r="P54">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R54">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S54">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T54">
         <v>2</v>
       </c>
       <c r="U54">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z54">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5351,7 +5351,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7453404</v>
+        <v>7453403</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5363,76 +5363,76 @@
         <v>45240.375</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K55">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L55">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M55">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N55">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O55">
         <v>2.9</v>
       </c>
       <c r="P55">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q55">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S55">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T55">
         <v>2</v>
       </c>
       <c r="U55">
+        <v>1.975</v>
+      </c>
+      <c r="V55">
+        <v>1.825</v>
+      </c>
+      <c r="W55">
+        <v>-1</v>
+      </c>
+      <c r="X55">
         <v>1.9</v>
       </c>
-      <c r="V55">
-        <v>1.9</v>
-      </c>
-      <c r="W55">
-        <v>-1</v>
-      </c>
-      <c r="X55">
-        <v>-1</v>
-      </c>
       <c r="Y55">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA55">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5618,7 +5618,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7511489</v>
+        <v>7511490</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5630,10 +5630,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5645,40 +5645,40 @@
         <v>52</v>
       </c>
       <c r="K58">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L58">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M58">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N58">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="O58">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P58">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q58">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R58">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S58">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T58">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U58">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V58">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W58">
         <v>-1</v>
@@ -5687,19 +5687,19 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB58">
+        <v>0.45</v>
+      </c>
+      <c r="AC58">
         <v>-0.5</v>
-      </c>
-      <c r="AC58">
-        <v>0.375</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5707,7 +5707,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7511490</v>
+        <v>7511489</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5719,10 +5719,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5734,41 +5734,41 @@
         <v>52</v>
       </c>
       <c r="K59">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="M59">
         <v>3.1</v>
       </c>
-      <c r="M59">
-        <v>1.909</v>
-      </c>
       <c r="N59">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O59">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P59">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R59">
+        <v>1.95</v>
+      </c>
+      <c r="S59">
+        <v>1.85</v>
+      </c>
+      <c r="T59">
+        <v>2.25</v>
+      </c>
+      <c r="U59">
+        <v>2.05</v>
+      </c>
+      <c r="V59">
         <v>1.75</v>
       </c>
-      <c r="S59">
-        <v>2.05</v>
-      </c>
-      <c r="T59">
-        <v>1.75</v>
-      </c>
-      <c r="U59">
-        <v>1.9</v>
-      </c>
-      <c r="V59">
-        <v>1.9</v>
-      </c>
       <c r="W59">
         <v>-1</v>
       </c>
@@ -5776,19 +5776,19 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB59">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC59">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5989,7 +5989,7 @@
         <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6523,7 +6523,7 @@
         <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6953,7 +6953,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7565124</v>
+        <v>7565123</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6965,56 +6965,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
         <v>52</v>
       </c>
       <c r="K73">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L73">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M73">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N73">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="O73">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P73">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q73">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R73">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S73">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T73">
         <v>2</v>
       </c>
       <c r="U73">
+        <v>1.925</v>
+      </c>
+      <c r="V73">
         <v>1.875</v>
       </c>
-      <c r="V73">
-        <v>1.925</v>
-      </c>
       <c r="W73">
         <v>-1</v>
       </c>
@@ -7022,19 +7022,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC73">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7042,7 +7042,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7565123</v>
+        <v>7565124</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7054,56 +7054,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
         <v>52</v>
       </c>
       <c r="K74">
+        <v>1.5</v>
+      </c>
+      <c r="L74">
+        <v>3.6</v>
+      </c>
+      <c r="M74">
+        <v>6</v>
+      </c>
+      <c r="N74">
         <v>1.727</v>
       </c>
-      <c r="L74">
-        <v>3.4</v>
-      </c>
-      <c r="M74">
+      <c r="O74">
+        <v>3.5</v>
+      </c>
+      <c r="P74">
         <v>4.2</v>
       </c>
-      <c r="N74">
-        <v>1.833</v>
-      </c>
-      <c r="O74">
-        <v>3.3</v>
-      </c>
-      <c r="P74">
-        <v>3.75</v>
-      </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R74">
+        <v>2</v>
+      </c>
+      <c r="S74">
+        <v>1.8</v>
+      </c>
+      <c r="T74">
+        <v>2</v>
+      </c>
+      <c r="U74">
         <v>1.875</v>
       </c>
-      <c r="S74">
+      <c r="V74">
         <v>1.925</v>
       </c>
-      <c r="T74">
-        <v>2</v>
-      </c>
-      <c r="U74">
-        <v>1.925</v>
-      </c>
-      <c r="V74">
-        <v>1.875</v>
-      </c>
       <c r="W74">
         <v>-1</v>
       </c>
@@ -7111,19 +7111,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
+        <v>0.8</v>
+      </c>
+      <c r="AB74">
+        <v>-1</v>
+      </c>
+      <c r="AC74">
         <v>0.925</v>
-      </c>
-      <c r="AB74">
-        <v>0.925</v>
-      </c>
-      <c r="AC74">
-        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7766,7 +7766,7 @@
         <v>45279.3125</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
         <v>29</v>
@@ -9371,7 +9371,7 @@
         <v>47</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9623,7 +9623,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7645264</v>
+        <v>7648519</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9635,46 +9635,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K103">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L103">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="N103">
+        <v>5.25</v>
+      </c>
+      <c r="O103">
+        <v>3.75</v>
+      </c>
+      <c r="P103">
         <v>1.533</v>
       </c>
-      <c r="O103">
-        <v>3.5</v>
-      </c>
-      <c r="P103">
-        <v>6.5</v>
-      </c>
       <c r="Q103">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R103">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S103">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T103">
         <v>2</v>
@@ -9689,22 +9689,22 @@
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA103">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9712,7 +9712,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7648519</v>
+        <v>7645264</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9724,46 +9724,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K104">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L104">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M104">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="N104">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="O104">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P104">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="Q104">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R104">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S104">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T104">
         <v>2</v>
@@ -9778,22 +9778,22 @@
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y104">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
+        <v>0.825</v>
+      </c>
+      <c r="AB104">
+        <v>0</v>
+      </c>
+      <c r="AC104">
         <v>-0</v>
-      </c>
-      <c r="AB104">
-        <v>-1</v>
-      </c>
-      <c r="AC104">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10169,7 +10169,7 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
         <v>42</v>
@@ -11059,7 +11059,7 @@
         <v>45342.33333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
         <v>35</v>
@@ -12041,7 +12041,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12483,7 +12483,7 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
         <v>39</v>
@@ -13284,7 +13284,7 @@
         <v>45359.35416666666</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
         <v>33</v>
@@ -14174,7 +14174,7 @@
         <v>45384.375</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G154" t="s">
         <v>34</v>
@@ -14785,7 +14785,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>8099724</v>
+        <v>8100051</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14797,76 +14797,76 @@
         <v>45397.375</v>
       </c>
       <c r="F161" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G161" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H161">
         <v>1</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K161">
+        <v>2.7</v>
+      </c>
+      <c r="L161">
+        <v>2.8</v>
+      </c>
+      <c r="M161">
+        <v>2.6</v>
+      </c>
+      <c r="N161">
+        <v>2.7</v>
+      </c>
+      <c r="O161">
+        <v>2.8</v>
+      </c>
+      <c r="P161">
+        <v>2.6</v>
+      </c>
+      <c r="Q161">
+        <v>0</v>
+      </c>
+      <c r="R161">
+        <v>1.95</v>
+      </c>
+      <c r="S161">
+        <v>1.85</v>
+      </c>
+      <c r="T161">
+        <v>1.75</v>
+      </c>
+      <c r="U161">
+        <v>1.775</v>
+      </c>
+      <c r="V161">
+        <v>2.025</v>
+      </c>
+      <c r="W161">
+        <v>-1</v>
+      </c>
+      <c r="X161">
+        <v>-1</v>
+      </c>
+      <c r="Y161">
         <v>1.6</v>
       </c>
-      <c r="L161">
-        <v>3.4</v>
-      </c>
-      <c r="M161">
-        <v>5.25</v>
-      </c>
-      <c r="N161">
-        <v>1.6</v>
-      </c>
-      <c r="O161">
-        <v>3.4</v>
-      </c>
-      <c r="P161">
-        <v>5.25</v>
-      </c>
-      <c r="Q161">
-        <v>-0.75</v>
-      </c>
-      <c r="R161">
-        <v>1.8</v>
-      </c>
-      <c r="S161">
-        <v>2</v>
-      </c>
-      <c r="T161">
-        <v>2</v>
-      </c>
-      <c r="U161">
-        <v>1.95</v>
-      </c>
-      <c r="V161">
-        <v>1.85</v>
-      </c>
-      <c r="W161">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="X161">
-        <v>-1</v>
-      </c>
-      <c r="Y161">
-        <v>-1</v>
-      </c>
       <c r="Z161">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC161">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14874,7 +14874,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>8100051</v>
+        <v>8099724</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14886,76 +14886,76 @@
         <v>45397.375</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G162" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H162">
         <v>1</v>
       </c>
       <c r="I162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K162">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="L162">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M162">
-        <v>2.6</v>
+        <v>5.25</v>
       </c>
       <c r="N162">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="O162">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="P162">
-        <v>2.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q162">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R162">
+        <v>1.8</v>
+      </c>
+      <c r="S162">
+        <v>2</v>
+      </c>
+      <c r="T162">
+        <v>2</v>
+      </c>
+      <c r="U162">
         <v>1.95</v>
       </c>
-      <c r="S162">
+      <c r="V162">
         <v>1.85</v>
       </c>
-      <c r="T162">
-        <v>1.75</v>
-      </c>
-      <c r="U162">
-        <v>1.775</v>
-      </c>
-      <c r="V162">
-        <v>2.025</v>
-      </c>
       <c r="W162">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA162">
+        <v>-0.5</v>
+      </c>
+      <c r="AB162">
+        <v>-1</v>
+      </c>
+      <c r="AC162">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB162">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC162">
-        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14978,7 +14978,7 @@
         <v>46</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H163">
         <v>0</v>

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -109,10 +109,10 @@
     <t>Al Zawraa</t>
   </si>
   <si>
-    <t>Al Sinaah</t>
+    <t>Al Karkh</t>
   </si>
   <si>
-    <t>Al Karkh</t>
+    <t>Al Sinaah</t>
   </si>
   <si>
     <t>Al Shorta SC</t>
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6729610</v>
+        <v>6729609</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -827,73 +827,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K4">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L4">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="M4">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="N4">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O4">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="P4">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S4">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T4">
         <v>2</v>
       </c>
       <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
         <v>1.8</v>
       </c>
-      <c r="V4">
-        <v>2</v>
-      </c>
       <c r="W4">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB4">
+        <v>-1</v>
+      </c>
+      <c r="AC4">
         <v>0.8</v>
-      </c>
-      <c r="AC4">
-        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6729609</v>
+        <v>6729610</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -916,73 +916,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K5">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L5">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="M5">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="N5">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="O5">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="P5">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T5">
         <v>2</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X5">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA5">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC5">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1183,7 +1183,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1969,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6838982</v>
+        <v>6838980</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1984,73 +1984,73 @@
         <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K17">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N17">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Q17">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S17">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T17">
         <v>2</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA17">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2058,7 +2058,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6838980</v>
+        <v>6838982</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2073,73 +2073,73 @@
         <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K18">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L18">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N18">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O18">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Q18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
+        <v>1.725</v>
+      </c>
+      <c r="S18">
+        <v>1.975</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="V18">
         <v>1.8</v>
       </c>
-      <c r="S18">
-        <v>2</v>
-      </c>
-      <c r="T18">
-        <v>2</v>
-      </c>
-      <c r="U18">
-        <v>1.85</v>
-      </c>
-      <c r="V18">
-        <v>1.95</v>
-      </c>
       <c r="W18">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z18">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC18">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2340,7 +2340,7 @@
         <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2414,7 +2414,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6862617</v>
+        <v>6862618</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2426,76 +2426,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="M22">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N22">
+        <v>2.05</v>
+      </c>
+      <c r="O22">
+        <v>2.625</v>
+      </c>
+      <c r="P22">
+        <v>4</v>
+      </c>
+      <c r="Q22">
+        <v>-0.25</v>
+      </c>
+      <c r="R22">
+        <v>1.775</v>
+      </c>
+      <c r="S22">
+        <v>2.025</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
         <v>1.95</v>
       </c>
-      <c r="O22">
-        <v>2.8</v>
-      </c>
-      <c r="P22">
-        <v>4.1</v>
-      </c>
-      <c r="Q22">
-        <v>-0.5</v>
-      </c>
-      <c r="R22">
-        <v>2</v>
-      </c>
-      <c r="S22">
-        <v>1.8</v>
-      </c>
-      <c r="T22">
-        <v>2.25</v>
-      </c>
-      <c r="U22">
-        <v>2.025</v>
-      </c>
       <c r="V22">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2503,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6862618</v>
+        <v>6862617</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2515,76 +2515,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L23">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="M23">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N23">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O23">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P23">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>1.8</v>
+      </c>
+      <c r="T23">
+        <v>2.25</v>
+      </c>
+      <c r="U23">
+        <v>2.025</v>
+      </c>
+      <c r="V23">
         <v>1.775</v>
       </c>
-      <c r="S23">
-        <v>2.025</v>
-      </c>
-      <c r="T23">
-        <v>2</v>
-      </c>
-      <c r="U23">
-        <v>1.95</v>
-      </c>
-      <c r="V23">
-        <v>1.85</v>
-      </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y23">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2607,7 +2607,7 @@
         <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2782,7 +2782,7 @@
         <v>45117.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
         <v>37</v>
@@ -3049,7 +3049,7 @@
         <v>45118.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3497,7 +3497,7 @@
         <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3672,10 +3672,10 @@
         <v>45128.45833333334</v>
       </c>
       <c r="F36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
         <v>31</v>
-      </c>
-      <c r="G36" t="s">
-        <v>32</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -4105,7 +4105,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7407173</v>
+        <v>7406927</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4117,76 +4117,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K41">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="M41">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="N41">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="O41">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P41">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q41">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R41">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U41">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V41">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W41">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
+        <v>0.45</v>
+      </c>
+      <c r="AA41">
         <v>-0.5</v>
       </c>
-      <c r="AA41">
-        <v>0.4875</v>
-      </c>
       <c r="AB41">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4194,7 +4194,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7406927</v>
+        <v>7407173</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4206,76 +4206,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K42">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="L42">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M42">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="N42">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="O42">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="P42">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="Q42">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R42">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S42">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T42">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U42">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V42">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X42">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA42">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC42">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4565,7 +4565,7 @@
         <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -5262,7 +5262,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7453404</v>
+        <v>7453403</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5274,76 +5274,76 @@
         <v>45240.375</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K54">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L54">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M54">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N54">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O54">
         <v>2.9</v>
       </c>
       <c r="P54">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q54">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S54">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T54">
         <v>2</v>
       </c>
       <c r="U54">
+        <v>1.975</v>
+      </c>
+      <c r="V54">
+        <v>1.825</v>
+      </c>
+      <c r="W54">
+        <v>-1</v>
+      </c>
+      <c r="X54">
         <v>1.9</v>
       </c>
-      <c r="V54">
-        <v>1.9</v>
-      </c>
-      <c r="W54">
-        <v>-1</v>
-      </c>
-      <c r="X54">
-        <v>-1</v>
-      </c>
       <c r="Y54">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA54">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5351,7 +5351,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7453403</v>
+        <v>7453404</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5363,76 +5363,76 @@
         <v>45240.375</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K55">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L55">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M55">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N55">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O55">
         <v>2.9</v>
       </c>
       <c r="P55">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R55">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S55">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T55">
         <v>2</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V55">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5618,7 +5618,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7511490</v>
+        <v>7511489</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5630,10 +5630,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5645,41 +5645,41 @@
         <v>52</v>
       </c>
       <c r="K58">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58">
         <v>3.1</v>
       </c>
-      <c r="M58">
-        <v>1.909</v>
-      </c>
       <c r="N58">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O58">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P58">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q58">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R58">
+        <v>1.95</v>
+      </c>
+      <c r="S58">
+        <v>1.85</v>
+      </c>
+      <c r="T58">
+        <v>2.25</v>
+      </c>
+      <c r="U58">
+        <v>2.05</v>
+      </c>
+      <c r="V58">
         <v>1.75</v>
       </c>
-      <c r="S58">
-        <v>2.05</v>
-      </c>
-      <c r="T58">
-        <v>1.75</v>
-      </c>
-      <c r="U58">
-        <v>1.9</v>
-      </c>
-      <c r="V58">
-        <v>1.9</v>
-      </c>
       <c r="W58">
         <v>-1</v>
       </c>
@@ -5687,19 +5687,19 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB58">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC58">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5707,7 +5707,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7511489</v>
+        <v>7511490</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5719,10 +5719,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F59" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5734,40 +5734,40 @@
         <v>52</v>
       </c>
       <c r="K59">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L59">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M59">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N59">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="O59">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P59">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q59">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S59">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T59">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U59">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V59">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W59">
         <v>-1</v>
@@ -5776,19 +5776,19 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB59">
+        <v>0.45</v>
+      </c>
+      <c r="AC59">
         <v>-0.5</v>
-      </c>
-      <c r="AC59">
-        <v>0.375</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5989,7 +5989,7 @@
         <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6523,7 +6523,7 @@
         <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6597,7 +6597,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7555939</v>
+        <v>7555937</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6609,13 +6609,13 @@
         <v>45265.35416666666</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>2</v>
@@ -6624,40 +6624,40 @@
         <v>52</v>
       </c>
       <c r="K69">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="L69">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M69">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="N69">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="O69">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P69">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q69">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S69">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U69">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V69">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6666,19 +6666,19 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="Z69">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB69">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6686,7 +6686,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7555937</v>
+        <v>7555939</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6698,13 +6698,13 @@
         <v>45265.35416666666</v>
       </c>
       <c r="F70" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70">
         <v>2</v>
@@ -6713,40 +6713,40 @@
         <v>52</v>
       </c>
       <c r="K70">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="L70">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M70">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="N70">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="O70">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="P70">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R70">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S70">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T70">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V70">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6755,19 +6755,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>2.4</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA70">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB70">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC70">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6953,7 +6953,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7565123</v>
+        <v>7565124</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6965,56 +6965,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
         <v>52</v>
       </c>
       <c r="K73">
+        <v>1.5</v>
+      </c>
+      <c r="L73">
+        <v>3.6</v>
+      </c>
+      <c r="M73">
+        <v>6</v>
+      </c>
+      <c r="N73">
         <v>1.727</v>
       </c>
-      <c r="L73">
-        <v>3.4</v>
-      </c>
-      <c r="M73">
+      <c r="O73">
+        <v>3.5</v>
+      </c>
+      <c r="P73">
         <v>4.2</v>
       </c>
-      <c r="N73">
-        <v>1.833</v>
-      </c>
-      <c r="O73">
-        <v>3.3</v>
-      </c>
-      <c r="P73">
-        <v>3.75</v>
-      </c>
       <c r="Q73">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R73">
+        <v>2</v>
+      </c>
+      <c r="S73">
+        <v>1.8</v>
+      </c>
+      <c r="T73">
+        <v>2</v>
+      </c>
+      <c r="U73">
         <v>1.875</v>
       </c>
-      <c r="S73">
+      <c r="V73">
         <v>1.925</v>
       </c>
-      <c r="T73">
-        <v>2</v>
-      </c>
-      <c r="U73">
-        <v>1.925</v>
-      </c>
-      <c r="V73">
-        <v>1.875</v>
-      </c>
       <c r="W73">
         <v>-1</v>
       </c>
@@ -7022,19 +7022,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
+        <v>0.8</v>
+      </c>
+      <c r="AB73">
+        <v>-1</v>
+      </c>
+      <c r="AC73">
         <v>0.925</v>
-      </c>
-      <c r="AB73">
-        <v>0.925</v>
-      </c>
-      <c r="AC73">
-        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7042,7 +7042,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7565124</v>
+        <v>7565123</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7054,56 +7054,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
         <v>52</v>
       </c>
       <c r="K74">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L74">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M74">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N74">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="O74">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P74">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q74">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S74">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T74">
         <v>2</v>
       </c>
       <c r="U74">
+        <v>1.925</v>
+      </c>
+      <c r="V74">
         <v>1.875</v>
       </c>
-      <c r="V74">
-        <v>1.925</v>
-      </c>
       <c r="W74">
         <v>-1</v>
       </c>
@@ -7111,19 +7111,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7398,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7590595</v>
+        <v>7592803</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7410,49 +7410,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
         <v>52</v>
       </c>
       <c r="K78">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L78">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N78">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="O78">
+        <v>2.875</v>
+      </c>
+      <c r="P78">
         <v>3</v>
       </c>
-      <c r="P78">
-        <v>1.75</v>
-      </c>
       <c r="Q78">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S78">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U78">
         <v>2</v>
@@ -7467,19 +7467,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB78">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7592803</v>
+        <v>7590595</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7499,49 +7499,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J79" t="s">
         <v>52</v>
       </c>
       <c r="K79">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L79">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M79">
+        <v>2</v>
+      </c>
+      <c r="N79">
+        <v>4.5</v>
+      </c>
+      <c r="O79">
         <v>3</v>
       </c>
-      <c r="N79">
-        <v>2.3</v>
-      </c>
-      <c r="O79">
-        <v>2.875</v>
-      </c>
       <c r="P79">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R79">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S79">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T79">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
         <v>2</v>
@@ -7556,19 +7556,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC79">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7766,7 +7766,7 @@
         <v>45279.3125</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
         <v>29</v>
@@ -8555,7 +8555,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7618724</v>
+        <v>7618726</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8567,76 +8567,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91" t="s">
+        <v>52</v>
+      </c>
+      <c r="K91">
+        <v>2.375</v>
+      </c>
+      <c r="L91">
+        <v>2.8</v>
+      </c>
+      <c r="M91">
         <v>3</v>
       </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
-      <c r="J91" t="s">
-        <v>53</v>
-      </c>
-      <c r="K91">
-        <v>2.875</v>
-      </c>
-      <c r="L91">
-        <v>2.75</v>
-      </c>
-      <c r="M91">
-        <v>2.5</v>
-      </c>
       <c r="N91">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="O91">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P91">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q91">
         <v>0</v>
       </c>
       <c r="R91">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S91">
+        <v>2.05</v>
+      </c>
+      <c r="T91">
+        <v>1.75</v>
+      </c>
+      <c r="U91">
         <v>1.8</v>
       </c>
-      <c r="T91">
-        <v>2</v>
-      </c>
-      <c r="U91">
-        <v>2</v>
-      </c>
       <c r="V91">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W91">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8644,7 +8644,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7618726</v>
+        <v>7618724</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8656,76 +8656,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K92">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L92">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M92">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N92">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="O92">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P92">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q92">
         <v>0</v>
       </c>
       <c r="R92">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S92">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T92">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U92">
+        <v>2</v>
+      </c>
+      <c r="V92">
         <v>1.8</v>
       </c>
-      <c r="V92">
-        <v>2</v>
-      </c>
       <c r="W92">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA92">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC92">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -9371,7 +9371,7 @@
         <v>47</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -10068,7 +10068,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7811882</v>
+        <v>7811883</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10080,76 +10080,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
         <v>51</v>
       </c>
       <c r="K108">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="L108">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M108">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="N108">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="O108">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P108">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R108">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S108">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T108">
         <v>1.75</v>
       </c>
       <c r="U108">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="V108">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA108">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10157,7 +10157,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7811883</v>
+        <v>7811882</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10169,76 +10169,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
         <v>51</v>
       </c>
       <c r="K109">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="L109">
+        <v>2.9</v>
+      </c>
+      <c r="M109">
         <v>3.4</v>
       </c>
-      <c r="M109">
-        <v>1.727</v>
-      </c>
       <c r="N109">
+        <v>2.05</v>
+      </c>
+      <c r="O109">
+        <v>2.9</v>
+      </c>
+      <c r="P109">
         <v>3.6</v>
       </c>
-      <c r="O109">
-        <v>3.3</v>
-      </c>
-      <c r="P109">
-        <v>1.909</v>
-      </c>
       <c r="Q109">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S109">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T109">
         <v>1.75</v>
       </c>
       <c r="U109">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="V109">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC109">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -11059,7 +11059,7 @@
         <v>45342.33333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
         <v>35</v>
@@ -12041,7 +12041,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12483,7 +12483,7 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
         <v>39</v>
@@ -13284,7 +13284,7 @@
         <v>45359.35416666666</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
         <v>33</v>
@@ -14174,7 +14174,7 @@
         <v>45384.375</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G154" t="s">
         <v>34</v>
@@ -14978,7 +14978,7 @@
         <v>46</v>
       </c>
       <c r="G163" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H163">
         <v>0</v>

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC164"/>
+  <dimension ref="A1:AC165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1969,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6838980</v>
+        <v>6838982</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1981,76 +1981,76 @@
         <v>45107.44791666666</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L17">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N17">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O17">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Q17">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R17">
+        <v>1.725</v>
+      </c>
+      <c r="S17">
+        <v>1.975</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
         <v>1.8</v>
       </c>
-      <c r="S17">
-        <v>2</v>
-      </c>
-      <c r="T17">
-        <v>2</v>
-      </c>
-      <c r="U17">
-        <v>1.85</v>
-      </c>
-      <c r="V17">
-        <v>1.95</v>
-      </c>
       <c r="W17">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2058,7 +2058,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6838982</v>
+        <v>6838980</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2070,76 +2070,76 @@
         <v>45107.44791666666</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N18">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R18">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S18">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T18">
         <v>2</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V18">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA18">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -5262,7 +5262,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7453403</v>
+        <v>7453404</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5274,76 +5274,76 @@
         <v>45240.375</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K54">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L54">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M54">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N54">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O54">
         <v>2.9</v>
       </c>
       <c r="P54">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R54">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S54">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T54">
         <v>2</v>
       </c>
       <c r="U54">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z54">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5351,7 +5351,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7453404</v>
+        <v>7453403</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5363,76 +5363,76 @@
         <v>45240.375</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K55">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L55">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M55">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N55">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O55">
         <v>2.9</v>
       </c>
       <c r="P55">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q55">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S55">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T55">
         <v>2</v>
       </c>
       <c r="U55">
+        <v>1.975</v>
+      </c>
+      <c r="V55">
+        <v>1.825</v>
+      </c>
+      <c r="W55">
+        <v>-1</v>
+      </c>
+      <c r="X55">
         <v>1.9</v>
       </c>
-      <c r="V55">
-        <v>1.9</v>
-      </c>
-      <c r="W55">
-        <v>-1</v>
-      </c>
-      <c r="X55">
-        <v>-1</v>
-      </c>
       <c r="Y55">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA55">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -6953,7 +6953,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7565124</v>
+        <v>7565123</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6965,56 +6965,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
         <v>52</v>
       </c>
       <c r="K73">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L73">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M73">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N73">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="O73">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P73">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q73">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R73">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S73">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T73">
         <v>2</v>
       </c>
       <c r="U73">
+        <v>1.925</v>
+      </c>
+      <c r="V73">
         <v>1.875</v>
       </c>
-      <c r="V73">
-        <v>1.925</v>
-      </c>
       <c r="W73">
         <v>-1</v>
       </c>
@@ -7022,19 +7022,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC73">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7042,7 +7042,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7565123</v>
+        <v>7565124</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7054,56 +7054,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
         <v>52</v>
       </c>
       <c r="K74">
+        <v>1.5</v>
+      </c>
+      <c r="L74">
+        <v>3.6</v>
+      </c>
+      <c r="M74">
+        <v>6</v>
+      </c>
+      <c r="N74">
         <v>1.727</v>
       </c>
-      <c r="L74">
-        <v>3.4</v>
-      </c>
-      <c r="M74">
+      <c r="O74">
+        <v>3.5</v>
+      </c>
+      <c r="P74">
         <v>4.2</v>
       </c>
-      <c r="N74">
-        <v>1.833</v>
-      </c>
-      <c r="O74">
-        <v>3.3</v>
-      </c>
-      <c r="P74">
-        <v>3.75</v>
-      </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R74">
+        <v>2</v>
+      </c>
+      <c r="S74">
+        <v>1.8</v>
+      </c>
+      <c r="T74">
+        <v>2</v>
+      </c>
+      <c r="U74">
         <v>1.875</v>
       </c>
-      <c r="S74">
+      <c r="V74">
         <v>1.925</v>
       </c>
-      <c r="T74">
-        <v>2</v>
-      </c>
-      <c r="U74">
-        <v>1.925</v>
-      </c>
-      <c r="V74">
-        <v>1.875</v>
-      </c>
       <c r="W74">
         <v>-1</v>
       </c>
@@ -7111,19 +7111,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
+        <v>0.8</v>
+      </c>
+      <c r="AB74">
+        <v>-1</v>
+      </c>
+      <c r="AC74">
         <v>0.925</v>
-      </c>
-      <c r="AB74">
-        <v>0.925</v>
-      </c>
-      <c r="AC74">
-        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -9623,7 +9623,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7648519</v>
+        <v>7645264</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9635,46 +9635,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K103">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L103">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M103">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="N103">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="O103">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P103">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="Q103">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R103">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S103">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T103">
         <v>2</v>
@@ -9689,22 +9689,22 @@
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y103">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
+        <v>0.825</v>
+      </c>
+      <c r="AB103">
+        <v>0</v>
+      </c>
+      <c r="AC103">
         <v>-0</v>
-      </c>
-      <c r="AB103">
-        <v>-1</v>
-      </c>
-      <c r="AC103">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9712,7 +9712,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7645264</v>
+        <v>7648519</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9724,46 +9724,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K104">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L104">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="N104">
+        <v>5.25</v>
+      </c>
+      <c r="O104">
+        <v>3.75</v>
+      </c>
+      <c r="P104">
         <v>1.533</v>
       </c>
-      <c r="O104">
-        <v>3.5</v>
-      </c>
-      <c r="P104">
-        <v>6.5</v>
-      </c>
       <c r="Q104">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R104">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T104">
         <v>2</v>
@@ -9778,22 +9778,22 @@
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -12471,7 +12471,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7897090</v>
+        <v>7901411</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12483,76 +12483,76 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K135">
         <v>2.1</v>
       </c>
       <c r="L135">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M135">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N135">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O135">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P135">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q135">
         <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S135">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T135">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U135">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V135">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y135">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB135">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12560,7 +12560,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7901411</v>
+        <v>7897090</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12572,76 +12572,76 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F136" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K136">
         <v>2.1</v>
       </c>
       <c r="L136">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M136">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N136">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O136">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P136">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q136">
         <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S136">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T136">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U136">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V136">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC136">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -14785,7 +14785,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>8100051</v>
+        <v>8099724</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14797,76 +14797,76 @@
         <v>45397.375</v>
       </c>
       <c r="F161" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G161" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H161">
         <v>1</v>
       </c>
       <c r="I161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K161">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="L161">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M161">
-        <v>2.6</v>
+        <v>5.25</v>
       </c>
       <c r="N161">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="O161">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="P161">
-        <v>2.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q161">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R161">
+        <v>1.8</v>
+      </c>
+      <c r="S161">
+        <v>2</v>
+      </c>
+      <c r="T161">
+        <v>2</v>
+      </c>
+      <c r="U161">
         <v>1.95</v>
       </c>
-      <c r="S161">
+      <c r="V161">
         <v>1.85</v>
       </c>
-      <c r="T161">
-        <v>1.75</v>
-      </c>
-      <c r="U161">
-        <v>1.775</v>
-      </c>
-      <c r="V161">
-        <v>2.025</v>
-      </c>
       <c r="W161">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA161">
+        <v>-0.5</v>
+      </c>
+      <c r="AB161">
+        <v>-1</v>
+      </c>
+      <c r="AC161">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB161">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC161">
-        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14874,7 +14874,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>8099724</v>
+        <v>8100051</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14886,76 +14886,76 @@
         <v>45397.375</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G162" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H162">
         <v>1</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K162">
+        <v>2.7</v>
+      </c>
+      <c r="L162">
+        <v>2.8</v>
+      </c>
+      <c r="M162">
+        <v>2.6</v>
+      </c>
+      <c r="N162">
+        <v>2.7</v>
+      </c>
+      <c r="O162">
+        <v>2.8</v>
+      </c>
+      <c r="P162">
+        <v>2.6</v>
+      </c>
+      <c r="Q162">
+        <v>0</v>
+      </c>
+      <c r="R162">
+        <v>1.95</v>
+      </c>
+      <c r="S162">
+        <v>1.85</v>
+      </c>
+      <c r="T162">
+        <v>1.75</v>
+      </c>
+      <c r="U162">
+        <v>1.775</v>
+      </c>
+      <c r="V162">
+        <v>2.025</v>
+      </c>
+      <c r="W162">
+        <v>-1</v>
+      </c>
+      <c r="X162">
+        <v>-1</v>
+      </c>
+      <c r="Y162">
         <v>1.6</v>
       </c>
-      <c r="L162">
-        <v>3.4</v>
-      </c>
-      <c r="M162">
-        <v>5.25</v>
-      </c>
-      <c r="N162">
-        <v>1.6</v>
-      </c>
-      <c r="O162">
-        <v>3.4</v>
-      </c>
-      <c r="P162">
-        <v>5.25</v>
-      </c>
-      <c r="Q162">
-        <v>-0.75</v>
-      </c>
-      <c r="R162">
-        <v>1.8</v>
-      </c>
-      <c r="S162">
-        <v>2</v>
-      </c>
-      <c r="T162">
-        <v>2</v>
-      </c>
-      <c r="U162">
-        <v>1.95</v>
-      </c>
-      <c r="V162">
-        <v>1.85</v>
-      </c>
-      <c r="W162">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="X162">
-        <v>-1</v>
-      </c>
-      <c r="Y162">
-        <v>-1</v>
-      </c>
       <c r="Z162">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC162">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15134,6 +15134,80 @@
       </c>
       <c r="AC164">
         <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:29">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>8122430</v>
+      </c>
+      <c r="C165" t="s">
+        <v>28</v>
+      </c>
+      <c r="D165" t="s">
+        <v>28</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45403.51041666666</v>
+      </c>
+      <c r="F165" t="s">
+        <v>42</v>
+      </c>
+      <c r="G165" t="s">
+        <v>40</v>
+      </c>
+      <c r="K165">
+        <v>2.15</v>
+      </c>
+      <c r="L165">
+        <v>2.75</v>
+      </c>
+      <c r="M165">
+        <v>3.5</v>
+      </c>
+      <c r="N165">
+        <v>2.15</v>
+      </c>
+      <c r="O165">
+        <v>2.75</v>
+      </c>
+      <c r="P165">
+        <v>3.5</v>
+      </c>
+      <c r="Q165">
+        <v>-0.25</v>
+      </c>
+      <c r="R165">
+        <v>1.875</v>
+      </c>
+      <c r="S165">
+        <v>1.925</v>
+      </c>
+      <c r="T165">
+        <v>2</v>
+      </c>
+      <c r="U165">
+        <v>2</v>
+      </c>
+      <c r="V165">
+        <v>1.8</v>
+      </c>
+      <c r="W165">
+        <v>0</v>
+      </c>
+      <c r="X165">
+        <v>0</v>
+      </c>
+      <c r="Y165">
+        <v>0</v>
+      </c>
+      <c r="Z165">
+        <v>0</v>
+      </c>
+      <c r="AA165">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -109,10 +109,10 @@
     <t>Al Zawraa</t>
   </si>
   <si>
-    <t>Al Karkh</t>
+    <t>Al Sinaah</t>
   </si>
   <si>
-    <t>Al Sinaah</t>
+    <t>Al Karkh</t>
   </si>
   <si>
     <t>Al Shorta SC</t>
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6729609</v>
+        <v>6729610</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -827,73 +827,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K4">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L4">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="M4">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="N4">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="O4">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="P4">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T4">
         <v>2</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X4">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA4">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC4">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6729610</v>
+        <v>6729609</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -916,73 +916,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K5">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L5">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="M5">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="N5">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O5">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="P5">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S5">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T5">
         <v>2</v>
       </c>
       <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
         <v>1.8</v>
       </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
       <c r="W5">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB5">
+        <v>-1</v>
+      </c>
+      <c r="AC5">
         <v>0.8</v>
-      </c>
-      <c r="AC5">
-        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1183,7 +1183,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1969,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6838982</v>
+        <v>6838980</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1984,73 +1984,73 @@
         <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K17">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N17">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Q17">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S17">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T17">
         <v>2</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA17">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2058,7 +2058,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6838980</v>
+        <v>6838982</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2073,73 +2073,73 @@
         <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K18">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L18">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N18">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O18">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Q18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
+        <v>1.725</v>
+      </c>
+      <c r="S18">
+        <v>1.975</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="V18">
         <v>1.8</v>
       </c>
-      <c r="S18">
-        <v>2</v>
-      </c>
-      <c r="T18">
-        <v>2</v>
-      </c>
-      <c r="U18">
-        <v>1.85</v>
-      </c>
-      <c r="V18">
-        <v>1.95</v>
-      </c>
       <c r="W18">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z18">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC18">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2340,7 +2340,7 @@
         <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2414,7 +2414,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6862618</v>
+        <v>6862617</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2426,76 +2426,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L22">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="M22">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N22">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O22">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P22">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>1.8</v>
+      </c>
+      <c r="T22">
+        <v>2.25</v>
+      </c>
+      <c r="U22">
+        <v>2.025</v>
+      </c>
+      <c r="V22">
         <v>1.775</v>
       </c>
-      <c r="S22">
-        <v>2.025</v>
-      </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
-      <c r="U22">
-        <v>1.95</v>
-      </c>
-      <c r="V22">
-        <v>1.85</v>
-      </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y22">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2503,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6862617</v>
+        <v>6862618</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2515,76 +2515,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="M23">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N23">
+        <v>2.05</v>
+      </c>
+      <c r="O23">
+        <v>2.625</v>
+      </c>
+      <c r="P23">
+        <v>4</v>
+      </c>
+      <c r="Q23">
+        <v>-0.25</v>
+      </c>
+      <c r="R23">
+        <v>1.775</v>
+      </c>
+      <c r="S23">
+        <v>2.025</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
         <v>1.95</v>
       </c>
-      <c r="O23">
-        <v>2.8</v>
-      </c>
-      <c r="P23">
-        <v>4.1</v>
-      </c>
-      <c r="Q23">
-        <v>-0.5</v>
-      </c>
-      <c r="R23">
-        <v>2</v>
-      </c>
-      <c r="S23">
-        <v>1.8</v>
-      </c>
-      <c r="T23">
-        <v>2.25</v>
-      </c>
-      <c r="U23">
-        <v>2.025</v>
-      </c>
       <c r="V23">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2607,7 +2607,7 @@
         <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2782,7 +2782,7 @@
         <v>45117.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
         <v>37</v>
@@ -3049,7 +3049,7 @@
         <v>45118.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3497,7 +3497,7 @@
         <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3672,10 +3672,10 @@
         <v>45128.45833333334</v>
       </c>
       <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
         <v>32</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -4105,7 +4105,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7406927</v>
+        <v>7407173</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4117,76 +4117,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K41">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="L41">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M41">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="N41">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="O41">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="P41">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="Q41">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S41">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T41">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U41">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V41">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X41">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA41">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC41">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4194,7 +4194,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7407173</v>
+        <v>7406927</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4206,76 +4206,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K42">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="M42">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="N42">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="O42">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P42">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q42">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R42">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T42">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U42">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W42">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
+        <v>0.45</v>
+      </c>
+      <c r="AA42">
         <v>-0.5</v>
       </c>
-      <c r="AA42">
-        <v>0.4875</v>
-      </c>
       <c r="AB42">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4565,7 +4565,7 @@
         <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -5618,7 +5618,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7511489</v>
+        <v>7511490</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5630,10 +5630,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5645,40 +5645,40 @@
         <v>52</v>
       </c>
       <c r="K58">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L58">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M58">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N58">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="O58">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P58">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q58">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R58">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S58">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T58">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U58">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V58">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W58">
         <v>-1</v>
@@ -5687,19 +5687,19 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB58">
+        <v>0.45</v>
+      </c>
+      <c r="AC58">
         <v>-0.5</v>
-      </c>
-      <c r="AC58">
-        <v>0.375</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5707,7 +5707,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7511490</v>
+        <v>7511489</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5719,10 +5719,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5734,41 +5734,41 @@
         <v>52</v>
       </c>
       <c r="K59">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="M59">
         <v>3.1</v>
       </c>
-      <c r="M59">
-        <v>1.909</v>
-      </c>
       <c r="N59">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O59">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P59">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R59">
+        <v>1.95</v>
+      </c>
+      <c r="S59">
+        <v>1.85</v>
+      </c>
+      <c r="T59">
+        <v>2.25</v>
+      </c>
+      <c r="U59">
+        <v>2.05</v>
+      </c>
+      <c r="V59">
         <v>1.75</v>
       </c>
-      <c r="S59">
-        <v>2.05</v>
-      </c>
-      <c r="T59">
-        <v>1.75</v>
-      </c>
-      <c r="U59">
-        <v>1.9</v>
-      </c>
-      <c r="V59">
-        <v>1.9</v>
-      </c>
       <c r="W59">
         <v>-1</v>
       </c>
@@ -5776,19 +5776,19 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB59">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC59">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5989,7 +5989,7 @@
         <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6523,7 +6523,7 @@
         <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6597,7 +6597,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7555937</v>
+        <v>7555939</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6609,13 +6609,13 @@
         <v>45265.35416666666</v>
       </c>
       <c r="F69" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69">
         <v>2</v>
@@ -6624,40 +6624,40 @@
         <v>52</v>
       </c>
       <c r="K69">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="L69">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M69">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="N69">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="O69">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="P69">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R69">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S69">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T69">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V69">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6666,19 +6666,19 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>2.4</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA69">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC69">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6686,7 +6686,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7555939</v>
+        <v>7555937</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6698,13 +6698,13 @@
         <v>45265.35416666666</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>2</v>
@@ -6713,40 +6713,40 @@
         <v>52</v>
       </c>
       <c r="K70">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="L70">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M70">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="N70">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="O70">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P70">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q70">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S70">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U70">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V70">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6755,19 +6755,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="Z70">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB70">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6965,7 +6965,7 @@
         <v>45268.35416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
         <v>48</v>
@@ -7398,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7592803</v>
+        <v>7590595</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7410,49 +7410,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F78" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J78" t="s">
         <v>52</v>
       </c>
       <c r="K78">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L78">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78">
+        <v>4.5</v>
+      </c>
+      <c r="O78">
         <v>3</v>
       </c>
-      <c r="N78">
-        <v>2.3</v>
-      </c>
-      <c r="O78">
-        <v>2.875</v>
-      </c>
       <c r="P78">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R78">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S78">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
         <v>2</v>
@@ -7467,19 +7467,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7590595</v>
+        <v>7592803</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7499,49 +7499,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G79" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
         <v>52</v>
       </c>
       <c r="K79">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L79">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N79">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="O79">
+        <v>2.875</v>
+      </c>
+      <c r="P79">
         <v>3</v>
       </c>
-      <c r="P79">
-        <v>1.75</v>
-      </c>
       <c r="Q79">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S79">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U79">
         <v>2</v>
@@ -7556,19 +7556,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB79">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7766,7 +7766,7 @@
         <v>45279.3125</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
         <v>29</v>
@@ -8377,7 +8377,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7613564</v>
+        <v>7615329</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8389,76 +8389,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K89">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="L89">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="M89">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N89">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O89">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P89">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q89">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R89">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S89">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T89">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U89">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V89">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W89">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB89">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8466,7 +8466,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7615329</v>
+        <v>7613564</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8478,76 +8478,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="F90" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K90">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="L90">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="M90">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N90">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="O90">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P90">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Q90">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R90">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S90">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T90">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V90">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X90">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC90">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8555,7 +8555,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7618726</v>
+        <v>7618724</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8567,76 +8567,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K91">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L91">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M91">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N91">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="O91">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P91">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q91">
         <v>0</v>
       </c>
       <c r="R91">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S91">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T91">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U91">
+        <v>2</v>
+      </c>
+      <c r="V91">
         <v>1.8</v>
       </c>
-      <c r="V91">
-        <v>2</v>
-      </c>
       <c r="W91">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA91">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC91">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8644,7 +8644,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7618724</v>
+        <v>7618726</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8656,76 +8656,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92" t="s">
+        <v>52</v>
+      </c>
+      <c r="K92">
+        <v>2.375</v>
+      </c>
+      <c r="L92">
+        <v>2.8</v>
+      </c>
+      <c r="M92">
         <v>3</v>
       </c>
-      <c r="I92">
-        <v>1</v>
-      </c>
-      <c r="J92" t="s">
-        <v>53</v>
-      </c>
-      <c r="K92">
-        <v>2.875</v>
-      </c>
-      <c r="L92">
-        <v>2.75</v>
-      </c>
-      <c r="M92">
-        <v>2.5</v>
-      </c>
       <c r="N92">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="O92">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P92">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q92">
         <v>0</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S92">
+        <v>2.05</v>
+      </c>
+      <c r="T92">
+        <v>1.75</v>
+      </c>
+      <c r="U92">
         <v>1.8</v>
       </c>
-      <c r="T92">
-        <v>2</v>
-      </c>
-      <c r="U92">
-        <v>2</v>
-      </c>
       <c r="V92">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W92">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -9371,7 +9371,7 @@
         <v>47</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -10080,7 +10080,7 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
         <v>42</v>
@@ -11059,7 +11059,7 @@
         <v>45342.33333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
         <v>35</v>
@@ -12041,7 +12041,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12471,7 +12471,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7901411</v>
+        <v>7897090</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12483,76 +12483,76 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J135" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K135">
         <v>2.1</v>
       </c>
       <c r="L135">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M135">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N135">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O135">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P135">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q135">
         <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S135">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T135">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U135">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V135">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC135">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12560,7 +12560,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7897090</v>
+        <v>7901411</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12572,76 +12572,76 @@
         <v>45352.35416666666</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K136">
         <v>2.1</v>
       </c>
       <c r="L136">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M136">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N136">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O136">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P136">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q136">
         <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S136">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T136">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U136">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V136">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y136">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB136">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13284,7 +13284,7 @@
         <v>45359.35416666666</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
         <v>33</v>
@@ -13895,7 +13895,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>8031833</v>
+        <v>8031832</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13907,76 +13907,76 @@
         <v>45382.64583333334</v>
       </c>
       <c r="F151" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
         <v>51</v>
       </c>
       <c r="K151">
-        <v>4.1</v>
+        <v>1.909</v>
       </c>
       <c r="L151">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="M151">
+        <v>4</v>
+      </c>
+      <c r="N151">
         <v>1.833</v>
       </c>
-      <c r="N151">
-        <v>3.5</v>
-      </c>
       <c r="O151">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P151">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="Q151">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R151">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S151">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T151">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U151">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V151">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB151">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13984,7 +13984,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>8031832</v>
+        <v>8031833</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13996,76 +13996,76 @@
         <v>45382.64583333334</v>
       </c>
       <c r="F152" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G152" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
         <v>51</v>
       </c>
       <c r="K152">
-        <v>1.909</v>
+        <v>4.1</v>
       </c>
       <c r="L152">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="M152">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N152">
-        <v>1.833</v>
+        <v>3.5</v>
       </c>
       <c r="O152">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P152">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q152">
+        <v>0.25</v>
+      </c>
+      <c r="R152">
+        <v>1.975</v>
+      </c>
+      <c r="S152">
+        <v>1.825</v>
+      </c>
+      <c r="T152">
+        <v>2</v>
+      </c>
+      <c r="U152">
+        <v>2.025</v>
+      </c>
+      <c r="V152">
+        <v>1.775</v>
+      </c>
+      <c r="W152">
+        <v>-1</v>
+      </c>
+      <c r="X152">
+        <v>1.9</v>
+      </c>
+      <c r="Y152">
+        <v>-1</v>
+      </c>
+      <c r="Z152">
+        <v>0.4875</v>
+      </c>
+      <c r="AA152">
         <v>-0.5</v>
       </c>
-      <c r="R152">
-        <v>1.875</v>
-      </c>
-      <c r="S152">
-        <v>1.925</v>
-      </c>
-      <c r="T152">
-        <v>1.75</v>
-      </c>
-      <c r="U152">
-        <v>1.95</v>
-      </c>
-      <c r="V152">
-        <v>1.85</v>
-      </c>
-      <c r="W152">
-        <v>-1</v>
-      </c>
-      <c r="X152">
-        <v>1.8</v>
-      </c>
-      <c r="Y152">
-        <v>-1</v>
-      </c>
-      <c r="Z152">
-        <v>-1</v>
-      </c>
-      <c r="AA152">
-        <v>0.925</v>
-      </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC152">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14174,7 +14174,7 @@
         <v>45384.375</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G154" t="s">
         <v>34</v>
@@ -14785,7 +14785,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>8099724</v>
+        <v>8100051</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14797,76 +14797,76 @@
         <v>45397.375</v>
       </c>
       <c r="F161" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G161" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H161">
         <v>1</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K161">
+        <v>2.7</v>
+      </c>
+      <c r="L161">
+        <v>2.8</v>
+      </c>
+      <c r="M161">
+        <v>2.6</v>
+      </c>
+      <c r="N161">
+        <v>2.7</v>
+      </c>
+      <c r="O161">
+        <v>2.8</v>
+      </c>
+      <c r="P161">
+        <v>2.6</v>
+      </c>
+      <c r="Q161">
+        <v>0</v>
+      </c>
+      <c r="R161">
+        <v>1.95</v>
+      </c>
+      <c r="S161">
+        <v>1.85</v>
+      </c>
+      <c r="T161">
+        <v>1.75</v>
+      </c>
+      <c r="U161">
+        <v>1.775</v>
+      </c>
+      <c r="V161">
+        <v>2.025</v>
+      </c>
+      <c r="W161">
+        <v>-1</v>
+      </c>
+      <c r="X161">
+        <v>-1</v>
+      </c>
+      <c r="Y161">
         <v>1.6</v>
       </c>
-      <c r="L161">
-        <v>3.4</v>
-      </c>
-      <c r="M161">
-        <v>5.25</v>
-      </c>
-      <c r="N161">
-        <v>1.6</v>
-      </c>
-      <c r="O161">
-        <v>3.4</v>
-      </c>
-      <c r="P161">
-        <v>5.25</v>
-      </c>
-      <c r="Q161">
-        <v>-0.75</v>
-      </c>
-      <c r="R161">
-        <v>1.8</v>
-      </c>
-      <c r="S161">
-        <v>2</v>
-      </c>
-      <c r="T161">
-        <v>2</v>
-      </c>
-      <c r="U161">
-        <v>1.95</v>
-      </c>
-      <c r="V161">
-        <v>1.85</v>
-      </c>
-      <c r="W161">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="X161">
-        <v>-1</v>
-      </c>
-      <c r="Y161">
-        <v>-1</v>
-      </c>
       <c r="Z161">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC161">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14874,7 +14874,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>8100051</v>
+        <v>8099724</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14886,76 +14886,76 @@
         <v>45397.375</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G162" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H162">
         <v>1</v>
       </c>
       <c r="I162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K162">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="L162">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M162">
-        <v>2.6</v>
+        <v>5.25</v>
       </c>
       <c r="N162">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="O162">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="P162">
-        <v>2.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q162">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R162">
+        <v>1.8</v>
+      </c>
+      <c r="S162">
+        <v>2</v>
+      </c>
+      <c r="T162">
+        <v>2</v>
+      </c>
+      <c r="U162">
         <v>1.95</v>
       </c>
-      <c r="S162">
+      <c r="V162">
         <v>1.85</v>
       </c>
-      <c r="T162">
-        <v>1.75</v>
-      </c>
-      <c r="U162">
-        <v>1.775</v>
-      </c>
-      <c r="V162">
-        <v>2.025</v>
-      </c>
       <c r="W162">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA162">
+        <v>-0.5</v>
+      </c>
+      <c r="AB162">
+        <v>-1</v>
+      </c>
+      <c r="AC162">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB162">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC162">
-        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14978,7 +14978,7 @@
         <v>46</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H163">
         <v>0</v>

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB164"/>
+  <dimension ref="A1:AB168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -783,10 +783,10 @@
         <v>2.2</v>
       </c>
       <c r="Y3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA3">
         <v>-1</v>
@@ -869,10 +869,10 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z4">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
         <v>0.8</v>
@@ -1041,10 +1041,10 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z6">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AA6">
         <v>-1</v>
@@ -1127,10 +1127,10 @@
         <v>1.5</v>
       </c>
       <c r="Y7">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA7">
         <v>0.8999999999999999</v>
@@ -1299,10 +1299,10 @@
         <v>2.5</v>
       </c>
       <c r="Y9">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA9">
         <v>0.8</v>
@@ -1471,10 +1471,10 @@
         <v>4.25</v>
       </c>
       <c r="Y11">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA11">
         <v>-1</v>
@@ -1643,10 +1643,10 @@
         <v>1.25</v>
       </c>
       <c r="Y13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA13">
         <v>0.825</v>
@@ -1729,10 +1729,10 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="Z14">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA14">
         <v>0.825</v>
@@ -1815,10 +1815,10 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA15">
         <v>-1</v>
@@ -1901,10 +1901,10 @@
         <v>4.5</v>
       </c>
       <c r="Y16">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA16">
         <v>1</v>
@@ -1918,7 +1918,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6838980</v>
+        <v>6838982</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -1927,76 +1927,76 @@
         <v>45107.44791666666</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J17">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="K17">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="M17">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N17">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="P17">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q17">
+        <v>1.725</v>
+      </c>
+      <c r="R17">
+        <v>1.975</v>
+      </c>
+      <c r="S17">
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
         <v>1.8</v>
       </c>
-      <c r="R17">
-        <v>2</v>
-      </c>
-      <c r="S17">
-        <v>2</v>
-      </c>
-      <c r="T17">
-        <v>1.85</v>
-      </c>
-      <c r="U17">
-        <v>1.95</v>
-      </c>
       <c r="V17">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -2004,7 +2004,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6838982</v>
+        <v>6838980</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
@@ -2013,76 +2013,76 @@
         <v>45107.44791666666</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J18">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="M18">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N18">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="O18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="P18">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q18">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="R18">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S18">
         <v>2</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U18">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V18">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.7250000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2159,10 +2159,10 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z19">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA19">
         <v>-1</v>
@@ -2245,10 +2245,10 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z20">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
         <v>0.95</v>
@@ -2331,10 +2331,10 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA21">
         <v>0.825</v>
@@ -2503,10 +2503,10 @@
         <v>3</v>
       </c>
       <c r="Y23">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA23">
         <v>0</v>
@@ -2589,10 +2589,10 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="Z24">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA24">
         <v>0.825</v>
@@ -2675,10 +2675,10 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z25">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
         <v>0.4875</v>
@@ -2761,10 +2761,10 @@
         <v>0.333</v>
       </c>
       <c r="Y26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA26">
         <v>-0.5</v>
@@ -2847,10 +2847,10 @@
         <v>1</v>
       </c>
       <c r="Y27">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA27">
         <v>-1</v>
@@ -2933,10 +2933,10 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="Z28">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
         <v>0</v>
@@ -3019,10 +3019,10 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z29">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
         <v>-1</v>
@@ -3105,10 +3105,10 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
         <v>0</v>
@@ -3191,10 +3191,10 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z31">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
         <v>0.8999999999999999</v>
@@ -3277,10 +3277,10 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z32">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AA32">
         <v>0.8500000000000001</v>
@@ -3363,10 +3363,10 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z33">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
         <v>0.8</v>
@@ -3449,10 +3449,10 @@
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z34">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA34">
         <v>-1</v>
@@ -3707,10 +3707,10 @@
         <v>2.3</v>
       </c>
       <c r="Y37">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA37">
         <v>-1</v>
@@ -3793,10 +3793,10 @@
         <v>1.75</v>
       </c>
       <c r="Y38">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA38">
         <v>-1</v>
@@ -3879,10 +3879,10 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z39">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
         <v>0.8999999999999999</v>
@@ -3965,10 +3965,10 @@
         <v>4</v>
       </c>
       <c r="Y40">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA40">
         <v>0</v>
@@ -4137,10 +4137,10 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z42">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AA42">
         <v>0.875</v>
@@ -4309,10 +4309,10 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
         <v>1</v>
@@ -4395,10 +4395,10 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z45">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
         <v>-1</v>
@@ -4567,10 +4567,10 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z47">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
         <v>0.45</v>
@@ -4653,10 +4653,10 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z48">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
         <v>-1</v>
@@ -4825,10 +4825,10 @@
         <v>2.1</v>
       </c>
       <c r="Y50">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA50">
         <v>0.3875</v>
@@ -4911,10 +4911,10 @@
         <v>3</v>
       </c>
       <c r="Y51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA51">
         <v>0.7749999999999999</v>
@@ -5083,10 +5083,10 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z53">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA53">
         <v>0.8999999999999999</v>
@@ -5100,7 +5100,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7453404</v>
+        <v>7453403</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
@@ -5109,76 +5109,76 @@
         <v>45240.375</v>
       </c>
       <c r="E54" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J54">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="K54">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="L54">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="M54">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N54">
         <v>2.9</v>
       </c>
       <c r="O54">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="P54">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q54">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R54">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S54">
         <v>2</v>
       </c>
       <c r="T54">
+        <v>1.975</v>
+      </c>
+      <c r="U54">
+        <v>1.825</v>
+      </c>
+      <c r="V54">
+        <v>-1</v>
+      </c>
+      <c r="W54">
         <v>1.9</v>
       </c>
-      <c r="U54">
-        <v>1.9</v>
-      </c>
-      <c r="V54">
-        <v>-1</v>
-      </c>
-      <c r="W54">
-        <v>-1</v>
-      </c>
       <c r="X54">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -5186,7 +5186,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7453403</v>
+        <v>7453404</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
@@ -5195,76 +5195,76 @@
         <v>45240.375</v>
       </c>
       <c r="E55" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F55" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J55">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="K55">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="L55">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="M55">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="N55">
         <v>2.9</v>
       </c>
       <c r="O55">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="P55">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q55">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R55">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S55">
         <v>2</v>
       </c>
       <c r="T55">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U55">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V55">
         <v>-1</v>
       </c>
       <c r="W55">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -5427,10 +5427,10 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="Z57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
         <v>-1</v>
@@ -5513,10 +5513,10 @@
         <v>1.3</v>
       </c>
       <c r="Y58">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA58">
         <v>0.45</v>
@@ -5599,10 +5599,10 @@
         <v>2.1</v>
       </c>
       <c r="Y59">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA59">
         <v>-0.5</v>
@@ -5685,10 +5685,10 @@
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z60">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
         <v>-1</v>
@@ -5771,10 +5771,10 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z61">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
         <v>0</v>
@@ -5943,10 +5943,10 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z63">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
         <v>0.8500000000000001</v>
@@ -6029,10 +6029,10 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z64">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
         <v>0.925</v>
@@ -6115,10 +6115,10 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z65">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
         <v>-1</v>
@@ -6201,10 +6201,10 @@
         <v>7</v>
       </c>
       <c r="Y66">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA66">
         <v>-1</v>
@@ -6287,10 +6287,10 @@
         <v>2.3</v>
       </c>
       <c r="Y67">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA67">
         <v>0.9750000000000001</v>
@@ -6459,10 +6459,10 @@
         <v>2.4</v>
       </c>
       <c r="Y69">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA69">
         <v>0</v>
@@ -6545,10 +6545,10 @@
         <v>0.3999999999999999</v>
       </c>
       <c r="Y70">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA70">
         <v>0.875</v>
@@ -6631,10 +6631,10 @@
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z71">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
         <v>-1</v>
@@ -6803,10 +6803,10 @@
         <v>2.75</v>
       </c>
       <c r="Y73">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA73">
         <v>0.925</v>
@@ -6889,10 +6889,10 @@
         <v>3.2</v>
       </c>
       <c r="Y74">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA74">
         <v>-1</v>
@@ -6975,10 +6975,10 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z75">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
         <v>1.025</v>
@@ -7147,10 +7147,10 @@
         <v>1.75</v>
       </c>
       <c r="Y77">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA77">
         <v>0.8999999999999999</v>
@@ -7233,10 +7233,10 @@
         <v>0.75</v>
       </c>
       <c r="Y78">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA78">
         <v>1</v>
@@ -7319,10 +7319,10 @@
         <v>2</v>
       </c>
       <c r="Y79">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA79">
         <v>-1</v>
@@ -7577,10 +7577,10 @@
         <v>2.5</v>
       </c>
       <c r="Y82">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA82">
         <v>-1</v>
@@ -7749,10 +7749,10 @@
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z84">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
         <v>-0.5</v>
@@ -8110,7 +8110,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7613564</v>
+        <v>7615329</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8119,76 +8119,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="E89" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J89">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="K89">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="L89">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="M89">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="N89">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="O89">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="P89">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q89">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R89">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S89">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T89">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U89">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V89">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="Z89">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA89">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8196,7 +8196,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7615329</v>
+        <v>7613564</v>
       </c>
       <c r="C90" t="s">
         <v>27</v>
@@ -8205,76 +8205,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F90" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J90">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="K90">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="L90">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="M90">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="N90">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="O90">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="P90">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q90">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R90">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S90">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T90">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V90">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W90">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -8351,10 +8351,10 @@
         <v>2</v>
       </c>
       <c r="Y91">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA91">
         <v>-1</v>
@@ -8437,10 +8437,10 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z92">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
         <v>1</v>
@@ -8523,10 +8523,10 @@
         <v>1.2</v>
       </c>
       <c r="Y93">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA93">
         <v>-1</v>
@@ -8609,10 +8609,10 @@
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z94">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
         <v>-1</v>
@@ -8781,10 +8781,10 @@
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
         <v>0</v>
@@ -8953,10 +8953,10 @@
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z98">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
         <v>0</v>
@@ -9039,10 +9039,10 @@
         <v>2.75</v>
       </c>
       <c r="Y99">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA99">
         <v>0.95</v>
@@ -9211,10 +9211,10 @@
         <v>1.25</v>
       </c>
       <c r="Y101">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA101">
         <v>0.925</v>
@@ -9314,7 +9314,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7645264</v>
+        <v>7648519</v>
       </c>
       <c r="C103" t="s">
         <v>27</v>
@@ -9323,46 +9323,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J103">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="K103">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L103">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="M103">
+        <v>5.25</v>
+      </c>
+      <c r="N103">
+        <v>3.75</v>
+      </c>
+      <c r="O103">
         <v>1.533</v>
       </c>
-      <c r="N103">
-        <v>3.5</v>
-      </c>
-      <c r="O103">
-        <v>6.5</v>
-      </c>
       <c r="P103">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q103">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R103">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S103">
         <v>2</v>
@@ -9377,22 +9377,22 @@
         <v>-1</v>
       </c>
       <c r="W103">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z103">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:28">
@@ -9400,7 +9400,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7648519</v>
+        <v>7645264</v>
       </c>
       <c r="C104" t="s">
         <v>27</v>
@@ -9409,46 +9409,46 @@
         <v>45291.58333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J104">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="K104">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L104">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="M104">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="N104">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O104">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="P104">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q104">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R104">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S104">
         <v>2</v>
@@ -9463,22 +9463,22 @@
         <v>-1</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X104">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB104">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9641,10 +9641,10 @@
         <v>3.75</v>
       </c>
       <c r="Y106">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA106">
         <v>0.8500000000000001</v>
@@ -9727,10 +9727,10 @@
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z107">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
         <v>0.9750000000000001</v>
@@ -9744,7 +9744,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7811883</v>
+        <v>7811882</v>
       </c>
       <c r="C108" t="s">
         <v>27</v>
@@ -9753,76 +9753,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="E108" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="s">
         <v>50</v>
       </c>
       <c r="J108">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="K108">
+        <v>2.9</v>
+      </c>
+      <c r="L108">
         <v>3.4</v>
       </c>
-      <c r="L108">
-        <v>1.727</v>
-      </c>
       <c r="M108">
+        <v>2.05</v>
+      </c>
+      <c r="N108">
+        <v>2.9</v>
+      </c>
+      <c r="O108">
         <v>3.6</v>
       </c>
-      <c r="N108">
-        <v>3.3</v>
-      </c>
-      <c r="O108">
-        <v>1.909</v>
-      </c>
       <c r="P108">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q108">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="R108">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S108">
         <v>1.75</v>
       </c>
       <c r="T108">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="U108">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
         <v>-1</v>
       </c>
       <c r="W108">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB108">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="109" spans="1:28">
@@ -9830,7 +9830,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7811882</v>
+        <v>7811883</v>
       </c>
       <c r="C109" t="s">
         <v>27</v>
@@ -9839,76 +9839,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="s">
         <v>50</v>
       </c>
       <c r="J109">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="K109">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="L109">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="M109">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="N109">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="O109">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="P109">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q109">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="R109">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S109">
         <v>1.75</v>
       </c>
       <c r="T109">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="U109">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V109">
         <v>-1</v>
       </c>
       <c r="W109">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="Z109">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:28">
@@ -10071,10 +10071,10 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="Z111">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
         <v>0.8</v>
@@ -10243,10 +10243,10 @@
         <v>0.833</v>
       </c>
       <c r="Y113">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA113">
         <v>0.8</v>
@@ -10329,10 +10329,10 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="Z114">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
         <v>-1</v>
@@ -10415,10 +10415,10 @@
         <v>0.45</v>
       </c>
       <c r="Y115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA115">
         <v>0.825</v>
@@ -10501,10 +10501,10 @@
         <v>2.5</v>
       </c>
       <c r="Y116">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA116">
         <v>0.8999999999999999</v>
@@ -10587,10 +10587,10 @@
         <v>1.7</v>
       </c>
       <c r="Y117">
+        <v>-1</v>
+      </c>
+      <c r="Z117">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z117">
-        <v>-1</v>
       </c>
       <c r="AA117">
         <v>0.8</v>
@@ -10673,10 +10673,10 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z118">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
         <v>0.9750000000000001</v>
@@ -10931,10 +10931,10 @@
         <v>1.4</v>
       </c>
       <c r="Y121">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA121">
         <v>-1</v>
@@ -11103,10 +11103,10 @@
         <v>1.55</v>
       </c>
       <c r="Y123">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA123">
         <v>0</v>
@@ -11189,10 +11189,10 @@
         <v>1.15</v>
       </c>
       <c r="Y124">
+        <v>-1</v>
+      </c>
+      <c r="Z124">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z124">
-        <v>-1</v>
       </c>
       <c r="AA124">
         <v>0</v>
@@ -11361,10 +11361,10 @@
         <v>2.1</v>
       </c>
       <c r="Y126">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.675</v>
       </c>
       <c r="AA126">
         <v>0.825</v>
@@ -11447,10 +11447,10 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z127">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
         <v>1</v>
@@ -11791,10 +11791,10 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="Z131">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA131">
         <v>0.875</v>
@@ -11963,10 +11963,10 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z133">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
         <v>0.7749999999999999</v>
@@ -12049,10 +12049,10 @@
         <v>3</v>
       </c>
       <c r="Y134">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA134">
         <v>-1</v>
@@ -12066,7 +12066,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7897090</v>
+        <v>7901411</v>
       </c>
       <c r="C135" t="s">
         <v>27</v>
@@ -12075,76 +12075,76 @@
         <v>45352.35416666666</v>
       </c>
       <c r="E135" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G135">
         <v>0</v>
       </c>
       <c r="H135">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J135">
         <v>2.1</v>
       </c>
       <c r="K135">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="L135">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M135">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="N135">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="O135">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P135">
         <v>-0.25</v>
       </c>
       <c r="Q135">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R135">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S135">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T135">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U135">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="V135">
         <v>-1</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X135">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA135">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="136" spans="1:28">
@@ -12152,7 +12152,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7901411</v>
+        <v>7897090</v>
       </c>
       <c r="C136" t="s">
         <v>27</v>
@@ -12161,76 +12161,76 @@
         <v>45352.35416666666</v>
       </c>
       <c r="E136" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F136" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G136">
         <v>0</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I136" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J136">
         <v>2.1</v>
       </c>
       <c r="K136">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="L136">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M136">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="N136">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="O136">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P136">
         <v>-0.25</v>
       </c>
       <c r="Q136">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R136">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S136">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T136">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U136">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="V136">
         <v>-1</v>
       </c>
       <c r="W136">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB136">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:28">
@@ -12393,10 +12393,10 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z138">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
         <v>0.825</v>
@@ -12479,10 +12479,10 @@
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z139">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
         <v>-1</v>
@@ -12565,10 +12565,10 @@
         <v>0.55</v>
       </c>
       <c r="Y140">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA140">
         <v>0.95</v>
@@ -12737,10 +12737,10 @@
         <v>2.6</v>
       </c>
       <c r="Y142">
+        <v>-1</v>
+      </c>
+      <c r="Z142">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z142">
-        <v>-1</v>
       </c>
       <c r="AA142">
         <v>-1</v>
@@ -12909,10 +12909,10 @@
         <v>0.5</v>
       </c>
       <c r="Y144">
+        <v>-1</v>
+      </c>
+      <c r="Z144">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z144">
-        <v>-1</v>
       </c>
       <c r="AA144">
         <v>0.8999999999999999</v>
@@ -13081,10 +13081,10 @@
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z146">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
         <v>0.9750000000000001</v>
@@ -13339,10 +13339,10 @@
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z149">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
         <v>0.8500000000000001</v>
@@ -13425,10 +13425,10 @@
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z150">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA150">
         <v>-1</v>
@@ -13442,7 +13442,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>8031832</v>
+        <v>8031833</v>
       </c>
       <c r="C151" t="s">
         <v>27</v>
@@ -13451,76 +13451,76 @@
         <v>45382.64583333334</v>
       </c>
       <c r="E151" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="s">
         <v>50</v>
       </c>
       <c r="J151">
-        <v>1.909</v>
+        <v>4.1</v>
       </c>
       <c r="K151">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="L151">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="M151">
-        <v>1.833</v>
+        <v>3.5</v>
       </c>
       <c r="N151">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O151">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="P151">
+        <v>0.25</v>
+      </c>
+      <c r="Q151">
+        <v>1.975</v>
+      </c>
+      <c r="R151">
+        <v>1.825</v>
+      </c>
+      <c r="S151">
+        <v>2</v>
+      </c>
+      <c r="T151">
+        <v>2.025</v>
+      </c>
+      <c r="U151">
+        <v>1.775</v>
+      </c>
+      <c r="V151">
+        <v>-1</v>
+      </c>
+      <c r="W151">
+        <v>1.9</v>
+      </c>
+      <c r="X151">
+        <v>-1</v>
+      </c>
+      <c r="Y151">
+        <v>0.4875</v>
+      </c>
+      <c r="Z151">
         <v>-0.5</v>
       </c>
-      <c r="Q151">
-        <v>1.875</v>
-      </c>
-      <c r="R151">
-        <v>1.925</v>
-      </c>
-      <c r="S151">
-        <v>1.75</v>
-      </c>
-      <c r="T151">
-        <v>1.95</v>
-      </c>
-      <c r="U151">
-        <v>1.85</v>
-      </c>
-      <c r="V151">
-        <v>-1</v>
-      </c>
-      <c r="W151">
-        <v>1.8</v>
-      </c>
-      <c r="X151">
-        <v>-1</v>
-      </c>
-      <c r="Y151">
-        <v>-1</v>
-      </c>
-      <c r="Z151">
-        <v>0.925</v>
-      </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB151">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:28">
@@ -13528,7 +13528,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>8031833</v>
+        <v>8031832</v>
       </c>
       <c r="C152" t="s">
         <v>27</v>
@@ -13537,76 +13537,76 @@
         <v>45382.64583333334</v>
       </c>
       <c r="E152" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="s">
         <v>50</v>
       </c>
       <c r="J152">
-        <v>4.1</v>
+        <v>1.909</v>
       </c>
       <c r="K152">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="L152">
+        <v>4</v>
+      </c>
+      <c r="M152">
         <v>1.833</v>
       </c>
-      <c r="M152">
-        <v>3.5</v>
-      </c>
       <c r="N152">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="O152">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="P152">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q152">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R152">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S152">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T152">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U152">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V152">
         <v>-1</v>
       </c>
       <c r="W152">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:28">
@@ -13683,10 +13683,10 @@
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z153">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
         <v>0.95</v>
@@ -13855,10 +13855,10 @@
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z155">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA155">
         <v>0.825</v>
@@ -13941,10 +13941,10 @@
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z156">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
         <v>-1</v>
@@ -14027,10 +14027,10 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="Y157">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA157">
         <v>0.825</v>
@@ -14113,10 +14113,10 @@
         <v>2.25</v>
       </c>
       <c r="Y158">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA158">
         <v>-0.5</v>
@@ -14199,10 +14199,10 @@
         <v>2.75</v>
       </c>
       <c r="Y159">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA159">
         <v>-1</v>
@@ -14285,10 +14285,10 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z160">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA160">
         <v>-1</v>
@@ -14371,10 +14371,10 @@
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="Z161">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA161">
         <v>-1</v>
@@ -14457,10 +14457,10 @@
         <v>1.6</v>
       </c>
       <c r="Y162">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA162">
         <v>0.7749999999999999</v>
@@ -14639,6 +14639,350 @@
       </c>
       <c r="AB164">
         <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:28">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>8122431</v>
+      </c>
+      <c r="C165" t="s">
+        <v>27</v>
+      </c>
+      <c r="D165" s="2">
+        <v>45403.40625</v>
+      </c>
+      <c r="E165" t="s">
+        <v>43</v>
+      </c>
+      <c r="F165" t="s">
+        <v>47</v>
+      </c>
+      <c r="G165">
+        <v>1</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+      <c r="I165" t="s">
+        <v>50</v>
+      </c>
+      <c r="J165">
+        <v>2.15</v>
+      </c>
+      <c r="K165">
+        <v>3.1</v>
+      </c>
+      <c r="L165">
+        <v>3.1</v>
+      </c>
+      <c r="M165">
+        <v>2.55</v>
+      </c>
+      <c r="N165">
+        <v>3.1</v>
+      </c>
+      <c r="O165">
+        <v>2.6</v>
+      </c>
+      <c r="P165">
+        <v>0</v>
+      </c>
+      <c r="Q165">
+        <v>1.875</v>
+      </c>
+      <c r="R165">
+        <v>1.925</v>
+      </c>
+      <c r="S165">
+        <v>2.25</v>
+      </c>
+      <c r="T165">
+        <v>2</v>
+      </c>
+      <c r="U165">
+        <v>1.8</v>
+      </c>
+      <c r="V165">
+        <v>-1</v>
+      </c>
+      <c r="W165">
+        <v>2.1</v>
+      </c>
+      <c r="X165">
+        <v>-1</v>
+      </c>
+      <c r="Y165">
+        <v>0</v>
+      </c>
+      <c r="Z165">
+        <v>0</v>
+      </c>
+      <c r="AA165">
+        <v>-0.5</v>
+      </c>
+      <c r="AB165">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:28">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>8122430</v>
+      </c>
+      <c r="C166" t="s">
+        <v>27</v>
+      </c>
+      <c r="D166" s="2">
+        <v>45403.51041666666</v>
+      </c>
+      <c r="E166" t="s">
+        <v>41</v>
+      </c>
+      <c r="F166" t="s">
+        <v>39</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166" t="s">
+        <v>50</v>
+      </c>
+      <c r="J166">
+        <v>2.15</v>
+      </c>
+      <c r="K166">
+        <v>2.75</v>
+      </c>
+      <c r="L166">
+        <v>3.5</v>
+      </c>
+      <c r="M166">
+        <v>2.375</v>
+      </c>
+      <c r="N166">
+        <v>2.8</v>
+      </c>
+      <c r="O166">
+        <v>3</v>
+      </c>
+      <c r="P166">
+        <v>-0.25</v>
+      </c>
+      <c r="Q166">
+        <v>2.05</v>
+      </c>
+      <c r="R166">
+        <v>1.75</v>
+      </c>
+      <c r="S166">
+        <v>2</v>
+      </c>
+      <c r="T166">
+        <v>1.825</v>
+      </c>
+      <c r="U166">
+        <v>1.975</v>
+      </c>
+      <c r="V166">
+        <v>-1</v>
+      </c>
+      <c r="W166">
+        <v>1.8</v>
+      </c>
+      <c r="X166">
+        <v>-1</v>
+      </c>
+      <c r="Y166">
+        <v>-0.5</v>
+      </c>
+      <c r="Z166">
+        <v>0.375</v>
+      </c>
+      <c r="AA166">
+        <v>-1</v>
+      </c>
+      <c r="AB166">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:28">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>8130390</v>
+      </c>
+      <c r="C167" t="s">
+        <v>27</v>
+      </c>
+      <c r="D167" s="2">
+        <v>45404.40625</v>
+      </c>
+      <c r="E167" t="s">
+        <v>28</v>
+      </c>
+      <c r="F167" t="s">
+        <v>37</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>2</v>
+      </c>
+      <c r="I167" t="s">
+        <v>51</v>
+      </c>
+      <c r="J167">
+        <v>2.15</v>
+      </c>
+      <c r="K167">
+        <v>3.1</v>
+      </c>
+      <c r="L167">
+        <v>3</v>
+      </c>
+      <c r="M167">
+        <v>2.15</v>
+      </c>
+      <c r="N167">
+        <v>3.1</v>
+      </c>
+      <c r="O167">
+        <v>3</v>
+      </c>
+      <c r="P167">
+        <v>-0.25</v>
+      </c>
+      <c r="Q167">
+        <v>1.95</v>
+      </c>
+      <c r="R167">
+        <v>1.85</v>
+      </c>
+      <c r="S167">
+        <v>2.25</v>
+      </c>
+      <c r="T167">
+        <v>2</v>
+      </c>
+      <c r="U167">
+        <v>1.8</v>
+      </c>
+      <c r="V167">
+        <v>-1</v>
+      </c>
+      <c r="W167">
+        <v>-1</v>
+      </c>
+      <c r="X167">
+        <v>2</v>
+      </c>
+      <c r="Y167">
+        <v>-1</v>
+      </c>
+      <c r="Z167">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA167">
+        <v>1</v>
+      </c>
+      <c r="AB167">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:28">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>8130397</v>
+      </c>
+      <c r="C168" t="s">
+        <v>27</v>
+      </c>
+      <c r="D168" s="2">
+        <v>45404.51041666666</v>
+      </c>
+      <c r="E168" t="s">
+        <v>45</v>
+      </c>
+      <c r="F168" t="s">
+        <v>34</v>
+      </c>
+      <c r="G168">
+        <v>2</v>
+      </c>
+      <c r="H168">
+        <v>2</v>
+      </c>
+      <c r="I168" t="s">
+        <v>50</v>
+      </c>
+      <c r="J168">
+        <v>1.666</v>
+      </c>
+      <c r="K168">
+        <v>3.25</v>
+      </c>
+      <c r="L168">
+        <v>4.75</v>
+      </c>
+      <c r="M168">
+        <v>1.7</v>
+      </c>
+      <c r="N168">
+        <v>3</v>
+      </c>
+      <c r="O168">
+        <v>5</v>
+      </c>
+      <c r="P168">
+        <v>-0.75</v>
+      </c>
+      <c r="Q168">
+        <v>2</v>
+      </c>
+      <c r="R168">
+        <v>1.8</v>
+      </c>
+      <c r="S168">
+        <v>1.75</v>
+      </c>
+      <c r="T168">
+        <v>1.925</v>
+      </c>
+      <c r="U168">
+        <v>1.875</v>
+      </c>
+      <c r="V168">
+        <v>-1</v>
+      </c>
+      <c r="W168">
+        <v>2</v>
+      </c>
+      <c r="X168">
+        <v>-1</v>
+      </c>
+      <c r="Y168">
+        <v>-1</v>
+      </c>
+      <c r="Z168">
+        <v>0.8</v>
+      </c>
+      <c r="AA168">
+        <v>0.925</v>
+      </c>
+      <c r="AB168">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB168"/>
+  <dimension ref="A1:AB175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2348,7 +2348,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6862617</v>
+        <v>6862618</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
@@ -2357,76 +2357,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J22">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="K22">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="L22">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="M22">
+        <v>2.05</v>
+      </c>
+      <c r="N22">
+        <v>2.625</v>
+      </c>
+      <c r="O22">
+        <v>4</v>
+      </c>
+      <c r="P22">
+        <v>-0.25</v>
+      </c>
+      <c r="Q22">
+        <v>1.775</v>
+      </c>
+      <c r="R22">
+        <v>2.025</v>
+      </c>
+      <c r="S22">
+        <v>2</v>
+      </c>
+      <c r="T22">
         <v>1.95</v>
       </c>
-      <c r="N22">
-        <v>2.8</v>
-      </c>
-      <c r="O22">
-        <v>4.1</v>
-      </c>
-      <c r="P22">
-        <v>-0.5</v>
-      </c>
-      <c r="Q22">
-        <v>2</v>
-      </c>
-      <c r="R22">
-        <v>1.8</v>
-      </c>
-      <c r="S22">
-        <v>2.25</v>
-      </c>
-      <c r="T22">
-        <v>2.025</v>
-      </c>
       <c r="U22">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V22">
         <v>-1</v>
       </c>
       <c r="W22">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2434,7 +2434,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6862618</v>
+        <v>6862617</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
@@ -2443,76 +2443,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="K23">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="L23">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="M23">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="N23">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="O23">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="P23">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q23">
+        <v>2</v>
+      </c>
+      <c r="R23">
+        <v>1.8</v>
+      </c>
+      <c r="S23">
+        <v>2.25</v>
+      </c>
+      <c r="T23">
+        <v>2.025</v>
+      </c>
+      <c r="U23">
         <v>1.775</v>
       </c>
-      <c r="R23">
-        <v>2.025</v>
-      </c>
-      <c r="S23">
-        <v>2</v>
-      </c>
-      <c r="T23">
-        <v>1.95</v>
-      </c>
-      <c r="U23">
-        <v>1.85</v>
-      </c>
       <c r="V23">
         <v>-1</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X23">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -5100,7 +5100,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7453403</v>
+        <v>7453404</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
@@ -5109,76 +5109,76 @@
         <v>45240.375</v>
       </c>
       <c r="E54" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F54" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J54">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="K54">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="L54">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="M54">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="N54">
         <v>2.9</v>
       </c>
       <c r="O54">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="P54">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q54">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R54">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S54">
         <v>2</v>
       </c>
       <c r="T54">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U54">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
         <v>-1</v>
       </c>
       <c r="W54">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y54">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -5186,7 +5186,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7453404</v>
+        <v>7453403</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
@@ -5195,76 +5195,76 @@
         <v>45240.375</v>
       </c>
       <c r="E55" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J55">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="K55">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="L55">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="M55">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N55">
         <v>2.9</v>
       </c>
       <c r="O55">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="P55">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q55">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R55">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S55">
         <v>2</v>
       </c>
       <c r="T55">
+        <v>1.975</v>
+      </c>
+      <c r="U55">
+        <v>1.825</v>
+      </c>
+      <c r="V55">
+        <v>-1</v>
+      </c>
+      <c r="W55">
         <v>1.9</v>
       </c>
-      <c r="U55">
-        <v>1.9</v>
-      </c>
-      <c r="V55">
-        <v>-1</v>
-      </c>
-      <c r="W55">
-        <v>-1</v>
-      </c>
       <c r="X55">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z55">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -6734,7 +6734,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7565123</v>
+        <v>7565124</v>
       </c>
       <c r="C73" t="s">
         <v>27</v>
@@ -6743,56 +6743,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="E73" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F73" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="s">
         <v>51</v>
       </c>
       <c r="J73">
+        <v>1.5</v>
+      </c>
+      <c r="K73">
+        <v>3.6</v>
+      </c>
+      <c r="L73">
+        <v>6</v>
+      </c>
+      <c r="M73">
         <v>1.727</v>
       </c>
-      <c r="K73">
-        <v>3.4</v>
-      </c>
-      <c r="L73">
+      <c r="N73">
+        <v>3.5</v>
+      </c>
+      <c r="O73">
         <v>4.2</v>
       </c>
-      <c r="M73">
-        <v>1.833</v>
-      </c>
-      <c r="N73">
-        <v>3.3</v>
-      </c>
-      <c r="O73">
-        <v>3.75</v>
-      </c>
       <c r="P73">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q73">
+        <v>2</v>
+      </c>
+      <c r="R73">
+        <v>1.8</v>
+      </c>
+      <c r="S73">
+        <v>2</v>
+      </c>
+      <c r="T73">
         <v>1.875</v>
       </c>
-      <c r="R73">
+      <c r="U73">
         <v>1.925</v>
       </c>
-      <c r="S73">
-        <v>2</v>
-      </c>
-      <c r="T73">
-        <v>1.925</v>
-      </c>
-      <c r="U73">
-        <v>1.875</v>
-      </c>
       <c r="V73">
         <v>-1</v>
       </c>
@@ -6800,19 +6800,19 @@
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
+        <v>0.8</v>
+      </c>
+      <c r="AA73">
+        <v>-1</v>
+      </c>
+      <c r="AB73">
         <v>0.925</v>
-      </c>
-      <c r="AA73">
-        <v>0.925</v>
-      </c>
-      <c r="AB73">
-        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:28">
@@ -6820,7 +6820,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7565124</v>
+        <v>7565123</v>
       </c>
       <c r="C74" t="s">
         <v>27</v>
@@ -6829,56 +6829,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="E74" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="s">
         <v>51</v>
       </c>
       <c r="J74">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="K74">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L74">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="M74">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="N74">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O74">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P74">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q74">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R74">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S74">
         <v>2</v>
       </c>
       <c r="T74">
+        <v>1.925</v>
+      </c>
+      <c r="U74">
         <v>1.875</v>
       </c>
-      <c r="U74">
-        <v>1.925</v>
-      </c>
       <c r="V74">
         <v>-1</v>
       </c>
@@ -6886,19 +6886,19 @@
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -8282,7 +8282,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7618726</v>
+        <v>7618724</v>
       </c>
       <c r="C91" t="s">
         <v>27</v>
@@ -8291,76 +8291,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="E91" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F91" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J91">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="K91">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L91">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="M91">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="N91">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="O91">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="P91">
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="R91">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S91">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T91">
+        <v>2</v>
+      </c>
+      <c r="U91">
         <v>1.8</v>
       </c>
-      <c r="U91">
-        <v>2</v>
-      </c>
       <c r="V91">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z91">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB91">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:28">
@@ -8368,7 +8368,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7618724</v>
+        <v>7618726</v>
       </c>
       <c r="C92" t="s">
         <v>27</v>
@@ -8377,76 +8377,76 @@
         <v>45283.35416666666</v>
       </c>
       <c r="E92" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92" t="s">
+        <v>51</v>
+      </c>
+      <c r="J92">
+        <v>2.375</v>
+      </c>
+      <c r="K92">
+        <v>2.8</v>
+      </c>
+      <c r="L92">
         <v>3</v>
       </c>
-      <c r="H92">
-        <v>1</v>
-      </c>
-      <c r="I92" t="s">
-        <v>52</v>
-      </c>
-      <c r="J92">
-        <v>2.875</v>
-      </c>
-      <c r="K92">
-        <v>2.75</v>
-      </c>
-      <c r="L92">
-        <v>2.5</v>
-      </c>
       <c r="M92">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="N92">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="O92">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P92">
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="R92">
+        <v>2.05</v>
+      </c>
+      <c r="S92">
+        <v>1.75</v>
+      </c>
+      <c r="T92">
         <v>1.8</v>
       </c>
-      <c r="S92">
-        <v>2</v>
-      </c>
-      <c r="T92">
-        <v>2</v>
-      </c>
       <c r="U92">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V92">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -9744,7 +9744,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7811882</v>
+        <v>7811883</v>
       </c>
       <c r="C108" t="s">
         <v>27</v>
@@ -9753,76 +9753,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="E108" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="s">
         <v>50</v>
       </c>
       <c r="J108">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="K108">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="L108">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="M108">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="N108">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="O108">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="P108">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q108">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="R108">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S108">
         <v>1.75</v>
       </c>
       <c r="T108">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V108">
         <v>-1</v>
       </c>
       <c r="W108">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="Z108">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:28">
@@ -9830,7 +9830,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7811883</v>
+        <v>7811882</v>
       </c>
       <c r="C109" t="s">
         <v>27</v>
@@ -9839,76 +9839,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="s">
         <v>50</v>
       </c>
       <c r="J109">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="K109">
+        <v>2.9</v>
+      </c>
+      <c r="L109">
         <v>3.4</v>
       </c>
-      <c r="L109">
-        <v>1.727</v>
-      </c>
       <c r="M109">
+        <v>2.05</v>
+      </c>
+      <c r="N109">
+        <v>2.9</v>
+      </c>
+      <c r="O109">
         <v>3.6</v>
       </c>
-      <c r="N109">
-        <v>3.3</v>
-      </c>
-      <c r="O109">
-        <v>1.909</v>
-      </c>
       <c r="P109">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q109">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="R109">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S109">
         <v>1.75</v>
       </c>
       <c r="T109">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="U109">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V109">
         <v>-1</v>
       </c>
       <c r="W109">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB109">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="110" spans="1:28">
@@ -14983,6 +14983,608 @@
       </c>
       <c r="AB168">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:28">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>8122429</v>
+      </c>
+      <c r="C169" t="s">
+        <v>27</v>
+      </c>
+      <c r="D169" s="2">
+        <v>45405.40625</v>
+      </c>
+      <c r="E169" t="s">
+        <v>31</v>
+      </c>
+      <c r="F169" t="s">
+        <v>35</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="I169" t="s">
+        <v>50</v>
+      </c>
+      <c r="J169">
+        <v>2.2</v>
+      </c>
+      <c r="K169">
+        <v>2.875</v>
+      </c>
+      <c r="L169">
+        <v>3.25</v>
+      </c>
+      <c r="M169">
+        <v>2.2</v>
+      </c>
+      <c r="N169">
+        <v>2.875</v>
+      </c>
+      <c r="O169">
+        <v>3.25</v>
+      </c>
+      <c r="P169">
+        <v>-0.25</v>
+      </c>
+      <c r="Q169">
+        <v>1.95</v>
+      </c>
+      <c r="R169">
+        <v>1.85</v>
+      </c>
+      <c r="S169">
+        <v>2</v>
+      </c>
+      <c r="T169">
+        <v>2</v>
+      </c>
+      <c r="U169">
+        <v>1.8</v>
+      </c>
+      <c r="V169">
+        <v>-1</v>
+      </c>
+      <c r="W169">
+        <v>1.875</v>
+      </c>
+      <c r="X169">
+        <v>-1</v>
+      </c>
+      <c r="Y169">
+        <v>-0.5</v>
+      </c>
+      <c r="Z169">
+        <v>0.425</v>
+      </c>
+      <c r="AA169">
+        <v>0</v>
+      </c>
+      <c r="AB169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:28">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>8131278</v>
+      </c>
+      <c r="C170" t="s">
+        <v>27</v>
+      </c>
+      <c r="D170" s="2">
+        <v>45405.51041666666</v>
+      </c>
+      <c r="E170" t="s">
+        <v>29</v>
+      </c>
+      <c r="F170" t="s">
+        <v>44</v>
+      </c>
+      <c r="G170">
+        <v>3</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170" t="s">
+        <v>52</v>
+      </c>
+      <c r="J170">
+        <v>1.615</v>
+      </c>
+      <c r="K170">
+        <v>3.2</v>
+      </c>
+      <c r="L170">
+        <v>5.5</v>
+      </c>
+      <c r="M170">
+        <v>1.533</v>
+      </c>
+      <c r="N170">
+        <v>3.4</v>
+      </c>
+      <c r="O170">
+        <v>5.75</v>
+      </c>
+      <c r="P170">
+        <v>-1</v>
+      </c>
+      <c r="Q170">
+        <v>2.025</v>
+      </c>
+      <c r="R170">
+        <v>1.775</v>
+      </c>
+      <c r="S170">
+        <v>1.75</v>
+      </c>
+      <c r="T170">
+        <v>1.725</v>
+      </c>
+      <c r="U170">
+        <v>1.975</v>
+      </c>
+      <c r="V170">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="W170">
+        <v>-1</v>
+      </c>
+      <c r="X170">
+        <v>-1</v>
+      </c>
+      <c r="Y170">
+        <v>1.025</v>
+      </c>
+      <c r="Z170">
+        <v>-1</v>
+      </c>
+      <c r="AA170">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AB170">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:28">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>8131279</v>
+      </c>
+      <c r="C171" t="s">
+        <v>27</v>
+      </c>
+      <c r="D171" s="2">
+        <v>45405.60416666666</v>
+      </c>
+      <c r="E171" t="s">
+        <v>38</v>
+      </c>
+      <c r="F171" t="s">
+        <v>40</v>
+      </c>
+      <c r="G171">
+        <v>1</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
+      </c>
+      <c r="I171" t="s">
+        <v>50</v>
+      </c>
+      <c r="J171">
+        <v>1.5</v>
+      </c>
+      <c r="K171">
+        <v>3.5</v>
+      </c>
+      <c r="L171">
+        <v>6</v>
+      </c>
+      <c r="M171">
+        <v>1.7</v>
+      </c>
+      <c r="N171">
+        <v>3.25</v>
+      </c>
+      <c r="O171">
+        <v>4.333</v>
+      </c>
+      <c r="P171">
+        <v>-0.75</v>
+      </c>
+      <c r="Q171">
+        <v>2</v>
+      </c>
+      <c r="R171">
+        <v>1.8</v>
+      </c>
+      <c r="S171">
+        <v>2</v>
+      </c>
+      <c r="T171">
+        <v>1.925</v>
+      </c>
+      <c r="U171">
+        <v>1.875</v>
+      </c>
+      <c r="V171">
+        <v>-1</v>
+      </c>
+      <c r="W171">
+        <v>2.25</v>
+      </c>
+      <c r="X171">
+        <v>-1</v>
+      </c>
+      <c r="Y171">
+        <v>-1</v>
+      </c>
+      <c r="Z171">
+        <v>0.8</v>
+      </c>
+      <c r="AA171">
+        <v>0</v>
+      </c>
+      <c r="AB171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:28">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>8140588</v>
+      </c>
+      <c r="C172" t="s">
+        <v>27</v>
+      </c>
+      <c r="D172" s="2">
+        <v>45407.40625</v>
+      </c>
+      <c r="E172" t="s">
+        <v>39</v>
+      </c>
+      <c r="F172" t="s">
+        <v>48</v>
+      </c>
+      <c r="G172">
+        <v>1</v>
+      </c>
+      <c r="H172">
+        <v>3</v>
+      </c>
+      <c r="I172" t="s">
+        <v>51</v>
+      </c>
+      <c r="J172">
+        <v>3.4</v>
+      </c>
+      <c r="K172">
+        <v>2.75</v>
+      </c>
+      <c r="L172">
+        <v>2.2</v>
+      </c>
+      <c r="M172">
+        <v>2.6</v>
+      </c>
+      <c r="N172">
+        <v>2.6</v>
+      </c>
+      <c r="O172">
+        <v>3</v>
+      </c>
+      <c r="P172">
+        <v>0</v>
+      </c>
+      <c r="Q172">
+        <v>1.75</v>
+      </c>
+      <c r="R172">
+        <v>2.05</v>
+      </c>
+      <c r="S172">
+        <v>1.75</v>
+      </c>
+      <c r="T172">
+        <v>1.825</v>
+      </c>
+      <c r="U172">
+        <v>1.975</v>
+      </c>
+      <c r="V172">
+        <v>-1</v>
+      </c>
+      <c r="W172">
+        <v>-1</v>
+      </c>
+      <c r="X172">
+        <v>2</v>
+      </c>
+      <c r="Y172">
+        <v>-1</v>
+      </c>
+      <c r="Z172">
+        <v>1.05</v>
+      </c>
+      <c r="AA172">
+        <v>0.825</v>
+      </c>
+      <c r="AB172">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:28">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>8137758</v>
+      </c>
+      <c r="C173" t="s">
+        <v>27</v>
+      </c>
+      <c r="D173" s="2">
+        <v>45407.5</v>
+      </c>
+      <c r="E173" t="s">
+        <v>43</v>
+      </c>
+      <c r="F173" t="s">
+        <v>46</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+      <c r="H173">
+        <v>4</v>
+      </c>
+      <c r="I173" t="s">
+        <v>51</v>
+      </c>
+      <c r="J173">
+        <v>4.333</v>
+      </c>
+      <c r="K173">
+        <v>3.8</v>
+      </c>
+      <c r="L173">
+        <v>1.615</v>
+      </c>
+      <c r="M173">
+        <v>3.6</v>
+      </c>
+      <c r="N173">
+        <v>3.5</v>
+      </c>
+      <c r="O173">
+        <v>1.8</v>
+      </c>
+      <c r="P173">
+        <v>0.5</v>
+      </c>
+      <c r="Q173">
+        <v>1.975</v>
+      </c>
+      <c r="R173">
+        <v>1.825</v>
+      </c>
+      <c r="S173">
+        <v>2.25</v>
+      </c>
+      <c r="T173">
+        <v>1.975</v>
+      </c>
+      <c r="U173">
+        <v>1.725</v>
+      </c>
+      <c r="V173">
+        <v>-1</v>
+      </c>
+      <c r="W173">
+        <v>-1</v>
+      </c>
+      <c r="X173">
+        <v>0.8</v>
+      </c>
+      <c r="Y173">
+        <v>-1</v>
+      </c>
+      <c r="Z173">
+        <v>0.825</v>
+      </c>
+      <c r="AA173">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB173">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:28">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>8137759</v>
+      </c>
+      <c r="C174" t="s">
+        <v>27</v>
+      </c>
+      <c r="D174" s="2">
+        <v>45407.5</v>
+      </c>
+      <c r="E174" t="s">
+        <v>36</v>
+      </c>
+      <c r="F174" t="s">
+        <v>47</v>
+      </c>
+      <c r="G174">
+        <v>2</v>
+      </c>
+      <c r="H174">
+        <v>1</v>
+      </c>
+      <c r="I174" t="s">
+        <v>52</v>
+      </c>
+      <c r="J174">
+        <v>1.571</v>
+      </c>
+      <c r="K174">
+        <v>3.6</v>
+      </c>
+      <c r="L174">
+        <v>5</v>
+      </c>
+      <c r="M174">
+        <v>1.25</v>
+      </c>
+      <c r="N174">
+        <v>4.5</v>
+      </c>
+      <c r="O174">
+        <v>10</v>
+      </c>
+      <c r="P174">
+        <v>-1.75</v>
+      </c>
+      <c r="Q174">
+        <v>2</v>
+      </c>
+      <c r="R174">
+        <v>1.8</v>
+      </c>
+      <c r="S174">
+        <v>2.75</v>
+      </c>
+      <c r="T174">
+        <v>1.925</v>
+      </c>
+      <c r="U174">
+        <v>1.875</v>
+      </c>
+      <c r="V174">
+        <v>0.25</v>
+      </c>
+      <c r="W174">
+        <v>-1</v>
+      </c>
+      <c r="X174">
+        <v>-1</v>
+      </c>
+      <c r="Y174">
+        <v>-1</v>
+      </c>
+      <c r="Z174">
+        <v>0.8</v>
+      </c>
+      <c r="AA174">
+        <v>0.4625</v>
+      </c>
+      <c r="AB174">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:28">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>8136645</v>
+      </c>
+      <c r="C175" t="s">
+        <v>27</v>
+      </c>
+      <c r="D175" s="2">
+        <v>45407.59375</v>
+      </c>
+      <c r="E175" t="s">
+        <v>37</v>
+      </c>
+      <c r="F175" t="s">
+        <v>32</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="I175" t="s">
+        <v>50</v>
+      </c>
+      <c r="J175">
+        <v>3.6</v>
+      </c>
+      <c r="K175">
+        <v>3.2</v>
+      </c>
+      <c r="L175">
+        <v>1.909</v>
+      </c>
+      <c r="M175">
+        <v>4.5</v>
+      </c>
+      <c r="N175">
+        <v>3.3</v>
+      </c>
+      <c r="O175">
+        <v>1.7</v>
+      </c>
+      <c r="P175">
+        <v>0.75</v>
+      </c>
+      <c r="Q175">
+        <v>1.825</v>
+      </c>
+      <c r="R175">
+        <v>1.975</v>
+      </c>
+      <c r="S175">
+        <v>2.25</v>
+      </c>
+      <c r="T175">
+        <v>1.875</v>
+      </c>
+      <c r="U175">
+        <v>1.925</v>
+      </c>
+      <c r="V175">
+        <v>-1</v>
+      </c>
+      <c r="W175">
+        <v>2.3</v>
+      </c>
+      <c r="X175">
+        <v>-1</v>
+      </c>
+      <c r="Y175">
+        <v>0.825</v>
+      </c>
+      <c r="Z175">
+        <v>-1</v>
+      </c>
+      <c r="AA175">
+        <v>-0.5</v>
+      </c>
+      <c r="AB175">
+        <v>0.4625</v>
       </c>
     </row>
   </sheetData>

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB175"/>
+  <dimension ref="A1:AB168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1918,7 +1918,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6838982</v>
+        <v>6838980</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -1927,76 +1927,76 @@
         <v>45107.44791666666</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J17">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="M17">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N17">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="O17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="P17">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q17">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="R17">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S17">
         <v>2</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U17">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V17">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z17">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -2004,7 +2004,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6838980</v>
+        <v>6838982</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
@@ -2013,76 +2013,76 @@
         <v>45107.44791666666</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J18">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="K18">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="M18">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N18">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="P18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q18">
+        <v>1.725</v>
+      </c>
+      <c r="R18">
+        <v>1.975</v>
+      </c>
+      <c r="S18">
+        <v>2</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="U18">
         <v>1.8</v>
       </c>
-      <c r="R18">
-        <v>2</v>
-      </c>
-      <c r="S18">
-        <v>2</v>
-      </c>
-      <c r="T18">
-        <v>1.85</v>
-      </c>
-      <c r="U18">
-        <v>1.95</v>
-      </c>
       <c r="V18">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y18">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB18">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2348,7 +2348,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6862618</v>
+        <v>6862617</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
@@ -2357,76 +2357,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="K22">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="L22">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="M22">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="N22">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="O22">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="P22">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q22">
+        <v>2</v>
+      </c>
+      <c r="R22">
+        <v>1.8</v>
+      </c>
+      <c r="S22">
+        <v>2.25</v>
+      </c>
+      <c r="T22">
+        <v>2.025</v>
+      </c>
+      <c r="U22">
         <v>1.775</v>
       </c>
-      <c r="R22">
-        <v>2.025</v>
-      </c>
-      <c r="S22">
-        <v>2</v>
-      </c>
-      <c r="T22">
-        <v>1.95</v>
-      </c>
-      <c r="U22">
-        <v>1.85</v>
-      </c>
       <c r="V22">
         <v>-1</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X22">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2434,7 +2434,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6862617</v>
+        <v>6862618</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
@@ -2443,76 +2443,76 @@
         <v>45112.45833333334</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J23">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="K23">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="L23">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="M23">
+        <v>2.05</v>
+      </c>
+      <c r="N23">
+        <v>2.625</v>
+      </c>
+      <c r="O23">
+        <v>4</v>
+      </c>
+      <c r="P23">
+        <v>-0.25</v>
+      </c>
+      <c r="Q23">
+        <v>1.775</v>
+      </c>
+      <c r="R23">
+        <v>2.025</v>
+      </c>
+      <c r="S23">
+        <v>2</v>
+      </c>
+      <c r="T23">
         <v>1.95</v>
       </c>
-      <c r="N23">
-        <v>2.8</v>
-      </c>
-      <c r="O23">
-        <v>4.1</v>
-      </c>
-      <c r="P23">
-        <v>-0.5</v>
-      </c>
-      <c r="Q23">
-        <v>2</v>
-      </c>
-      <c r="R23">
-        <v>1.8</v>
-      </c>
-      <c r="S23">
-        <v>2.25</v>
-      </c>
-      <c r="T23">
-        <v>2.025</v>
-      </c>
       <c r="U23">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V23">
         <v>-1</v>
       </c>
       <c r="W23">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB23">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -3982,7 +3982,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7406927</v>
+        <v>7407173</v>
       </c>
       <c r="C41" t="s">
         <v>27</v>
@@ -3991,76 +3991,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="E41" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J41">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="K41">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="L41">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="M41">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="N41">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="O41">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="P41">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q41">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S41">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T41">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U41">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V41">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="W41">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="Z41">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AA41">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -4068,7 +4068,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7407173</v>
+        <v>7406927</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
@@ -4077,76 +4077,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="E42" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J42">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="K42">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="L42">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="M42">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="N42">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="O42">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="P42">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q42">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R42">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T42">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U42">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V42">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
+        <v>0.45</v>
+      </c>
+      <c r="Z42">
         <v>-0.5</v>
       </c>
-      <c r="Z42">
-        <v>0.4875</v>
-      </c>
       <c r="AA42">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:28">
@@ -5100,7 +5100,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7453404</v>
+        <v>7453403</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
@@ -5109,76 +5109,76 @@
         <v>45240.375</v>
       </c>
       <c r="E54" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J54">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="K54">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="L54">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="M54">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N54">
         <v>2.9</v>
       </c>
       <c r="O54">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="P54">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q54">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R54">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S54">
         <v>2</v>
       </c>
       <c r="T54">
+        <v>1.975</v>
+      </c>
+      <c r="U54">
+        <v>1.825</v>
+      </c>
+      <c r="V54">
+        <v>-1</v>
+      </c>
+      <c r="W54">
         <v>1.9</v>
       </c>
-      <c r="U54">
-        <v>1.9</v>
-      </c>
-      <c r="V54">
-        <v>-1</v>
-      </c>
-      <c r="W54">
-        <v>-1</v>
-      </c>
       <c r="X54">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z54">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -5186,7 +5186,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7453403</v>
+        <v>7453404</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
@@ -5195,76 +5195,76 @@
         <v>45240.375</v>
       </c>
       <c r="E55" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F55" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J55">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="K55">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="L55">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="M55">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="N55">
         <v>2.9</v>
       </c>
       <c r="O55">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="P55">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q55">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R55">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S55">
         <v>2</v>
       </c>
       <c r="T55">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U55">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V55">
         <v>-1</v>
       </c>
       <c r="W55">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -6734,7 +6734,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7565124</v>
+        <v>7565123</v>
       </c>
       <c r="C73" t="s">
         <v>27</v>
@@ -6743,56 +6743,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="E73" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="s">
         <v>51</v>
       </c>
       <c r="J73">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="K73">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L73">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="M73">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="N73">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O73">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P73">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q73">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R73">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S73">
         <v>2</v>
       </c>
       <c r="T73">
+        <v>1.925</v>
+      </c>
+      <c r="U73">
         <v>1.875</v>
       </c>
-      <c r="U73">
-        <v>1.925</v>
-      </c>
       <c r="V73">
         <v>-1</v>
       </c>
@@ -6800,19 +6800,19 @@
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB73">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:28">
@@ -6820,7 +6820,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7565123</v>
+        <v>7565124</v>
       </c>
       <c r="C74" t="s">
         <v>27</v>
@@ -6829,56 +6829,56 @@
         <v>45268.35416666666</v>
       </c>
       <c r="E74" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F74" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="s">
         <v>51</v>
       </c>
       <c r="J74">
+        <v>1.5</v>
+      </c>
+      <c r="K74">
+        <v>3.6</v>
+      </c>
+      <c r="L74">
+        <v>6</v>
+      </c>
+      <c r="M74">
         <v>1.727</v>
       </c>
-      <c r="K74">
-        <v>3.4</v>
-      </c>
-      <c r="L74">
+      <c r="N74">
+        <v>3.5</v>
+      </c>
+      <c r="O74">
         <v>4.2</v>
       </c>
-      <c r="M74">
-        <v>1.833</v>
-      </c>
-      <c r="N74">
-        <v>3.3</v>
-      </c>
-      <c r="O74">
-        <v>3.75</v>
-      </c>
       <c r="P74">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q74">
+        <v>2</v>
+      </c>
+      <c r="R74">
+        <v>1.8</v>
+      </c>
+      <c r="S74">
+        <v>2</v>
+      </c>
+      <c r="T74">
         <v>1.875</v>
       </c>
-      <c r="R74">
+      <c r="U74">
         <v>1.925</v>
       </c>
-      <c r="S74">
-        <v>2</v>
-      </c>
-      <c r="T74">
-        <v>1.925</v>
-      </c>
-      <c r="U74">
-        <v>1.875</v>
-      </c>
       <c r="V74">
         <v>-1</v>
       </c>
@@ -6886,19 +6886,19 @@
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
+        <v>0.8</v>
+      </c>
+      <c r="AA74">
+        <v>-1</v>
+      </c>
+      <c r="AB74">
         <v>0.925</v>
-      </c>
-      <c r="AA74">
-        <v>0.925</v>
-      </c>
-      <c r="AB74">
-        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -7164,7 +7164,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7590595</v>
+        <v>7592803</v>
       </c>
       <c r="C78" t="s">
         <v>27</v>
@@ -7173,49 +7173,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="E78" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I78" t="s">
         <v>51</v>
       </c>
       <c r="J78">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="K78">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="L78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M78">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="N78">
+        <v>2.875</v>
+      </c>
+      <c r="O78">
         <v>3</v>
       </c>
-      <c r="O78">
-        <v>1.75</v>
-      </c>
       <c r="P78">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q78">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="R78">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S78">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T78">
         <v>2</v>
@@ -7230,19 +7230,19 @@
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA78">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="79" spans="1:28">
@@ -7250,7 +7250,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7592803</v>
+        <v>7590595</v>
       </c>
       <c r="C79" t="s">
         <v>27</v>
@@ -7259,49 +7259,49 @@
         <v>45275.35416666666</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F79" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I79" t="s">
         <v>51</v>
       </c>
       <c r="J79">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="K79">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="L79">
+        <v>2</v>
+      </c>
+      <c r="M79">
+        <v>4.5</v>
+      </c>
+      <c r="N79">
         <v>3</v>
       </c>
-      <c r="M79">
-        <v>2.3</v>
-      </c>
-      <c r="N79">
-        <v>2.875</v>
-      </c>
       <c r="O79">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="P79">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q79">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="R79">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S79">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T79">
         <v>2</v>
@@ -7316,19 +7316,19 @@
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB79">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:28">
@@ -8110,7 +8110,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7615329</v>
+        <v>7613564</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8119,76 +8119,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F89" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J89">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="K89">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="L89">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="M89">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="N89">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="O89">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="P89">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q89">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R89">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S89">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T89">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U89">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V89">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W89">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB89">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8196,7 +8196,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7613564</v>
+        <v>7615329</v>
       </c>
       <c r="C90" t="s">
         <v>27</v>
@@ -8205,76 +8205,76 @@
         <v>45282.35416666666</v>
       </c>
       <c r="E90" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J90">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="K90">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="L90">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="M90">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="N90">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="O90">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="P90">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q90">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R90">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S90">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T90">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U90">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA90">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -9744,7 +9744,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7811883</v>
+        <v>7811882</v>
       </c>
       <c r="C108" t="s">
         <v>27</v>
@@ -9753,76 +9753,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="E108" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="s">
         <v>50</v>
       </c>
       <c r="J108">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="K108">
+        <v>2.9</v>
+      </c>
+      <c r="L108">
         <v>3.4</v>
       </c>
-      <c r="L108">
-        <v>1.727</v>
-      </c>
       <c r="M108">
+        <v>2.05</v>
+      </c>
+      <c r="N108">
+        <v>2.9</v>
+      </c>
+      <c r="O108">
         <v>3.6</v>
       </c>
-      <c r="N108">
-        <v>3.3</v>
-      </c>
-      <c r="O108">
-        <v>1.909</v>
-      </c>
       <c r="P108">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q108">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="R108">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S108">
         <v>1.75</v>
       </c>
       <c r="T108">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="U108">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
         <v>-1</v>
       </c>
       <c r="W108">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB108">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="109" spans="1:28">
@@ -9830,7 +9830,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7811882</v>
+        <v>7811883</v>
       </c>
       <c r="C109" t="s">
         <v>27</v>
@@ -9839,76 +9839,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="s">
         <v>50</v>
       </c>
       <c r="J109">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="K109">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="L109">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="M109">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="N109">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="O109">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="P109">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q109">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="R109">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S109">
         <v>1.75</v>
       </c>
       <c r="T109">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="U109">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V109">
         <v>-1</v>
       </c>
       <c r="W109">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="Z109">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:28">
@@ -13442,7 +13442,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>8031833</v>
+        <v>8031832</v>
       </c>
       <c r="C151" t="s">
         <v>27</v>
@@ -13451,76 +13451,76 @@
         <v>45382.64583333334</v>
       </c>
       <c r="E151" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F151" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="s">
         <v>50</v>
       </c>
       <c r="J151">
-        <v>4.1</v>
+        <v>1.909</v>
       </c>
       <c r="K151">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="L151">
+        <v>4</v>
+      </c>
+      <c r="M151">
         <v>1.833</v>
       </c>
-      <c r="M151">
-        <v>3.5</v>
-      </c>
       <c r="N151">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="O151">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="P151">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q151">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R151">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S151">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T151">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U151">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V151">
         <v>-1</v>
       </c>
       <c r="W151">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA151">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="152" spans="1:28">
@@ -13528,7 +13528,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>8031832</v>
+        <v>8031833</v>
       </c>
       <c r="C152" t="s">
         <v>27</v>
@@ -13537,76 +13537,76 @@
         <v>45382.64583333334</v>
       </c>
       <c r="E152" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" t="s">
         <v>50</v>
       </c>
       <c r="J152">
-        <v>1.909</v>
+        <v>4.1</v>
       </c>
       <c r="K152">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="L152">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="M152">
-        <v>1.833</v>
+        <v>3.5</v>
       </c>
       <c r="N152">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O152">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="P152">
+        <v>0.25</v>
+      </c>
+      <c r="Q152">
+        <v>1.975</v>
+      </c>
+      <c r="R152">
+        <v>1.825</v>
+      </c>
+      <c r="S152">
+        <v>2</v>
+      </c>
+      <c r="T152">
+        <v>2.025</v>
+      </c>
+      <c r="U152">
+        <v>1.775</v>
+      </c>
+      <c r="V152">
+        <v>-1</v>
+      </c>
+      <c r="W152">
+        <v>1.9</v>
+      </c>
+      <c r="X152">
+        <v>-1</v>
+      </c>
+      <c r="Y152">
+        <v>0.4875</v>
+      </c>
+      <c r="Z152">
         <v>-0.5</v>
       </c>
-      <c r="Q152">
-        <v>1.875</v>
-      </c>
-      <c r="R152">
-        <v>1.925</v>
-      </c>
-      <c r="S152">
-        <v>1.75</v>
-      </c>
-      <c r="T152">
-        <v>1.95</v>
-      </c>
-      <c r="U152">
-        <v>1.85</v>
-      </c>
-      <c r="V152">
-        <v>-1</v>
-      </c>
-      <c r="W152">
-        <v>1.8</v>
-      </c>
-      <c r="X152">
-        <v>-1</v>
-      </c>
-      <c r="Y152">
-        <v>-1</v>
-      </c>
-      <c r="Z152">
-        <v>0.925</v>
-      </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB152">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:28">
@@ -14983,608 +14983,6 @@
       </c>
       <c r="AB168">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:28">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="B169">
-        <v>8122429</v>
-      </c>
-      <c r="C169" t="s">
-        <v>27</v>
-      </c>
-      <c r="D169" s="2">
-        <v>45405.40625</v>
-      </c>
-      <c r="E169" t="s">
-        <v>31</v>
-      </c>
-      <c r="F169" t="s">
-        <v>35</v>
-      </c>
-      <c r="G169">
-        <v>1</v>
-      </c>
-      <c r="H169">
-        <v>1</v>
-      </c>
-      <c r="I169" t="s">
-        <v>50</v>
-      </c>
-      <c r="J169">
-        <v>2.2</v>
-      </c>
-      <c r="K169">
-        <v>2.875</v>
-      </c>
-      <c r="L169">
-        <v>3.25</v>
-      </c>
-      <c r="M169">
-        <v>2.2</v>
-      </c>
-      <c r="N169">
-        <v>2.875</v>
-      </c>
-      <c r="O169">
-        <v>3.25</v>
-      </c>
-      <c r="P169">
-        <v>-0.25</v>
-      </c>
-      <c r="Q169">
-        <v>1.95</v>
-      </c>
-      <c r="R169">
-        <v>1.85</v>
-      </c>
-      <c r="S169">
-        <v>2</v>
-      </c>
-      <c r="T169">
-        <v>2</v>
-      </c>
-      <c r="U169">
-        <v>1.8</v>
-      </c>
-      <c r="V169">
-        <v>-1</v>
-      </c>
-      <c r="W169">
-        <v>1.875</v>
-      </c>
-      <c r="X169">
-        <v>-1</v>
-      </c>
-      <c r="Y169">
-        <v>-0.5</v>
-      </c>
-      <c r="Z169">
-        <v>0.425</v>
-      </c>
-      <c r="AA169">
-        <v>0</v>
-      </c>
-      <c r="AB169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:28">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="B170">
-        <v>8131278</v>
-      </c>
-      <c r="C170" t="s">
-        <v>27</v>
-      </c>
-      <c r="D170" s="2">
-        <v>45405.51041666666</v>
-      </c>
-      <c r="E170" t="s">
-        <v>29</v>
-      </c>
-      <c r="F170" t="s">
-        <v>44</v>
-      </c>
-      <c r="G170">
-        <v>3</v>
-      </c>
-      <c r="H170">
-        <v>0</v>
-      </c>
-      <c r="I170" t="s">
-        <v>52</v>
-      </c>
-      <c r="J170">
-        <v>1.615</v>
-      </c>
-      <c r="K170">
-        <v>3.2</v>
-      </c>
-      <c r="L170">
-        <v>5.5</v>
-      </c>
-      <c r="M170">
-        <v>1.533</v>
-      </c>
-      <c r="N170">
-        <v>3.4</v>
-      </c>
-      <c r="O170">
-        <v>5.75</v>
-      </c>
-      <c r="P170">
-        <v>-1</v>
-      </c>
-      <c r="Q170">
-        <v>2.025</v>
-      </c>
-      <c r="R170">
-        <v>1.775</v>
-      </c>
-      <c r="S170">
-        <v>1.75</v>
-      </c>
-      <c r="T170">
-        <v>1.725</v>
-      </c>
-      <c r="U170">
-        <v>1.975</v>
-      </c>
-      <c r="V170">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="W170">
-        <v>-1</v>
-      </c>
-      <c r="X170">
-        <v>-1</v>
-      </c>
-      <c r="Y170">
-        <v>1.025</v>
-      </c>
-      <c r="Z170">
-        <v>-1</v>
-      </c>
-      <c r="AA170">
-        <v>0.7250000000000001</v>
-      </c>
-      <c r="AB170">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:28">
-      <c r="A171" s="1">
-        <v>169</v>
-      </c>
-      <c r="B171">
-        <v>8131279</v>
-      </c>
-      <c r="C171" t="s">
-        <v>27</v>
-      </c>
-      <c r="D171" s="2">
-        <v>45405.60416666666</v>
-      </c>
-      <c r="E171" t="s">
-        <v>38</v>
-      </c>
-      <c r="F171" t="s">
-        <v>40</v>
-      </c>
-      <c r="G171">
-        <v>1</v>
-      </c>
-      <c r="H171">
-        <v>1</v>
-      </c>
-      <c r="I171" t="s">
-        <v>50</v>
-      </c>
-      <c r="J171">
-        <v>1.5</v>
-      </c>
-      <c r="K171">
-        <v>3.5</v>
-      </c>
-      <c r="L171">
-        <v>6</v>
-      </c>
-      <c r="M171">
-        <v>1.7</v>
-      </c>
-      <c r="N171">
-        <v>3.25</v>
-      </c>
-      <c r="O171">
-        <v>4.333</v>
-      </c>
-      <c r="P171">
-        <v>-0.75</v>
-      </c>
-      <c r="Q171">
-        <v>2</v>
-      </c>
-      <c r="R171">
-        <v>1.8</v>
-      </c>
-      <c r="S171">
-        <v>2</v>
-      </c>
-      <c r="T171">
-        <v>1.925</v>
-      </c>
-      <c r="U171">
-        <v>1.875</v>
-      </c>
-      <c r="V171">
-        <v>-1</v>
-      </c>
-      <c r="W171">
-        <v>2.25</v>
-      </c>
-      <c r="X171">
-        <v>-1</v>
-      </c>
-      <c r="Y171">
-        <v>-1</v>
-      </c>
-      <c r="Z171">
-        <v>0.8</v>
-      </c>
-      <c r="AA171">
-        <v>0</v>
-      </c>
-      <c r="AB171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:28">
-      <c r="A172" s="1">
-        <v>170</v>
-      </c>
-      <c r="B172">
-        <v>8140588</v>
-      </c>
-      <c r="C172" t="s">
-        <v>27</v>
-      </c>
-      <c r="D172" s="2">
-        <v>45407.40625</v>
-      </c>
-      <c r="E172" t="s">
-        <v>39</v>
-      </c>
-      <c r="F172" t="s">
-        <v>48</v>
-      </c>
-      <c r="G172">
-        <v>1</v>
-      </c>
-      <c r="H172">
-        <v>3</v>
-      </c>
-      <c r="I172" t="s">
-        <v>51</v>
-      </c>
-      <c r="J172">
-        <v>3.4</v>
-      </c>
-      <c r="K172">
-        <v>2.75</v>
-      </c>
-      <c r="L172">
-        <v>2.2</v>
-      </c>
-      <c r="M172">
-        <v>2.6</v>
-      </c>
-      <c r="N172">
-        <v>2.6</v>
-      </c>
-      <c r="O172">
-        <v>3</v>
-      </c>
-      <c r="P172">
-        <v>0</v>
-      </c>
-      <c r="Q172">
-        <v>1.75</v>
-      </c>
-      <c r="R172">
-        <v>2.05</v>
-      </c>
-      <c r="S172">
-        <v>1.75</v>
-      </c>
-      <c r="T172">
-        <v>1.825</v>
-      </c>
-      <c r="U172">
-        <v>1.975</v>
-      </c>
-      <c r="V172">
-        <v>-1</v>
-      </c>
-      <c r="W172">
-        <v>-1</v>
-      </c>
-      <c r="X172">
-        <v>2</v>
-      </c>
-      <c r="Y172">
-        <v>-1</v>
-      </c>
-      <c r="Z172">
-        <v>1.05</v>
-      </c>
-      <c r="AA172">
-        <v>0.825</v>
-      </c>
-      <c r="AB172">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:28">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="B173">
-        <v>8137758</v>
-      </c>
-      <c r="C173" t="s">
-        <v>27</v>
-      </c>
-      <c r="D173" s="2">
-        <v>45407.5</v>
-      </c>
-      <c r="E173" t="s">
-        <v>43</v>
-      </c>
-      <c r="F173" t="s">
-        <v>46</v>
-      </c>
-      <c r="G173">
-        <v>1</v>
-      </c>
-      <c r="H173">
-        <v>4</v>
-      </c>
-      <c r="I173" t="s">
-        <v>51</v>
-      </c>
-      <c r="J173">
-        <v>4.333</v>
-      </c>
-      <c r="K173">
-        <v>3.8</v>
-      </c>
-      <c r="L173">
-        <v>1.615</v>
-      </c>
-      <c r="M173">
-        <v>3.6</v>
-      </c>
-      <c r="N173">
-        <v>3.5</v>
-      </c>
-      <c r="O173">
-        <v>1.8</v>
-      </c>
-      <c r="P173">
-        <v>0.5</v>
-      </c>
-      <c r="Q173">
-        <v>1.975</v>
-      </c>
-      <c r="R173">
-        <v>1.825</v>
-      </c>
-      <c r="S173">
-        <v>2.25</v>
-      </c>
-      <c r="T173">
-        <v>1.975</v>
-      </c>
-      <c r="U173">
-        <v>1.725</v>
-      </c>
-      <c r="V173">
-        <v>-1</v>
-      </c>
-      <c r="W173">
-        <v>-1</v>
-      </c>
-      <c r="X173">
-        <v>0.8</v>
-      </c>
-      <c r="Y173">
-        <v>-1</v>
-      </c>
-      <c r="Z173">
-        <v>0.825</v>
-      </c>
-      <c r="AA173">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB173">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:28">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="B174">
-        <v>8137759</v>
-      </c>
-      <c r="C174" t="s">
-        <v>27</v>
-      </c>
-      <c r="D174" s="2">
-        <v>45407.5</v>
-      </c>
-      <c r="E174" t="s">
-        <v>36</v>
-      </c>
-      <c r="F174" t="s">
-        <v>47</v>
-      </c>
-      <c r="G174">
-        <v>2</v>
-      </c>
-      <c r="H174">
-        <v>1</v>
-      </c>
-      <c r="I174" t="s">
-        <v>52</v>
-      </c>
-      <c r="J174">
-        <v>1.571</v>
-      </c>
-      <c r="K174">
-        <v>3.6</v>
-      </c>
-      <c r="L174">
-        <v>5</v>
-      </c>
-      <c r="M174">
-        <v>1.25</v>
-      </c>
-      <c r="N174">
-        <v>4.5</v>
-      </c>
-      <c r="O174">
-        <v>10</v>
-      </c>
-      <c r="P174">
-        <v>-1.75</v>
-      </c>
-      <c r="Q174">
-        <v>2</v>
-      </c>
-      <c r="R174">
-        <v>1.8</v>
-      </c>
-      <c r="S174">
-        <v>2.75</v>
-      </c>
-      <c r="T174">
-        <v>1.925</v>
-      </c>
-      <c r="U174">
-        <v>1.875</v>
-      </c>
-      <c r="V174">
-        <v>0.25</v>
-      </c>
-      <c r="W174">
-        <v>-1</v>
-      </c>
-      <c r="X174">
-        <v>-1</v>
-      </c>
-      <c r="Y174">
-        <v>-1</v>
-      </c>
-      <c r="Z174">
-        <v>0.8</v>
-      </c>
-      <c r="AA174">
-        <v>0.4625</v>
-      </c>
-      <c r="AB174">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="175" spans="1:28">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="B175">
-        <v>8136645</v>
-      </c>
-      <c r="C175" t="s">
-        <v>27</v>
-      </c>
-      <c r="D175" s="2">
-        <v>45407.59375</v>
-      </c>
-      <c r="E175" t="s">
-        <v>37</v>
-      </c>
-      <c r="F175" t="s">
-        <v>32</v>
-      </c>
-      <c r="G175">
-        <v>1</v>
-      </c>
-      <c r="H175">
-        <v>1</v>
-      </c>
-      <c r="I175" t="s">
-        <v>50</v>
-      </c>
-      <c r="J175">
-        <v>3.6</v>
-      </c>
-      <c r="K175">
-        <v>3.2</v>
-      </c>
-      <c r="L175">
-        <v>1.909</v>
-      </c>
-      <c r="M175">
-        <v>4.5</v>
-      </c>
-      <c r="N175">
-        <v>3.3</v>
-      </c>
-      <c r="O175">
-        <v>1.7</v>
-      </c>
-      <c r="P175">
-        <v>0.75</v>
-      </c>
-      <c r="Q175">
-        <v>1.825</v>
-      </c>
-      <c r="R175">
-        <v>1.975</v>
-      </c>
-      <c r="S175">
-        <v>2.25</v>
-      </c>
-      <c r="T175">
-        <v>1.875</v>
-      </c>
-      <c r="U175">
-        <v>1.925</v>
-      </c>
-      <c r="V175">
-        <v>-1</v>
-      </c>
-      <c r="W175">
-        <v>2.3</v>
-      </c>
-      <c r="X175">
-        <v>-1</v>
-      </c>
-      <c r="Y175">
-        <v>0.825</v>
-      </c>
-      <c r="Z175">
-        <v>-1</v>
-      </c>
-      <c r="AA175">
-        <v>-0.5</v>
-      </c>
-      <c r="AB175">
-        <v>0.4625</v>
       </c>
     </row>
   </sheetData>

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>8148099</t>
+  </si>
+  <si>
+    <t>8148100</t>
   </si>
   <si>
     <t>Iraq League</t>
@@ -534,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB168"/>
+  <dimension ref="A1:AB179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,16 +637,16 @@
         <v>6727043</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
         <v>45080.44791666666</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -649,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J2">
         <v>2.1</v>
@@ -717,16 +723,16 @@
         <v>6727042</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>45080.63541666666</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -735,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J3">
         <v>2.2</v>
@@ -803,16 +809,16 @@
         <v>6729610</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
         <v>45081.44791666666</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -821,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J4">
         <v>2.7</v>
@@ -889,16 +895,16 @@
         <v>6729609</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>45081.44791666666</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -907,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J5">
         <v>2.1</v>
@@ -975,16 +981,16 @@
         <v>6729611</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>45081.45833333334</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -993,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J6">
         <v>1.4</v>
@@ -1061,16 +1067,16 @@
         <v>6729612</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
         <v>45081.64583333334</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1079,7 +1085,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J7">
         <v>2.7</v>
@@ -1147,16 +1153,16 @@
         <v>6800762</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>45100.5</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1165,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J8">
         <v>2.25</v>
@@ -1233,16 +1239,16 @@
         <v>6805856</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2">
         <v>45101.45833333334</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1251,7 +1257,7 @@
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J9">
         <v>2.375</v>
@@ -1319,16 +1325,16 @@
         <v>6805857</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>45101.55208333334</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1337,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J10">
         <v>2.375</v>
@@ -1405,16 +1411,16 @@
         <v>6805858</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2">
         <v>45101.64583333334</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1423,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J11">
         <v>1.8</v>
@@ -1491,16 +1497,16 @@
         <v>6807259</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2">
         <v>45102.45833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1509,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J12">
         <v>2.25</v>
@@ -1577,16 +1583,16 @@
         <v>6816208</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2">
         <v>45102.55208333334</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1595,7 +1601,7 @@
         <v>5</v>
       </c>
       <c r="I13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J13">
         <v>3.5</v>
@@ -1663,16 +1669,16 @@
         <v>6807260</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
         <v>45102.64583333334</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1681,7 +1687,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J14">
         <v>1.8</v>
@@ -1749,16 +1755,16 @@
         <v>6838304</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2">
         <v>45106.45833333334</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1767,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J15">
         <v>1.4</v>
@@ -1835,16 +1841,16 @@
         <v>6838305</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2">
         <v>45106.64583333334</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1853,7 +1859,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J16">
         <v>1.615</v>
@@ -1918,85 +1924,85 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6838980</v>
+        <v>6838982</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2">
         <v>45107.44791666666</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J17">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="K17">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="M17">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N17">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="P17">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q17">
+        <v>1.725</v>
+      </c>
+      <c r="R17">
+        <v>1.975</v>
+      </c>
+      <c r="S17">
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
         <v>1.8</v>
       </c>
-      <c r="R17">
-        <v>2</v>
-      </c>
-      <c r="S17">
-        <v>2</v>
-      </c>
-      <c r="T17">
-        <v>1.85</v>
-      </c>
-      <c r="U17">
-        <v>1.95</v>
-      </c>
       <c r="V17">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -2004,85 +2010,85 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6838982</v>
+        <v>6838980</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2">
         <v>45107.44791666666</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J18">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="M18">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N18">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="O18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="P18">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q18">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="R18">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S18">
         <v>2</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U18">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V18">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z18">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2093,16 +2099,16 @@
         <v>6838981</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2">
         <v>45107.64583333334</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2111,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J19">
         <v>1.4</v>
@@ -2179,16 +2185,16 @@
         <v>6853983</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2">
         <v>45110.5</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -2197,7 +2203,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J20">
         <v>2.75</v>
@@ -2265,16 +2271,16 @@
         <v>6858447</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2">
         <v>45111.64583333334</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2283,7 +2289,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J21">
         <v>1.727</v>
@@ -2348,85 +2354,85 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6862617</v>
+        <v>6862618</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2">
         <v>45112.45833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J22">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="K22">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="L22">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="M22">
+        <v>2.05</v>
+      </c>
+      <c r="N22">
+        <v>2.625</v>
+      </c>
+      <c r="O22">
+        <v>4</v>
+      </c>
+      <c r="P22">
+        <v>-0.25</v>
+      </c>
+      <c r="Q22">
+        <v>1.775</v>
+      </c>
+      <c r="R22">
+        <v>2.025</v>
+      </c>
+      <c r="S22">
+        <v>2</v>
+      </c>
+      <c r="T22">
         <v>1.95</v>
       </c>
-      <c r="N22">
-        <v>2.8</v>
-      </c>
-      <c r="O22">
-        <v>4.1</v>
-      </c>
-      <c r="P22">
-        <v>-0.5</v>
-      </c>
-      <c r="Q22">
-        <v>2</v>
-      </c>
-      <c r="R22">
-        <v>1.8</v>
-      </c>
-      <c r="S22">
-        <v>2.25</v>
-      </c>
-      <c r="T22">
-        <v>2.025</v>
-      </c>
       <c r="U22">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V22">
         <v>-1</v>
       </c>
       <c r="W22">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2434,85 +2440,85 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6862618</v>
+        <v>6862617</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2">
         <v>45112.45833333334</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="K23">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="L23">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="M23">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="N23">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="O23">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="P23">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q23">
+        <v>2</v>
+      </c>
+      <c r="R23">
+        <v>1.8</v>
+      </c>
+      <c r="S23">
+        <v>2.25</v>
+      </c>
+      <c r="T23">
+        <v>2.025</v>
+      </c>
+      <c r="U23">
         <v>1.775</v>
       </c>
-      <c r="R23">
-        <v>2.025</v>
-      </c>
-      <c r="S23">
-        <v>2</v>
-      </c>
-      <c r="T23">
-        <v>1.95</v>
-      </c>
-      <c r="U23">
-        <v>1.85</v>
-      </c>
       <c r="V23">
         <v>-1</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X23">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2523,16 +2529,16 @@
         <v>6862657</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2">
         <v>45112.64583333334</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2541,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J24">
         <v>1.533</v>
@@ -2609,16 +2615,16 @@
         <v>6865736</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2">
         <v>45113.54166666666</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -2627,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J25">
         <v>1.666</v>
@@ -2695,16 +2701,16 @@
         <v>6888122</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2">
         <v>45117.45833333334</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2713,7 +2719,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J26">
         <v>9</v>
@@ -2781,16 +2787,16 @@
         <v>6888123</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2">
         <v>45117.47916666666</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2799,7 +2805,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J27">
         <v>4</v>
@@ -2867,16 +2873,16 @@
         <v>6888124</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2">
         <v>45117.66666666666</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2885,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J28">
         <v>1.666</v>
@@ -2953,16 +2959,16 @@
         <v>6893829</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2">
         <v>45118.45833333334</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -2971,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J29">
         <v>2.4</v>
@@ -3039,17 +3045,17 @@
         <v>6894519</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2">
         <v>45118.64583333334</v>
       </c>
       <c r="E30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" t="s">
         <v>37</v>
       </c>
-      <c r="F30" t="s">
-        <v>35</v>
-      </c>
       <c r="G30">
         <v>2</v>
       </c>
@@ -3057,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J30">
         <v>2.4</v>
@@ -3125,16 +3131,16 @@
         <v>6912017</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2">
         <v>45122.47916666666</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -3143,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J31">
         <v>1.95</v>
@@ -3211,16 +3217,16 @@
         <v>6912016</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2">
         <v>45122.66666666666</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3229,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J32">
         <v>1.8</v>
@@ -3297,16 +3303,16 @@
         <v>6915907</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D33" s="2">
         <v>45123.47916666666</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3315,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J33">
         <v>2.1</v>
@@ -3383,16 +3389,16 @@
         <v>6915909</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D34" s="2">
         <v>45123.66666666666</v>
       </c>
       <c r="E34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3401,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J34">
         <v>1.833</v>
@@ -3469,16 +3475,16 @@
         <v>6934488</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D35" s="2">
         <v>45125.58333333334</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3487,7 +3493,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J35">
         <v>1.3</v>
@@ -3555,16 +3561,16 @@
         <v>6944304</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D36" s="2">
         <v>45128.45833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3573,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -3641,17 +3647,17 @@
         <v>6944303</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D37" s="2">
         <v>45128.64583333334</v>
       </c>
       <c r="E37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" t="s">
         <v>39</v>
       </c>
-      <c r="F37" t="s">
-        <v>37</v>
-      </c>
       <c r="G37">
         <v>0</v>
       </c>
@@ -3659,7 +3665,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J37">
         <v>2.1</v>
@@ -3727,16 +3733,16 @@
         <v>7387406</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D38" s="2">
         <v>45225.35416666666</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3745,7 +3751,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J38">
         <v>2.5</v>
@@ -3813,16 +3819,16 @@
         <v>7387407</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D39" s="2">
         <v>45225.54166666666</v>
       </c>
       <c r="E39" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -3831,7 +3837,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J39">
         <v>2</v>
@@ -3899,16 +3905,16 @@
         <v>7387408</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D40" s="2">
         <v>45225.64583333334</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F40" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3917,7 +3923,7 @@
         <v>2</v>
       </c>
       <c r="I40" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J40">
         <v>1.727</v>
@@ -3982,22 +3988,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7407173</v>
+        <v>7406927</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D41" s="2">
         <v>45229.64583333334</v>
       </c>
       <c r="E41" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4006,61 +4012,61 @@
         <v>52</v>
       </c>
       <c r="J41">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="K41">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="L41">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="M41">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="N41">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="O41">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="P41">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q41">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R41">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T41">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U41">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V41">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
+        <v>0.45</v>
+      </c>
+      <c r="Z41">
         <v>-0.5</v>
       </c>
-      <c r="Z41">
-        <v>0.4875</v>
-      </c>
       <c r="AA41">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -4068,85 +4074,85 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7406927</v>
+        <v>7407173</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D42" s="2">
         <v>45229.64583333334</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J42">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="K42">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="L42">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="M42">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="N42">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="O42">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="P42">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q42">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R42">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S42">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T42">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U42">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V42">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="W42">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="Z42">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AA42">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:28">
@@ -4157,16 +4163,16 @@
         <v>7407670</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D43" s="2">
         <v>45230.64583333334</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F43" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4175,7 +4181,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J43">
         <v>1.8</v>
@@ -4243,16 +4249,16 @@
         <v>7417365</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D44" s="2">
         <v>45231.35416666666</v>
       </c>
       <c r="E44" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -4261,7 +4267,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J44">
         <v>2.55</v>
@@ -4329,16 +4335,16 @@
         <v>7417696</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2">
         <v>45232.54166666666</v>
       </c>
       <c r="E45" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4347,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J45">
         <v>1.909</v>
@@ -4415,16 +4421,16 @@
         <v>7423060</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D46" s="2">
         <v>45233.35416666666</v>
       </c>
       <c r="E46" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4433,7 +4439,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J46">
         <v>4.5</v>
@@ -4501,16 +4507,16 @@
         <v>7423061</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D47" s="2">
         <v>45233.45833333334</v>
       </c>
       <c r="E47" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -4519,7 +4525,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J47">
         <v>2.2</v>
@@ -4587,16 +4593,16 @@
         <v>7423062</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D48" s="2">
         <v>45233.54166666666</v>
       </c>
       <c r="E48" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4605,7 +4611,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J48">
         <v>2.375</v>
@@ -4673,16 +4679,16 @@
         <v>7423063</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D49" s="2">
         <v>45233.64583333334</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4691,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J49">
         <v>26</v>
@@ -4759,16 +4765,16 @@
         <v>7428222</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D50" s="2">
         <v>45234.35416666666</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F50" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4777,7 +4783,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J50">
         <v>2.5</v>
@@ -4845,16 +4851,16 @@
         <v>7428223</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D51" s="2">
         <v>45234.64583333334</v>
       </c>
       <c r="E51" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4863,7 +4869,7 @@
         <v>4</v>
       </c>
       <c r="I51" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J51">
         <v>1.615</v>
@@ -4931,16 +4937,16 @@
         <v>7456209</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D52" s="2">
         <v>45239.54166666666</v>
       </c>
       <c r="E52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4949,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J52">
         <v>2.4</v>
@@ -5017,16 +5023,16 @@
         <v>7452255</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D53" s="2">
         <v>45239.64583333334</v>
       </c>
       <c r="E53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5035,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J53">
         <v>1.533</v>
@@ -5100,85 +5106,85 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7453403</v>
+        <v>7453404</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D54" s="2">
         <v>45240.375</v>
       </c>
       <c r="E54" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J54">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="K54">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="L54">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="M54">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="N54">
         <v>2.9</v>
       </c>
       <c r="O54">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="P54">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q54">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R54">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S54">
         <v>2</v>
       </c>
       <c r="T54">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U54">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
         <v>-1</v>
       </c>
       <c r="W54">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y54">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -5186,85 +5192,85 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7453404</v>
+        <v>7453403</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D55" s="2">
         <v>45240.375</v>
       </c>
       <c r="E55" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J55">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="K55">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="L55">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="M55">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N55">
         <v>2.9</v>
       </c>
       <c r="O55">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="P55">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q55">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R55">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S55">
         <v>2</v>
       </c>
       <c r="T55">
+        <v>1.975</v>
+      </c>
+      <c r="U55">
+        <v>1.825</v>
+      </c>
+      <c r="V55">
+        <v>-1</v>
+      </c>
+      <c r="W55">
         <v>1.9</v>
       </c>
-      <c r="U55">
-        <v>1.9</v>
-      </c>
-      <c r="V55">
-        <v>-1</v>
-      </c>
-      <c r="W55">
-        <v>-1</v>
-      </c>
       <c r="X55">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z55">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -5275,17 +5281,17 @@
         <v>7461336</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D56" s="2">
         <v>45241.54166666666</v>
       </c>
       <c r="E56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" t="s">
         <v>39</v>
       </c>
-      <c r="F56" t="s">
-        <v>37</v>
-      </c>
       <c r="G56">
         <v>2</v>
       </c>
@@ -5293,7 +5299,7 @@
         <v>2</v>
       </c>
       <c r="I56" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J56">
         <v>1.75</v>
@@ -5361,16 +5367,16 @@
         <v>7507822</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D57" s="2">
         <v>45253.35416666666</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5379,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J57">
         <v>6</v>
@@ -5447,16 +5453,16 @@
         <v>7511490</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D58" s="2">
         <v>45254.35416666666</v>
       </c>
       <c r="E58" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F58" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5465,7 +5471,7 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J58">
         <v>3.75</v>
@@ -5533,16 +5539,16 @@
         <v>7511489</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D59" s="2">
         <v>45254.35416666666</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5551,7 +5557,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J59">
         <v>2.2</v>
@@ -5619,16 +5625,16 @@
         <v>7511491</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D60" s="2">
         <v>45254.54166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5637,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J60">
         <v>2.6</v>
@@ -5705,16 +5711,16 @@
         <v>7511492</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D61" s="2">
         <v>45254.64583333334</v>
       </c>
       <c r="E61" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5723,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J61">
         <v>2.3</v>
@@ -5791,16 +5797,16 @@
         <v>7516916</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D62" s="2">
         <v>45255.35416666666</v>
       </c>
       <c r="E62" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -5809,7 +5815,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J62">
         <v>2.25</v>
@@ -5877,16 +5883,16 @@
         <v>7539067</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D63" s="2">
         <v>45260.35416666666</v>
       </c>
       <c r="E63" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G63">
         <v>3</v>
@@ -5895,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J63">
         <v>2.4</v>
@@ -5963,16 +5969,16 @@
         <v>7539359</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D64" s="2">
         <v>45261.35416666666</v>
       </c>
       <c r="E64" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -5981,7 +5987,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J64">
         <v>1.833</v>
@@ -6049,16 +6055,16 @@
         <v>7539360</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D65" s="2">
         <v>45261.64583333334</v>
       </c>
       <c r="E65" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F65" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6067,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J65">
         <v>2.1</v>
@@ -6135,16 +6141,16 @@
         <v>7542615</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D66" s="2">
         <v>45262.45833333334</v>
       </c>
       <c r="E66" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6153,7 +6159,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J66">
         <v>1.571</v>
@@ -6221,16 +6227,16 @@
         <v>7553998</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D67" s="2">
         <v>45264.32291666666</v>
       </c>
       <c r="E67" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F67" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6239,7 +6245,7 @@
         <v>3</v>
       </c>
       <c r="I67" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J67">
         <v>2.25</v>
@@ -6307,16 +6313,16 @@
         <v>7554960</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D68" s="2">
         <v>45264.64583333334</v>
       </c>
       <c r="E68" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6325,7 +6331,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J68">
         <v>2.1</v>
@@ -6393,16 +6399,16 @@
         <v>7555937</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D69" s="2">
         <v>45265.35416666666</v>
       </c>
       <c r="E69" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6411,7 +6417,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J69">
         <v>2.1</v>
@@ -6479,16 +6485,16 @@
         <v>7555939</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D70" s="2">
         <v>45265.35416666666</v>
       </c>
       <c r="E70" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6497,7 +6503,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J70">
         <v>6.5</v>
@@ -6565,16 +6571,16 @@
         <v>7555938</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D71" s="2">
         <v>45265.54166666666</v>
       </c>
       <c r="E71" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6583,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -6651,16 +6657,16 @@
         <v>7565507</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D72" s="2">
         <v>45267.35416666666</v>
       </c>
       <c r="E72" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G72">
         <v>3</v>
@@ -6669,7 +6675,7 @@
         <v>3</v>
       </c>
       <c r="I72" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J72">
         <v>1.8</v>
@@ -6734,65 +6740,65 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7565123</v>
+        <v>7565124</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D73" s="2">
         <v>45268.35416666666</v>
       </c>
       <c r="E73" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F73" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J73">
+        <v>1.5</v>
+      </c>
+      <c r="K73">
+        <v>3.6</v>
+      </c>
+      <c r="L73">
+        <v>6</v>
+      </c>
+      <c r="M73">
         <v>1.727</v>
       </c>
-      <c r="K73">
-        <v>3.4</v>
-      </c>
-      <c r="L73">
+      <c r="N73">
+        <v>3.5</v>
+      </c>
+      <c r="O73">
         <v>4.2</v>
       </c>
-      <c r="M73">
-        <v>1.833</v>
-      </c>
-      <c r="N73">
-        <v>3.3</v>
-      </c>
-      <c r="O73">
-        <v>3.75</v>
-      </c>
       <c r="P73">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q73">
+        <v>2</v>
+      </c>
+      <c r="R73">
+        <v>1.8</v>
+      </c>
+      <c r="S73">
+        <v>2</v>
+      </c>
+      <c r="T73">
         <v>1.875</v>
       </c>
-      <c r="R73">
+      <c r="U73">
         <v>1.925</v>
       </c>
-      <c r="S73">
-        <v>2</v>
-      </c>
-      <c r="T73">
-        <v>1.925</v>
-      </c>
-      <c r="U73">
-        <v>1.875</v>
-      </c>
       <c r="V73">
         <v>-1</v>
       </c>
@@ -6800,19 +6806,19 @@
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
+        <v>0.8</v>
+      </c>
+      <c r="AA73">
+        <v>-1</v>
+      </c>
+      <c r="AB73">
         <v>0.925</v>
-      </c>
-      <c r="AA73">
-        <v>0.925</v>
-      </c>
-      <c r="AB73">
-        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:28">
@@ -6820,65 +6826,65 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7565124</v>
+        <v>7565123</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D74" s="2">
         <v>45268.35416666666</v>
       </c>
       <c r="E74" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J74">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="K74">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L74">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="M74">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="N74">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O74">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P74">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q74">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R74">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S74">
         <v>2</v>
       </c>
       <c r="T74">
+        <v>1.925</v>
+      </c>
+      <c r="U74">
         <v>1.875</v>
       </c>
-      <c r="U74">
-        <v>1.925</v>
-      </c>
       <c r="V74">
         <v>-1</v>
       </c>
@@ -6886,19 +6892,19 @@
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -6909,16 +6915,16 @@
         <v>7567395</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D75" s="2">
         <v>45268.64583333334</v>
       </c>
       <c r="E75" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F75" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -6927,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J75">
         <v>1.75</v>
@@ -6995,16 +7001,16 @@
         <v>7568912</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D76" s="2">
         <v>45269.64583333334</v>
       </c>
       <c r="E76" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -7013,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J76">
         <v>1.533</v>
@@ -7081,17 +7087,17 @@
         <v>7586483</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D77" s="2">
         <v>45274.35416666666</v>
       </c>
       <c r="E77" t="s">
+        <v>42</v>
+      </c>
+      <c r="F77" t="s">
         <v>40</v>
       </c>
-      <c r="F77" t="s">
-        <v>38</v>
-      </c>
       <c r="G77">
         <v>1</v>
       </c>
@@ -7099,7 +7105,7 @@
         <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J77">
         <v>2.2</v>
@@ -7167,16 +7173,16 @@
         <v>7592803</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D78" s="2">
         <v>45275.35416666666</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F78" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7185,7 +7191,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J78">
         <v>2.3</v>
@@ -7253,16 +7259,16 @@
         <v>7590595</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D79" s="2">
         <v>45275.35416666666</v>
       </c>
       <c r="E79" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7271,7 +7277,7 @@
         <v>4</v>
       </c>
       <c r="I79" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J79">
         <v>3.75</v>
@@ -7339,16 +7345,16 @@
         <v>7590648</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D80" s="2">
         <v>45275.45833333334</v>
       </c>
       <c r="E80" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -7357,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J80">
         <v>6</v>
@@ -7425,16 +7431,16 @@
         <v>7594058</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D81" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E81" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7443,7 +7449,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J81">
         <v>3.75</v>
@@ -7511,16 +7517,16 @@
         <v>7601555</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D82" s="2">
         <v>45279.3125</v>
       </c>
       <c r="E82" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F82" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -7529,7 +7535,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J82">
         <v>2.35</v>
@@ -7597,16 +7603,16 @@
         <v>7606557</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D83" s="2">
         <v>45279.45833333334</v>
       </c>
       <c r="E83" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F83" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -7615,7 +7621,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J83">
         <v>2.9</v>
@@ -7683,16 +7689,16 @@
         <v>7601556</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D84" s="2">
         <v>45279.64583333334</v>
       </c>
       <c r="E84" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7701,7 +7707,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J84">
         <v>1.5</v>
@@ -7769,16 +7775,16 @@
         <v>7608755</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D85" s="2">
         <v>45280.35416666666</v>
       </c>
       <c r="E85" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F85" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -7787,7 +7793,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J85">
         <v>1.615</v>
@@ -7855,16 +7861,16 @@
         <v>7608757</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D86" s="2">
         <v>45280.54166666666</v>
       </c>
       <c r="E86" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G86">
         <v>3</v>
@@ -7873,7 +7879,7 @@
         <v>3</v>
       </c>
       <c r="I86" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J86">
         <v>2.25</v>
@@ -7941,16 +7947,16 @@
         <v>7608756</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D87" s="2">
         <v>45280.64583333334</v>
       </c>
       <c r="E87" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -7959,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J87">
         <v>1.444</v>
@@ -8027,16 +8033,16 @@
         <v>7611421</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D88" s="2">
         <v>45281.35416666666</v>
       </c>
       <c r="E88" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F88" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8045,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J88">
         <v>2.2</v>
@@ -8113,16 +8119,16 @@
         <v>7613564</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D89" s="2">
         <v>45282.35416666666</v>
       </c>
       <c r="E89" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G89">
         <v>3</v>
@@ -8131,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J89">
         <v>1.444</v>
@@ -8199,16 +8205,16 @@
         <v>7615329</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D90" s="2">
         <v>45282.35416666666</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8217,7 +8223,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J90">
         <v>2.875</v>
@@ -8282,85 +8288,85 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7618724</v>
+        <v>7618726</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D91" s="2">
         <v>45283.35416666666</v>
       </c>
       <c r="E91" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F91" t="s">
         <v>47</v>
       </c>
       <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91" t="s">
+        <v>53</v>
+      </c>
+      <c r="J91">
+        <v>2.375</v>
+      </c>
+      <c r="K91">
+        <v>2.8</v>
+      </c>
+      <c r="L91">
         <v>3</v>
       </c>
-      <c r="H91">
-        <v>1</v>
-      </c>
-      <c r="I91" t="s">
-        <v>52</v>
-      </c>
-      <c r="J91">
-        <v>2.875</v>
-      </c>
-      <c r="K91">
-        <v>2.75</v>
-      </c>
-      <c r="L91">
-        <v>2.5</v>
-      </c>
       <c r="M91">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="N91">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="O91">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P91">
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="R91">
+        <v>2.05</v>
+      </c>
+      <c r="S91">
+        <v>1.75</v>
+      </c>
+      <c r="T91">
         <v>1.8</v>
       </c>
-      <c r="S91">
-        <v>2</v>
-      </c>
-      <c r="T91">
-        <v>2</v>
-      </c>
       <c r="U91">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V91">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:28">
@@ -8368,85 +8374,85 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7618726</v>
+        <v>7618724</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D92" s="2">
         <v>45283.35416666666</v>
       </c>
       <c r="E92" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F92" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J92">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="K92">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L92">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="M92">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="N92">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="O92">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="P92">
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="R92">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S92">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T92">
+        <v>2</v>
+      </c>
+      <c r="U92">
         <v>1.8</v>
       </c>
-      <c r="U92">
-        <v>2</v>
-      </c>
       <c r="V92">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z92">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB92">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -8457,16 +8463,16 @@
         <v>7618733</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D93" s="2">
         <v>45283.45833333334</v>
       </c>
       <c r="E93" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8475,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J93">
         <v>3.6</v>
@@ -8543,16 +8549,16 @@
         <v>7618725</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D94" s="2">
         <v>45283.64583333334</v>
       </c>
       <c r="E94" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -8561,7 +8567,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J94">
         <v>4.75</v>
@@ -8629,16 +8635,16 @@
         <v>7622507</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D95" s="2">
         <v>45284.54166666666</v>
       </c>
       <c r="E95" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8647,7 +8653,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J95">
         <v>1.615</v>
@@ -8715,16 +8721,16 @@
         <v>7634592</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D96" s="2">
         <v>45287.45833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8733,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J96">
         <v>1.444</v>
@@ -8801,16 +8807,16 @@
         <v>7634784</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D97" s="2">
         <v>45287.54166666666</v>
       </c>
       <c r="E97" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G97">
         <v>2</v>
@@ -8819,7 +8825,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J97">
         <v>3.9</v>
@@ -8887,16 +8893,16 @@
         <v>7636069</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D98" s="2">
         <v>45289.39583333334</v>
       </c>
       <c r="E98" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -8905,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J98">
         <v>2.1</v>
@@ -8973,16 +8979,16 @@
         <v>7636068</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D99" s="2">
         <v>45289.5</v>
       </c>
       <c r="E99" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F99" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8991,7 +8997,7 @@
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J99">
         <v>2</v>
@@ -9059,16 +9065,16 @@
         <v>7636077</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D100" s="2">
         <v>45290.35416666666</v>
       </c>
       <c r="E100" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9077,7 +9083,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J100">
         <v>1.666</v>
@@ -9145,16 +9151,16 @@
         <v>7636078</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D101" s="2">
         <v>45290.45833333334</v>
       </c>
       <c r="E101" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F101" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9163,7 +9169,7 @@
         <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J101">
         <v>3.6</v>
@@ -9231,17 +9237,17 @@
         <v>7645263</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D102" s="2">
         <v>45291.3125</v>
       </c>
       <c r="E102" t="s">
+        <v>37</v>
+      </c>
+      <c r="F102" t="s">
         <v>35</v>
       </c>
-      <c r="F102" t="s">
-        <v>33</v>
-      </c>
       <c r="G102">
         <v>2</v>
       </c>
@@ -9249,7 +9255,7 @@
         <v>2</v>
       </c>
       <c r="I102" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J102">
         <v>2.8</v>
@@ -9317,17 +9323,17 @@
         <v>7648519</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D103" s="2">
         <v>45291.58333333334</v>
       </c>
       <c r="E103" t="s">
+        <v>40</v>
+      </c>
+      <c r="F103" t="s">
         <v>38</v>
       </c>
-      <c r="F103" t="s">
-        <v>36</v>
-      </c>
       <c r="G103">
         <v>0</v>
       </c>
@@ -9335,7 +9341,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J103">
         <v>3.6</v>
@@ -9403,16 +9409,16 @@
         <v>7645264</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D104" s="2">
         <v>45291.58333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9421,7 +9427,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J104">
         <v>1.727</v>
@@ -9489,16 +9495,16 @@
         <v>7808685</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D105" s="2">
         <v>45332.33333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F105" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9507,7 +9513,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J105">
         <v>2.2</v>
@@ -9575,16 +9581,16 @@
         <v>7808687</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D106" s="2">
         <v>45332.4375</v>
       </c>
       <c r="E106" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F106" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9593,7 +9599,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J106">
         <v>1.909</v>
@@ -9661,16 +9667,16 @@
         <v>7808686</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D107" s="2">
         <v>45332.64583333334</v>
       </c>
       <c r="E107" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F107" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G107">
         <v>4</v>
@@ -9679,7 +9685,7 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J107">
         <v>1.571</v>
@@ -9744,85 +9750,85 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7811882</v>
+        <v>7811883</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D108" s="2">
         <v>45333.33333333334</v>
       </c>
       <c r="E108" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J108">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="K108">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="L108">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="M108">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="N108">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="O108">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="P108">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q108">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="R108">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S108">
         <v>1.75</v>
       </c>
       <c r="T108">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V108">
         <v>-1</v>
       </c>
       <c r="W108">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="Z108">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:28">
@@ -9830,85 +9836,85 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7811883</v>
+        <v>7811882</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D109" s="2">
         <v>45333.33333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J109">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="K109">
+        <v>2.9</v>
+      </c>
+      <c r="L109">
         <v>3.4</v>
       </c>
-      <c r="L109">
-        <v>1.727</v>
-      </c>
       <c r="M109">
+        <v>2.05</v>
+      </c>
+      <c r="N109">
+        <v>2.9</v>
+      </c>
+      <c r="O109">
         <v>3.6</v>
       </c>
-      <c r="N109">
-        <v>3.3</v>
-      </c>
-      <c r="O109">
-        <v>1.909</v>
-      </c>
       <c r="P109">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q109">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="R109">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S109">
         <v>1.75</v>
       </c>
       <c r="T109">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="U109">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V109">
         <v>-1</v>
       </c>
       <c r="W109">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB109">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="110" spans="1:28">
@@ -9919,16 +9925,16 @@
         <v>7811884</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D110" s="2">
         <v>45333.54166666666</v>
       </c>
       <c r="E110" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F110" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9937,7 +9943,7 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J110">
         <v>1.8</v>
@@ -10005,16 +10011,16 @@
         <v>7816026</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D111" s="2">
         <v>45334.33333333334</v>
       </c>
       <c r="E111" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10023,7 +10029,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J111">
         <v>2.3</v>
@@ -10091,16 +10097,16 @@
         <v>7816027</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D112" s="2">
         <v>45334.4375</v>
       </c>
       <c r="E112" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F112" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -10109,7 +10115,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J112">
         <v>4</v>
@@ -10177,16 +10183,16 @@
         <v>7833623</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D113" s="2">
         <v>45337.33333333334</v>
       </c>
       <c r="E113" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10195,7 +10201,7 @@
         <v>4</v>
       </c>
       <c r="I113" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J113">
         <v>3.75</v>
@@ -10263,16 +10269,16 @@
         <v>7833622</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D114" s="2">
         <v>45337.54166666666</v>
       </c>
       <c r="E114" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10281,7 +10287,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J114">
         <v>3.4</v>
@@ -10349,16 +10355,16 @@
         <v>7838855</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D115" s="2">
         <v>45338.33333333334</v>
       </c>
       <c r="E115" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -10367,7 +10373,7 @@
         <v>3</v>
       </c>
       <c r="I115" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J115">
         <v>5.5</v>
@@ -10435,16 +10441,16 @@
         <v>7851851</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D116" s="2">
         <v>45341.33333333334</v>
       </c>
       <c r="E116" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10453,7 +10459,7 @@
         <v>3</v>
       </c>
       <c r="I116" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J116">
         <v>2.3</v>
@@ -10521,16 +10527,16 @@
         <v>7855608</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D117" s="2">
         <v>45341.4375</v>
       </c>
       <c r="E117" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G117">
         <v>3</v>
@@ -10539,7 +10545,7 @@
         <v>5</v>
       </c>
       <c r="I117" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J117">
         <v>2.7</v>
@@ -10607,16 +10613,16 @@
         <v>7855780</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D118" s="2">
         <v>45341.54166666666</v>
       </c>
       <c r="E118" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -10625,7 +10631,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J118">
         <v>4.333</v>
@@ -10693,16 +10699,16 @@
         <v>7856524</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D119" s="2">
         <v>45342.33333333334</v>
       </c>
       <c r="E119" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10711,7 +10717,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J119">
         <v>1.8</v>
@@ -10779,16 +10785,16 @@
         <v>7856527</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D120" s="2">
         <v>45342.60416666666</v>
       </c>
       <c r="E120" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10797,7 +10803,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J120">
         <v>2.625</v>
@@ -10865,16 +10871,16 @@
         <v>7856525</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D121" s="2">
         <v>45342.64583333334</v>
       </c>
       <c r="E121" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F121" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -10883,7 +10889,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J121">
         <v>3.6</v>
@@ -10951,16 +10957,16 @@
         <v>7856523</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D122" s="2">
         <v>45343.33333333334</v>
       </c>
       <c r="E122" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F122" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -10969,7 +10975,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J122">
         <v>1.833</v>
@@ -11037,16 +11043,16 @@
         <v>7861093</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D123" s="2">
         <v>45343.4375</v>
       </c>
       <c r="E123" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F123" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11055,7 +11061,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J123">
         <v>2.8</v>
@@ -11123,16 +11129,16 @@
         <v>7864433</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D124" s="2">
         <v>45344.33333333334</v>
       </c>
       <c r="E124" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F124" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11141,7 +11147,7 @@
         <v>2</v>
       </c>
       <c r="I124" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J124">
         <v>3.6</v>
@@ -11209,16 +11215,16 @@
         <v>7864431</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D125" s="2">
         <v>45344.4375</v>
       </c>
       <c r="E125" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F125" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11227,7 +11233,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J125">
         <v>2.2</v>
@@ -11295,16 +11301,16 @@
         <v>7870836</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D126" s="2">
         <v>45345.33333333334</v>
       </c>
       <c r="E126" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F126" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11313,7 +11319,7 @@
         <v>2</v>
       </c>
       <c r="I126" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J126">
         <v>2.6</v>
@@ -11381,16 +11387,16 @@
         <v>7873977</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D127" s="2">
         <v>45345.4375</v>
       </c>
       <c r="E127" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F127" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -11399,7 +11405,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J127">
         <v>1.8</v>
@@ -11467,16 +11473,16 @@
         <v>7870837</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D128" s="2">
         <v>45345.54166666666</v>
       </c>
       <c r="E128" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11485,7 +11491,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J128">
         <v>1.4</v>
@@ -11553,16 +11559,16 @@
         <v>7875109</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D129" s="2">
         <v>45346.33333333334</v>
       </c>
       <c r="E129" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11571,7 +11577,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J129">
         <v>1.666</v>
@@ -11639,16 +11645,16 @@
         <v>7875108</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D130" s="2">
         <v>45346.4375</v>
       </c>
       <c r="E130" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -11657,7 +11663,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J130">
         <v>1.615</v>
@@ -11725,16 +11731,16 @@
         <v>7864432</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D131" s="2">
         <v>45346.54166666666</v>
       </c>
       <c r="E131" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11743,7 +11749,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J131">
         <v>1.666</v>
@@ -11811,16 +11817,16 @@
         <v>7893609</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D132" s="2">
         <v>45351.35416666666</v>
       </c>
       <c r="E132" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -11829,7 +11835,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J132">
         <v>3.1</v>
@@ -11897,16 +11903,16 @@
         <v>7893608</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D133" s="2">
         <v>45351.45833333334</v>
       </c>
       <c r="E133" t="s">
+        <v>44</v>
+      </c>
+      <c r="F133" t="s">
         <v>42</v>
-      </c>
-      <c r="F133" t="s">
-        <v>40</v>
       </c>
       <c r="G133">
         <v>4</v>
@@ -11915,7 +11921,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J133">
         <v>2</v>
@@ -11983,16 +11989,16 @@
         <v>7893607</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D134" s="2">
         <v>45351.5625</v>
       </c>
       <c r="E134" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F134" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -12001,7 +12007,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -12069,16 +12075,16 @@
         <v>7901411</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D135" s="2">
         <v>45352.35416666666</v>
       </c>
       <c r="E135" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12087,7 +12093,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J135">
         <v>2.1</v>
@@ -12155,16 +12161,16 @@
         <v>7897090</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D136" s="2">
         <v>45352.35416666666</v>
       </c>
       <c r="E136" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12173,7 +12179,7 @@
         <v>3</v>
       </c>
       <c r="I136" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J136">
         <v>2.1</v>
@@ -12241,16 +12247,16 @@
         <v>7897091</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D137" s="2">
         <v>45352.45833333334</v>
       </c>
       <c r="E137" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F137" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -12259,7 +12265,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J137">
         <v>1.333</v>
@@ -12327,16 +12333,16 @@
         <v>7897092</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D138" s="2">
         <v>45352.625</v>
       </c>
       <c r="E138" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G138">
         <v>3</v>
@@ -12345,7 +12351,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J138">
         <v>1.5</v>
@@ -12413,16 +12419,16 @@
         <v>7913240</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D139" s="2">
         <v>45355.35416666666</v>
       </c>
       <c r="E139" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F139" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12431,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J139">
         <v>2.5</v>
@@ -12499,16 +12505,16 @@
         <v>7913929</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D140" s="2">
         <v>45355.45833333334</v>
       </c>
       <c r="E140" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12517,7 +12523,7 @@
         <v>4</v>
       </c>
       <c r="I140" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J140">
         <v>4.75</v>
@@ -12585,16 +12591,16 @@
         <v>7914041</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D141" s="2">
         <v>45355.5625</v>
       </c>
       <c r="E141" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12603,7 +12609,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J141">
         <v>3.3</v>
@@ -12671,16 +12677,16 @@
         <v>7915075</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D142" s="2">
         <v>45356.35416666666</v>
       </c>
       <c r="E142" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12689,7 +12695,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J142">
         <v>2.5</v>
@@ -12757,16 +12763,16 @@
         <v>7919126</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D143" s="2">
         <v>45357.5625</v>
       </c>
       <c r="E143" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12775,7 +12781,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J143">
         <v>2.25</v>
@@ -12843,16 +12849,16 @@
         <v>7927234</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D144" s="2">
         <v>45359.35416666666</v>
       </c>
       <c r="E144" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12861,7 +12867,7 @@
         <v>4</v>
       </c>
       <c r="I144" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J144">
         <v>5.75</v>
@@ -12929,16 +12935,16 @@
         <v>7927236</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D145" s="2">
         <v>45359.45833333334</v>
       </c>
       <c r="E145" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F145" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12947,7 +12953,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J145">
         <v>2.4</v>
@@ -13015,16 +13021,16 @@
         <v>7927235</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D146" s="2">
         <v>45359.60416666666</v>
       </c>
       <c r="E146" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F146" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G146">
         <v>3</v>
@@ -13033,7 +13039,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J146">
         <v>1.909</v>
@@ -13101,16 +13107,16 @@
         <v>7935060</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D147" s="2">
         <v>45360.35416666666</v>
       </c>
       <c r="E147" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F147" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13119,7 +13125,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J147">
         <v>1.333</v>
@@ -13187,16 +13193,16 @@
         <v>7935122</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D148" s="2">
         <v>45360.45833333334</v>
       </c>
       <c r="E148" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F148" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -13205,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J148">
         <v>1.285</v>
@@ -13273,16 +13279,16 @@
         <v>7935121</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D149" s="2">
         <v>45360.5625</v>
       </c>
       <c r="E149" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13291,7 +13297,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J149">
         <v>2.2</v>
@@ -13359,16 +13365,16 @@
         <v>8013111</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D150" s="2">
         <v>45378.64583333334</v>
       </c>
       <c r="E150" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -13377,7 +13383,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J150">
         <v>1.615</v>
@@ -13445,16 +13451,16 @@
         <v>8031832</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D151" s="2">
         <v>45382.64583333334</v>
       </c>
       <c r="E151" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -13463,7 +13469,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J151">
         <v>1.909</v>
@@ -13531,16 +13537,16 @@
         <v>8031833</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D152" s="2">
         <v>45382.64583333334</v>
       </c>
       <c r="E152" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13549,7 +13555,7 @@
         <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J152">
         <v>4.1</v>
@@ -13617,16 +13623,16 @@
         <v>8030838</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D153" s="2">
         <v>45383.64583333334</v>
       </c>
       <c r="E153" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F153" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G153">
         <v>3</v>
@@ -13635,7 +13641,7 @@
         <v>2</v>
       </c>
       <c r="I153" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J153">
         <v>2.75</v>
@@ -13703,16 +13709,16 @@
         <v>8038699</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D154" s="2">
         <v>45384.375</v>
       </c>
       <c r="E154" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F154" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13721,7 +13727,7 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J154">
         <v>3.2</v>
@@ -13789,16 +13795,16 @@
         <v>8048602</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D155" s="2">
         <v>45386.375</v>
       </c>
       <c r="E155" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F155" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G155">
         <v>3</v>
@@ -13807,7 +13813,7 @@
         <v>2</v>
       </c>
       <c r="I155" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J155">
         <v>1.6</v>
@@ -13875,16 +13881,16 @@
         <v>8048596</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D156" s="2">
         <v>45386.64583333334</v>
       </c>
       <c r="E156" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F156" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13893,7 +13899,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J156">
         <v>2.1</v>
@@ -13961,16 +13967,16 @@
         <v>8052760</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D157" s="2">
         <v>45387.64583333334</v>
       </c>
       <c r="E157" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13979,7 +13985,7 @@
         <v>2</v>
       </c>
       <c r="I157" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J157">
         <v>4.5</v>
@@ -14047,16 +14053,16 @@
         <v>8052761</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D158" s="2">
         <v>45388.375</v>
       </c>
       <c r="E158" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F158" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -14065,7 +14071,7 @@
         <v>2</v>
       </c>
       <c r="I158" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J158">
         <v>1.833</v>
@@ -14133,16 +14139,16 @@
         <v>8056530</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D159" s="2">
         <v>45388.64583333334</v>
       </c>
       <c r="E159" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F159" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -14151,7 +14157,7 @@
         <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J159">
         <v>2</v>
@@ -14219,16 +14225,16 @@
         <v>8088066</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D160" s="2">
         <v>45396.47916666666</v>
       </c>
       <c r="E160" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F160" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G160">
         <v>2</v>
@@ -14237,7 +14243,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J160">
         <v>1.333</v>
@@ -14302,10 +14308,10 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>8099724</v>
+        <v>8100051</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D161" s="2">
         <v>45397.375</v>
@@ -14314,73 +14320,73 @@
         <v>37</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G161">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J161">
+        <v>2.7</v>
+      </c>
+      <c r="K161">
+        <v>2.8</v>
+      </c>
+      <c r="L161">
+        <v>2.6</v>
+      </c>
+      <c r="M161">
+        <v>2.7</v>
+      </c>
+      <c r="N161">
+        <v>2.8</v>
+      </c>
+      <c r="O161">
+        <v>2.6</v>
+      </c>
+      <c r="P161">
+        <v>0</v>
+      </c>
+      <c r="Q161">
+        <v>1.95</v>
+      </c>
+      <c r="R161">
+        <v>1.85</v>
+      </c>
+      <c r="S161">
+        <v>1.75</v>
+      </c>
+      <c r="T161">
+        <v>1.775</v>
+      </c>
+      <c r="U161">
+        <v>2.025</v>
+      </c>
+      <c r="V161">
+        <v>-1</v>
+      </c>
+      <c r="W161">
+        <v>-1</v>
+      </c>
+      <c r="X161">
         <v>1.6</v>
       </c>
-      <c r="K161">
-        <v>3.4</v>
-      </c>
-      <c r="L161">
-        <v>5.25</v>
-      </c>
-      <c r="M161">
-        <v>1.6</v>
-      </c>
-      <c r="N161">
-        <v>3.4</v>
-      </c>
-      <c r="O161">
-        <v>5.25</v>
-      </c>
-      <c r="P161">
-        <v>-0.75</v>
-      </c>
-      <c r="Q161">
-        <v>1.8</v>
-      </c>
-      <c r="R161">
-        <v>2</v>
-      </c>
-      <c r="S161">
-        <v>2</v>
-      </c>
-      <c r="T161">
-        <v>1.95</v>
-      </c>
-      <c r="U161">
-        <v>1.85</v>
-      </c>
-      <c r="V161">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="W161">
-        <v>-1</v>
-      </c>
-      <c r="X161">
-        <v>-1</v>
-      </c>
       <c r="Y161">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB161">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:28">
@@ -14388,85 +14394,85 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>8100051</v>
+        <v>8099724</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D162" s="2">
         <v>45397.375</v>
       </c>
       <c r="E162" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G162">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J162">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="K162">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="L162">
-        <v>2.6</v>
+        <v>5.25</v>
       </c>
       <c r="M162">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="N162">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="O162">
-        <v>2.6</v>
+        <v>5.25</v>
       </c>
       <c r="P162">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q162">
+        <v>1.8</v>
+      </c>
+      <c r="R162">
+        <v>2</v>
+      </c>
+      <c r="S162">
+        <v>2</v>
+      </c>
+      <c r="T162">
         <v>1.95</v>
       </c>
-      <c r="R162">
+      <c r="U162">
         <v>1.85</v>
       </c>
-      <c r="S162">
-        <v>1.75</v>
-      </c>
-      <c r="T162">
-        <v>1.775</v>
-      </c>
-      <c r="U162">
-        <v>2.025</v>
-      </c>
       <c r="V162">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="W162">
         <v>-1</v>
       </c>
       <c r="X162">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="Z162">
+        <v>-0.5</v>
+      </c>
+      <c r="AA162">
+        <v>-1</v>
+      </c>
+      <c r="AB162">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA162">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AB162">
-        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:28">
@@ -14477,16 +14483,16 @@
         <v>8100052</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D163" s="2">
         <v>45397.47916666666</v>
       </c>
       <c r="E163" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F163" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -14495,7 +14501,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J163">
         <v>1.909</v>
@@ -14563,16 +14569,16 @@
         <v>8088065</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D164" s="2">
         <v>45397.66666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14581,7 +14587,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J164">
         <v>1.6</v>
@@ -14649,16 +14655,16 @@
         <v>8122431</v>
       </c>
       <c r="C165" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D165" s="2">
         <v>45403.40625</v>
       </c>
       <c r="E165" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F165" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14667,7 +14673,7 @@
         <v>1</v>
       </c>
       <c r="I165" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J165">
         <v>2.15</v>
@@ -14735,17 +14741,17 @@
         <v>8122430</v>
       </c>
       <c r="C166" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D166" s="2">
         <v>45403.51041666666</v>
       </c>
       <c r="E166" t="s">
+        <v>43</v>
+      </c>
+      <c r="F166" t="s">
         <v>41</v>
       </c>
-      <c r="F166" t="s">
-        <v>39</v>
-      </c>
       <c r="G166">
         <v>0</v>
       </c>
@@ -14753,7 +14759,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J166">
         <v>2.15</v>
@@ -14821,16 +14827,16 @@
         <v>8130390</v>
       </c>
       <c r="C167" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D167" s="2">
         <v>45404.40625</v>
       </c>
       <c r="E167" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F167" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14839,7 +14845,7 @@
         <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J167">
         <v>2.15</v>
@@ -14907,16 +14913,16 @@
         <v>8130397</v>
       </c>
       <c r="C168" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D168" s="2">
         <v>45404.51041666666</v>
       </c>
       <c r="E168" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F168" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G168">
         <v>2</v>
@@ -14925,7 +14931,7 @@
         <v>2</v>
       </c>
       <c r="I168" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J168">
         <v>1.666</v>
@@ -14983,6 +14989,910 @@
       </c>
       <c r="AB168">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:28">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>8122429</v>
+      </c>
+      <c r="C169" t="s">
+        <v>29</v>
+      </c>
+      <c r="D169" s="2">
+        <v>45405.40625</v>
+      </c>
+      <c r="E169" t="s">
+        <v>33</v>
+      </c>
+      <c r="F169" t="s">
+        <v>37</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="I169" t="s">
+        <v>52</v>
+      </c>
+      <c r="J169">
+        <v>2.2</v>
+      </c>
+      <c r="K169">
+        <v>2.875</v>
+      </c>
+      <c r="L169">
+        <v>3.25</v>
+      </c>
+      <c r="M169">
+        <v>2.2</v>
+      </c>
+      <c r="N169">
+        <v>2.875</v>
+      </c>
+      <c r="O169">
+        <v>3.25</v>
+      </c>
+      <c r="P169">
+        <v>-0.25</v>
+      </c>
+      <c r="Q169">
+        <v>1.95</v>
+      </c>
+      <c r="R169">
+        <v>1.85</v>
+      </c>
+      <c r="S169">
+        <v>2</v>
+      </c>
+      <c r="T169">
+        <v>2</v>
+      </c>
+      <c r="U169">
+        <v>1.8</v>
+      </c>
+      <c r="V169">
+        <v>-1</v>
+      </c>
+      <c r="W169">
+        <v>1.875</v>
+      </c>
+      <c r="X169">
+        <v>-1</v>
+      </c>
+      <c r="Y169">
+        <v>-0.5</v>
+      </c>
+      <c r="Z169">
+        <v>0.425</v>
+      </c>
+      <c r="AA169">
+        <v>0</v>
+      </c>
+      <c r="AB169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:28">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>8131278</v>
+      </c>
+      <c r="C170" t="s">
+        <v>29</v>
+      </c>
+      <c r="D170" s="2">
+        <v>45405.51041666666</v>
+      </c>
+      <c r="E170" t="s">
+        <v>31</v>
+      </c>
+      <c r="F170" t="s">
+        <v>46</v>
+      </c>
+      <c r="G170">
+        <v>3</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170" t="s">
+        <v>54</v>
+      </c>
+      <c r="J170">
+        <v>1.615</v>
+      </c>
+      <c r="K170">
+        <v>3.2</v>
+      </c>
+      <c r="L170">
+        <v>5.5</v>
+      </c>
+      <c r="M170">
+        <v>1.533</v>
+      </c>
+      <c r="N170">
+        <v>3.4</v>
+      </c>
+      <c r="O170">
+        <v>5.75</v>
+      </c>
+      <c r="P170">
+        <v>-1</v>
+      </c>
+      <c r="Q170">
+        <v>2.025</v>
+      </c>
+      <c r="R170">
+        <v>1.775</v>
+      </c>
+      <c r="S170">
+        <v>1.75</v>
+      </c>
+      <c r="T170">
+        <v>1.725</v>
+      </c>
+      <c r="U170">
+        <v>1.975</v>
+      </c>
+      <c r="V170">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="W170">
+        <v>-1</v>
+      </c>
+      <c r="X170">
+        <v>-1</v>
+      </c>
+      <c r="Y170">
+        <v>1.025</v>
+      </c>
+      <c r="Z170">
+        <v>-1</v>
+      </c>
+      <c r="AA170">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AB170">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:28">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>8131279</v>
+      </c>
+      <c r="C171" t="s">
+        <v>29</v>
+      </c>
+      <c r="D171" s="2">
+        <v>45405.60416666666</v>
+      </c>
+      <c r="E171" t="s">
+        <v>40</v>
+      </c>
+      <c r="F171" t="s">
+        <v>42</v>
+      </c>
+      <c r="G171">
+        <v>1</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
+      </c>
+      <c r="I171" t="s">
+        <v>52</v>
+      </c>
+      <c r="J171">
+        <v>1.5</v>
+      </c>
+      <c r="K171">
+        <v>3.5</v>
+      </c>
+      <c r="L171">
+        <v>6</v>
+      </c>
+      <c r="M171">
+        <v>1.7</v>
+      </c>
+      <c r="N171">
+        <v>3.25</v>
+      </c>
+      <c r="O171">
+        <v>4.333</v>
+      </c>
+      <c r="P171">
+        <v>-0.75</v>
+      </c>
+      <c r="Q171">
+        <v>2</v>
+      </c>
+      <c r="R171">
+        <v>1.8</v>
+      </c>
+      <c r="S171">
+        <v>2</v>
+      </c>
+      <c r="T171">
+        <v>1.925</v>
+      </c>
+      <c r="U171">
+        <v>1.875</v>
+      </c>
+      <c r="V171">
+        <v>-1</v>
+      </c>
+      <c r="W171">
+        <v>2.25</v>
+      </c>
+      <c r="X171">
+        <v>-1</v>
+      </c>
+      <c r="Y171">
+        <v>-1</v>
+      </c>
+      <c r="Z171">
+        <v>0.8</v>
+      </c>
+      <c r="AA171">
+        <v>0</v>
+      </c>
+      <c r="AB171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:28">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>8140588</v>
+      </c>
+      <c r="C172" t="s">
+        <v>29</v>
+      </c>
+      <c r="D172" s="2">
+        <v>45407.40625</v>
+      </c>
+      <c r="E172" t="s">
+        <v>41</v>
+      </c>
+      <c r="F172" t="s">
+        <v>50</v>
+      </c>
+      <c r="G172">
+        <v>1</v>
+      </c>
+      <c r="H172">
+        <v>3</v>
+      </c>
+      <c r="I172" t="s">
+        <v>53</v>
+      </c>
+      <c r="J172">
+        <v>3.4</v>
+      </c>
+      <c r="K172">
+        <v>2.75</v>
+      </c>
+      <c r="L172">
+        <v>2.2</v>
+      </c>
+      <c r="M172">
+        <v>2.6</v>
+      </c>
+      <c r="N172">
+        <v>2.6</v>
+      </c>
+      <c r="O172">
+        <v>3</v>
+      </c>
+      <c r="P172">
+        <v>0</v>
+      </c>
+      <c r="Q172">
+        <v>1.75</v>
+      </c>
+      <c r="R172">
+        <v>2.05</v>
+      </c>
+      <c r="S172">
+        <v>1.75</v>
+      </c>
+      <c r="T172">
+        <v>1.825</v>
+      </c>
+      <c r="U172">
+        <v>1.975</v>
+      </c>
+      <c r="V172">
+        <v>-1</v>
+      </c>
+      <c r="W172">
+        <v>-1</v>
+      </c>
+      <c r="X172">
+        <v>2</v>
+      </c>
+      <c r="Y172">
+        <v>-1</v>
+      </c>
+      <c r="Z172">
+        <v>1.05</v>
+      </c>
+      <c r="AA172">
+        <v>0.825</v>
+      </c>
+      <c r="AB172">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:28">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>8137759</v>
+      </c>
+      <c r="C173" t="s">
+        <v>29</v>
+      </c>
+      <c r="D173" s="2">
+        <v>45407.5</v>
+      </c>
+      <c r="E173" t="s">
+        <v>38</v>
+      </c>
+      <c r="F173" t="s">
+        <v>49</v>
+      </c>
+      <c r="G173">
+        <v>2</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="I173" t="s">
+        <v>54</v>
+      </c>
+      <c r="J173">
+        <v>1.571</v>
+      </c>
+      <c r="K173">
+        <v>3.6</v>
+      </c>
+      <c r="L173">
+        <v>5</v>
+      </c>
+      <c r="M173">
+        <v>1.25</v>
+      </c>
+      <c r="N173">
+        <v>4.5</v>
+      </c>
+      <c r="O173">
+        <v>10</v>
+      </c>
+      <c r="P173">
+        <v>-1.75</v>
+      </c>
+      <c r="Q173">
+        <v>2</v>
+      </c>
+      <c r="R173">
+        <v>1.8</v>
+      </c>
+      <c r="S173">
+        <v>2.75</v>
+      </c>
+      <c r="T173">
+        <v>1.925</v>
+      </c>
+      <c r="U173">
+        <v>1.875</v>
+      </c>
+      <c r="V173">
+        <v>0.25</v>
+      </c>
+      <c r="W173">
+        <v>-1</v>
+      </c>
+      <c r="X173">
+        <v>-1</v>
+      </c>
+      <c r="Y173">
+        <v>-1</v>
+      </c>
+      <c r="Z173">
+        <v>0.8</v>
+      </c>
+      <c r="AA173">
+        <v>0.4625</v>
+      </c>
+      <c r="AB173">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:28">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>8137758</v>
+      </c>
+      <c r="C174" t="s">
+        <v>29</v>
+      </c>
+      <c r="D174" s="2">
+        <v>45407.5</v>
+      </c>
+      <c r="E174" t="s">
+        <v>45</v>
+      </c>
+      <c r="F174" t="s">
+        <v>48</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+      <c r="H174">
+        <v>4</v>
+      </c>
+      <c r="I174" t="s">
+        <v>53</v>
+      </c>
+      <c r="J174">
+        <v>4.333</v>
+      </c>
+      <c r="K174">
+        <v>3.8</v>
+      </c>
+      <c r="L174">
+        <v>1.615</v>
+      </c>
+      <c r="M174">
+        <v>3.6</v>
+      </c>
+      <c r="N174">
+        <v>3.5</v>
+      </c>
+      <c r="O174">
+        <v>1.8</v>
+      </c>
+      <c r="P174">
+        <v>0.5</v>
+      </c>
+      <c r="Q174">
+        <v>1.975</v>
+      </c>
+      <c r="R174">
+        <v>1.825</v>
+      </c>
+      <c r="S174">
+        <v>2.25</v>
+      </c>
+      <c r="T174">
+        <v>1.975</v>
+      </c>
+      <c r="U174">
+        <v>1.725</v>
+      </c>
+      <c r="V174">
+        <v>-1</v>
+      </c>
+      <c r="W174">
+        <v>-1</v>
+      </c>
+      <c r="X174">
+        <v>0.8</v>
+      </c>
+      <c r="Y174">
+        <v>-1</v>
+      </c>
+      <c r="Z174">
+        <v>0.825</v>
+      </c>
+      <c r="AA174">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB174">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:28">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>8136645</v>
+      </c>
+      <c r="C175" t="s">
+        <v>29</v>
+      </c>
+      <c r="D175" s="2">
+        <v>45407.59375</v>
+      </c>
+      <c r="E175" t="s">
+        <v>39</v>
+      </c>
+      <c r="F175" t="s">
+        <v>34</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="I175" t="s">
+        <v>52</v>
+      </c>
+      <c r="J175">
+        <v>3.6</v>
+      </c>
+      <c r="K175">
+        <v>3.2</v>
+      </c>
+      <c r="L175">
+        <v>1.909</v>
+      </c>
+      <c r="M175">
+        <v>4.5</v>
+      </c>
+      <c r="N175">
+        <v>3.3</v>
+      </c>
+      <c r="O175">
+        <v>1.7</v>
+      </c>
+      <c r="P175">
+        <v>0.75</v>
+      </c>
+      <c r="Q175">
+        <v>1.825</v>
+      </c>
+      <c r="R175">
+        <v>1.975</v>
+      </c>
+      <c r="S175">
+        <v>2.25</v>
+      </c>
+      <c r="T175">
+        <v>1.875</v>
+      </c>
+      <c r="U175">
+        <v>1.925</v>
+      </c>
+      <c r="V175">
+        <v>-1</v>
+      </c>
+      <c r="W175">
+        <v>2.3</v>
+      </c>
+      <c r="X175">
+        <v>-1</v>
+      </c>
+      <c r="Y175">
+        <v>0.825</v>
+      </c>
+      <c r="Z175">
+        <v>-1</v>
+      </c>
+      <c r="AA175">
+        <v>-0.5</v>
+      </c>
+      <c r="AB175">
+        <v>0.4625</v>
+      </c>
+    </row>
+    <row r="176" spans="1:28">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>8141805</v>
+      </c>
+      <c r="C176" t="s">
+        <v>29</v>
+      </c>
+      <c r="D176" s="2">
+        <v>45408.40625</v>
+      </c>
+      <c r="E176" t="s">
+        <v>33</v>
+      </c>
+      <c r="F176" t="s">
+        <v>31</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>3</v>
+      </c>
+      <c r="I176" t="s">
+        <v>53</v>
+      </c>
+      <c r="J176">
+        <v>2.875</v>
+      </c>
+      <c r="K176">
+        <v>3</v>
+      </c>
+      <c r="L176">
+        <v>2.3</v>
+      </c>
+      <c r="M176">
+        <v>3.4</v>
+      </c>
+      <c r="N176">
+        <v>2.8</v>
+      </c>
+      <c r="O176">
+        <v>2.1</v>
+      </c>
+      <c r="P176">
+        <v>0.25</v>
+      </c>
+      <c r="Q176">
+        <v>1.9</v>
+      </c>
+      <c r="R176">
+        <v>1.9</v>
+      </c>
+      <c r="S176">
+        <v>1.75</v>
+      </c>
+      <c r="T176">
+        <v>1.975</v>
+      </c>
+      <c r="U176">
+        <v>1.825</v>
+      </c>
+      <c r="V176">
+        <v>-1</v>
+      </c>
+      <c r="W176">
+        <v>-1</v>
+      </c>
+      <c r="X176">
+        <v>1.1</v>
+      </c>
+      <c r="Y176">
+        <v>-1</v>
+      </c>
+      <c r="Z176">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA176">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB176">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:28">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>8141806</v>
+      </c>
+      <c r="C177" t="s">
+        <v>29</v>
+      </c>
+      <c r="D177" s="2">
+        <v>45408.5</v>
+      </c>
+      <c r="E177" t="s">
+        <v>36</v>
+      </c>
+      <c r="F177" t="s">
+        <v>43</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>2</v>
+      </c>
+      <c r="I177" t="s">
+        <v>53</v>
+      </c>
+      <c r="J177">
+        <v>3.5</v>
+      </c>
+      <c r="K177">
+        <v>2.875</v>
+      </c>
+      <c r="L177">
+        <v>2.1</v>
+      </c>
+      <c r="M177">
+        <v>3.5</v>
+      </c>
+      <c r="N177">
+        <v>2.8</v>
+      </c>
+      <c r="O177">
+        <v>2.1</v>
+      </c>
+      <c r="P177">
+        <v>0.25</v>
+      </c>
+      <c r="Q177">
+        <v>1.95</v>
+      </c>
+      <c r="R177">
+        <v>1.85</v>
+      </c>
+      <c r="S177">
+        <v>1.75</v>
+      </c>
+      <c r="T177">
+        <v>1.95</v>
+      </c>
+      <c r="U177">
+        <v>1.85</v>
+      </c>
+      <c r="V177">
+        <v>-1</v>
+      </c>
+      <c r="W177">
+        <v>-1</v>
+      </c>
+      <c r="X177">
+        <v>1.1</v>
+      </c>
+      <c r="Y177">
+        <v>-1</v>
+      </c>
+      <c r="Z177">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA177">
+        <v>0.475</v>
+      </c>
+      <c r="AB177">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:28">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>27</v>
+      </c>
+      <c r="C178" t="s">
+        <v>29</v>
+      </c>
+      <c r="D178" s="2">
+        <v>45409.5</v>
+      </c>
+      <c r="E178" t="s">
+        <v>46</v>
+      </c>
+      <c r="F178" t="s">
+        <v>40</v>
+      </c>
+      <c r="J178">
+        <v>3</v>
+      </c>
+      <c r="K178">
+        <v>2.9</v>
+      </c>
+      <c r="L178">
+        <v>2.3</v>
+      </c>
+      <c r="M178">
+        <v>3</v>
+      </c>
+      <c r="N178">
+        <v>2.9</v>
+      </c>
+      <c r="O178">
+        <v>2.3</v>
+      </c>
+      <c r="P178">
+        <v>0.25</v>
+      </c>
+      <c r="Q178">
+        <v>1.775</v>
+      </c>
+      <c r="R178">
+        <v>2.025</v>
+      </c>
+      <c r="S178">
+        <v>1.75</v>
+      </c>
+      <c r="T178">
+        <v>1.775</v>
+      </c>
+      <c r="U178">
+        <v>2.025</v>
+      </c>
+      <c r="V178">
+        <v>0</v>
+      </c>
+      <c r="W178">
+        <v>0</v>
+      </c>
+      <c r="X178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:28">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>28</v>
+      </c>
+      <c r="C179" t="s">
+        <v>29</v>
+      </c>
+      <c r="D179" s="2">
+        <v>45409.59375</v>
+      </c>
+      <c r="E179" t="s">
+        <v>42</v>
+      </c>
+      <c r="F179" t="s">
+        <v>30</v>
+      </c>
+      <c r="J179">
+        <v>2.7</v>
+      </c>
+      <c r="K179">
+        <v>3</v>
+      </c>
+      <c r="L179">
+        <v>2.45</v>
+      </c>
+      <c r="M179">
+        <v>2.7</v>
+      </c>
+      <c r="N179">
+        <v>3</v>
+      </c>
+      <c r="O179">
+        <v>2.45</v>
+      </c>
+      <c r="P179">
+        <v>0</v>
+      </c>
+      <c r="Q179">
+        <v>2</v>
+      </c>
+      <c r="R179">
+        <v>1.8</v>
+      </c>
+      <c r="S179">
+        <v>2.25</v>
+      </c>
+      <c r="T179">
+        <v>1.9</v>
+      </c>
+      <c r="U179">
+        <v>1.9</v>
+      </c>
+      <c r="V179">
+        <v>0</v>
+      </c>
+      <c r="W179">
+        <v>0</v>
+      </c>
+      <c r="X179">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -1924,7 +1924,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6838982</v>
+        <v>6838980</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
@@ -1933,76 +1933,76 @@
         <v>45107.44791666666</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J17">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="M17">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N17">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="O17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="P17">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q17">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="R17">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S17">
         <v>2</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U17">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V17">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z17">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -2010,7 +2010,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6838980</v>
+        <v>6838982</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -2019,76 +2019,76 @@
         <v>45107.44791666666</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J18">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="K18">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="M18">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N18">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="P18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q18">
+        <v>1.725</v>
+      </c>
+      <c r="R18">
+        <v>1.975</v>
+      </c>
+      <c r="S18">
+        <v>2</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="U18">
         <v>1.8</v>
       </c>
-      <c r="R18">
-        <v>2</v>
-      </c>
-      <c r="S18">
-        <v>2</v>
-      </c>
-      <c r="T18">
-        <v>1.85</v>
-      </c>
-      <c r="U18">
-        <v>1.95</v>
-      </c>
       <c r="V18">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y18">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB18">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -3988,7 +3988,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7406927</v>
+        <v>7407173</v>
       </c>
       <c r="C41" t="s">
         <v>29</v>
@@ -3997,76 +3997,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J41">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="K41">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="L41">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="M41">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="N41">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="O41">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="P41">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q41">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S41">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T41">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U41">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V41">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="W41">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="Z41">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AA41">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -4074,7 +4074,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7407173</v>
+        <v>7406927</v>
       </c>
       <c r="C42" t="s">
         <v>29</v>
@@ -4083,76 +4083,76 @@
         <v>45229.64583333334</v>
       </c>
       <c r="E42" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J42">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="K42">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="L42">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="M42">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="N42">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="O42">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="P42">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q42">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R42">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T42">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U42">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V42">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
+        <v>0.45</v>
+      </c>
+      <c r="Z42">
         <v>-0.5</v>
       </c>
-      <c r="Z42">
-        <v>0.4875</v>
-      </c>
       <c r="AA42">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:28">
@@ -5450,7 +5450,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7511490</v>
+        <v>7511489</v>
       </c>
       <c r="C58" t="s">
         <v>29</v>
@@ -5459,10 +5459,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="E58" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F58" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5474,41 +5474,41 @@
         <v>53</v>
       </c>
       <c r="J58">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="K58">
+        <v>3</v>
+      </c>
+      <c r="L58">
         <v>3.1</v>
       </c>
-      <c r="L58">
-        <v>1.909</v>
-      </c>
       <c r="M58">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="N58">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O58">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="P58">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q58">
+        <v>1.95</v>
+      </c>
+      <c r="R58">
+        <v>1.85</v>
+      </c>
+      <c r="S58">
+        <v>2.25</v>
+      </c>
+      <c r="T58">
+        <v>2.05</v>
+      </c>
+      <c r="U58">
         <v>1.75</v>
       </c>
-      <c r="R58">
-        <v>2.05</v>
-      </c>
-      <c r="S58">
-        <v>1.75</v>
-      </c>
-      <c r="T58">
-        <v>1.9</v>
-      </c>
-      <c r="U58">
-        <v>1.9</v>
-      </c>
       <c r="V58">
         <v>-1</v>
       </c>
@@ -5516,19 +5516,19 @@
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA58">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AB58">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="59" spans="1:28">
@@ -5536,7 +5536,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7511489</v>
+        <v>7511490</v>
       </c>
       <c r="C59" t="s">
         <v>29</v>
@@ -5545,10 +5545,10 @@
         <v>45254.35416666666</v>
       </c>
       <c r="E59" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F59" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5560,40 +5560,40 @@
         <v>53</v>
       </c>
       <c r="J59">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="K59">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L59">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="M59">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="N59">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O59">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="P59">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q59">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="R59">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S59">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T59">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U59">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V59">
         <v>-1</v>
@@ -5602,19 +5602,19 @@
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA59">
+        <v>0.45</v>
+      </c>
+      <c r="AB59">
         <v>-0.5</v>
-      </c>
-      <c r="AB59">
-        <v>0.375</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -9750,7 +9750,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7811883</v>
+        <v>7811882</v>
       </c>
       <c r="C108" t="s">
         <v>29</v>
@@ -9759,76 +9759,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="E108" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F108" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="s">
         <v>52</v>
       </c>
       <c r="J108">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="K108">
+        <v>2.9</v>
+      </c>
+      <c r="L108">
         <v>3.4</v>
       </c>
-      <c r="L108">
-        <v>1.727</v>
-      </c>
       <c r="M108">
+        <v>2.05</v>
+      </c>
+      <c r="N108">
+        <v>2.9</v>
+      </c>
+      <c r="O108">
         <v>3.6</v>
       </c>
-      <c r="N108">
-        <v>3.3</v>
-      </c>
-      <c r="O108">
-        <v>1.909</v>
-      </c>
       <c r="P108">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q108">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="R108">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S108">
         <v>1.75</v>
       </c>
       <c r="T108">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="U108">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
         <v>-1</v>
       </c>
       <c r="W108">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB108">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="109" spans="1:28">
@@ -9836,7 +9836,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7811882</v>
+        <v>7811883</v>
       </c>
       <c r="C109" t="s">
         <v>29</v>
@@ -9845,76 +9845,76 @@
         <v>45333.33333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="s">
         <v>52</v>
       </c>
       <c r="J109">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="K109">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="L109">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="M109">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="N109">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="O109">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="P109">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q109">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="R109">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S109">
         <v>1.75</v>
       </c>
       <c r="T109">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="U109">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V109">
         <v>-1</v>
       </c>
       <c r="W109">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="Z109">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:28">
@@ -12072,7 +12072,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7901411</v>
+        <v>7897090</v>
       </c>
       <c r="C135" t="s">
         <v>29</v>
@@ -12081,76 +12081,76 @@
         <v>45352.35416666666</v>
       </c>
       <c r="E135" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F135" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G135">
         <v>0</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I135" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J135">
         <v>2.1</v>
       </c>
       <c r="K135">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="L135">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="N135">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="O135">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P135">
         <v>-0.25</v>
       </c>
       <c r="Q135">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R135">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S135">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T135">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U135">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="V135">
         <v>-1</v>
       </c>
       <c r="W135">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB135">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:28">
@@ -12158,7 +12158,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7897090</v>
+        <v>7901411</v>
       </c>
       <c r="C136" t="s">
         <v>29</v>
@@ -12167,76 +12167,76 @@
         <v>45352.35416666666</v>
       </c>
       <c r="E136" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F136" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G136">
         <v>0</v>
       </c>
       <c r="H136">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J136">
         <v>2.1</v>
       </c>
       <c r="K136">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="L136">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M136">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="N136">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="O136">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P136">
         <v>-0.25</v>
       </c>
       <c r="Q136">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R136">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S136">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T136">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U136">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="V136">
         <v>-1</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X136">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z136">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AA136">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="137" spans="1:28">
@@ -13448,7 +13448,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>8031832</v>
+        <v>8031833</v>
       </c>
       <c r="C151" t="s">
         <v>29</v>
@@ -13457,76 +13457,76 @@
         <v>45382.64583333334</v>
       </c>
       <c r="E151" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F151" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="s">
         <v>52</v>
       </c>
       <c r="J151">
-        <v>1.909</v>
+        <v>4.1</v>
       </c>
       <c r="K151">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="L151">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="M151">
-        <v>1.833</v>
+        <v>3.5</v>
       </c>
       <c r="N151">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O151">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="P151">
+        <v>0.25</v>
+      </c>
+      <c r="Q151">
+        <v>1.975</v>
+      </c>
+      <c r="R151">
+        <v>1.825</v>
+      </c>
+      <c r="S151">
+        <v>2</v>
+      </c>
+      <c r="T151">
+        <v>2.025</v>
+      </c>
+      <c r="U151">
+        <v>1.775</v>
+      </c>
+      <c r="V151">
+        <v>-1</v>
+      </c>
+      <c r="W151">
+        <v>1.9</v>
+      </c>
+      <c r="X151">
+        <v>-1</v>
+      </c>
+      <c r="Y151">
+        <v>0.4875</v>
+      </c>
+      <c r="Z151">
         <v>-0.5</v>
       </c>
-      <c r="Q151">
-        <v>1.875</v>
-      </c>
-      <c r="R151">
-        <v>1.925</v>
-      </c>
-      <c r="S151">
-        <v>1.75</v>
-      </c>
-      <c r="T151">
-        <v>1.95</v>
-      </c>
-      <c r="U151">
-        <v>1.85</v>
-      </c>
-      <c r="V151">
-        <v>-1</v>
-      </c>
-      <c r="W151">
-        <v>1.8</v>
-      </c>
-      <c r="X151">
-        <v>-1</v>
-      </c>
-      <c r="Y151">
-        <v>-1</v>
-      </c>
-      <c r="Z151">
-        <v>0.925</v>
-      </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB151">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:28">
@@ -13534,7 +13534,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>8031833</v>
+        <v>8031832</v>
       </c>
       <c r="C152" t="s">
         <v>29</v>
@@ -13543,76 +13543,76 @@
         <v>45382.64583333334</v>
       </c>
       <c r="E152" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F152" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="s">
         <v>52</v>
       </c>
       <c r="J152">
-        <v>4.1</v>
+        <v>1.909</v>
       </c>
       <c r="K152">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="L152">
+        <v>4</v>
+      </c>
+      <c r="M152">
         <v>1.833</v>
       </c>
-      <c r="M152">
-        <v>3.5</v>
-      </c>
       <c r="N152">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="O152">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="P152">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q152">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R152">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S152">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T152">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U152">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V152">
         <v>-1</v>
       </c>
       <c r="W152">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:28">
@@ -14308,7 +14308,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>8100051</v>
+        <v>8099724</v>
       </c>
       <c r="C161" t="s">
         <v>29</v>
@@ -14317,76 +14317,76 @@
         <v>45397.375</v>
       </c>
       <c r="E161" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G161">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J161">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="K161">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="L161">
-        <v>2.6</v>
+        <v>5.25</v>
       </c>
       <c r="M161">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="N161">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="O161">
-        <v>2.6</v>
+        <v>5.25</v>
       </c>
       <c r="P161">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q161">
+        <v>1.8</v>
+      </c>
+      <c r="R161">
+        <v>2</v>
+      </c>
+      <c r="S161">
+        <v>2</v>
+      </c>
+      <c r="T161">
         <v>1.95</v>
       </c>
-      <c r="R161">
+      <c r="U161">
         <v>1.85</v>
       </c>
-      <c r="S161">
-        <v>1.75</v>
-      </c>
-      <c r="T161">
-        <v>1.775</v>
-      </c>
-      <c r="U161">
-        <v>2.025</v>
-      </c>
       <c r="V161">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="W161">
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="Z161">
+        <v>-0.5</v>
+      </c>
+      <c r="AA161">
+        <v>-1</v>
+      </c>
+      <c r="AB161">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA161">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AB161">
-        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:28">
@@ -14394,7 +14394,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>8099724</v>
+        <v>8100051</v>
       </c>
       <c r="C162" t="s">
         <v>29</v>
@@ -14403,76 +14403,76 @@
         <v>45397.375</v>
       </c>
       <c r="E162" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G162">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J162">
+        <v>2.7</v>
+      </c>
+      <c r="K162">
+        <v>2.8</v>
+      </c>
+      <c r="L162">
+        <v>2.6</v>
+      </c>
+      <c r="M162">
+        <v>2.7</v>
+      </c>
+      <c r="N162">
+        <v>2.8</v>
+      </c>
+      <c r="O162">
+        <v>2.6</v>
+      </c>
+      <c r="P162">
+        <v>0</v>
+      </c>
+      <c r="Q162">
+        <v>1.95</v>
+      </c>
+      <c r="R162">
+        <v>1.85</v>
+      </c>
+      <c r="S162">
+        <v>1.75</v>
+      </c>
+      <c r="T162">
+        <v>1.775</v>
+      </c>
+      <c r="U162">
+        <v>2.025</v>
+      </c>
+      <c r="V162">
+        <v>-1</v>
+      </c>
+      <c r="W162">
+        <v>-1</v>
+      </c>
+      <c r="X162">
         <v>1.6</v>
       </c>
-      <c r="K162">
-        <v>3.4</v>
-      </c>
-      <c r="L162">
-        <v>5.25</v>
-      </c>
-      <c r="M162">
-        <v>1.6</v>
-      </c>
-      <c r="N162">
-        <v>3.4</v>
-      </c>
-      <c r="O162">
-        <v>5.25</v>
-      </c>
-      <c r="P162">
-        <v>-0.75</v>
-      </c>
-      <c r="Q162">
-        <v>1.8</v>
-      </c>
-      <c r="R162">
-        <v>2</v>
-      </c>
-      <c r="S162">
-        <v>2</v>
-      </c>
-      <c r="T162">
-        <v>1.95</v>
-      </c>
-      <c r="U162">
-        <v>1.85</v>
-      </c>
-      <c r="V162">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="W162">
-        <v>-1</v>
-      </c>
-      <c r="X162">
-        <v>-1</v>
-      </c>
       <c r="Y162">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB162">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:28">

--- a/Iraq League/Iraq League.xlsx
+++ b/Iraq League/Iraq League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -95,12 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>8148099</t>
-  </si>
-  <si>
-    <t>8148100</t>
   </si>
   <si>
     <t>Iraq League</t>
@@ -540,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB179"/>
+  <dimension ref="A1:AB177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,16 +631,16 @@
         <v>6727043</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45080.44791666666</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -655,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J2">
         <v>2.1</v>
@@ -723,16 +717,16 @@
         <v>6727042</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45080.63541666666</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -741,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J3">
         <v>2.2</v>
@@ -809,16 +803,16 @@
         <v>6729610</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45081.44791666666</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -827,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J4">
         <v>2.7</v>
@@ -895,16 +889,16 @@
         <v>6729609</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45081.44791666666</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -913,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J5">
         <v>2.1</v>
@@ -981,16 +975,16 @@
         <v>6729611</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>45081.45833333334</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -999,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J6">
         <v>1.4</v>
@@ -1067,16 +1061,16 @@
         <v>6729612</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45081.64583333334</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1085,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J7">
         <v>2.7</v>
@@ -1153,16 +1147,16 @@
         <v>6800762</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45100.5</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1171,7 +1165,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J8">
         <v>2.25</v>
@@ -1239,16 +1233,16 @@
         <v>6805856</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>45101.45833333334</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1257,7 +1251,7 @@
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J9">
         <v>2.375</v>
@@ -1325,16 +1319,16 @@
         <v>6805857</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45101.55208333334</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1343,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J10">
         <v>2.375</v>
@@ -1411,16 +1405,16 @@
         <v>6805858</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45101.64583333334</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1429,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J11">
         <v>1.8</v>
@@ -1497,25 +1491,25 @@
         <v>6807259</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45102.45833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
         <v>50</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>52</v>
       </c>
       <c r="J12">
         <v>2.25</v>
@@ -1583,16 +1577,16 @@
         <v>6816208</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45102.55208333334</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1601,7 +1595,7 @@
         <v>5</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J13">
         <v>3.5</v>
@@ -1669,16 +1663,16 @@
         <v>6807260</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45102.64583333334</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1687,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J14">
         <v>1.8</v>
@@ -1755,16 +1749,16 @@
         <v>6838304</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>45106.45833333334</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1773,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J15">
         <v>1.4</v>
@@ -1841,16 +1835,16 @@
         <v>6838305</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>45106.64583333334</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1859,7 +1853,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J16">
         <v>1.615</v>
@@ -1927,17 +1921,17 @@
         <v>6838980</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45107.44791666666</v>
       </c>
       <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
       </c>
-      <c r="F17" t="s">
-        <v>35</v>
-      </c>
       <c r="G17">
         <v>1</v>
       </c>
@@ -1945,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J17">
         <v>3.2</v>
@@ -2013,16 +2007,16 @@
         <v>6838982</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45107.44791666666</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2031,7 +2025,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J18">
         <v>3.6</v>
@@ -2099,16 +2093,16 @@
         <v>6838981</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45107.64583333334</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2117,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J19">
         <v>1.4</v>
@@ -2185,16 +2179,16 @@
         <v>6853983</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45110.5</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -2203,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J20">
         <v>2.75</v>
@@ -2271,16 +2265,16 @@
         <v>6858447</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45111.64583333334</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2289,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J21">
         <v>1.727</v>
@@ -2357,16 +2351,16 @@
         <v>6862618</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45112.45833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2375,7 +2369,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J22">
         <v>3</v>
@@ -2443,16 +2437,16 @@
         <v>6862617</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>45112.45833333334</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2461,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J23">
         <v>3.6</v>
@@ -2529,16 +2523,16 @@
         <v>6862657</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>45112.64583333334</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2547,7 +2541,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J24">
         <v>1.533</v>
@@ -2615,16 +2609,16 @@
         <v>6865736</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>45113.54166666666</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -2633,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J25">
         <v>1.666</v>
@@ -2701,16 +2695,16 @@
         <v>6888122</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>45117.45833333334</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2719,7 +2713,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J26">
         <v>9</v>
@@ -2787,16 +2781,16 @@
         <v>6888123</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>45117.47916666666</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2805,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J27">
         <v>4</v>
@@ -2873,16 +2867,16 @@
         <v>6888124</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>45117.66666666666</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2891,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J28">
         <v>1.666</v>
@@ -2959,16 +2953,16 @@
         <v>6893829</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>45118.45833333334</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -2977,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J29">
         <v>2.4</v>
@@ -3045,16 +3039,16 @@
         <v>6894519</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>45118.64583333334</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3063,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J30">
         <v>2.4</v>
@@ -3131,16 +3125,16 @@
         <v>6912017</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
         <v>45122.47916666666</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -3149,7 +3143,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J31">
         <v>1.95</v>
@@ -3217,16 +3211,16 @@
         <v>6912016</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>45122.66666666666</v>
       </c>
       <c r="E32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3235,7 +3229,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J32">
         <v>1.8</v>
@@ -3303,16 +3297,16 @@
         <v>6915907</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>45123.47916666666</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3321,7 +3315,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J33">
         <v>2.1</v>
@@ -3389,17 +3383,17 @@
         <v>6915909</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
         <v>45123.66666666666</v>
       </c>
       <c r="E34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" t="s">
         <v>31</v>
       </c>
-      <c r="F34" t="s">
-        <v>33</v>
-      </c>
       <c r="G34">
         <v>1</v>
       </c>
@@ -3407,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J34">
         <v>1.833</v>
@@ -3475,16 +3469,16 @@
         <v>6934488</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>45125.58333333334</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3493,7 +3487,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J35">
         <v>1.3</v>
@@ -3561,16 +3555,16 @@
         <v>6944304</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
         <v>45128.45833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3579,7 +3573,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -3647,16 +3641,16 @@
         <v>6944303</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <v>45128.64583333334</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3665,7 +3659,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J37">
         <v>2.1</v>
@@ -3733,16 +3727,16 @@
         <v>7387406</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <v>45225.35416666666</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3751,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J38">
         <v>2.5</v>
@@ -3819,16 +3813,16 @@
         <v>7387407</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
         <v>45225.54166666666</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -3837,7 +3831,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J39">
         <v>2</v>
@@ -3905,16 +3899,16 @@
         <v>7387408</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <v>45225.64583333334</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3923,7 +3917,7 @@
         <v>2</v>
       </c>
       <c r="I40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J40">
         <v>1.727</v>
@@ -3991,16 +3985,16 @@
         <v>7407173</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2">
         <v>45229.64583333334</v>
       </c>
       <c r="E41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -4009,7 +4003,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J41">
         <v>1.333</v>
@@ -4077,16 +4071,16 @@
         <v>7406927</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>45229.64583333334</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4095,7 +4089,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J42">
         <v>3.4</v>
@@ -4163,16 +4157,16 @@
         <v>7407670</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>45230.64583333334</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4181,7 +4175,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J43">
         <v>1.8</v>
@@ -4249,16 +4243,16 @@
         <v>7417365</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
         <v>45231.35416666666</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -4267,7 +4261,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J44">
         <v>2.55</v>
@@ -4335,16 +4329,16 @@
         <v>7417696</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
         <v>45232.54166666666</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4353,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J45">
         <v>1.909</v>
@@ -4421,16 +4415,16 @@
         <v>7423060</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
         <v>45233.35416666666</v>
       </c>
       <c r="E46" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4439,7 +4433,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J46">
         <v>4.5</v>
@@ -4507,16 +4501,16 @@
         <v>7423061</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2">
         <v>45233.45833333334</v>
       </c>
       <c r="E47" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -4525,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J47">
         <v>2.2</v>
@@ -4593,16 +4587,16 @@
         <v>7423062</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
         <v>45233.54166666666</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4611,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J48">
         <v>2.375</v>
@@ -4679,16 +4673,16 @@
         <v>7423063</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>45233.64583333334</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4697,7 +4691,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J49">
         <v>26</v>
@@ -4765,16 +4759,16 @@
         <v>7428222</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>45234.35416666666</v>
       </c>
       <c r="E50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4783,7 +4777,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J50">
         <v>2.5</v>
@@ -4851,16 +4845,16 @@
         <v>7428223</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
         <v>45234.64583333334</v>
       </c>
       <c r="E51" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F51" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4869,7 +4863,7 @@
         <v>4</v>
       </c>
       <c r="I51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J51">
         <v>1.615</v>
@@ -4937,16 +4931,16 @@
         <v>7456209</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2">
         <v>45239.54166666666</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4955,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J52">
         <v>2.4</v>
@@ -5023,16 +5017,16 @@
         <v>7452255</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
         <v>45239.64583333334</v>
       </c>
       <c r="E53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F53" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5041,7 +5035,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J53">
         <v>1.533</v>
@@ -5109,16 +5103,16 @@
         <v>7453404</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2">
         <v>45240.375</v>
       </c>
       <c r="E54" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5127,7 +5121,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J54">
         <v>3</v>
@@ -5195,16 +5189,16 @@
         <v>7453403</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>45240.375</v>
       </c>
       <c r="E55" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F55" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -5213,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J55">
         <v>2.25</v>
@@ -5281,16 +5275,16 @@
         <v>7461336</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>45241.54166666666</v>
       </c>
       <c r="E56" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -5299,7 +5293,7 @@
         <v>2</v>
       </c>
       <c r="I56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J56">
         <v>1.75</v>
@@ -5367,16 +5361,16 @@
         <v>7507822</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
         <v>45253.35416666666</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5385,7 +5379,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J57">
         <v>6</v>
@@ -5453,16 +5447,16 @@
         <v>7511489</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
         <v>45254.35416666666</v>
       </c>
       <c r="E58" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5471,7 +5465,7 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J58">
         <v>2.2</v>
@@ -5539,16 +5533,16 @@
         <v>7511490</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2">
         <v>45254.35416666666</v>
       </c>
       <c r="E59" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F59" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5557,7 +5551,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J59">
         <v>3.75</v>
@@ -5625,16 +5619,16 @@
         <v>7511491</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
         <v>45254.54166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5643,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J60">
         <v>2.6</v>
@@ -5711,16 +5705,16 @@
         <v>7511492</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
         <v>45254.64583333334</v>
       </c>
       <c r="E61" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5729,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J61">
         <v>2.3</v>
@@ -5797,16 +5791,16 @@
         <v>7516916</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
         <v>45255.35416666666</v>
       </c>
       <c r="E62" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -5815,7 +5809,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J62">
         <v>2.25</v>
@@ -5883,16 +5877,16 @@
         <v>7539067</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
         <v>45260.35416666666</v>
       </c>
       <c r="E63" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F63" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G63">
         <v>3</v>
@@ -5901,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J63">
         <v>2.4</v>
@@ -5969,16 +5963,16 @@
         <v>7539359</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2">
         <v>45261.35416666666</v>
       </c>
       <c r="E64" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F64" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -5987,7 +5981,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J64">
         <v>1.833</v>
@@ -6055,16 +6049,16 @@
         <v>7539360</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
         <v>45261.64583333334</v>
       </c>
       <c r="E65" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F65" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6073,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J65">
         <v>2.1</v>
@@ -6141,16 +6135,16 @@
         <v>7542615</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
         <v>45262.45833333334</v>
       </c>
       <c r="E66" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6159,7 +6153,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J66">
         <v>1.571</v>
@@ -6227,16 +6221,16 @@
         <v>7553998</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
         <v>45264.32291666666</v>
       </c>
       <c r="E67" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F67" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6245,7 +6239,7 @@
         <v>3</v>
       </c>
       <c r="I67" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J67">
         <v>2.25</v>
@@ -6313,16 +6307,16 @@
         <v>7554960</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
         <v>45264.64583333334</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6331,7 +6325,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J68">
         <v>2.1</v>
@@ -6399,16 +6393,16 @@
         <v>7555937</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
         <v>45265.35416666666</v>
       </c>
       <c r="E69" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6417,7 +6411,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J69">
         <v>2.1</v>
@@ -6485,16 +6479,16 @@
         <v>7555939</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
         <v>45265.35416666666</v>
       </c>
       <c r="E70" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6503,7 +6497,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J70">
         <v>6.5</v>
@@ -6571,16 +6565,16 @@
         <v>7555938</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
         <v>45265.54166666666</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6589,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -6657,16 +6651,16 @@
         <v>7565507</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2">
         <v>45267.35416666666</v>
       </c>
       <c r="E72" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G72">
         <v>3</v>
@@ -6675,7 +6669,7 @@
         <v>3</v>
       </c>
       <c r="I72" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J72">
         <v>1.8</v>
@@ -6743,16 +6737,16 @@
         <v>7565124</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
         <v>45268.35416666666</v>
       </c>
       <c r="E73" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F73" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6761,7 +6755,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J73">
         <v>1.5</v>
@@ -6829,16 +6823,16 @@
         <v>7565123</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
         <v>45268.35416666666</v>
       </c>
       <c r="E74" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F74" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6847,7 +6841,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J74">
         <v>1.727</v>
@@ -6915,16 +6909,16 @@
         <v>7567395</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
         <v>45268.64583333334</v>
       </c>
       <c r="E75" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F75" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -6933,7 +6927,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J75">
         <v>1.75</v>
@@ -7001,16 +6995,16 @@
         <v>7568912</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2">
         <v>45269.64583333334</v>
       </c>
       <c r="E76" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F76" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -7019,7 +7013,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J76">
         <v>1.533</v>
@@ -7087,16 +7081,16 @@
         <v>7586483</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2">
         <v>45274.35416666666</v>
       </c>
       <c r="E77" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7105,7 +7099,7 @@
         <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J77">
         <v>2.2</v>
@@ -7170,58 +7164,58 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7592803</v>
+        <v>7590595</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2">
         <v>45275.35416666666</v>
       </c>
       <c r="E78" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F78" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I78" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J78">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="K78">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="L78">
+        <v>2</v>
+      </c>
+      <c r="M78">
+        <v>4.5</v>
+      </c>
+      <c r="N78">
         <v>3</v>
       </c>
-      <c r="M78">
-        <v>2.3</v>
-      </c>
-      <c r="N78">
-        <v>2.875</v>
-      </c>
       <c r="O78">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="P78">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q78">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="R78">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S78">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T78">
         <v>2</v>
@@ -7236,19 +7230,19 @@
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:28">
@@ -7256,58 +7250,58 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7590595</v>
+        <v>7592803</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
         <v>45275.35416666666</v>
       </c>
       <c r="E79" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J79">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="K79">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="L79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M79">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="N79">
+        <v>2.875</v>
+      </c>
+      <c r="O79">
         <v>3</v>
       </c>
-      <c r="O79">
-        <v>1.75</v>
-      </c>
       <c r="P79">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q79">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="R79">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S79">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T79">
         <v>2</v>
@@ -7322,19 +7316,19 @@
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA79">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="80" spans="1:28">
@@ -7345,16 +7339,16 @@
         <v>7590648</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2">
         <v>45275.45833333334</v>
       </c>
       <c r="E80" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -7363,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J80">
         <v>6</v>
@@ -7431,16 +7425,16 @@
         <v>7594058</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E81" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7449,7 +7443,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J81">
         <v>3.75</v>
@@ -7517,16 +7511,16 @@
         <v>7601555</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
         <v>45279.3125</v>
       </c>
       <c r="E82" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -7535,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J82">
         <v>2.35</v>
@@ -7603,16 +7597,16 @@
         <v>7606557</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2">
         <v>45279.45833333334</v>
       </c>
       <c r="E83" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F83" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -7621,7 +7615,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J83">
         <v>2.9</v>
@@ -7689,16 +7683,16 @@
         <v>7601556</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
         <v>45279.64583333334</v>
       </c>
       <c r="E84" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7707,7 +7701,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J84">
         <v>1.5</v>
@@ -7775,16 +7769,16 @@
         <v>7608755</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2">
         <v>45280.35416666666</v>
       </c>
       <c r="E85" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F85" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -7793,7 +7787,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J85">
         <v>1.615</v>
@@ -7861,16 +7855,16 @@
         <v>7608757</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
         <v>45280.54166666666</v>
       </c>
       <c r="E86" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F86" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G86">
         <v>3</v>
@@ -7879,7 +7873,7 @@
         <v>3</v>
       </c>
       <c r="I86" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J86">
         <v>2.25</v>
@@ -7947,16 +7941,16 @@
         <v>7608756</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
         <v>45280.64583333334</v>
       </c>
       <c r="E87" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F87" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -7965,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J87">
         <v>1.444</v>
@@ -8033,25 +8027,25 @@
         <v>7611421</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
         <v>45281.35416666666</v>
       </c>
       <c r="E88" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F88" t="s">
+        <v>48</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88" t="s">
         <v>50</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="I88" t="s">
-        <v>52</v>
       </c>
       <c r="J88">
         <v>2.2</v>
@@ -8119,16 +8113,16 @@
         <v>7613564</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2">
         <v>45282.35416666666</v>
       </c>
       <c r="E89" t="s">
+        <v>32</v>
+      </c>
+      <c r="F89" t="s">
         <v>34</v>
-      </c>
-      <c r="F89" t="s">
-        <v>36</v>
       </c>
       <c r="G89">
         <v>3</v>
@@ -8137,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J89">
         <v>1.444</v>
@@ -8205,16 +8199,16 @@
         <v>7615329</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2">
         <v>45282.35416666666</v>
       </c>
       <c r="E90" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F90" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8223,7 +8217,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J90">
         <v>2.875</v>
@@ -8288,85 +8282,85 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7618726</v>
+        <v>7618724</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2">
         <v>45283.35416666666</v>
       </c>
       <c r="E91" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F91" t="s">
         <v>47</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J91">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="K91">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L91">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="M91">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="N91">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="O91">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="P91">
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="R91">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S91">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T91">
+        <v>2</v>
+      </c>
+      <c r="U91">
         <v>1.8</v>
       </c>
-      <c r="U91">
-        <v>2</v>
-      </c>
       <c r="V91">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z91">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB91">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:28">
@@ -8374,85 +8368,85 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7618724</v>
+        <v>7618726</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2">
         <v>45283.35416666666</v>
       </c>
       <c r="E92" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F92" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92" t="s">
+        <v>51</v>
+      </c>
+      <c r="J92">
+        <v>2.375</v>
+      </c>
+      <c r="K92">
+        <v>2.8</v>
+      </c>
+      <c r="L92">
         <v>3</v>
       </c>
-      <c r="H92">
-        <v>1</v>
-      </c>
-      <c r="I92" t="s">
-        <v>54</v>
-      </c>
-      <c r="J92">
-        <v>2.875</v>
-      </c>
-      <c r="K92">
-        <v>2.75</v>
-      </c>
-      <c r="L92">
-        <v>2.5</v>
-      </c>
       <c r="M92">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="N92">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="O92">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P92">
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="R92">
+        <v>2.05</v>
+      </c>
+      <c r="S92">
+        <v>1.75</v>
+      </c>
+      <c r="T92">
         <v>1.8</v>
       </c>
-      <c r="S92">
-        <v>2</v>
-      </c>
-      <c r="T92">
-        <v>2</v>
-      </c>
       <c r="U92">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V92">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -8463,16 +8457,16 @@
         <v>7618733</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
         <v>45283.45833333334</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8481,7 +8475,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J93">
         <v>3.6</v>
@@ -8549,17 +8543,17 @@
         <v>7618725</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>45283.64583333334</v>
       </c>
       <c r="E94" t="s">
+        <v>39</v>
+      </c>
+      <c r="F94" t="s">
         <v>41</v>
       </c>
-      <c r="F94" t="s">
-        <v>43</v>
-      </c>
       <c r="G94">
         <v>1</v>
       </c>
@@ -8567,7 +8561,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J94">
         <v>4.75</v>
@@ -8635,16 +8629,16 @@
         <v>7622507</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>45284.54166666666</v>
       </c>
       <c r="E95" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8653,7 +8647,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J95">
         <v>1.615</v>
@@ -8721,16 +8715,16 @@
         <v>7634592</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>45287.45833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8739,7 +8733,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J96">
         <v>1.444</v>
@@ -8807,16 +8801,16 @@
         <v>7634784</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2">
         <v>45287.54166666666</v>
       </c>
       <c r="E97" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G97">
         <v>2</v>
@@ -8825,7 +8819,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J97">
         <v>3.9</v>
@@ -8893,16 +8887,16 @@
         <v>7636069</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
         <v>45289.39583333334</v>
       </c>
       <c r="E98" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -8911,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J98">
         <v>2.1</v>
@@ -8979,16 +8973,16 @@
         <v>7636068</v>
       </c>
       <c r="C99" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2">
         <v>45289.5</v>
       </c>
       <c r="E99" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F99" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8997,7 +8991,7 @@
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J99">
         <v>2</v>
@@ -9065,16 +9059,16 @@
         <v>7636077</v>
       </c>
       <c r="C100" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2">
         <v>45290.35416666666</v>
       </c>
       <c r="E100" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9083,7 +9077,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J100">
         <v>1.666</v>
@@ -9151,16 +9145,16 @@
         <v>7636078</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2">
         <v>45290.45833333334</v>
       </c>
       <c r="E101" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9169,7 +9163,7 @@
         <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J101">
         <v>3.6</v>
@@ -9237,16 +9231,16 @@
         <v>7645263</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2">
         <v>45291.3125</v>
       </c>
       <c r="E102" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -9255,7 +9249,7 @@
         <v>2</v>
       </c>
       <c r="I102" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J102">
         <v>2.8</v>
@@ -9323,16 +9317,16 @@
         <v>7648519</v>
       </c>
       <c r="C103" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2">
         <v>45291.58333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9341,7 +9335,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J103">
         <v>3.6</v>
@@ -9409,16 +9403,16 @@
         <v>7645264</v>
       </c>
       <c r="C104" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2">
         <v>45291.58333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9427,7 +9421,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J104">
         <v>1.727</v>
@@ -9495,25 +9489,25 @@
         <v>7808685</v>
       </c>
       <c r="C105" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2">
         <v>45332.33333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F105" t="s">
+        <v>48</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105" t="s">
         <v>50</v>
-      </c>
-      <c r="G105">
-        <v>0</v>
-      </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-      <c r="I105" t="s">
-        <v>52</v>
       </c>
       <c r="J105">
         <v>2.2</v>
@@ -9581,16 +9575,16 @@
         <v>7808687</v>
       </c>
       <c r="C106" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2">
         <v>45332.4375</v>
       </c>
       <c r="E106" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F106" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9599,7 +9593,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J106">
         <v>1.909</v>
@@ -9667,16 +9661,16 @@
         <v>7808686</v>
       </c>
       <c r="C107" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2">
         <v>45332.64583333334</v>
       </c>
       <c r="E107" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F107" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G107">
         <v>4</v>
@@ -9685,7 +9679,7 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J107">
         <v>1.571</v>
@@ -9753,16 +9747,16 @@
         <v>7811882</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2">
         <v>45333.33333333334</v>
       </c>
       <c r="E108" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9771,7 +9765,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J108">
         <v>2.1</v>
@@ -9839,16 +9833,16 @@
         <v>7811883</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2">
         <v>45333.33333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F109" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9857,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J109">
         <v>4.2</v>
@@ -9925,16 +9919,16 @@
         <v>7811884</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2">
         <v>45333.54166666666</v>
       </c>
       <c r="E110" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9943,7 +9937,7 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J110">
         <v>1.8</v>
@@ -10011,16 +10005,16 @@
         <v>7816026</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2">
         <v>45334.33333333334</v>
       </c>
       <c r="E111" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F111" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10029,7 +10023,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J111">
         <v>2.3</v>
@@ -10097,16 +10091,16 @@
         <v>7816027</v>
       </c>
       <c r="C112" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2">
         <v>45334.4375</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F112" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -10115,7 +10109,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J112">
         <v>4</v>
@@ -10183,16 +10177,16 @@
         <v>7833623</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2">
         <v>45337.33333333334</v>
       </c>
       <c r="E113" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10201,7 +10195,7 @@
         <v>4</v>
       </c>
       <c r="I113" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J113">
         <v>3.75</v>
@@ -10269,16 +10263,16 @@
         <v>7833622</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2">
         <v>45337.54166666666</v>
       </c>
       <c r="E114" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10287,7 +10281,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J114">
         <v>3.4</v>
@@ -10355,16 +10349,16 @@
         <v>7838855</v>
       </c>
       <c r="C115" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2">
         <v>45338.33333333334</v>
       </c>
       <c r="E115" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -10373,7 +10367,7 @@
         <v>3</v>
       </c>
       <c r="I115" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J115">
         <v>5.5</v>
@@ -10441,16 +10435,16 @@
         <v>7851851</v>
       </c>
       <c r="C116" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2">
         <v>45341.33333333334</v>
       </c>
       <c r="E116" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10459,7 +10453,7 @@
         <v>3</v>
       </c>
       <c r="I116" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J116">
         <v>2.3</v>
@@ -10527,16 +10521,16 @@
         <v>7855608</v>
       </c>
       <c r="C117" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2">
         <v>45341.4375</v>
       </c>
       <c r="E117" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F117" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G117">
         <v>3</v>
@@ -10545,7 +10539,7 @@
         <v>5</v>
       </c>
       <c r="I117" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J117">
         <v>2.7</v>
@@ -10613,16 +10607,16 @@
         <v>7855780</v>
       </c>
       <c r="C118" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2">
         <v>45341.54166666666</v>
       </c>
       <c r="E118" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -10631,7 +10625,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J118">
         <v>4.333</v>
@@ -10699,16 +10693,16 @@
         <v>7856524</v>
       </c>
       <c r="C119" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D119" s="2">
         <v>45342.33333333334</v>
       </c>
       <c r="E119" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10717,7 +10711,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J119">
         <v>1.8</v>
@@ -10785,16 +10779,16 @@
         <v>7856527</v>
       </c>
       <c r="C120" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2">
         <v>45342.60416666666</v>
       </c>
       <c r="E120" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10803,7 +10797,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J120">
         <v>2.625</v>
@@ -10871,16 +10865,16 @@
         <v>7856525</v>
       </c>
       <c r="C121" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2">
         <v>45342.64583333334</v>
       </c>
       <c r="E121" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F121" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -10889,7 +10883,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J121">
         <v>3.6</v>
@@ -10957,16 +10951,16 @@
         <v>7856523</v>
       </c>
       <c r="C122" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2">
         <v>45343.33333333334</v>
       </c>
       <c r="E122" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F122" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -10975,7 +10969,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J122">
         <v>1.833</v>
@@ -11043,16 +11037,16 @@
         <v>7861093</v>
       </c>
       <c r="C123" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2">
         <v>45343.4375</v>
       </c>
       <c r="E123" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F123" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11061,7 +11055,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J123">
         <v>2.8</v>
@@ -11129,16 +11123,16 @@
         <v>7864433</v>
       </c>
       <c r="C124" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2">
         <v>45344.33333333334</v>
       </c>
       <c r="E124" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11147,7 +11141,7 @@
         <v>2</v>
       </c>
       <c r="I124" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J124">
         <v>3.6</v>
@@ -11215,16 +11209,16 @@
         <v>7864431</v>
       </c>
       <c r="C125" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D125" s="2">
         <v>45344.4375</v>
       </c>
       <c r="E125" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11233,7 +11227,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J125">
         <v>2.2</v>
@@ -11301,16 +11295,16 @@
         <v>7870836</v>
       </c>
       <c r="C126" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D126" s="2">
         <v>45345.33333333334</v>
       </c>
       <c r="E126" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F126" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11319,7 +11313,7 @@
         <v>2</v>
       </c>
       <c r="I126" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J126">
         <v>2.6</v>
@@ -11387,17 +11381,17 @@
         <v>7873977</v>
       </c>
       <c r="C127" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D127" s="2">
         <v>45345.4375</v>
       </c>
       <c r="E127" t="s">
+        <v>45</v>
+      </c>
+      <c r="F127" t="s">
         <v>47</v>
       </c>
-      <c r="F127" t="s">
-        <v>49</v>
-      </c>
       <c r="G127">
         <v>2</v>
       </c>
@@ -11405,7 +11399,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J127">
         <v>1.8</v>
@@ -11473,16 +11467,16 @@
         <v>7870837</v>
       </c>
       <c r="C128" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D128" s="2">
         <v>45345.54166666666</v>
       </c>
       <c r="E128" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F128" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11491,7 +11485,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J128">
         <v>1.4</v>
@@ -11559,16 +11553,16 @@
         <v>7875109</v>
       </c>
       <c r="C129" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2">
         <v>45346.33333333334</v>
       </c>
       <c r="E129" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F129" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11577,7 +11571,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J129">
         <v>1.666</v>
@@ -11645,17 +11639,17 @@
         <v>7875108</v>
       </c>
       <c r="C130" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2">
         <v>45346.4375</v>
       </c>
       <c r="E130" t="s">
+        <v>29</v>
+      </c>
+      <c r="F130" t="s">
         <v>31</v>
       </c>
-      <c r="F130" t="s">
-        <v>33</v>
-      </c>
       <c r="G130">
         <v>1</v>
       </c>
@@ -11663,7 +11657,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J130">
         <v>1.615</v>
@@ -11731,16 +11725,16 @@
         <v>7864432</v>
       </c>
       <c r="C131" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2">
         <v>45346.54166666666</v>
       </c>
       <c r="E131" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F131" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11749,7 +11743,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J131">
         <v>1.666</v>
@@ -11817,16 +11811,16 @@
         <v>7893609</v>
       </c>
       <c r="C132" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2">
         <v>45351.35416666666</v>
       </c>
       <c r="E132" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -11835,7 +11829,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J132">
         <v>3.1</v>
@@ -11903,16 +11897,16 @@
         <v>7893608</v>
       </c>
       <c r="C133" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2">
         <v>45351.45833333334</v>
       </c>
       <c r="E133" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F133" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G133">
         <v>4</v>
@@ -11921,7 +11915,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J133">
         <v>2</v>
@@ -11989,16 +11983,16 @@
         <v>7893607</v>
       </c>
       <c r="C134" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2">
         <v>45351.5625</v>
       </c>
       <c r="E134" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -12007,7 +12001,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -12075,16 +12069,16 @@
         <v>7897090</v>
       </c>
       <c r="C135" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2">
         <v>45352.35416666666</v>
       </c>
       <c r="E135" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F135" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12093,7 +12087,7 @@
         <v>3</v>
       </c>
       <c r="I135" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J135">
         <v>2.1</v>
@@ -12161,16 +12155,16 @@
         <v>7901411</v>
       </c>
       <c r="C136" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2">
         <v>45352.35416666666</v>
       </c>
       <c r="E136" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12179,7 +12173,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J136">
         <v>2.1</v>
@@ -12247,16 +12241,16 @@
         <v>7897091</v>
       </c>
       <c r="C137" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D137" s="2">
         <v>45352.45833333334</v>
       </c>
       <c r="E137" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F137" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -12265,7 +12259,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J137">
         <v>1.333</v>
@@ -12333,16 +12327,16 @@
         <v>7897092</v>
       </c>
       <c r="C138" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D138" s="2">
         <v>45352.625</v>
       </c>
       <c r="E138" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G138">
         <v>3</v>
@@ -12351,7 +12345,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J138">
         <v>1.5</v>
@@ -12419,16 +12413,16 @@
         <v>7913240</v>
       </c>
       <c r="C139" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D139" s="2">
         <v>45355.35416666666</v>
       </c>
       <c r="E139" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F139" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12437,7 +12431,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J139">
         <v>2.5</v>
@@ -12505,16 +12499,16 @@
         <v>7913929</v>
       </c>
       <c r="C140" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D140" s="2">
         <v>45355.45833333334</v>
       </c>
       <c r="E140" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12523,7 +12517,7 @@
         <v>4</v>
       </c>
       <c r="I140" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J140">
         <v>4.75</v>
@@ -12591,16 +12585,16 @@
         <v>7914041</v>
       </c>
       <c r="C141" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D141" s="2">
         <v>45355.5625</v>
       </c>
       <c r="E141" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12609,7 +12603,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J141">
         <v>3.3</v>
@@ -12677,16 +12671,16 @@
         <v>7915075</v>
       </c>
       <c r="C142" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D142" s="2">
         <v>45356.35416666666</v>
       </c>
       <c r="E142" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F142" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12695,7 +12689,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J142">
         <v>2.5</v>
@@ -12763,16 +12757,16 @@
         <v>7919126</v>
       </c>
       <c r="C143" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2">
         <v>45357.5625</v>
       </c>
       <c r="E143" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12781,7 +12775,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J143">
         <v>2.25</v>
@@ -12849,16 +12843,16 @@
         <v>7927234</v>
       </c>
       <c r="C144" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D144" s="2">
         <v>45359.35416666666</v>
       </c>
       <c r="E144" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12867,7 +12861,7 @@
         <v>4</v>
       </c>
       <c r="I144" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J144">
         <v>5.75</v>
@@ -12935,16 +12929,16 @@
         <v>7927236</v>
       </c>
       <c r="C145" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D145" s="2">
         <v>45359.45833333334</v>
       </c>
       <c r="E145" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F145" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12953,7 +12947,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J145">
         <v>2.4</v>
@@ -13021,16 +13015,16 @@
         <v>7927235</v>
       </c>
       <c r="C146" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D146" s="2">
         <v>45359.60416666666</v>
       </c>
       <c r="E146" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F146" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G146">
         <v>3</v>
@@ -13039,7 +13033,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J146">
         <v>1.909</v>
@@ -13107,16 +13101,16 @@
         <v>7935060</v>
       </c>
       <c r="C147" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D147" s="2">
         <v>45360.35416666666</v>
       </c>
       <c r="E147" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F147" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13125,7 +13119,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J147">
         <v>1.333</v>
@@ -13193,25 +13187,25 @@
         <v>7935122</v>
       </c>
       <c r="C148" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D148" s="2">
         <v>45360.45833333334</v>
       </c>
       <c r="E148" t="s">
+        <v>48</v>
+      </c>
+      <c r="F148" t="s">
+        <v>34</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148" t="s">
         <v>50</v>
-      </c>
-      <c r="F148" t="s">
-        <v>36</v>
-      </c>
-      <c r="G148">
-        <v>0</v>
-      </c>
-      <c r="H148">
-        <v>0</v>
-      </c>
-      <c r="I148" t="s">
-        <v>52</v>
       </c>
       <c r="J148">
         <v>1.285</v>
@@ -13279,16 +13273,16 @@
         <v>7935121</v>
       </c>
       <c r="C149" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D149" s="2">
         <v>45360.5625</v>
       </c>
       <c r="E149" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F149" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13297,7 +13291,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J149">
         <v>2.2</v>
@@ -13365,16 +13359,16 @@
         <v>8013111</v>
       </c>
       <c r="C150" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D150" s="2">
         <v>45378.64583333334</v>
       </c>
       <c r="E150" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F150" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -13383,7 +13377,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J150">
         <v>1.615</v>
@@ -13451,16 +13445,16 @@
         <v>8031833</v>
       </c>
       <c r="C151" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D151" s="2">
         <v>45382.64583333334</v>
       </c>
       <c r="E151" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F151" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13469,7 +13463,7 @@
         <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J151">
         <v>4.1</v>
@@ -13537,16 +13531,16 @@
         <v>8031832</v>
       </c>
       <c r="C152" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D152" s="2">
         <v>45382.64583333334</v>
       </c>
       <c r="E152" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F152" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -13555,7 +13549,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J152">
         <v>1.909</v>
@@ -13623,16 +13617,16 @@
         <v>8030838</v>
       </c>
       <c r="C153" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D153" s="2">
         <v>45383.64583333334</v>
       </c>
       <c r="E153" t="s">
+        <v>37</v>
+      </c>
+      <c r="F153" t="s">
         <v>39</v>
-      </c>
-      <c r="F153" t="s">
-        <v>41</v>
       </c>
       <c r="G153">
         <v>3</v>
@@ -13641,7 +13635,7 @@
         <v>2</v>
       </c>
       <c r="I153" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J153">
         <v>2.75</v>
@@ -13709,17 +13703,17 @@
         <v>8038699</v>
       </c>
       <c r="C154" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D154" s="2">
         <v>45384.375</v>
       </c>
       <c r="E154" t="s">
+        <v>31</v>
+      </c>
+      <c r="F154" t="s">
         <v>33</v>
       </c>
-      <c r="F154" t="s">
-        <v>35</v>
-      </c>
       <c r="G154">
         <v>1</v>
       </c>
@@ -13727,7 +13721,7 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J154">
         <v>3.2</v>
@@ -13795,16 +13789,16 @@
         <v>8048602</v>
       </c>
       <c r="C155" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D155" s="2">
         <v>45386.375</v>
       </c>
       <c r="E155" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F155" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G155">
         <v>3</v>
@@ -13813,7 +13807,7 @@
         <v>2</v>
       </c>
       <c r="I155" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J155">
         <v>1.6</v>
@@ -13881,16 +13875,16 @@
         <v>8048596</v>
       </c>
       <c r="C156" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D156" s="2">
         <v>45386.64583333334</v>
       </c>
       <c r="E156" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F156" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13899,7 +13893,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J156">
         <v>2.1</v>
@@ -13967,16 +13961,16 @@
         <v>8052760</v>
       </c>
       <c r="C157" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D157" s="2">
         <v>45387.64583333334</v>
       </c>
       <c r="E157" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F157" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13985,7 +13979,7 @@
         <v>2</v>
       </c>
       <c r="I157" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J157">
         <v>4.5</v>
@@ -14053,16 +14047,16 @@
         <v>8052761</v>
       </c>
       <c r="C158" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D158" s="2">
         <v>45388.375</v>
       </c>
       <c r="E158" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F158" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -14071,7 +14065,7 @@
         <v>2</v>
       </c>
       <c r="I158" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J158">
         <v>1.833</v>
@@ -14139,16 +14133,16 @@
         <v>8056530</v>
       </c>
       <c r="C159" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D159" s="2">
         <v>45388.64583333334</v>
       </c>
       <c r="E159" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F159" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -14157,7 +14151,7 @@
         <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J159">
         <v>2</v>
@@ -14225,16 +14219,16 @@
         <v>8088066</v>
       </c>
       <c r="C160" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D160" s="2">
         <v>45396.47916666666</v>
       </c>
       <c r="E160" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F160" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G160">
         <v>2</v>
@@ -14243,7 +14237,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J160">
         <v>1.333</v>
@@ -14311,16 +14305,16 @@
         <v>8099724</v>
       </c>
       <c r="C161" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D161" s="2">
         <v>45397.375</v>
       </c>
       <c r="E161" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F161" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14329,7 +14323,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J161">
         <v>1.6</v>
@@ -14397,16 +14391,16 @@
         <v>8100051</v>
       </c>
       <c r="C162" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D162" s="2">
         <v>45397.375</v>
       </c>
       <c r="E162" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F162" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -14415,7 +14409,7 @@
         <v>2</v>
       </c>
       <c r="I162" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J162">
         <v>2.7</v>
@@ -14483,16 +14477,16 @@
         <v>8100052</v>
       </c>
       <c r="C163" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D163" s="2">
         <v>45397.47916666666</v>
       </c>
       <c r="E163" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F163" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -14501,7 +14495,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J163">
         <v>1.909</v>
@@ -14569,16 +14563,16 @@
         <v>8088065</v>
       </c>
       <c r="C164" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D164" s="2">
         <v>45397.66666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F164" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14587,7 +14581,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J164">
         <v>1.6</v>
@@ -14655,16 +14649,16 @@
         <v>8122431</v>
       </c>
       <c r="C165" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D165" s="2">
         <v>45403.40625</v>
       </c>
       <c r="E165" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F165" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14673,7 +14667,7 @@
         <v>1</v>
       </c>
       <c r="I165" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J165">
         <v>2.15</v>
@@ -14741,16 +14735,16 @@
         <v>8122430</v>
       </c>
       <c r="C166" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D166" s="2">
         <v>45403.51041666666</v>
       </c>
       <c r="E166" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F166" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14759,7 +14753,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J166">
         <v>2.15</v>
@@ -14827,16 +14821,16 @@
         <v>8130390</v>
       </c>
       <c r="C167" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D167" s="2">
         <v>45404.40625</v>
       </c>
       <c r="E167" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14845,7 +14839,7 @@
         <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J167">
         <v>2.15</v>
@@ -14913,16 +14907,16 @@
         <v>8130397</v>
       </c>
       <c r="C168" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D168" s="2">
         <v>45404.51041666666</v>
       </c>
       <c r="E168" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G168">
         <v>2</v>
@@ -14931,7 +14925,7 @@
         <v>2</v>
       </c>
       <c r="I168" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J168">
         <v>1.666</v>
@@ -14999,16 +14993,16 @@
         <v>8122429</v>
       </c>
       <c r="C169" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D169" s="2">
         <v>45405.40625</v>
       </c>
       <c r="E169" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F169" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -15017,7 +15011,7 @@
         <v>1</v>
       </c>
       <c r="I169" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J169">
         <v>2.2</v>
@@ -15085,16 +15079,16 @@
         <v>8131278</v>
       </c>
       <c r="C170" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D170" s="2">
         <v>45405.51041666666</v>
       </c>
       <c r="E170" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F170" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G170">
         <v>3</v>
@@ -15103,7 +15097,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J170">
         <v>1.615</v>
@@ -15171,17 +15165,17 @@
         <v>8131279</v>
       </c>
       <c r="C171" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D171" s="2">
         <v>45405.60416666666</v>
       </c>
       <c r="E171" t="s">
+        <v>38</v>
+      </c>
+      <c r="F171" t="s">
         <v>40</v>
       </c>
-      <c r="F171" t="s">
-        <v>42</v>
-      </c>
       <c r="G171">
         <v>1</v>
       </c>
@@ -15189,7 +15183,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J171">
         <v>1.5</v>
@@ -15257,16 +15251,16 @@
         <v>8140588</v>
       </c>
       <c r="C172" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D172" s="2">
